--- a/出库统计.xlsx
+++ b/出库统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="351">
   <si>
     <t xml:space="preserve"> 发货单号：001</t>
   </si>
@@ -892,6 +892,183 @@
   </si>
   <si>
     <t>条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         发货单号：004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         发货日期：2021.01.24</t>
+  </si>
+  <si>
+    <t>60号</t>
+  </si>
+  <si>
+    <t>PL10*250*550</t>
+  </si>
+  <si>
+    <t>66号</t>
+  </si>
+  <si>
+    <t>PL12*120*120</t>
+  </si>
+  <si>
+    <t>67号</t>
+  </si>
+  <si>
+    <t>PL12*210*600</t>
+  </si>
+  <si>
+    <t>GZ1C</t>
+  </si>
+  <si>
+    <t>GZ1A</t>
+  </si>
+  <si>
+    <t>GZ1B</t>
+  </si>
+  <si>
+    <t>GZ1D</t>
+  </si>
+  <si>
+    <t>GZ1E</t>
+  </si>
+  <si>
+    <t>GZ5C</t>
+  </si>
+  <si>
+    <t>GZ5F</t>
+  </si>
+  <si>
+    <t>木料</t>
+  </si>
+  <si>
+    <t>型钢</t>
+  </si>
+  <si>
+    <t>合 计</t>
+  </si>
+  <si>
+    <t>司机电话:17879888789</t>
+  </si>
+  <si>
+    <t>车 牌 号：浙G21705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         发货单号：005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         发货日期：2021.01.26</t>
+  </si>
+  <si>
+    <t>吊车梁</t>
+  </si>
+  <si>
+    <t>DCL1</t>
+  </si>
+  <si>
+    <t>BH1180*360*250*10*16*10</t>
+  </si>
+  <si>
+    <t>61号</t>
+  </si>
+  <si>
+    <t>PL10*250*380</t>
+  </si>
+  <si>
+    <t>62号</t>
+  </si>
+  <si>
+    <t>PL12*200*250</t>
+  </si>
+  <si>
+    <t>63号</t>
+  </si>
+  <si>
+    <t>PL12*80*310</t>
+  </si>
+  <si>
+    <t>64号</t>
+  </si>
+  <si>
+    <t>PL12*80*488</t>
+  </si>
+  <si>
+    <t>68号</t>
+  </si>
+  <si>
+    <t>PL12*210*650</t>
+  </si>
+  <si>
+    <t>45号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      发货单号：006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      发货日期：2021.01.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    发  货 人：戴清庭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    发货人电话:17859324000</t>
+  </si>
+  <si>
+    <t>抗风柱</t>
+  </si>
+  <si>
+    <t>KFZ1</t>
+  </si>
+  <si>
+    <t>BH630*200*8*12</t>
+  </si>
+  <si>
+    <t>GZ3D</t>
+  </si>
+  <si>
+    <t>GZ3C</t>
+  </si>
+  <si>
+    <t>GZ3B</t>
+  </si>
+  <si>
+    <t>GZ5B</t>
+  </si>
+  <si>
+    <t>GZ5A</t>
+  </si>
+  <si>
+    <t>GZ3E</t>
+  </si>
+  <si>
+    <t>GZ5</t>
+  </si>
+  <si>
+    <t>水平支撑</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>L90*90*6</t>
+  </si>
+  <si>
+    <t>SC3</t>
+  </si>
+  <si>
+    <t>DCL2</t>
+  </si>
+  <si>
+    <t>DCL1A</t>
+  </si>
+  <si>
+    <t>系杆</t>
+  </si>
+  <si>
+    <t>XG</t>
+  </si>
+  <si>
+    <t>Φ140*4</t>
   </si>
 </sst>
 </file>
@@ -953,17 +1130,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -974,8 +1151,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,106 +1225,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,15 +1243,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,13 +1304,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,19 +1388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,49 +1412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,73 +1442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,8 +1470,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1497,6 +1674,17 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1536,34 +1724,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1583,17 +1753,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1607,12 +1771,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1640,10 +1828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1652,140 +1840,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1870,23 +2058,92 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1900,7 +2157,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,37 +2169,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,9 +2194,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2363,527 +2599,527 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:9">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="45"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:9">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:9">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:9">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="45"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="38">
-        <v>1</v>
-      </c>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="61">
+        <v>1</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="28">
-        <v>1</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="46"/>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:9">
-      <c r="A10" s="38">
+      <c r="A10" s="61">
         <v>2</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="28">
-        <v>1</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="46"/>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:9">
-      <c r="A11" s="38">
+      <c r="A11" s="61">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="28">
-        <v>1</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="46"/>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:9">
-      <c r="A12" s="38">
+      <c r="A12" s="61">
         <v>4</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="19">
         <v>24</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="46"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:9">
-      <c r="A13" s="38">
+      <c r="A13" s="61">
         <v>5</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="39">
-        <v>1</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="46"/>
+      <c r="F13" s="62">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:9">
-      <c r="A14" s="38">
+      <c r="A14" s="61">
         <v>6</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="46"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:9">
-      <c r="A15" s="38">
+      <c r="A15" s="61">
         <v>7</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="46"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:9">
-      <c r="A16" s="38">
+      <c r="A16" s="61">
         <v>8</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:9">
-      <c r="A17" s="38">
+      <c r="A17" s="61">
         <v>9</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:9">
-      <c r="A18" s="38">
+      <c r="A18" s="61">
         <v>10</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="46"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:9">
-      <c r="A19" s="38">
+      <c r="A19" s="61">
         <v>11</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="46"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:9">
-      <c r="A20" s="38">
+      <c r="A20" s="61">
         <v>12</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="46"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="66"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:9">
-      <c r="A21" s="38">
+      <c r="A21" s="61">
         <v>13</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="46"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:9">
-      <c r="A22" s="38">
+      <c r="A22" s="61">
         <v>14</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="46"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="38">
+      <c r="A23" s="61">
         <v>15</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="46"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="38">
+      <c r="A24" s="61">
         <v>16</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="46"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="38">
+      <c r="A25" s="61">
         <v>17</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="46"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="38">
+      <c r="A26" s="61">
         <v>18</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="46"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="38">
+      <c r="A27" s="61">
         <v>19</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="46"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="38">
+      <c r="A28" s="61">
         <v>20</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="46"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="38">
+      <c r="A29" s="61">
         <v>21</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="46"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="66"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="38">
+      <c r="A30" s="61">
         <v>22</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="46"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="66"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="38">
+      <c r="A31" s="61">
         <v>23</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="46"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="66"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:9">
-      <c r="A32" s="38">
+      <c r="A32" s="61">
         <v>24</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="46"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="66"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:9">
-      <c r="A33" s="38">
+      <c r="A33" s="61">
         <v>25</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="46"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="66"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:9">
-      <c r="A34" s="38">
+      <c r="A34" s="61">
         <v>26</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="46"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="66"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:9">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34" t="s">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="45"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:9">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="45"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:9">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="45"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:9">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:9">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:9">
       <c r="A40" s="1"/>
@@ -2896,7 +3132,7 @@
         <v>38</v>
       </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="43"/>
+      <c r="I40" s="66"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:9">
       <c r="A41" s="1"/>
@@ -2909,7 +3145,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="43"/>
+      <c r="I41" s="66"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:9">
       <c r="A42" s="4" t="s">
@@ -2922,7 +3158,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="43"/>
+      <c r="I42" s="66"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:9">
       <c r="A43" s="5" t="s">
@@ -2935,7 +3171,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="43"/>
+      <c r="I43" s="66"/>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:9">
       <c r="A44" s="3" t="s">
@@ -2948,7 +3184,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="43"/>
+      <c r="I44" s="66"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:9">
       <c r="A45" s="3" t="s">
@@ -2963,7 +3199,7 @@
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="43"/>
+      <c r="I45" s="66"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:9">
       <c r="A46" s="3" t="s">
@@ -2978,7 +3214,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="43"/>
+      <c r="I46" s="66"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
@@ -3005,16 +3241,16 @@
       <c r="H47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="43"/>
+      <c r="I47" s="66"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:9">
-      <c r="A48" s="44">
-        <v>1</v>
-      </c>
-      <c r="B48" s="39" t="s">
+      <c r="A48" s="67">
+        <v>1</v>
+      </c>
+      <c r="B48" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -3028,14 +3264,14 @@
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="20"/>
-      <c r="I48" s="43"/>
+      <c r="I48" s="66"/>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:9">
-      <c r="A49" s="44">
+      <c r="A49" s="67">
         <v>2</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="28" t="s">
+      <c r="B49" s="63"/>
+      <c r="C49" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -3049,14 +3285,14 @@
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="43"/>
+      <c r="I49" s="66"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:9">
-      <c r="A50" s="44">
+      <c r="A50" s="67">
         <v>3</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="28" t="s">
+      <c r="B50" s="63"/>
+      <c r="C50" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="19" t="s">
@@ -3070,14 +3306,14 @@
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="20"/>
-      <c r="I50" s="43"/>
+      <c r="I50" s="66"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:9">
-      <c r="A51" s="44">
+      <c r="A51" s="67">
         <v>4</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="28" t="s">
+      <c r="B51" s="63"/>
+      <c r="C51" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D51" s="19" t="s">
@@ -3089,16 +3325,16 @@
       <c r="F51" s="19">
         <v>1</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="20"/>
-      <c r="I51" s="43"/>
+      <c r="I51" s="66"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:9">
-      <c r="A52" s="44">
+      <c r="A52" s="67">
         <v>5</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="28" t="s">
+      <c r="B52" s="63"/>
+      <c r="C52" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -3110,16 +3346,16 @@
       <c r="F52" s="19">
         <v>1</v>
       </c>
-      <c r="G52" s="28"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="20"/>
-      <c r="I52" s="43"/>
+      <c r="I52" s="66"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:9">
-      <c r="A53" s="44">
+      <c r="A53" s="67">
         <v>6</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="28" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -3133,10 +3369,10 @@
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="20"/>
-      <c r="I53" s="43"/>
+      <c r="I53" s="66"/>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:9">
-      <c r="A54" s="44">
+      <c r="A54" s="67">
         <v>7</v>
       </c>
       <c r="B54" s="19" t="s">
@@ -3156,10 +3392,10 @@
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="20"/>
-      <c r="I54" s="43"/>
+      <c r="I54" s="66"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:9">
-      <c r="A55" s="44">
+      <c r="A55" s="67">
         <v>8</v>
       </c>
       <c r="B55" s="19"/>
@@ -3169,10 +3405,10 @@
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="20"/>
-      <c r="I55" s="43"/>
+      <c r="I55" s="66"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:9">
-      <c r="A56" s="44">
+      <c r="A56" s="67">
         <v>9</v>
       </c>
       <c r="B56" s="19"/>
@@ -3182,49 +3418,49 @@
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
       <c r="H56" s="20"/>
-      <c r="I56" s="43"/>
+      <c r="I56" s="66"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:9">
-      <c r="A57" s="44">
+      <c r="A57" s="67">
         <v>10</v>
       </c>
-      <c r="B57" s="28"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="20"/>
-      <c r="I57" s="43"/>
+      <c r="I57" s="66"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:9">
-      <c r="A58" s="44">
+      <c r="A58" s="67">
         <v>11</v>
       </c>
-      <c r="B58" s="28"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="43"/>
+      <c r="I58" s="66"/>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:9">
-      <c r="A59" s="44">
+      <c r="A59" s="67">
         <v>12</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="20"/>
-      <c r="I59" s="43"/>
+      <c r="I59" s="66"/>
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:9">
-      <c r="A60" s="44">
+      <c r="A60" s="67">
         <v>13</v>
       </c>
       <c r="B60" s="19"/>
@@ -3234,10 +3470,10 @@
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
       <c r="H60" s="20"/>
-      <c r="I60" s="43"/>
+      <c r="I60" s="66"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:9">
-      <c r="A61" s="44">
+      <c r="A61" s="67">
         <v>14</v>
       </c>
       <c r="B61" s="19"/>
@@ -3247,10 +3483,10 @@
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="20"/>
-      <c r="I61" s="43"/>
+      <c r="I61" s="66"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:9">
-      <c r="A62" s="44">
+      <c r="A62" s="67">
         <v>15</v>
       </c>
       <c r="B62" s="19"/>
@@ -3260,10 +3496,10 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="20"/>
-      <c r="I62" s="43"/>
+      <c r="I62" s="66"/>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:9">
-      <c r="A63" s="44">
+      <c r="A63" s="67">
         <v>16</v>
       </c>
       <c r="B63" s="19"/>
@@ -3273,75 +3509,75 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="20"/>
-      <c r="I63" s="43"/>
+      <c r="I63" s="66"/>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:9">
-      <c r="A64" s="44">
+      <c r="A64" s="67">
         <v>17</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="42"/>
+      <c r="D64" s="65"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="20"/>
-      <c r="I64" s="43"/>
+      <c r="I64" s="66"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:9">
-      <c r="A65" s="44">
+      <c r="A65" s="67">
         <v>18</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
-      <c r="D65" s="42"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="20"/>
-      <c r="I65" s="43"/>
+      <c r="I65" s="66"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:9">
-      <c r="A66" s="44">
+      <c r="A66" s="67">
         <v>19</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="42"/>
+      <c r="D66" s="65"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="20"/>
-      <c r="I66" s="43"/>
+      <c r="I66" s="66"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:9">
-      <c r="A67" s="44">
+      <c r="A67" s="67">
         <v>20</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
-      <c r="D67" s="42"/>
+      <c r="D67" s="65"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="20"/>
-      <c r="I67" s="43"/>
+      <c r="I67" s="66"/>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:9">
-      <c r="A68" s="44">
+      <c r="A68" s="67">
         <v>21</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="42"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="20"/>
-      <c r="I68" s="43"/>
+      <c r="I68" s="66"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:9">
-      <c r="A69" s="44">
+      <c r="A69" s="67">
         <v>22</v>
       </c>
       <c r="B69" s="19"/>
@@ -3351,10 +3587,10 @@
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="20"/>
-      <c r="I69" s="43"/>
+      <c r="I69" s="66"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:9">
-      <c r="A70" s="44">
+      <c r="A70" s="67">
         <v>23</v>
       </c>
       <c r="B70" s="19"/>
@@ -3364,10 +3600,10 @@
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
       <c r="H70" s="20"/>
-      <c r="I70" s="43"/>
+      <c r="I70" s="66"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:9">
-      <c r="A71" s="44">
+      <c r="A71" s="67">
         <v>24</v>
       </c>
       <c r="B71" s="19"/>
@@ -3377,10 +3613,10 @@
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="20"/>
-      <c r="I71" s="43"/>
+      <c r="I71" s="66"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:9">
-      <c r="A72" s="44">
+      <c r="A72" s="67">
         <v>25</v>
       </c>
       <c r="B72" s="19"/>
@@ -3390,10 +3626,10 @@
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="20"/>
-      <c r="I72" s="43"/>
+      <c r="I72" s="66"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:9">
-      <c r="A73" s="44">
+      <c r="A73" s="67">
         <v>26</v>
       </c>
       <c r="B73" s="19"/>
@@ -3403,7 +3639,7 @@
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="20"/>
-      <c r="I73" s="43"/>
+      <c r="I73" s="66"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:9">
       <c r="A74" s="3" t="s">
@@ -3418,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="H74" s="3"/>
-      <c r="I74" s="43"/>
+      <c r="I74" s="66"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:9">
       <c r="A75" s="3" t="s">
@@ -3433,7 +3669,7 @@
         <v>36</v>
       </c>
       <c r="H75" s="3"/>
-      <c r="I75" s="43"/>
+      <c r="I75" s="66"/>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:9">
       <c r="A76" s="2" t="s">
@@ -3446,18 +3682,18 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="43"/>
+      <c r="I76" s="66"/>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:9">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:9">
       <c r="A78" s="1"/>
@@ -3470,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="H78" s="2"/>
-      <c r="I78" s="43"/>
+      <c r="I78" s="66"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:9">
       <c r="A79" s="1"/>
@@ -3483,7 +3719,7 @@
         <v>51</v>
       </c>
       <c r="H79" s="3"/>
-      <c r="I79" s="43"/>
+      <c r="I79" s="66"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:9">
       <c r="A80" s="4" t="s">
@@ -3496,7 +3732,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="43"/>
+      <c r="I80" s="66"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:9">
       <c r="A81" s="5" t="s">
@@ -3509,7 +3745,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="43"/>
+      <c r="I81" s="66"/>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:9">
       <c r="A82" s="3" t="s">
@@ -3522,7 +3758,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="43"/>
+      <c r="I82" s="66"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:9">
       <c r="A83" s="3" t="s">
@@ -3537,7 +3773,7 @@
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="43"/>
+      <c r="I83" s="66"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:9">
       <c r="A84" s="3" t="s">
@@ -3552,7 +3788,7 @@
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="43"/>
+      <c r="I84" s="66"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:9">
       <c r="A85" s="6" t="s">
@@ -3579,16 +3815,16 @@
       <c r="H85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I85" s="43"/>
+      <c r="I85" s="66"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:9">
-      <c r="A86" s="44">
-        <v>1</v>
-      </c>
-      <c r="B86" s="39" t="s">
+      <c r="A86" s="67">
+        <v>1</v>
+      </c>
+      <c r="B86" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D86" s="19" t="s">
@@ -3602,14 +3838,14 @@
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="43"/>
+      <c r="I86" s="66"/>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:9">
-      <c r="A87" s="44">
+      <c r="A87" s="67">
         <v>2</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="28" t="s">
+      <c r="B87" s="63"/>
+      <c r="C87" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D87" s="19" t="s">
@@ -3623,14 +3859,14 @@
       </c>
       <c r="G87" s="19"/>
       <c r="H87" s="20"/>
-      <c r="I87" s="43"/>
+      <c r="I87" s="66"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:9">
-      <c r="A88" s="44">
+      <c r="A88" s="67">
         <v>3</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="28" t="s">
+      <c r="B88" s="63"/>
+      <c r="C88" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D88" s="19" t="s">
@@ -3644,14 +3880,14 @@
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="20"/>
-      <c r="I88" s="43"/>
+      <c r="I88" s="66"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:9">
-      <c r="A89" s="44">
+      <c r="A89" s="67">
         <v>4</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="28" t="s">
+      <c r="B89" s="63"/>
+      <c r="C89" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="19" t="s">
@@ -3663,16 +3899,16 @@
       <c r="F89" s="19">
         <v>1</v>
       </c>
-      <c r="G89" s="28"/>
+      <c r="G89" s="19"/>
       <c r="H89" s="20"/>
-      <c r="I89" s="43"/>
+      <c r="I89" s="66"/>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:9">
-      <c r="A90" s="44">
+      <c r="A90" s="67">
         <v>5</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="28" t="s">
+      <c r="B90" s="63"/>
+      <c r="C90" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D90" s="19" t="s">
@@ -3684,16 +3920,16 @@
       <c r="F90" s="19">
         <v>1</v>
       </c>
-      <c r="G90" s="28"/>
+      <c r="G90" s="19"/>
       <c r="H90" s="20"/>
-      <c r="I90" s="43"/>
+      <c r="I90" s="66"/>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:9">
-      <c r="A91" s="44">
+      <c r="A91" s="67">
         <v>6</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="28" t="s">
+      <c r="B91" s="63"/>
+      <c r="C91" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D91" s="19" t="s">
@@ -3707,14 +3943,14 @@
       </c>
       <c r="G91" s="19"/>
       <c r="H91" s="20"/>
-      <c r="I91" s="43"/>
+      <c r="I91" s="66"/>
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:9">
-      <c r="A92" s="44">
+      <c r="A92" s="67">
         <v>7</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="28" t="s">
+      <c r="B92" s="63"/>
+      <c r="C92" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D92" s="19" t="s">
@@ -3728,14 +3964,14 @@
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="20"/>
-      <c r="I92" s="43"/>
+      <c r="I92" s="66"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:9">
-      <c r="A93" s="44">
+      <c r="A93" s="67">
         <v>8</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="28" t="s">
+      <c r="B93" s="63"/>
+      <c r="C93" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D93" s="19" t="s">
@@ -3749,14 +3985,14 @@
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="20"/>
-      <c r="I93" s="43"/>
+      <c r="I93" s="66"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:9">
-      <c r="A94" s="44">
+      <c r="A94" s="67">
         <v>9</v>
       </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="28" t="s">
+      <c r="B94" s="63"/>
+      <c r="C94" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D94" s="19" t="s">
@@ -3770,14 +4006,14 @@
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="20"/>
-      <c r="I94" s="43"/>
+      <c r="I94" s="66"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:9">
-      <c r="A95" s="44">
+      <c r="A95" s="67">
         <v>10</v>
       </c>
-      <c r="B95" s="40"/>
-      <c r="C95" s="28" t="s">
+      <c r="B95" s="63"/>
+      <c r="C95" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D95" s="19" t="s">
@@ -3791,14 +4027,14 @@
       </c>
       <c r="G95" s="19"/>
       <c r="H95" s="20"/>
-      <c r="I95" s="43"/>
+      <c r="I95" s="66"/>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:9">
-      <c r="A96" s="44">
+      <c r="A96" s="67">
         <v>11</v>
       </c>
-      <c r="B96" s="40"/>
-      <c r="C96" s="28" t="s">
+      <c r="B96" s="63"/>
+      <c r="C96" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D96" s="19" t="s">
@@ -3812,14 +4048,14 @@
       </c>
       <c r="G96" s="19"/>
       <c r="H96" s="20"/>
-      <c r="I96" s="43"/>
+      <c r="I96" s="66"/>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:9">
-      <c r="A97" s="44">
+      <c r="A97" s="67">
         <v>12</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="28" t="s">
+      <c r="B97" s="64"/>
+      <c r="C97" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D97" s="19" t="s">
@@ -3833,13 +4069,13 @@
       </c>
       <c r="G97" s="19"/>
       <c r="H97" s="20"/>
-      <c r="I97" s="43"/>
+      <c r="I97" s="66"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:9">
-      <c r="A98" s="44">
+      <c r="A98" s="67">
         <v>13</v>
       </c>
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="62" t="s">
         <v>67</v>
       </c>
       <c r="C98" s="19" t="s">
@@ -3856,13 +4092,13 @@
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="20"/>
-      <c r="I98" s="43"/>
+      <c r="I98" s="66"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:9">
-      <c r="A99" s="44">
+      <c r="A99" s="67">
         <v>14</v>
       </c>
-      <c r="B99" s="48"/>
+      <c r="B99" s="63"/>
       <c r="C99" s="19" t="s">
         <v>70</v>
       </c>
@@ -3877,13 +4113,13 @@
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="20"/>
-      <c r="I99" s="43"/>
+      <c r="I99" s="66"/>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:9">
-      <c r="A100" s="44">
+      <c r="A100" s="67">
         <v>15</v>
       </c>
-      <c r="B100" s="48"/>
+      <c r="B100" s="63"/>
       <c r="C100" s="19" t="s">
         <v>71</v>
       </c>
@@ -3898,13 +4134,13 @@
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="20"/>
-      <c r="I100" s="43"/>
+      <c r="I100" s="66"/>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:9">
-      <c r="A101" s="44">
+      <c r="A101" s="67">
         <v>16</v>
       </c>
-      <c r="B101" s="49"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="19" t="s">
         <v>72</v>
       </c>
@@ -3919,10 +4155,10 @@
       </c>
       <c r="G101" s="19"/>
       <c r="H101" s="20"/>
-      <c r="I101" s="43"/>
+      <c r="I101" s="66"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:9">
-      <c r="A102" s="44">
+      <c r="A102" s="67">
         <v>17</v>
       </c>
       <c r="B102" s="19" t="s">
@@ -3931,7 +4167,7 @@
       <c r="C102" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="42" t="s">
+      <c r="D102" s="65" t="s">
         <v>19</v>
       </c>
       <c r="E102" s="19" t="s">
@@ -3942,62 +4178,62 @@
       </c>
       <c r="G102" s="19"/>
       <c r="H102" s="20"/>
-      <c r="I102" s="43"/>
+      <c r="I102" s="66"/>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:9">
-      <c r="A103" s="44">
+      <c r="A103" s="67">
         <v>18</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
-      <c r="D103" s="42"/>
+      <c r="D103" s="65"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="20"/>
-      <c r="I103" s="43"/>
+      <c r="I103" s="66"/>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:9">
-      <c r="A104" s="44">
+      <c r="A104" s="67">
         <v>19</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
-      <c r="D104" s="42"/>
+      <c r="D104" s="65"/>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="20"/>
-      <c r="I104" s="43"/>
+      <c r="I104" s="66"/>
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:9">
-      <c r="A105" s="44">
+      <c r="A105" s="67">
         <v>20</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
-      <c r="D105" s="42"/>
+      <c r="D105" s="65"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
       <c r="H105" s="20"/>
-      <c r="I105" s="43"/>
+      <c r="I105" s="66"/>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:9">
-      <c r="A106" s="44">
+      <c r="A106" s="67">
         <v>21</v>
       </c>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
-      <c r="D106" s="42"/>
+      <c r="D106" s="65"/>
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
       <c r="H106" s="20"/>
-      <c r="I106" s="43"/>
+      <c r="I106" s="66"/>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:9">
-      <c r="A107" s="44">
+      <c r="A107" s="67">
         <v>22</v>
       </c>
       <c r="B107" s="19"/>
@@ -4007,10 +4243,10 @@
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
       <c r="H107" s="20"/>
-      <c r="I107" s="43"/>
+      <c r="I107" s="66"/>
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:9">
-      <c r="A108" s="44">
+      <c r="A108" s="67">
         <v>23</v>
       </c>
       <c r="B108" s="19"/>
@@ -4020,10 +4256,10 @@
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
       <c r="H108" s="20"/>
-      <c r="I108" s="43"/>
+      <c r="I108" s="66"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:9">
-      <c r="A109" s="44">
+      <c r="A109" s="67">
         <v>24</v>
       </c>
       <c r="B109" s="19"/>
@@ -4033,10 +4269,10 @@
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="H109" s="20"/>
-      <c r="I109" s="43"/>
+      <c r="I109" s="66"/>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:9">
-      <c r="A110" s="44">
+      <c r="A110" s="67">
         <v>25</v>
       </c>
       <c r="B110" s="19"/>
@@ -4046,10 +4282,10 @@
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
       <c r="H110" s="20"/>
-      <c r="I110" s="43"/>
+      <c r="I110" s="66"/>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:9">
-      <c r="A111" s="44">
+      <c r="A111" s="67">
         <v>26</v>
       </c>
       <c r="B111" s="19"/>
@@ -4059,7 +4295,7 @@
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
       <c r="H111" s="20"/>
-      <c r="I111" s="43"/>
+      <c r="I111" s="66"/>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:9">
       <c r="A112" s="3" t="s">
@@ -4074,7 +4310,7 @@
         <v>34</v>
       </c>
       <c r="H112" s="3"/>
-      <c r="I112" s="43"/>
+      <c r="I112" s="66"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:9">
       <c r="A113" s="3" t="s">
@@ -4089,7 +4325,7 @@
         <v>36</v>
       </c>
       <c r="H113" s="3"/>
-      <c r="I113" s="43"/>
+      <c r="I113" s="66"/>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:9">
       <c r="A114" s="2" t="s">
@@ -4102,7 +4338,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="43"/>
+      <c r="I114" s="66"/>
     </row>
     <row r="115" ht="18" customHeight="1" spans="1:9">
       <c r="A115" s="1"/>
@@ -4113,7 +4349,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="43"/>
+      <c r="I115" s="66"/>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:9">
       <c r="A116" s="1"/>
@@ -4126,7 +4362,7 @@
         <v>74</v>
       </c>
       <c r="H116" s="2"/>
-      <c r="I116" s="43"/>
+      <c r="I116" s="66"/>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:9">
       <c r="A117" s="1"/>
@@ -4139,7 +4375,7 @@
         <v>75</v>
       </c>
       <c r="H117" s="3"/>
-      <c r="I117" s="43"/>
+      <c r="I117" s="66"/>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:9">
       <c r="A118" s="4" t="s">
@@ -4152,7 +4388,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="43"/>
+      <c r="I118" s="66"/>
     </row>
     <row r="119" ht="18" customHeight="1" spans="1:9">
       <c r="A119" s="5" t="s">
@@ -4165,7 +4401,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="43"/>
+      <c r="I119" s="66"/>
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:9">
       <c r="A120" s="3" t="s">
@@ -4178,7 +4414,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="43"/>
+      <c r="I120" s="66"/>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:9">
       <c r="A121" s="3" t="s">
@@ -4193,7 +4429,7 @@
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
-      <c r="I121" s="43"/>
+      <c r="I121" s="66"/>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:9">
       <c r="A122" s="3" t="s">
@@ -4208,7 +4444,7 @@
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
-      <c r="I122" s="43"/>
+      <c r="I122" s="66"/>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:9">
       <c r="A123" s="6" t="s">
@@ -4235,16 +4471,16 @@
       <c r="H123" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="43"/>
+      <c r="I123" s="66"/>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:9">
-      <c r="A124" s="44">
-        <v>1</v>
-      </c>
-      <c r="B124" s="39" t="s">
+      <c r="A124" s="67">
+        <v>1</v>
+      </c>
+      <c r="B124" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D124" s="19" t="s">
@@ -4258,14 +4494,14 @@
       </c>
       <c r="G124" s="19"/>
       <c r="H124" s="20"/>
-      <c r="I124" s="43"/>
+      <c r="I124" s="66"/>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:9">
-      <c r="A125" s="44">
+      <c r="A125" s="67">
         <v>2</v>
       </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="28" t="s">
+      <c r="B125" s="63"/>
+      <c r="C125" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D125" s="19" t="s">
@@ -4279,14 +4515,14 @@
       </c>
       <c r="G125" s="19"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="43"/>
+      <c r="I125" s="66"/>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:9">
-      <c r="A126" s="44">
+      <c r="A126" s="67">
         <v>3</v>
       </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="28" t="s">
+      <c r="B126" s="63"/>
+      <c r="C126" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D126" s="19" t="s">
@@ -4300,14 +4536,14 @@
       </c>
       <c r="G126" s="19"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="43"/>
+      <c r="I126" s="66"/>
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:9">
-      <c r="A127" s="44">
+      <c r="A127" s="67">
         <v>4</v>
       </c>
-      <c r="B127" s="40"/>
-      <c r="C127" s="28" t="s">
+      <c r="B127" s="63"/>
+      <c r="C127" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D127" s="19" t="s">
@@ -4319,16 +4555,16 @@
       <c r="F127" s="19">
         <v>1</v>
       </c>
-      <c r="G127" s="28"/>
+      <c r="G127" s="19"/>
       <c r="H127" s="20"/>
-      <c r="I127" s="43"/>
+      <c r="I127" s="66"/>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:9">
-      <c r="A128" s="44">
+      <c r="A128" s="67">
         <v>5</v>
       </c>
-      <c r="B128" s="40"/>
-      <c r="C128" s="28" t="s">
+      <c r="B128" s="63"/>
+      <c r="C128" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D128" s="19" t="s">
@@ -4340,16 +4576,16 @@
       <c r="F128" s="19">
         <v>1</v>
       </c>
-      <c r="G128" s="28"/>
+      <c r="G128" s="19"/>
       <c r="H128" s="20"/>
-      <c r="I128" s="43"/>
+      <c r="I128" s="66"/>
     </row>
     <row r="129" ht="18" customHeight="1" spans="1:9">
-      <c r="A129" s="44">
+      <c r="A129" s="67">
         <v>6</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="28" t="s">
+      <c r="B129" s="64"/>
+      <c r="C129" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D129" s="19" t="s">
@@ -4363,10 +4599,10 @@
       </c>
       <c r="G129" s="19"/>
       <c r="H129" s="20"/>
-      <c r="I129" s="43"/>
+      <c r="I129" s="66"/>
     </row>
     <row r="130" ht="18" customHeight="1" spans="1:9">
-      <c r="A130" s="44">
+      <c r="A130" s="67">
         <v>7</v>
       </c>
       <c r="B130" s="19" t="s">
@@ -4386,10 +4622,10 @@
       </c>
       <c r="G130" s="19"/>
       <c r="H130" s="20"/>
-      <c r="I130" s="43"/>
+      <c r="I130" s="66"/>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:9">
-      <c r="A131" s="44">
+      <c r="A131" s="67">
         <v>8</v>
       </c>
       <c r="B131" s="19"/>
@@ -4399,10 +4635,10 @@
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="43"/>
+      <c r="I131" s="66"/>
     </row>
     <row r="132" ht="18" customHeight="1" spans="1:9">
-      <c r="A132" s="44">
+      <c r="A132" s="67">
         <v>9</v>
       </c>
       <c r="B132" s="19"/>
@@ -4412,49 +4648,49 @@
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
       <c r="H132" s="20"/>
-      <c r="I132" s="43"/>
+      <c r="I132" s="66"/>
     </row>
     <row r="133" ht="18" customHeight="1" spans="1:9">
-      <c r="A133" s="44">
+      <c r="A133" s="67">
         <v>10</v>
       </c>
-      <c r="B133" s="28"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
       <c r="H133" s="20"/>
-      <c r="I133" s="43"/>
+      <c r="I133" s="66"/>
     </row>
     <row r="134" ht="18" customHeight="1" spans="1:9">
-      <c r="A134" s="44">
+      <c r="A134" s="67">
         <v>11</v>
       </c>
-      <c r="B134" s="28"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
       <c r="H134" s="20"/>
-      <c r="I134" s="43"/>
+      <c r="I134" s="66"/>
     </row>
     <row r="135" ht="18" customHeight="1" spans="1:9">
-      <c r="A135" s="44">
+      <c r="A135" s="67">
         <v>12</v>
       </c>
-      <c r="B135" s="28"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
       <c r="H135" s="20"/>
-      <c r="I135" s="43"/>
+      <c r="I135" s="66"/>
     </row>
     <row r="136" ht="18" customHeight="1" spans="1:9">
-      <c r="A136" s="44">
+      <c r="A136" s="67">
         <v>13</v>
       </c>
       <c r="B136" s="19"/>
@@ -4464,10 +4700,10 @@
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
       <c r="H136" s="20"/>
-      <c r="I136" s="43"/>
+      <c r="I136" s="66"/>
     </row>
     <row r="137" ht="18" customHeight="1" spans="1:9">
-      <c r="A137" s="44">
+      <c r="A137" s="67">
         <v>14</v>
       </c>
       <c r="B137" s="19"/>
@@ -4477,10 +4713,10 @@
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
       <c r="H137" s="20"/>
-      <c r="I137" s="43"/>
+      <c r="I137" s="66"/>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:9">
-      <c r="A138" s="44">
+      <c r="A138" s="67">
         <v>15</v>
       </c>
       <c r="B138" s="19"/>
@@ -4490,10 +4726,10 @@
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
       <c r="H138" s="20"/>
-      <c r="I138" s="43"/>
+      <c r="I138" s="66"/>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:9">
-      <c r="A139" s="44">
+      <c r="A139" s="67">
         <v>16</v>
       </c>
       <c r="B139" s="19"/>
@@ -4503,75 +4739,75 @@
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
       <c r="H139" s="20"/>
-      <c r="I139" s="43"/>
+      <c r="I139" s="66"/>
     </row>
     <row r="140" ht="18" customHeight="1" spans="1:9">
-      <c r="A140" s="44">
+      <c r="A140" s="67">
         <v>17</v>
       </c>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
-      <c r="D140" s="42"/>
+      <c r="D140" s="65"/>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
       <c r="H140" s="20"/>
-      <c r="I140" s="43"/>
+      <c r="I140" s="66"/>
     </row>
     <row r="141" ht="18" customHeight="1" spans="1:9">
-      <c r="A141" s="44">
+      <c r="A141" s="67">
         <v>18</v>
       </c>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
-      <c r="D141" s="42"/>
+      <c r="D141" s="65"/>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
       <c r="H141" s="20"/>
-      <c r="I141" s="43"/>
+      <c r="I141" s="66"/>
     </row>
     <row r="142" ht="18" customHeight="1" spans="1:9">
-      <c r="A142" s="44">
+      <c r="A142" s="67">
         <v>19</v>
       </c>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
-      <c r="D142" s="42"/>
+      <c r="D142" s="65"/>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
       <c r="H142" s="20"/>
-      <c r="I142" s="43"/>
+      <c r="I142" s="66"/>
     </row>
     <row r="143" ht="18" customHeight="1" spans="1:9">
-      <c r="A143" s="44">
+      <c r="A143" s="67">
         <v>20</v>
       </c>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
-      <c r="D143" s="42"/>
+      <c r="D143" s="65"/>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
       <c r="H143" s="20"/>
-      <c r="I143" s="43"/>
+      <c r="I143" s="66"/>
     </row>
     <row r="144" ht="18" customHeight="1" spans="1:9">
-      <c r="A144" s="44">
+      <c r="A144" s="67">
         <v>21</v>
       </c>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
-      <c r="D144" s="42"/>
+      <c r="D144" s="65"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
       <c r="H144" s="20"/>
-      <c r="I144" s="43"/>
+      <c r="I144" s="66"/>
     </row>
     <row r="145" ht="18" customHeight="1" spans="1:9">
-      <c r="A145" s="44">
+      <c r="A145" s="67">
         <v>22</v>
       </c>
       <c r="B145" s="19"/>
@@ -4581,10 +4817,10 @@
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
       <c r="H145" s="20"/>
-      <c r="I145" s="43"/>
+      <c r="I145" s="66"/>
     </row>
     <row r="146" ht="18" customHeight="1" spans="1:9">
-      <c r="A146" s="44">
+      <c r="A146" s="67">
         <v>23</v>
       </c>
       <c r="B146" s="19"/>
@@ -4594,10 +4830,10 @@
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
       <c r="H146" s="20"/>
-      <c r="I146" s="43"/>
+      <c r="I146" s="66"/>
     </row>
     <row r="147" ht="18" customHeight="1" spans="1:9">
-      <c r="A147" s="44">
+      <c r="A147" s="67">
         <v>24</v>
       </c>
       <c r="B147" s="19"/>
@@ -4607,10 +4843,10 @@
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
       <c r="H147" s="20"/>
-      <c r="I147" s="43"/>
+      <c r="I147" s="66"/>
     </row>
     <row r="148" ht="18" customHeight="1" spans="1:9">
-      <c r="A148" s="44">
+      <c r="A148" s="67">
         <v>25</v>
       </c>
       <c r="B148" s="19"/>
@@ -4620,10 +4856,10 @@
       <c r="F148" s="19"/>
       <c r="G148" s="19"/>
       <c r="H148" s="20"/>
-      <c r="I148" s="43"/>
+      <c r="I148" s="66"/>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:9">
-      <c r="A149" s="44">
+      <c r="A149" s="67">
         <v>26</v>
       </c>
       <c r="B149" s="19"/>
@@ -4633,7 +4869,7 @@
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
       <c r="H149" s="20"/>
-      <c r="I149" s="43"/>
+      <c r="I149" s="66"/>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:9">
       <c r="A150" s="3" t="s">
@@ -4648,7 +4884,7 @@
         <v>34</v>
       </c>
       <c r="H150" s="3"/>
-      <c r="I150" s="43"/>
+      <c r="I150" s="66"/>
     </row>
     <row r="151" ht="18" customHeight="1" spans="1:9">
       <c r="A151" s="3" t="s">
@@ -4663,7 +4899,7 @@
         <v>36</v>
       </c>
       <c r="H151" s="3"/>
-      <c r="I151" s="43"/>
+      <c r="I151" s="66"/>
     </row>
     <row r="152" ht="18" customHeight="1" spans="1:9">
       <c r="A152" s="2" t="s">
@@ -4676,18 +4912,18 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="43"/>
+      <c r="I152" s="66"/>
     </row>
     <row r="153" ht="18" customHeight="1" spans="1:9">
-      <c r="A153" s="43"/>
-      <c r="B153" s="43"/>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="43"/>
+      <c r="A153" s="66"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="66"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="66"/>
     </row>
     <row r="154" ht="18" customHeight="1" spans="1:9">
       <c r="A154" s="1"/>
@@ -4700,7 +4936,7 @@
         <v>88</v>
       </c>
       <c r="H154" s="2"/>
-      <c r="I154" s="43"/>
+      <c r="I154" s="66"/>
     </row>
     <row r="155" ht="18" customHeight="1" spans="1:9">
       <c r="A155" s="1"/>
@@ -4713,7 +4949,7 @@
         <v>89</v>
       </c>
       <c r="H155" s="3"/>
-      <c r="I155" s="43"/>
+      <c r="I155" s="66"/>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:9">
       <c r="A156" s="4" t="s">
@@ -4726,7 +4962,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="43"/>
+      <c r="I156" s="66"/>
     </row>
     <row r="157" ht="18" customHeight="1" spans="1:9">
       <c r="A157" s="5" t="s">
@@ -4739,7 +4975,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="43"/>
+      <c r="I157" s="66"/>
     </row>
     <row r="158" ht="18" customHeight="1" spans="1:9">
       <c r="A158" s="3" t="s">
@@ -4752,7 +4988,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
-      <c r="I158" s="43"/>
+      <c r="I158" s="66"/>
     </row>
     <row r="159" ht="18" customHeight="1" spans="1:9">
       <c r="A159" s="3" t="s">
@@ -4767,7 +5003,7 @@
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
-      <c r="I159" s="43"/>
+      <c r="I159" s="66"/>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:9">
       <c r="A160" s="3" t="s">
@@ -4782,7 +5018,7 @@
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
-      <c r="I160" s="43"/>
+      <c r="I160" s="66"/>
     </row>
     <row r="161" ht="18" customHeight="1" spans="1:9">
       <c r="A161" s="6" t="s">
@@ -4809,13 +5045,13 @@
       <c r="H161" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I161" s="43"/>
+      <c r="I161" s="66"/>
     </row>
     <row r="162" ht="18" customHeight="1" spans="1:9">
-      <c r="A162" s="44">
-        <v>1</v>
-      </c>
-      <c r="B162" s="47" t="s">
+      <c r="A162" s="67">
+        <v>1</v>
+      </c>
+      <c r="B162" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C162" s="19" t="s">
@@ -4832,13 +5068,13 @@
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="20"/>
-      <c r="I162" s="43"/>
+      <c r="I162" s="66"/>
     </row>
     <row r="163" ht="18" customHeight="1" spans="1:9">
-      <c r="A163" s="44">
+      <c r="A163" s="67">
         <v>2</v>
       </c>
-      <c r="B163" s="49"/>
+      <c r="B163" s="64"/>
       <c r="C163" s="19" t="s">
         <v>92</v>
       </c>
@@ -4853,13 +5089,13 @@
       </c>
       <c r="G163" s="19"/>
       <c r="H163" s="20"/>
-      <c r="I163" s="43"/>
+      <c r="I163" s="66"/>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:9">
-      <c r="A164" s="44">
+      <c r="A164" s="67">
         <v>3</v>
       </c>
-      <c r="B164" s="47" t="s">
+      <c r="B164" s="62" t="s">
         <v>67</v>
       </c>
       <c r="C164" s="19" t="s">
@@ -4876,13 +5112,13 @@
       </c>
       <c r="G164" s="19"/>
       <c r="H164" s="20"/>
-      <c r="I164" s="43"/>
+      <c r="I164" s="66"/>
     </row>
     <row r="165" ht="18" customHeight="1" spans="1:9">
-      <c r="A165" s="44">
+      <c r="A165" s="67">
         <v>4</v>
       </c>
-      <c r="B165" s="48"/>
+      <c r="B165" s="63"/>
       <c r="C165" s="19" t="s">
         <v>94</v>
       </c>
@@ -4897,13 +5133,13 @@
       </c>
       <c r="G165" s="19"/>
       <c r="H165" s="20"/>
-      <c r="I165" s="43"/>
+      <c r="I165" s="66"/>
     </row>
     <row r="166" ht="18" customHeight="1" spans="1:9">
-      <c r="A166" s="44">
+      <c r="A166" s="67">
         <v>5</v>
       </c>
-      <c r="B166" s="48"/>
+      <c r="B166" s="63"/>
       <c r="C166" s="19" t="s">
         <v>96</v>
       </c>
@@ -4918,13 +5154,13 @@
       </c>
       <c r="G166" s="19"/>
       <c r="H166" s="20"/>
-      <c r="I166" s="43"/>
+      <c r="I166" s="66"/>
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:9">
-      <c r="A167" s="44">
+      <c r="A167" s="67">
         <v>6</v>
       </c>
-      <c r="B167" s="48"/>
+      <c r="B167" s="63"/>
       <c r="C167" s="19" t="s">
         <v>97</v>
       </c>
@@ -4939,13 +5175,13 @@
       </c>
       <c r="G167" s="19"/>
       <c r="H167" s="20"/>
-      <c r="I167" s="43"/>
+      <c r="I167" s="66"/>
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:9">
-      <c r="A168" s="44">
+      <c r="A168" s="67">
         <v>7</v>
       </c>
-      <c r="B168" s="48"/>
+      <c r="B168" s="63"/>
       <c r="C168" s="19" t="s">
         <v>98</v>
       </c>
@@ -4960,13 +5196,13 @@
       </c>
       <c r="G168" s="19"/>
       <c r="H168" s="20"/>
-      <c r="I168" s="43"/>
+      <c r="I168" s="66"/>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:9">
-      <c r="A169" s="44">
+      <c r="A169" s="67">
         <v>8</v>
       </c>
-      <c r="B169" s="48"/>
+      <c r="B169" s="63"/>
       <c r="C169" s="19" t="s">
         <v>99</v>
       </c>
@@ -4981,13 +5217,13 @@
       </c>
       <c r="G169" s="19"/>
       <c r="H169" s="20"/>
-      <c r="I169" s="43"/>
+      <c r="I169" s="66"/>
     </row>
     <row r="170" ht="18" customHeight="1" spans="1:9">
-      <c r="A170" s="44">
+      <c r="A170" s="67">
         <v>9</v>
       </c>
-      <c r="B170" s="48"/>
+      <c r="B170" s="63"/>
       <c r="C170" s="19" t="s">
         <v>100</v>
       </c>
@@ -5002,13 +5238,13 @@
       </c>
       <c r="G170" s="19"/>
       <c r="H170" s="20"/>
-      <c r="I170" s="43"/>
+      <c r="I170" s="66"/>
     </row>
     <row r="171" ht="18" customHeight="1" spans="1:9">
-      <c r="A171" s="44">
+      <c r="A171" s="67">
         <v>10</v>
       </c>
-      <c r="B171" s="48"/>
+      <c r="B171" s="63"/>
       <c r="C171" s="19" t="s">
         <v>101</v>
       </c>
@@ -5023,17 +5259,17 @@
       </c>
       <c r="G171" s="19"/>
       <c r="H171" s="20"/>
-      <c r="I171" s="43"/>
+      <c r="I171" s="66"/>
     </row>
     <row r="172" ht="18" customHeight="1" spans="1:9">
-      <c r="A172" s="44">
+      <c r="A172" s="67">
         <v>11</v>
       </c>
-      <c r="B172" s="48"/>
+      <c r="B172" s="63"/>
       <c r="C172" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D172" s="42" t="s">
+      <c r="D172" s="65" t="s">
         <v>69</v>
       </c>
       <c r="E172" s="19" t="s">
@@ -5044,17 +5280,17 @@
       </c>
       <c r="G172" s="19"/>
       <c r="H172" s="20"/>
-      <c r="I172" s="43"/>
+      <c r="I172" s="66"/>
     </row>
     <row r="173" ht="18" customHeight="1" spans="1:9">
-      <c r="A173" s="44">
+      <c r="A173" s="67">
         <v>12</v>
       </c>
-      <c r="B173" s="48"/>
+      <c r="B173" s="63"/>
       <c r="C173" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D173" s="42" t="s">
+      <c r="D173" s="65" t="s">
         <v>95</v>
       </c>
       <c r="E173" s="19" t="s">
@@ -5065,17 +5301,17 @@
       </c>
       <c r="G173" s="19"/>
       <c r="H173" s="20"/>
-      <c r="I173" s="43"/>
+      <c r="I173" s="66"/>
     </row>
     <row r="174" ht="18" customHeight="1" spans="1:9">
-      <c r="A174" s="44">
+      <c r="A174" s="67">
         <v>13</v>
       </c>
-      <c r="B174" s="48"/>
+      <c r="B174" s="63"/>
       <c r="C174" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D174" s="42" t="s">
+      <c r="D174" s="65" t="s">
         <v>69</v>
       </c>
       <c r="E174" s="19" t="s">
@@ -5086,17 +5322,17 @@
       </c>
       <c r="G174" s="19"/>
       <c r="H174" s="20"/>
-      <c r="I174" s="43"/>
+      <c r="I174" s="66"/>
     </row>
     <row r="175" ht="18" customHeight="1" spans="1:9">
-      <c r="A175" s="44">
+      <c r="A175" s="67">
         <v>14</v>
       </c>
-      <c r="B175" s="48"/>
+      <c r="B175" s="63"/>
       <c r="C175" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D175" s="42" t="s">
+      <c r="D175" s="65" t="s">
         <v>69</v>
       </c>
       <c r="E175" s="19" t="s">
@@ -5107,17 +5343,17 @@
       </c>
       <c r="G175" s="19"/>
       <c r="H175" s="20"/>
-      <c r="I175" s="43"/>
+      <c r="I175" s="66"/>
     </row>
     <row r="176" ht="18" customHeight="1" spans="1:9">
-      <c r="A176" s="44">
+      <c r="A176" s="67">
         <v>15</v>
       </c>
-      <c r="B176" s="48"/>
+      <c r="B176" s="63"/>
       <c r="C176" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D176" s="42" t="s">
+      <c r="D176" s="65" t="s">
         <v>95</v>
       </c>
       <c r="E176" s="19" t="s">
@@ -5128,13 +5364,13 @@
       </c>
       <c r="G176" s="19"/>
       <c r="H176" s="20"/>
-      <c r="I176" s="43"/>
+      <c r="I176" s="66"/>
     </row>
     <row r="177" ht="18" customHeight="1" spans="1:9">
-      <c r="A177" s="44">
+      <c r="A177" s="67">
         <v>16</v>
       </c>
-      <c r="B177" s="48"/>
+      <c r="B177" s="63"/>
       <c r="C177" s="19" t="s">
         <v>107</v>
       </c>
@@ -5149,13 +5385,13 @@
       </c>
       <c r="G177" s="19"/>
       <c r="H177" s="20"/>
-      <c r="I177" s="43"/>
+      <c r="I177" s="66"/>
     </row>
     <row r="178" ht="18" customHeight="1" spans="1:9">
-      <c r="A178" s="44">
+      <c r="A178" s="67">
         <v>17</v>
       </c>
-      <c r="B178" s="48"/>
+      <c r="B178" s="63"/>
       <c r="C178" s="19" t="s">
         <v>108</v>
       </c>
@@ -5170,13 +5406,13 @@
       </c>
       <c r="G178" s="19"/>
       <c r="H178" s="20"/>
-      <c r="I178" s="43"/>
+      <c r="I178" s="66"/>
     </row>
     <row r="179" ht="18" customHeight="1" spans="1:9">
-      <c r="A179" s="44">
+      <c r="A179" s="67">
         <v>18</v>
       </c>
-      <c r="B179" s="48"/>
+      <c r="B179" s="63"/>
       <c r="C179" s="19" t="s">
         <v>109</v>
       </c>
@@ -5191,13 +5427,13 @@
       </c>
       <c r="G179" s="19"/>
       <c r="H179" s="20"/>
-      <c r="I179" s="43"/>
+      <c r="I179" s="66"/>
     </row>
     <row r="180" ht="18" customHeight="1" spans="1:9">
-      <c r="A180" s="44">
+      <c r="A180" s="67">
         <v>19</v>
       </c>
-      <c r="B180" s="49"/>
+      <c r="B180" s="64"/>
       <c r="C180" s="19" t="s">
         <v>110</v>
       </c>
@@ -5212,10 +5448,10 @@
       </c>
       <c r="G180" s="19"/>
       <c r="H180" s="20"/>
-      <c r="I180" s="43"/>
+      <c r="I180" s="66"/>
     </row>
     <row r="181" ht="18" customHeight="1" spans="1:9">
-      <c r="A181" s="44">
+      <c r="A181" s="67">
         <v>20</v>
       </c>
       <c r="B181" s="19" t="s">
@@ -5235,10 +5471,10 @@
       </c>
       <c r="G181" s="19"/>
       <c r="H181" s="20"/>
-      <c r="I181" s="43"/>
+      <c r="I181" s="66"/>
     </row>
     <row r="182" ht="18" customHeight="1" spans="1:9">
-      <c r="A182" s="44">
+      <c r="A182" s="67">
         <v>21</v>
       </c>
       <c r="B182" s="19"/>
@@ -5248,10 +5484,10 @@
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
       <c r="H182" s="20"/>
-      <c r="I182" s="43"/>
+      <c r="I182" s="66"/>
     </row>
     <row r="183" ht="18" customHeight="1" spans="1:9">
-      <c r="A183" s="44">
+      <c r="A183" s="67">
         <v>22</v>
       </c>
       <c r="B183" s="19"/>
@@ -5261,10 +5497,10 @@
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="H183" s="20"/>
-      <c r="I183" s="43"/>
+      <c r="I183" s="66"/>
     </row>
     <row r="184" ht="18" customHeight="1" spans="1:9">
-      <c r="A184" s="44">
+      <c r="A184" s="67">
         <v>23</v>
       </c>
       <c r="B184" s="19"/>
@@ -5274,10 +5510,10 @@
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
       <c r="H184" s="20"/>
-      <c r="I184" s="43"/>
+      <c r="I184" s="66"/>
     </row>
     <row r="185" ht="18" customHeight="1" spans="1:9">
-      <c r="A185" s="44">
+      <c r="A185" s="67">
         <v>24</v>
       </c>
       <c r="B185" s="19"/>
@@ -5287,10 +5523,10 @@
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
       <c r="H185" s="20"/>
-      <c r="I185" s="43"/>
+      <c r="I185" s="66"/>
     </row>
     <row r="186" ht="18" customHeight="1" spans="1:9">
-      <c r="A186" s="44">
+      <c r="A186" s="67">
         <v>25</v>
       </c>
       <c r="B186" s="19"/>
@@ -5300,10 +5536,10 @@
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
       <c r="H186" s="20"/>
-      <c r="I186" s="43"/>
+      <c r="I186" s="66"/>
     </row>
     <row r="187" ht="18" customHeight="1" spans="1:9">
-      <c r="A187" s="44">
+      <c r="A187" s="67">
         <v>26</v>
       </c>
       <c r="B187" s="19"/>
@@ -5313,7 +5549,7 @@
       <c r="F187" s="19"/>
       <c r="G187" s="19"/>
       <c r="H187" s="20"/>
-      <c r="I187" s="43"/>
+      <c r="I187" s="66"/>
     </row>
     <row r="188" ht="18" customHeight="1" spans="1:9">
       <c r="A188" s="3" t="s">
@@ -5328,7 +5564,7 @@
         <v>34</v>
       </c>
       <c r="H188" s="3"/>
-      <c r="I188" s="43"/>
+      <c r="I188" s="66"/>
     </row>
     <row r="189" ht="18" customHeight="1" spans="1:9">
       <c r="A189" s="3" t="s">
@@ -5343,7 +5579,7 @@
         <v>36</v>
       </c>
       <c r="H189" s="3"/>
-      <c r="I189" s="43"/>
+      <c r="I189" s="66"/>
     </row>
     <row r="190" ht="18" customHeight="1" spans="1:9">
       <c r="A190" s="2" t="s">
@@ -5356,18 +5592,18 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
-      <c r="I190" s="43"/>
+      <c r="I190" s="66"/>
     </row>
     <row r="191" ht="18" customHeight="1" spans="1:9">
-      <c r="A191" s="43"/>
-      <c r="B191" s="43"/>
-      <c r="C191" s="43"/>
-      <c r="D191" s="43"/>
-      <c r="E191" s="43"/>
-      <c r="F191" s="43"/>
-      <c r="G191" s="43"/>
-      <c r="H191" s="43"/>
-      <c r="I191" s="43"/>
+      <c r="A191" s="66"/>
+      <c r="B191" s="66"/>
+      <c r="C191" s="66"/>
+      <c r="D191" s="66"/>
+      <c r="E191" s="66"/>
+      <c r="F191" s="66"/>
+      <c r="G191" s="66"/>
+      <c r="H191" s="66"/>
+      <c r="I191" s="66"/>
     </row>
     <row r="192" ht="18" customHeight="1" spans="1:9">
       <c r="A192" s="1"/>
@@ -5380,7 +5616,7 @@
         <v>112</v>
       </c>
       <c r="H192" s="2"/>
-      <c r="I192" s="43"/>
+      <c r="I192" s="66"/>
     </row>
     <row r="193" ht="18" customHeight="1" spans="1:9">
       <c r="A193" s="1"/>
@@ -5393,7 +5629,7 @@
         <v>113</v>
       </c>
       <c r="H193" s="3"/>
-      <c r="I193" s="43"/>
+      <c r="I193" s="66"/>
     </row>
     <row r="194" ht="18" customHeight="1" spans="1:9">
       <c r="A194" s="4" t="s">
@@ -5406,7 +5642,7 @@
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="43"/>
+      <c r="I194" s="66"/>
     </row>
     <row r="195" ht="18" customHeight="1" spans="1:9">
       <c r="A195" s="5" t="s">
@@ -5419,7 +5655,7 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
-      <c r="I195" s="43"/>
+      <c r="I195" s="66"/>
     </row>
     <row r="196" ht="18" customHeight="1" spans="1:9">
       <c r="A196" s="3" t="s">
@@ -5432,7 +5668,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
-      <c r="I196" s="43"/>
+      <c r="I196" s="66"/>
     </row>
     <row r="197" ht="18" customHeight="1" spans="1:9">
       <c r="A197" s="3" t="s">
@@ -5447,7 +5683,7 @@
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
-      <c r="I197" s="43"/>
+      <c r="I197" s="66"/>
     </row>
     <row r="198" ht="18" customHeight="1" spans="1:9">
       <c r="A198" s="3" t="s">
@@ -5462,7 +5698,7 @@
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
-      <c r="I198" s="43"/>
+      <c r="I198" s="66"/>
     </row>
     <row r="199" ht="18" customHeight="1" spans="1:9">
       <c r="A199" s="6" t="s">
@@ -5489,13 +5725,13 @@
       <c r="H199" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I199" s="43"/>
+      <c r="I199" s="66"/>
     </row>
     <row r="200" ht="18" customHeight="1" spans="1:9">
-      <c r="A200" s="44">
-        <v>1</v>
-      </c>
-      <c r="B200" s="47" t="s">
+      <c r="A200" s="67">
+        <v>1</v>
+      </c>
+      <c r="B200" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C200" s="19" t="s">
@@ -5512,13 +5748,13 @@
       </c>
       <c r="G200" s="19"/>
       <c r="H200" s="20"/>
-      <c r="I200" s="43"/>
+      <c r="I200" s="66"/>
     </row>
     <row r="201" ht="18" customHeight="1" spans="1:9">
-      <c r="A201" s="44">
+      <c r="A201" s="67">
         <v>2</v>
       </c>
-      <c r="B201" s="48"/>
+      <c r="B201" s="63"/>
       <c r="C201" s="19" t="s">
         <v>117</v>
       </c>
@@ -5533,13 +5769,13 @@
       </c>
       <c r="G201" s="19"/>
       <c r="H201" s="20"/>
-      <c r="I201" s="43"/>
+      <c r="I201" s="66"/>
     </row>
     <row r="202" ht="18" customHeight="1" spans="1:9">
-      <c r="A202" s="44">
+      <c r="A202" s="67">
         <v>3</v>
       </c>
-      <c r="B202" s="49"/>
+      <c r="B202" s="64"/>
       <c r="C202" s="19" t="s">
         <v>91</v>
       </c>
@@ -5554,13 +5790,13 @@
       </c>
       <c r="G202" s="19"/>
       <c r="H202" s="20"/>
-      <c r="I202" s="43"/>
+      <c r="I202" s="66"/>
     </row>
     <row r="203" ht="18" customHeight="1" spans="1:9">
-      <c r="A203" s="44">
+      <c r="A203" s="67">
         <v>4</v>
       </c>
-      <c r="B203" s="39" t="s">
+      <c r="B203" s="62" t="s">
         <v>67</v>
       </c>
       <c r="C203" s="19" t="s">
@@ -5577,13 +5813,13 @@
       </c>
       <c r="G203" s="19"/>
       <c r="H203" s="20"/>
-      <c r="I203" s="43"/>
+      <c r="I203" s="66"/>
     </row>
     <row r="204" ht="18" customHeight="1" spans="1:9">
-      <c r="A204" s="44">
+      <c r="A204" s="67">
         <v>5</v>
       </c>
-      <c r="B204" s="40"/>
+      <c r="B204" s="63"/>
       <c r="C204" s="19" t="s">
         <v>119</v>
       </c>
@@ -5598,13 +5834,13 @@
       </c>
       <c r="G204" s="19"/>
       <c r="H204" s="20"/>
-      <c r="I204" s="43"/>
+      <c r="I204" s="66"/>
     </row>
     <row r="205" ht="18" customHeight="1" spans="1:9">
-      <c r="A205" s="44">
+      <c r="A205" s="67">
         <v>6</v>
       </c>
-      <c r="B205" s="40"/>
+      <c r="B205" s="63"/>
       <c r="C205" s="19" t="s">
         <v>120</v>
       </c>
@@ -5619,13 +5855,13 @@
       </c>
       <c r="G205" s="19"/>
       <c r="H205" s="20"/>
-      <c r="I205" s="43"/>
+      <c r="I205" s="66"/>
     </row>
     <row r="206" ht="18" customHeight="1" spans="1:9">
-      <c r="A206" s="44">
+      <c r="A206" s="67">
         <v>7</v>
       </c>
-      <c r="B206" s="40"/>
+      <c r="B206" s="63"/>
       <c r="C206" s="19" t="s">
         <v>121</v>
       </c>
@@ -5640,13 +5876,13 @@
       </c>
       <c r="G206" s="19"/>
       <c r="H206" s="20"/>
-      <c r="I206" s="43"/>
+      <c r="I206" s="66"/>
     </row>
     <row r="207" ht="18" customHeight="1" spans="1:9">
-      <c r="A207" s="44">
+      <c r="A207" s="67">
         <v>8</v>
       </c>
-      <c r="B207" s="40"/>
+      <c r="B207" s="63"/>
       <c r="C207" s="19" t="s">
         <v>122</v>
       </c>
@@ -5661,13 +5897,13 @@
       </c>
       <c r="G207" s="19"/>
       <c r="H207" s="20"/>
-      <c r="I207" s="43"/>
+      <c r="I207" s="66"/>
     </row>
     <row r="208" ht="18" customHeight="1" spans="1:9">
-      <c r="A208" s="44">
+      <c r="A208" s="67">
         <v>9</v>
       </c>
-      <c r="B208" s="40"/>
+      <c r="B208" s="63"/>
       <c r="C208" s="19" t="s">
         <v>123</v>
       </c>
@@ -5682,13 +5918,13 @@
       </c>
       <c r="G208" s="19"/>
       <c r="H208" s="20"/>
-      <c r="I208" s="43"/>
+      <c r="I208" s="66"/>
     </row>
     <row r="209" ht="18" customHeight="1" spans="1:9">
-      <c r="A209" s="44">
+      <c r="A209" s="67">
         <v>10</v>
       </c>
-      <c r="B209" s="40"/>
+      <c r="B209" s="63"/>
       <c r="C209" s="19" t="s">
         <v>124</v>
       </c>
@@ -5703,13 +5939,13 @@
       </c>
       <c r="G209" s="19"/>
       <c r="H209" s="20"/>
-      <c r="I209" s="43"/>
+      <c r="I209" s="66"/>
     </row>
     <row r="210" ht="18" customHeight="1" spans="1:9">
-      <c r="A210" s="44">
+      <c r="A210" s="67">
         <v>11</v>
       </c>
-      <c r="B210" s="40"/>
+      <c r="B210" s="63"/>
       <c r="C210" s="19" t="s">
         <v>125</v>
       </c>
@@ -5724,13 +5960,13 @@
       </c>
       <c r="G210" s="19"/>
       <c r="H210" s="20"/>
-      <c r="I210" s="43"/>
+      <c r="I210" s="66"/>
     </row>
     <row r="211" ht="18" customHeight="1" spans="1:9">
-      <c r="A211" s="44">
+      <c r="A211" s="67">
         <v>12</v>
       </c>
-      <c r="B211" s="40"/>
+      <c r="B211" s="63"/>
       <c r="C211" s="19" t="s">
         <v>126</v>
       </c>
@@ -5745,13 +5981,13 @@
       </c>
       <c r="G211" s="19"/>
       <c r="H211" s="20"/>
-      <c r="I211" s="43"/>
+      <c r="I211" s="66"/>
     </row>
     <row r="212" ht="18" customHeight="1" spans="1:9">
-      <c r="A212" s="44">
+      <c r="A212" s="67">
         <v>13</v>
       </c>
-      <c r="B212" s="40"/>
+      <c r="B212" s="63"/>
       <c r="C212" s="19" t="s">
         <v>127</v>
       </c>
@@ -5766,13 +6002,13 @@
       </c>
       <c r="G212" s="19"/>
       <c r="H212" s="20"/>
-      <c r="I212" s="43"/>
+      <c r="I212" s="66"/>
     </row>
     <row r="213" ht="18" customHeight="1" spans="1:9">
-      <c r="A213" s="44">
+      <c r="A213" s="67">
         <v>14</v>
       </c>
-      <c r="B213" s="40"/>
+      <c r="B213" s="63"/>
       <c r="C213" s="19" t="s">
         <v>128</v>
       </c>
@@ -5787,13 +6023,13 @@
       </c>
       <c r="G213" s="19"/>
       <c r="H213" s="20"/>
-      <c r="I213" s="43"/>
+      <c r="I213" s="66"/>
     </row>
     <row r="214" ht="18" customHeight="1" spans="1:9">
-      <c r="A214" s="44">
+      <c r="A214" s="67">
         <v>15</v>
       </c>
-      <c r="B214" s="40"/>
+      <c r="B214" s="63"/>
       <c r="C214" s="19" t="s">
         <v>129</v>
       </c>
@@ -5808,13 +6044,13 @@
       </c>
       <c r="G214" s="19"/>
       <c r="H214" s="20"/>
-      <c r="I214" s="43"/>
+      <c r="I214" s="66"/>
     </row>
     <row r="215" ht="18" customHeight="1" spans="1:9">
-      <c r="A215" s="44">
+      <c r="A215" s="67">
         <v>16</v>
       </c>
-      <c r="B215" s="40"/>
+      <c r="B215" s="63"/>
       <c r="C215" s="19" t="s">
         <v>130</v>
       </c>
@@ -5829,13 +6065,13 @@
       </c>
       <c r="G215" s="19"/>
       <c r="H215" s="20"/>
-      <c r="I215" s="43"/>
+      <c r="I215" s="66"/>
     </row>
     <row r="216" ht="18" customHeight="1" spans="1:9">
-      <c r="A216" s="44">
+      <c r="A216" s="67">
         <v>17</v>
       </c>
-      <c r="B216" s="40"/>
+      <c r="B216" s="63"/>
       <c r="C216" s="19" t="s">
         <v>131</v>
       </c>
@@ -5850,13 +6086,13 @@
       </c>
       <c r="G216" s="19"/>
       <c r="H216" s="20"/>
-      <c r="I216" s="43"/>
+      <c r="I216" s="66"/>
     </row>
     <row r="217" ht="18" customHeight="1" spans="1:9">
-      <c r="A217" s="44">
+      <c r="A217" s="67">
         <v>18</v>
       </c>
-      <c r="B217" s="40"/>
+      <c r="B217" s="63"/>
       <c r="C217" s="19" t="s">
         <v>132</v>
       </c>
@@ -5871,13 +6107,13 @@
       </c>
       <c r="G217" s="19"/>
       <c r="H217" s="20"/>
-      <c r="I217" s="43"/>
+      <c r="I217" s="66"/>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:9">
-      <c r="A218" s="44">
+      <c r="A218" s="67">
         <v>19</v>
       </c>
-      <c r="B218" s="40"/>
+      <c r="B218" s="63"/>
       <c r="C218" s="19" t="s">
         <v>133</v>
       </c>
@@ -5892,13 +6128,13 @@
       </c>
       <c r="G218" s="19"/>
       <c r="H218" s="20"/>
-      <c r="I218" s="43"/>
+      <c r="I218" s="66"/>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:9">
-      <c r="A219" s="44">
+      <c r="A219" s="67">
         <v>20</v>
       </c>
-      <c r="B219" s="40"/>
+      <c r="B219" s="63"/>
       <c r="C219" s="19" t="s">
         <v>134</v>
       </c>
@@ -5913,13 +6149,13 @@
       </c>
       <c r="G219" s="19"/>
       <c r="H219" s="20"/>
-      <c r="I219" s="43"/>
+      <c r="I219" s="66"/>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:9">
-      <c r="A220" s="44">
+      <c r="A220" s="67">
         <v>21</v>
       </c>
-      <c r="B220" s="40"/>
+      <c r="B220" s="63"/>
       <c r="C220" s="19" t="s">
         <v>135</v>
       </c>
@@ -5934,13 +6170,13 @@
       </c>
       <c r="G220" s="19"/>
       <c r="H220" s="20"/>
-      <c r="I220" s="43"/>
+      <c r="I220" s="66"/>
     </row>
     <row r="221" ht="18" customHeight="1" spans="1:9">
-      <c r="A221" s="44">
+      <c r="A221" s="67">
         <v>22</v>
       </c>
-      <c r="B221" s="40"/>
+      <c r="B221" s="63"/>
       <c r="C221" s="19" t="s">
         <v>136</v>
       </c>
@@ -5955,13 +6191,13 @@
       </c>
       <c r="G221" s="19"/>
       <c r="H221" s="20"/>
-      <c r="I221" s="43"/>
+      <c r="I221" s="66"/>
     </row>
     <row r="222" ht="18" customHeight="1" spans="1:9">
-      <c r="A222" s="44">
+      <c r="A222" s="67">
         <v>23</v>
       </c>
-      <c r="B222" s="40"/>
+      <c r="B222" s="63"/>
       <c r="C222" s="19" t="s">
         <v>137</v>
       </c>
@@ -5976,13 +6212,13 @@
       </c>
       <c r="G222" s="19"/>
       <c r="H222" s="20"/>
-      <c r="I222" s="43"/>
+      <c r="I222" s="66"/>
     </row>
     <row r="223" ht="18" customHeight="1" spans="1:9">
-      <c r="A223" s="44">
+      <c r="A223" s="67">
         <v>24</v>
       </c>
-      <c r="B223" s="40"/>
+      <c r="B223" s="63"/>
       <c r="C223" s="19" t="s">
         <v>138</v>
       </c>
@@ -5997,13 +6233,13 @@
       </c>
       <c r="G223" s="19"/>
       <c r="H223" s="20"/>
-      <c r="I223" s="43"/>
+      <c r="I223" s="66"/>
     </row>
     <row r="224" ht="18" customHeight="1" spans="1:9">
-      <c r="A224" s="44">
+      <c r="A224" s="67">
         <v>25</v>
       </c>
-      <c r="B224" s="40"/>
+      <c r="B224" s="63"/>
       <c r="C224" s="19" t="s">
         <v>139</v>
       </c>
@@ -6018,13 +6254,13 @@
       </c>
       <c r="G224" s="19"/>
       <c r="H224" s="20"/>
-      <c r="I224" s="43"/>
+      <c r="I224" s="66"/>
     </row>
     <row r="225" ht="18" customHeight="1" spans="1:9">
-      <c r="A225" s="44">
+      <c r="A225" s="67">
         <v>26</v>
       </c>
-      <c r="B225" s="40"/>
+      <c r="B225" s="63"/>
       <c r="C225" s="19" t="s">
         <v>140</v>
       </c>
@@ -6039,13 +6275,13 @@
       </c>
       <c r="G225" s="19"/>
       <c r="H225" s="20"/>
-      <c r="I225" s="43"/>
+      <c r="I225" s="66"/>
     </row>
     <row r="226" ht="18" customHeight="1" spans="1:9">
-      <c r="A226" s="44">
+      <c r="A226" s="67">
         <v>27</v>
       </c>
-      <c r="B226" s="40"/>
+      <c r="B226" s="63"/>
       <c r="C226" s="19" t="s">
         <v>141</v>
       </c>
@@ -6060,13 +6296,13 @@
       </c>
       <c r="G226" s="19"/>
       <c r="H226" s="20"/>
-      <c r="I226" s="43"/>
+      <c r="I226" s="66"/>
     </row>
     <row r="227" ht="18" customHeight="1" spans="1:9">
-      <c r="A227" s="44">
+      <c r="A227" s="67">
         <v>28</v>
       </c>
-      <c r="B227" s="40"/>
+      <c r="B227" s="63"/>
       <c r="C227" s="19" t="s">
         <v>142</v>
       </c>
@@ -6081,13 +6317,13 @@
       </c>
       <c r="G227" s="19"/>
       <c r="H227" s="20"/>
-      <c r="I227" s="43"/>
+      <c r="I227" s="66"/>
     </row>
     <row r="228" ht="18" customHeight="1" spans="1:9">
-      <c r="A228" s="44">
+      <c r="A228" s="67">
         <v>29</v>
       </c>
-      <c r="B228" s="41"/>
+      <c r="B228" s="64"/>
       <c r="C228" s="19" t="s">
         <v>143</v>
       </c>
@@ -6102,7 +6338,7 @@
       </c>
       <c r="G228" s="19"/>
       <c r="H228" s="20"/>
-      <c r="I228" s="43"/>
+      <c r="I228" s="66"/>
     </row>
     <row r="229" ht="18" customHeight="1" spans="1:9">
       <c r="A229" s="3" t="s">
@@ -6117,7 +6353,7 @@
         <v>34</v>
       </c>
       <c r="H229" s="3"/>
-      <c r="I229" s="43"/>
+      <c r="I229" s="66"/>
     </row>
     <row r="230" ht="18" customHeight="1" spans="1:9">
       <c r="A230" s="3" t="s">
@@ -6132,7 +6368,7 @@
         <v>36</v>
       </c>
       <c r="H230" s="3"/>
-      <c r="I230" s="43"/>
+      <c r="I230" s="66"/>
     </row>
     <row r="231" ht="18" customHeight="1" spans="1:9">
       <c r="A231" s="2" t="s">
@@ -6145,18 +6381,18 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
-      <c r="I231" s="43"/>
+      <c r="I231" s="66"/>
     </row>
     <row r="232" ht="18" customHeight="1" spans="1:9">
-      <c r="A232" s="43"/>
-      <c r="B232" s="43"/>
-      <c r="C232" s="43"/>
-      <c r="D232" s="43"/>
-      <c r="E232" s="43"/>
-      <c r="F232" s="43"/>
-      <c r="G232" s="43"/>
-      <c r="H232" s="43"/>
-      <c r="I232" s="43"/>
+      <c r="A232" s="66"/>
+      <c r="B232" s="66"/>
+      <c r="C232" s="66"/>
+      <c r="D232" s="66"/>
+      <c r="E232" s="66"/>
+      <c r="F232" s="66"/>
+      <c r="G232" s="66"/>
+      <c r="H232" s="66"/>
+      <c r="I232" s="66"/>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:9">
       <c r="A233" s="1"/>
@@ -6169,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="H233" s="2"/>
-      <c r="I233" s="43"/>
+      <c r="I233" s="66"/>
     </row>
     <row r="234" ht="18" customHeight="1" spans="1:9">
       <c r="A234" s="1"/>
@@ -6182,7 +6418,7 @@
         <v>145</v>
       </c>
       <c r="H234" s="3"/>
-      <c r="I234" s="43"/>
+      <c r="I234" s="66"/>
     </row>
     <row r="235" ht="18" customHeight="1" spans="1:9">
       <c r="A235" s="4" t="s">
@@ -6195,7 +6431,7 @@
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
-      <c r="I235" s="43"/>
+      <c r="I235" s="66"/>
     </row>
     <row r="236" ht="18" customHeight="1" spans="1:9">
       <c r="A236" s="5" t="s">
@@ -6208,7 +6444,7 @@
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
-      <c r="I236" s="43"/>
+      <c r="I236" s="66"/>
     </row>
     <row r="237" ht="18" customHeight="1" spans="1:9">
       <c r="A237" s="3" t="s">
@@ -6221,7 +6457,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
-      <c r="I237" s="43"/>
+      <c r="I237" s="66"/>
     </row>
     <row r="238" ht="18" customHeight="1" spans="1:9">
       <c r="A238" s="3" t="s">
@@ -6236,7 +6472,7 @@
       </c>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
-      <c r="I238" s="43"/>
+      <c r="I238" s="66"/>
     </row>
     <row r="239" ht="18" customHeight="1" spans="1:9">
       <c r="A239" s="3" t="s">
@@ -6251,7 +6487,7 @@
       </c>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
-      <c r="I239" s="43"/>
+      <c r="I239" s="66"/>
     </row>
     <row r="240" ht="18" customHeight="1" spans="1:9">
       <c r="A240" s="6" t="s">
@@ -6278,19 +6514,19 @@
       <c r="H240" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I240" s="43"/>
+      <c r="I240" s="66"/>
     </row>
     <row r="241" ht="18" customHeight="1" spans="1:9">
-      <c r="A241" s="44">
-        <v>1</v>
-      </c>
-      <c r="B241" s="47" t="s">
+      <c r="A241" s="67">
+        <v>1</v>
+      </c>
+      <c r="B241" s="62" t="s">
         <v>146</v>
       </c>
       <c r="C241" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D241" s="28" t="s">
+      <c r="D241" s="19" t="s">
         <v>79</v>
       </c>
       <c r="E241" s="19" t="s">
@@ -6301,17 +6537,17 @@
       </c>
       <c r="G241" s="19"/>
       <c r="H241" s="20"/>
-      <c r="I241" s="43"/>
+      <c r="I241" s="66"/>
     </row>
     <row r="242" ht="18" customHeight="1" spans="1:9">
-      <c r="A242" s="44">
+      <c r="A242" s="67">
         <v>2</v>
       </c>
-      <c r="B242" s="48"/>
-      <c r="C242" s="43" t="s">
+      <c r="B242" s="63"/>
+      <c r="C242" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D242" s="28" t="s">
+      <c r="D242" s="19" t="s">
         <v>149</v>
       </c>
       <c r="E242" s="19" t="s">
@@ -6322,17 +6558,17 @@
       </c>
       <c r="G242" s="19"/>
       <c r="H242" s="20"/>
-      <c r="I242" s="43"/>
+      <c r="I242" s="66"/>
     </row>
     <row r="243" ht="18" customHeight="1" spans="1:9">
-      <c r="A243" s="44">
+      <c r="A243" s="67">
         <v>3</v>
       </c>
-      <c r="B243" s="48"/>
+      <c r="B243" s="63"/>
       <c r="C243" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D243" s="28" t="s">
+      <c r="D243" s="19" t="s">
         <v>149</v>
       </c>
       <c r="E243" s="19" t="s">
@@ -6343,17 +6579,17 @@
       </c>
       <c r="G243" s="19"/>
       <c r="H243" s="20"/>
-      <c r="I243" s="43"/>
+      <c r="I243" s="66"/>
     </row>
     <row r="244" ht="18" customHeight="1" spans="1:9">
-      <c r="A244" s="44">
+      <c r="A244" s="67">
         <v>4</v>
       </c>
-      <c r="B244" s="49"/>
-      <c r="C244" s="28" t="s">
+      <c r="B244" s="64"/>
+      <c r="C244" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D244" s="28" t="s">
+      <c r="D244" s="19" t="s">
         <v>149</v>
       </c>
       <c r="E244" s="19" t="s">
@@ -6364,19 +6600,19 @@
       </c>
       <c r="G244" s="19"/>
       <c r="H244" s="20"/>
-      <c r="I244" s="43"/>
+      <c r="I244" s="66"/>
     </row>
     <row r="245" ht="18" customHeight="1" spans="1:9">
-      <c r="A245" s="50">
+      <c r="A245" s="68">
         <v>5</v>
       </c>
-      <c r="B245" s="28" t="s">
+      <c r="B245" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C245" s="51" t="s">
+      <c r="C245" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="D245" s="28" t="s">
+      <c r="D245" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E245" s="19" t="s">
@@ -6387,17 +6623,17 @@
       </c>
       <c r="G245" s="19"/>
       <c r="H245" s="20"/>
-      <c r="I245" s="43"/>
+      <c r="I245" s="66"/>
     </row>
     <row r="246" ht="18" customHeight="1" spans="1:9">
-      <c r="A246" s="50">
+      <c r="A246" s="68">
         <v>6</v>
       </c>
-      <c r="B246" s="28"/>
-      <c r="C246" s="51" t="s">
+      <c r="B246" s="19"/>
+      <c r="C246" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="D246" s="28" t="s">
+      <c r="D246" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E246" s="19" t="s">
@@ -6408,17 +6644,17 @@
       </c>
       <c r="G246" s="19"/>
       <c r="H246" s="20"/>
-      <c r="I246" s="43"/>
+      <c r="I246" s="66"/>
     </row>
     <row r="247" ht="18" customHeight="1" spans="1:9">
-      <c r="A247" s="50">
+      <c r="A247" s="68">
         <v>7</v>
       </c>
-      <c r="B247" s="28"/>
-      <c r="C247" s="51" t="s">
+      <c r="B247" s="19"/>
+      <c r="C247" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D247" s="28" t="s">
+      <c r="D247" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E247" s="19" t="s">
@@ -6429,17 +6665,17 @@
       </c>
       <c r="G247" s="19"/>
       <c r="H247" s="20"/>
-      <c r="I247" s="43"/>
+      <c r="I247" s="66"/>
     </row>
     <row r="248" ht="18" customHeight="1" spans="1:9">
-      <c r="A248" s="50">
+      <c r="A248" s="68">
         <v>8</v>
       </c>
-      <c r="B248" s="28"/>
-      <c r="C248" s="52" t="s">
+      <c r="B248" s="19"/>
+      <c r="C248" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D248" s="28" t="s">
+      <c r="D248" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E248" s="19" t="s">
@@ -6450,17 +6686,17 @@
       </c>
       <c r="G248" s="19"/>
       <c r="H248" s="20"/>
-      <c r="I248" s="43"/>
+      <c r="I248" s="66"/>
     </row>
     <row r="249" ht="18" customHeight="1" spans="1:9">
-      <c r="A249" s="50">
+      <c r="A249" s="68">
         <v>9</v>
       </c>
-      <c r="B249" s="28"/>
-      <c r="C249" s="52" t="s">
+      <c r="B249" s="19"/>
+      <c r="C249" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="D249" s="28" t="s">
+      <c r="D249" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E249" s="19" t="s">
@@ -6471,17 +6707,17 @@
       </c>
       <c r="G249" s="19"/>
       <c r="H249" s="20"/>
-      <c r="I249" s="43"/>
+      <c r="I249" s="66"/>
     </row>
     <row r="250" ht="18" customHeight="1" spans="1:9">
-      <c r="A250" s="50">
+      <c r="A250" s="68">
         <v>10</v>
       </c>
-      <c r="B250" s="28"/>
-      <c r="C250" s="52" t="s">
+      <c r="B250" s="19"/>
+      <c r="C250" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="D250" s="28" t="s">
+      <c r="D250" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E250" s="19" t="s">
@@ -6492,17 +6728,17 @@
       </c>
       <c r="G250" s="19"/>
       <c r="H250" s="20"/>
-      <c r="I250" s="43"/>
+      <c r="I250" s="66"/>
     </row>
     <row r="251" ht="18" customHeight="1" spans="1:9">
-      <c r="A251" s="50">
+      <c r="A251" s="68">
         <v>11</v>
       </c>
-      <c r="B251" s="28"/>
-      <c r="C251" s="52" t="s">
+      <c r="B251" s="19"/>
+      <c r="C251" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="D251" s="28" t="s">
+      <c r="D251" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E251" s="19" t="s">
@@ -6513,17 +6749,17 @@
       </c>
       <c r="G251" s="19"/>
       <c r="H251" s="20"/>
-      <c r="I251" s="43"/>
+      <c r="I251" s="66"/>
     </row>
     <row r="252" ht="18" customHeight="1" spans="1:9">
-      <c r="A252" s="50">
+      <c r="A252" s="68">
         <v>12</v>
       </c>
-      <c r="B252" s="28"/>
-      <c r="C252" s="52" t="s">
+      <c r="B252" s="19"/>
+      <c r="C252" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D252" s="28" t="s">
+      <c r="D252" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E252" s="19" t="s">
@@ -6534,17 +6770,17 @@
       </c>
       <c r="G252" s="19"/>
       <c r="H252" s="20"/>
-      <c r="I252" s="43"/>
+      <c r="I252" s="66"/>
     </row>
     <row r="253" ht="18" customHeight="1" spans="1:9">
-      <c r="A253" s="50">
+      <c r="A253" s="68">
         <v>13</v>
       </c>
-      <c r="B253" s="28"/>
-      <c r="C253" s="52" t="s">
+      <c r="B253" s="19"/>
+      <c r="C253" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="D253" s="28" t="s">
+      <c r="D253" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E253" s="19" t="s">
@@ -6555,17 +6791,17 @@
       </c>
       <c r="G253" s="19"/>
       <c r="H253" s="20"/>
-      <c r="I253" s="43"/>
+      <c r="I253" s="66"/>
     </row>
     <row r="254" ht="18" customHeight="1" spans="1:9">
-      <c r="A254" s="50">
+      <c r="A254" s="68">
         <v>14</v>
       </c>
-      <c r="B254" s="28"/>
-      <c r="C254" s="52" t="s">
+      <c r="B254" s="19"/>
+      <c r="C254" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="D254" s="28" t="s">
+      <c r="D254" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E254" s="19" t="s">
@@ -6576,17 +6812,17 @@
       </c>
       <c r="G254" s="19"/>
       <c r="H254" s="20"/>
-      <c r="I254" s="43"/>
+      <c r="I254" s="66"/>
     </row>
     <row r="255" ht="18" customHeight="1" spans="1:9">
-      <c r="A255" s="50">
+      <c r="A255" s="68">
         <v>15</v>
       </c>
-      <c r="B255" s="28"/>
-      <c r="C255" s="52" t="s">
+      <c r="B255" s="19"/>
+      <c r="C255" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="D255" s="28" t="s">
+      <c r="D255" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E255" s="19" t="s">
@@ -6597,17 +6833,17 @@
       </c>
       <c r="G255" s="19"/>
       <c r="H255" s="20"/>
-      <c r="I255" s="43"/>
+      <c r="I255" s="66"/>
     </row>
     <row r="256" ht="18" customHeight="1" spans="1:9">
-      <c r="A256" s="50">
+      <c r="A256" s="68">
         <v>16</v>
       </c>
-      <c r="B256" s="28"/>
-      <c r="C256" s="52" t="s">
+      <c r="B256" s="19"/>
+      <c r="C256" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="D256" s="28" t="s">
+      <c r="D256" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E256" s="19" t="s">
@@ -6618,17 +6854,17 @@
       </c>
       <c r="G256" s="19"/>
       <c r="H256" s="20"/>
-      <c r="I256" s="43"/>
+      <c r="I256" s="66"/>
     </row>
     <row r="257" ht="18" customHeight="1" spans="1:9">
-      <c r="A257" s="50">
+      <c r="A257" s="68">
         <v>17</v>
       </c>
-      <c r="B257" s="28"/>
-      <c r="C257" s="52" t="s">
+      <c r="B257" s="19"/>
+      <c r="C257" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="D257" s="28" t="s">
+      <c r="D257" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E257" s="19" t="s">
@@ -6639,17 +6875,17 @@
       </c>
       <c r="G257" s="19"/>
       <c r="H257" s="20"/>
-      <c r="I257" s="43"/>
+      <c r="I257" s="66"/>
     </row>
     <row r="258" ht="18" customHeight="1" spans="1:9">
-      <c r="A258" s="50">
+      <c r="A258" s="68">
         <v>18</v>
       </c>
-      <c r="B258" s="28"/>
-      <c r="C258" s="52" t="s">
+      <c r="B258" s="19"/>
+      <c r="C258" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="D258" s="28" t="s">
+      <c r="D258" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E258" s="19" t="s">
@@ -6660,17 +6896,17 @@
       </c>
       <c r="G258" s="19"/>
       <c r="H258" s="20"/>
-      <c r="I258" s="43"/>
+      <c r="I258" s="66"/>
     </row>
     <row r="259" ht="18" customHeight="1" spans="1:9">
-      <c r="A259" s="50">
+      <c r="A259" s="68">
         <v>19</v>
       </c>
-      <c r="B259" s="28"/>
-      <c r="C259" s="52" t="s">
+      <c r="B259" s="19"/>
+      <c r="C259" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="D259" s="28" t="s">
+      <c r="D259" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E259" s="19" t="s">
@@ -6681,17 +6917,17 @@
       </c>
       <c r="G259" s="19"/>
       <c r="H259" s="20"/>
-      <c r="I259" s="43"/>
+      <c r="I259" s="66"/>
     </row>
     <row r="260" ht="18" customHeight="1" spans="1:9">
-      <c r="A260" s="50">
+      <c r="A260" s="68">
         <v>20</v>
       </c>
-      <c r="B260" s="28"/>
-      <c r="C260" s="52" t="s">
+      <c r="B260" s="19"/>
+      <c r="C260" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="D260" s="28" t="s">
+      <c r="D260" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E260" s="19" t="s">
@@ -6702,17 +6938,17 @@
       </c>
       <c r="G260" s="19"/>
       <c r="H260" s="20"/>
-      <c r="I260" s="43"/>
+      <c r="I260" s="66"/>
     </row>
     <row r="261" ht="18" customHeight="1" spans="1:9">
-      <c r="A261" s="50">
+      <c r="A261" s="68">
         <v>21</v>
       </c>
-      <c r="B261" s="28"/>
-      <c r="C261" s="52" t="s">
+      <c r="B261" s="19"/>
+      <c r="C261" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="D261" s="28" t="s">
+      <c r="D261" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E261" s="19" t="s">
@@ -6723,17 +6959,17 @@
       </c>
       <c r="G261" s="19"/>
       <c r="H261" s="20"/>
-      <c r="I261" s="43"/>
+      <c r="I261" s="66"/>
     </row>
     <row r="262" ht="18" customHeight="1" spans="1:9">
-      <c r="A262" s="50">
+      <c r="A262" s="68">
         <v>22</v>
       </c>
-      <c r="B262" s="28"/>
-      <c r="C262" s="52" t="s">
+      <c r="B262" s="19"/>
+      <c r="C262" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="D262" s="28" t="s">
+      <c r="D262" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E262" s="19" t="s">
@@ -6744,17 +6980,17 @@
       </c>
       <c r="G262" s="19"/>
       <c r="H262" s="20"/>
-      <c r="I262" s="43"/>
+      <c r="I262" s="66"/>
     </row>
     <row r="263" ht="18" customHeight="1" spans="1:9">
-      <c r="A263" s="50">
+      <c r="A263" s="68">
         <v>23</v>
       </c>
-      <c r="B263" s="28"/>
-      <c r="C263" s="52" t="s">
+      <c r="B263" s="19"/>
+      <c r="C263" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="D263" s="28" t="s">
+      <c r="D263" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E263" s="19" t="s">
@@ -6765,17 +7001,17 @@
       </c>
       <c r="G263" s="19"/>
       <c r="H263" s="20"/>
-      <c r="I263" s="43"/>
+      <c r="I263" s="66"/>
     </row>
     <row r="264" ht="18" customHeight="1" spans="1:9">
-      <c r="A264" s="50">
+      <c r="A264" s="68">
         <v>24</v>
       </c>
-      <c r="B264" s="28"/>
-      <c r="C264" s="52" t="s">
+      <c r="B264" s="19"/>
+      <c r="C264" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="D264" s="28" t="s">
+      <c r="D264" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E264" s="19" t="s">
@@ -6786,17 +7022,17 @@
       </c>
       <c r="G264" s="19"/>
       <c r="H264" s="20"/>
-      <c r="I264" s="43"/>
+      <c r="I264" s="66"/>
     </row>
     <row r="265" ht="18" customHeight="1" spans="1:9">
-      <c r="A265" s="50">
+      <c r="A265" s="68">
         <v>25</v>
       </c>
-      <c r="B265" s="28"/>
-      <c r="C265" s="52" t="s">
+      <c r="B265" s="19"/>
+      <c r="C265" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="D265" s="28" t="s">
+      <c r="D265" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E265" s="19" t="s">
@@ -6807,17 +7043,17 @@
       </c>
       <c r="G265" s="19"/>
       <c r="H265" s="20"/>
-      <c r="I265" s="43"/>
+      <c r="I265" s="66"/>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:9">
-      <c r="A266" s="50">
+      <c r="A266" s="68">
         <v>26</v>
       </c>
-      <c r="B266" s="28"/>
-      <c r="C266" s="52" t="s">
+      <c r="B266" s="19"/>
+      <c r="C266" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="D266" s="28" t="s">
+      <c r="D266" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E266" s="19" t="s">
@@ -6828,17 +7064,17 @@
       </c>
       <c r="G266" s="19"/>
       <c r="H266" s="20"/>
-      <c r="I266" s="43"/>
+      <c r="I266" s="66"/>
     </row>
     <row r="267" ht="18" customHeight="1" spans="1:9">
-      <c r="A267" s="50">
+      <c r="A267" s="68">
         <v>27</v>
       </c>
-      <c r="B267" s="28"/>
-      <c r="C267" s="52" t="s">
+      <c r="B267" s="19"/>
+      <c r="C267" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="D267" s="28" t="s">
+      <c r="D267" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E267" s="19" t="s">
@@ -6848,18 +7084,18 @@
         <v>1</v>
       </c>
       <c r="G267" s="19"/>
-      <c r="H267" s="53"/>
-      <c r="I267" s="43"/>
+      <c r="H267" s="70"/>
+      <c r="I267" s="66"/>
     </row>
     <row r="268" ht="18" customHeight="1" spans="1:9">
-      <c r="A268" s="50">
+      <c r="A268" s="68">
         <v>28</v>
       </c>
-      <c r="B268" s="28"/>
-      <c r="C268" s="52" t="s">
+      <c r="B268" s="19"/>
+      <c r="C268" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="D268" s="28" t="s">
+      <c r="D268" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E268" s="19" t="s">
@@ -6869,18 +7105,18 @@
         <v>1</v>
       </c>
       <c r="G268" s="19"/>
-      <c r="H268" s="53"/>
-      <c r="I268" s="43"/>
+      <c r="H268" s="70"/>
+      <c r="I268" s="66"/>
     </row>
     <row r="269" ht="18" customHeight="1" spans="1:9">
-      <c r="A269" s="50">
+      <c r="A269" s="68">
         <v>29</v>
       </c>
-      <c r="B269" s="28"/>
-      <c r="C269" s="52" t="s">
+      <c r="B269" s="19"/>
+      <c r="C269" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="D269" s="28" t="s">
+      <c r="D269" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E269" s="19" t="s">
@@ -6890,18 +7126,18 @@
         <v>1</v>
       </c>
       <c r="G269" s="19"/>
-      <c r="H269" s="53"/>
-      <c r="I269" s="43"/>
+      <c r="H269" s="70"/>
+      <c r="I269" s="66"/>
     </row>
     <row r="270" ht="18" customHeight="1" spans="1:9">
-      <c r="A270" s="50">
+      <c r="A270" s="68">
         <v>30</v>
       </c>
-      <c r="B270" s="28"/>
-      <c r="C270" s="52" t="s">
+      <c r="B270" s="19"/>
+      <c r="C270" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D270" s="28" t="s">
+      <c r="D270" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E270" s="19" t="s">
@@ -6911,18 +7147,18 @@
         <v>1</v>
       </c>
       <c r="G270" s="19"/>
-      <c r="H270" s="53"/>
-      <c r="I270" s="43"/>
+      <c r="H270" s="70"/>
+      <c r="I270" s="66"/>
     </row>
     <row r="271" ht="18" customHeight="1" spans="1:9">
-      <c r="A271" s="50">
+      <c r="A271" s="68">
         <v>31</v>
       </c>
-      <c r="B271" s="28"/>
-      <c r="C271" s="52" t="s">
+      <c r="B271" s="19"/>
+      <c r="C271" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="D271" s="28" t="s">
+      <c r="D271" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E271" s="19" t="s">
@@ -6932,18 +7168,18 @@
         <v>1</v>
       </c>
       <c r="G271" s="19"/>
-      <c r="H271" s="53"/>
-      <c r="I271" s="43"/>
+      <c r="H271" s="70"/>
+      <c r="I271" s="66"/>
     </row>
     <row r="272" ht="18" customHeight="1" spans="1:9">
-      <c r="A272" s="50">
+      <c r="A272" s="68">
         <v>32</v>
       </c>
-      <c r="B272" s="28"/>
-      <c r="C272" s="52" t="s">
+      <c r="B272" s="19"/>
+      <c r="C272" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="D272" s="28" t="s">
+      <c r="D272" s="19" t="s">
         <v>179</v>
       </c>
       <c r="E272" s="19" t="s">
@@ -6953,18 +7189,18 @@
         <v>1</v>
       </c>
       <c r="G272" s="19"/>
-      <c r="H272" s="53"/>
-      <c r="I272" s="43"/>
+      <c r="H272" s="70"/>
+      <c r="I272" s="66"/>
     </row>
     <row r="273" ht="18" customHeight="1" spans="1:9">
-      <c r="A273" s="50">
+      <c r="A273" s="68">
         <v>33</v>
       </c>
-      <c r="B273" s="28"/>
-      <c r="C273" s="52" t="s">
+      <c r="B273" s="19"/>
+      <c r="C273" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="D273" s="28" t="s">
+      <c r="D273" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E273" s="19" t="s">
@@ -6974,18 +7210,18 @@
         <v>1</v>
       </c>
       <c r="G273" s="19"/>
-      <c r="H273" s="53"/>
-      <c r="I273" s="43"/>
+      <c r="H273" s="70"/>
+      <c r="I273" s="66"/>
     </row>
     <row r="274" ht="18" customHeight="1" spans="1:9">
-      <c r="A274" s="50">
+      <c r="A274" s="68">
         <v>34</v>
       </c>
-      <c r="B274" s="28"/>
-      <c r="C274" s="52" t="s">
+      <c r="B274" s="19"/>
+      <c r="C274" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="D274" s="28" t="s">
+      <c r="D274" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E274" s="19" t="s">
@@ -6995,18 +7231,18 @@
         <v>1</v>
       </c>
       <c r="G274" s="19"/>
-      <c r="H274" s="53"/>
-      <c r="I274" s="43"/>
+      <c r="H274" s="70"/>
+      <c r="I274" s="66"/>
     </row>
     <row r="275" ht="18" customHeight="1" spans="1:9">
-      <c r="A275" s="50">
+      <c r="A275" s="68">
         <v>35</v>
       </c>
-      <c r="B275" s="28"/>
-      <c r="C275" s="52" t="s">
+      <c r="B275" s="19"/>
+      <c r="C275" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="D275" s="28" t="s">
+      <c r="D275" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E275" s="19" t="s">
@@ -7016,18 +7252,18 @@
         <v>1</v>
       </c>
       <c r="G275" s="19"/>
-      <c r="H275" s="53"/>
-      <c r="I275" s="43"/>
+      <c r="H275" s="70"/>
+      <c r="I275" s="66"/>
     </row>
     <row r="276" ht="18" customHeight="1" spans="1:9">
-      <c r="A276" s="50">
+      <c r="A276" s="68">
         <v>36</v>
       </c>
-      <c r="B276" s="28"/>
-      <c r="C276" s="52" t="s">
+      <c r="B276" s="19"/>
+      <c r="C276" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="D276" s="28" t="s">
+      <c r="D276" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E276" s="19" t="s">
@@ -7037,20 +7273,20 @@
         <v>1</v>
       </c>
       <c r="G276" s="19"/>
-      <c r="H276" s="53"/>
-      <c r="I276" s="43"/>
+      <c r="H276" s="70"/>
+      <c r="I276" s="66"/>
     </row>
     <row r="277" ht="18" customHeight="1" spans="1:9">
-      <c r="A277" s="50">
+      <c r="A277" s="68">
         <v>37</v>
       </c>
       <c r="B277" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C277" s="52" t="s">
+      <c r="C277" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="D277" s="28" t="s">
+      <c r="D277" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E277" s="19" t="s">
@@ -7060,18 +7296,18 @@
         <v>1</v>
       </c>
       <c r="G277" s="19"/>
-      <c r="H277" s="53"/>
-      <c r="I277" s="43"/>
+      <c r="H277" s="70"/>
+      <c r="I277" s="66"/>
     </row>
     <row r="278" ht="18" customHeight="1" spans="1:9">
-      <c r="A278" s="50">
+      <c r="A278" s="68">
         <v>38</v>
       </c>
       <c r="B278" s="19"/>
-      <c r="C278" s="52" t="s">
+      <c r="C278" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="D278" s="28" t="s">
+      <c r="D278" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E278" s="19" t="s">
@@ -7081,18 +7317,18 @@
         <v>1</v>
       </c>
       <c r="G278" s="19"/>
-      <c r="H278" s="53"/>
-      <c r="I278" s="43"/>
+      <c r="H278" s="70"/>
+      <c r="I278" s="66"/>
     </row>
     <row r="279" ht="18" customHeight="1" spans="1:9">
-      <c r="A279" s="50">
+      <c r="A279" s="68">
         <v>39</v>
       </c>
       <c r="B279" s="19"/>
-      <c r="C279" s="52" t="s">
+      <c r="C279" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="D279" s="28" t="s">
+      <c r="D279" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E279" s="19" t="s">
@@ -7102,18 +7338,18 @@
         <v>1</v>
       </c>
       <c r="G279" s="19"/>
-      <c r="H279" s="53"/>
-      <c r="I279" s="43"/>
+      <c r="H279" s="70"/>
+      <c r="I279" s="66"/>
     </row>
     <row r="280" ht="18" customHeight="1" spans="1:9">
-      <c r="A280" s="50">
+      <c r="A280" s="68">
         <v>40</v>
       </c>
       <c r="B280" s="19"/>
-      <c r="C280" s="52" t="s">
+      <c r="C280" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="D280" s="28" t="s">
+      <c r="D280" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E280" s="19" t="s">
@@ -7123,18 +7359,18 @@
         <v>3</v>
       </c>
       <c r="G280" s="19"/>
-      <c r="H280" s="53"/>
-      <c r="I280" s="43"/>
+      <c r="H280" s="70"/>
+      <c r="I280" s="66"/>
     </row>
     <row r="281" ht="18" customHeight="1" spans="1:9">
-      <c r="A281" s="50">
+      <c r="A281" s="68">
         <v>41</v>
       </c>
       <c r="B281" s="19"/>
-      <c r="C281" s="52" t="s">
+      <c r="C281" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="D281" s="28" t="s">
+      <c r="D281" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E281" s="19" t="s">
@@ -7144,18 +7380,18 @@
         <v>3</v>
       </c>
       <c r="G281" s="19"/>
-      <c r="H281" s="53"/>
-      <c r="I281" s="43"/>
+      <c r="H281" s="70"/>
+      <c r="I281" s="66"/>
     </row>
     <row r="282" ht="18" customHeight="1" spans="1:9">
-      <c r="A282" s="50">
+      <c r="A282" s="68">
         <v>42</v>
       </c>
       <c r="B282" s="19"/>
-      <c r="C282" s="52" t="s">
+      <c r="C282" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="D282" s="28" t="s">
+      <c r="D282" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E282" s="19" t="s">
@@ -7165,18 +7401,18 @@
         <v>1</v>
       </c>
       <c r="G282" s="19"/>
-      <c r="H282" s="53"/>
-      <c r="I282" s="43"/>
+      <c r="H282" s="70"/>
+      <c r="I282" s="66"/>
     </row>
     <row r="283" ht="18" customHeight="1" spans="1:9">
-      <c r="A283" s="50">
+      <c r="A283" s="68">
         <v>43</v>
       </c>
       <c r="B283" s="19"/>
-      <c r="C283" s="52" t="s">
+      <c r="C283" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="D283" s="28" t="s">
+      <c r="D283" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E283" s="19" t="s">
@@ -7186,18 +7422,18 @@
         <v>1</v>
       </c>
       <c r="G283" s="19"/>
-      <c r="H283" s="53"/>
-      <c r="I283" s="43"/>
+      <c r="H283" s="70"/>
+      <c r="I283" s="66"/>
     </row>
     <row r="284" ht="18" customHeight="1" spans="1:9">
-      <c r="A284" s="50">
+      <c r="A284" s="68">
         <v>44</v>
       </c>
       <c r="B284" s="19"/>
-      <c r="C284" s="52" t="s">
+      <c r="C284" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="D284" s="28" t="s">
+      <c r="D284" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E284" s="19" t="s">
@@ -7207,18 +7443,18 @@
         <v>1</v>
       </c>
       <c r="G284" s="19"/>
-      <c r="H284" s="53"/>
-      <c r="I284" s="43"/>
+      <c r="H284" s="70"/>
+      <c r="I284" s="66"/>
     </row>
     <row r="285" ht="18" customHeight="1" spans="1:9">
-      <c r="A285" s="50">
+      <c r="A285" s="68">
         <v>45</v>
       </c>
       <c r="B285" s="19"/>
-      <c r="C285" s="52" t="s">
+      <c r="C285" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="D285" s="28" t="s">
+      <c r="D285" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E285" s="19" t="s">
@@ -7228,55 +7464,55 @@
         <v>1</v>
       </c>
       <c r="G285" s="19"/>
-      <c r="H285" s="53"/>
-      <c r="I285" s="43"/>
+      <c r="H285" s="70"/>
+      <c r="I285" s="66"/>
     </row>
     <row r="286" ht="18" customHeight="1" spans="1:9">
-      <c r="A286" s="50">
+      <c r="A286" s="68">
         <v>46</v>
       </c>
       <c r="B286" s="19"/>
-      <c r="C286" s="51" t="s">
+      <c r="C286" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="D286" s="28" t="s">
+      <c r="D286" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E286" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F286" s="54">
+      <c r="F286" s="71">
         <v>1</v>
       </c>
       <c r="G286" s="19"/>
-      <c r="H286" s="53"/>
-      <c r="I286" s="43"/>
+      <c r="H286" s="70"/>
+      <c r="I286" s="66"/>
     </row>
     <row r="287" ht="18" customHeight="1" spans="1:9">
-      <c r="A287" s="50">
+      <c r="A287" s="68">
         <v>47</v>
       </c>
       <c r="B287" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C287" s="51" t="s">
+      <c r="C287" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="D287" s="28" t="s">
+      <c r="D287" s="19" t="s">
         <v>179</v>
       </c>
       <c r="E287" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F287" s="54">
+      <c r="F287" s="71">
         <v>1</v>
       </c>
       <c r="G287" s="19"/>
-      <c r="H287" s="53"/>
-      <c r="I287" s="43"/>
+      <c r="H287" s="70"/>
+      <c r="I287" s="66"/>
     </row>
     <row r="288" ht="18" customHeight="1" spans="1:9">
-      <c r="A288" s="44">
+      <c r="A288" s="67">
         <v>48</v>
       </c>
       <c r="B288" s="19" t="s">
@@ -7296,7 +7532,7 @@
       </c>
       <c r="G288" s="19"/>
       <c r="H288" s="19"/>
-      <c r="I288" s="43"/>
+      <c r="I288" s="66"/>
     </row>
     <row r="289" ht="18" customHeight="1" spans="1:9">
       <c r="A289" s="3" t="s">
@@ -7311,7 +7547,7 @@
         <v>34</v>
       </c>
       <c r="H289" s="3"/>
-      <c r="I289" s="43"/>
+      <c r="I289" s="66"/>
     </row>
     <row r="290" ht="18" customHeight="1" spans="1:9">
       <c r="A290" s="3" t="s">
@@ -7326,7 +7562,7 @@
         <v>36</v>
       </c>
       <c r="H290" s="3"/>
-      <c r="I290" s="43"/>
+      <c r="I290" s="66"/>
     </row>
     <row r="291" ht="18" customHeight="1" spans="1:9">
       <c r="A291" s="2" t="s">
@@ -7339,18 +7575,18 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
-      <c r="I291" s="43"/>
+      <c r="I291" s="66"/>
     </row>
     <row r="292" ht="18" customHeight="1" spans="1:9">
-      <c r="A292" s="43"/>
-      <c r="B292" s="43"/>
-      <c r="C292" s="43"/>
-      <c r="D292" s="43"/>
-      <c r="E292" s="43"/>
-      <c r="F292" s="43"/>
-      <c r="G292" s="43"/>
-      <c r="H292" s="43"/>
-      <c r="I292" s="43"/>
+      <c r="A292" s="66"/>
+      <c r="B292" s="66"/>
+      <c r="C292" s="66"/>
+      <c r="D292" s="66"/>
+      <c r="E292" s="66"/>
+      <c r="F292" s="66"/>
+      <c r="G292" s="66"/>
+      <c r="H292" s="66"/>
+      <c r="I292" s="66"/>
     </row>
     <row r="293" ht="18" customHeight="1" spans="1:9">
       <c r="A293" s="1"/>
@@ -7363,7 +7599,7 @@
         <v>197</v>
       </c>
       <c r="H293" s="2"/>
-      <c r="I293" s="43"/>
+      <c r="I293" s="66"/>
     </row>
     <row r="294" ht="18" customHeight="1" spans="1:9">
       <c r="A294" s="1"/>
@@ -7376,7 +7612,7 @@
         <v>198</v>
       </c>
       <c r="H294" s="3"/>
-      <c r="I294" s="43"/>
+      <c r="I294" s="66"/>
     </row>
     <row r="295" ht="18" customHeight="1" spans="1:9">
       <c r="A295" s="4" t="s">
@@ -7389,7 +7625,7 @@
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
-      <c r="I295" s="43"/>
+      <c r="I295" s="66"/>
     </row>
     <row r="296" ht="18" customHeight="1" spans="1:9">
       <c r="A296" s="5" t="s">
@@ -7402,7 +7638,7 @@
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
-      <c r="I296" s="43"/>
+      <c r="I296" s="66"/>
     </row>
     <row r="297" ht="18" customHeight="1" spans="1:9">
       <c r="A297" s="3" t="s">
@@ -7415,7 +7651,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
-      <c r="I297" s="43"/>
+      <c r="I297" s="66"/>
     </row>
     <row r="298" ht="18" customHeight="1" spans="1:9">
       <c r="A298" s="3" t="s">
@@ -7430,7 +7666,7 @@
       </c>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
-      <c r="I298" s="43"/>
+      <c r="I298" s="66"/>
     </row>
     <row r="299" ht="18" customHeight="1" spans="1:9">
       <c r="A299" s="3" t="s">
@@ -7445,7 +7681,7 @@
       </c>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
-      <c r="I299" s="43"/>
+      <c r="I299" s="66"/>
     </row>
     <row r="300" ht="18" customHeight="1" spans="1:9">
       <c r="A300" s="6" t="s">
@@ -7472,13 +7708,13 @@
       <c r="H300" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I300" s="43"/>
+      <c r="I300" s="66"/>
     </row>
     <row r="301" ht="18" customHeight="1" spans="1:9">
-      <c r="A301" s="44">
-        <v>1</v>
-      </c>
-      <c r="B301" s="47" t="s">
+      <c r="A301" s="67">
+        <v>1</v>
+      </c>
+      <c r="B301" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C301" s="19" t="s">
@@ -7495,13 +7731,13 @@
       </c>
       <c r="G301" s="19"/>
       <c r="H301" s="20"/>
-      <c r="I301" s="43"/>
+      <c r="I301" s="66"/>
     </row>
     <row r="302" ht="18" customHeight="1" spans="1:9">
-      <c r="A302" s="44">
+      <c r="A302" s="67">
         <v>2</v>
       </c>
-      <c r="B302" s="49"/>
+      <c r="B302" s="64"/>
       <c r="C302" s="19" t="s">
         <v>202</v>
       </c>
@@ -7516,19 +7752,19 @@
       </c>
       <c r="G302" s="19"/>
       <c r="H302" s="20"/>
-      <c r="I302" s="43"/>
+      <c r="I302" s="66"/>
     </row>
     <row r="303" ht="18" customHeight="1" spans="1:9">
-      <c r="A303" s="44">
+      <c r="A303" s="67">
         <v>3</v>
       </c>
-      <c r="B303" s="39" t="s">
+      <c r="B303" s="62" t="s">
         <v>67</v>
       </c>
       <c r="C303" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D303" s="28" t="s">
+      <c r="D303" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E303" s="19" t="s">
@@ -7539,17 +7775,17 @@
       </c>
       <c r="G303" s="19"/>
       <c r="H303" s="20"/>
-      <c r="I303" s="43"/>
+      <c r="I303" s="66"/>
     </row>
     <row r="304" ht="18" customHeight="1" spans="1:9">
-      <c r="A304" s="44">
+      <c r="A304" s="67">
         <v>4</v>
       </c>
-      <c r="B304" s="48"/>
+      <c r="B304" s="63"/>
       <c r="C304" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D304" s="28" t="s">
+      <c r="D304" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E304" s="19" t="s">
@@ -7560,17 +7796,17 @@
       </c>
       <c r="G304" s="19"/>
       <c r="H304" s="20"/>
-      <c r="I304" s="43"/>
+      <c r="I304" s="66"/>
     </row>
     <row r="305" ht="18" customHeight="1" spans="1:9">
-      <c r="A305" s="44">
+      <c r="A305" s="67">
         <v>5</v>
       </c>
-      <c r="B305" s="48"/>
+      <c r="B305" s="63"/>
       <c r="C305" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D305" s="28" t="s">
+      <c r="D305" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E305" s="19" t="s">
@@ -7581,17 +7817,17 @@
       </c>
       <c r="G305" s="19"/>
       <c r="H305" s="20"/>
-      <c r="I305" s="43"/>
+      <c r="I305" s="66"/>
     </row>
     <row r="306" ht="18" customHeight="1" spans="1:9">
-      <c r="A306" s="44">
+      <c r="A306" s="67">
         <v>6</v>
       </c>
-      <c r="B306" s="48"/>
+      <c r="B306" s="63"/>
       <c r="C306" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D306" s="28" t="s">
+      <c r="D306" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E306" s="19" t="s">
@@ -7602,17 +7838,17 @@
       </c>
       <c r="G306" s="19"/>
       <c r="H306" s="20"/>
-      <c r="I306" s="43"/>
+      <c r="I306" s="66"/>
     </row>
     <row r="307" ht="18" customHeight="1" spans="1:9">
-      <c r="A307" s="44">
+      <c r="A307" s="67">
         <v>7</v>
       </c>
-      <c r="B307" s="48"/>
+      <c r="B307" s="63"/>
       <c r="C307" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D307" s="28" t="s">
+      <c r="D307" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E307" s="19" t="s">
@@ -7623,17 +7859,17 @@
       </c>
       <c r="G307" s="19"/>
       <c r="H307" s="20"/>
-      <c r="I307" s="43"/>
+      <c r="I307" s="66"/>
     </row>
     <row r="308" ht="18" customHeight="1" spans="1:9">
-      <c r="A308" s="44">
+      <c r="A308" s="67">
         <v>8</v>
       </c>
-      <c r="B308" s="48"/>
+      <c r="B308" s="63"/>
       <c r="C308" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D308" s="28" t="s">
+      <c r="D308" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E308" s="19" t="s">
@@ -7644,17 +7880,17 @@
       </c>
       <c r="G308" s="19"/>
       <c r="H308" s="20"/>
-      <c r="I308" s="43"/>
+      <c r="I308" s="66"/>
     </row>
     <row r="309" ht="18" customHeight="1" spans="1:9">
-      <c r="A309" s="44">
+      <c r="A309" s="67">
         <v>9</v>
       </c>
-      <c r="B309" s="48"/>
+      <c r="B309" s="63"/>
       <c r="C309" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D309" s="28" t="s">
+      <c r="D309" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E309" s="19" t="s">
@@ -7665,17 +7901,17 @@
       </c>
       <c r="G309" s="19"/>
       <c r="H309" s="20"/>
-      <c r="I309" s="43"/>
+      <c r="I309" s="66"/>
     </row>
     <row r="310" ht="18" customHeight="1" spans="1:9">
-      <c r="A310" s="44">
+      <c r="A310" s="67">
         <v>10</v>
       </c>
-      <c r="B310" s="48"/>
+      <c r="B310" s="63"/>
       <c r="C310" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D310" s="28" t="s">
+      <c r="D310" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E310" s="19" t="s">
@@ -7686,17 +7922,17 @@
       </c>
       <c r="G310" s="19"/>
       <c r="H310" s="20"/>
-      <c r="I310" s="43"/>
+      <c r="I310" s="66"/>
     </row>
     <row r="311" ht="18" customHeight="1" spans="1:9">
-      <c r="A311" s="44">
+      <c r="A311" s="67">
         <v>11</v>
       </c>
-      <c r="B311" s="48"/>
+      <c r="B311" s="63"/>
       <c r="C311" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D311" s="28" t="s">
+      <c r="D311" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E311" s="19" t="s">
@@ -7707,17 +7943,17 @@
       </c>
       <c r="G311" s="19"/>
       <c r="H311" s="20"/>
-      <c r="I311" s="43"/>
+      <c r="I311" s="66"/>
     </row>
     <row r="312" ht="18" customHeight="1" spans="1:9">
-      <c r="A312" s="44">
+      <c r="A312" s="67">
         <v>12</v>
       </c>
-      <c r="B312" s="48"/>
+      <c r="B312" s="63"/>
       <c r="C312" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D312" s="28" t="s">
+      <c r="D312" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E312" s="19" t="s">
@@ -7728,17 +7964,17 @@
       </c>
       <c r="G312" s="19"/>
       <c r="H312" s="20"/>
-      <c r="I312" s="43"/>
+      <c r="I312" s="66"/>
     </row>
     <row r="313" ht="18" customHeight="1" spans="1:9">
-      <c r="A313" s="44">
+      <c r="A313" s="67">
         <v>13</v>
       </c>
-      <c r="B313" s="48"/>
+      <c r="B313" s="63"/>
       <c r="C313" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D313" s="28" t="s">
+      <c r="D313" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E313" s="19" t="s">
@@ -7749,17 +7985,17 @@
       </c>
       <c r="G313" s="19"/>
       <c r="H313" s="20"/>
-      <c r="I313" s="43"/>
+      <c r="I313" s="66"/>
     </row>
     <row r="314" ht="18" customHeight="1" spans="1:9">
-      <c r="A314" s="44">
+      <c r="A314" s="67">
         <v>14</v>
       </c>
-      <c r="B314" s="48"/>
+      <c r="B314" s="63"/>
       <c r="C314" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="D314" s="28" t="s">
+      <c r="D314" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E314" s="19" t="s">
@@ -7770,17 +8006,17 @@
       </c>
       <c r="G314" s="19"/>
       <c r="H314" s="20"/>
-      <c r="I314" s="43"/>
+      <c r="I314" s="66"/>
     </row>
     <row r="315" ht="18" customHeight="1" spans="1:9">
-      <c r="A315" s="44">
+      <c r="A315" s="67">
         <v>15</v>
       </c>
-      <c r="B315" s="48"/>
+      <c r="B315" s="63"/>
       <c r="C315" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D315" s="28" t="s">
+      <c r="D315" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E315" s="19" t="s">
@@ -7791,17 +8027,17 @@
       </c>
       <c r="G315" s="19"/>
       <c r="H315" s="20"/>
-      <c r="I315" s="43"/>
+      <c r="I315" s="66"/>
     </row>
     <row r="316" ht="18" customHeight="1" spans="1:9">
-      <c r="A316" s="44">
+      <c r="A316" s="67">
         <v>16</v>
       </c>
-      <c r="B316" s="48"/>
+      <c r="B316" s="63"/>
       <c r="C316" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D316" s="28" t="s">
+      <c r="D316" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E316" s="19" t="s">
@@ -7812,17 +8048,17 @@
       </c>
       <c r="G316" s="19"/>
       <c r="H316" s="20"/>
-      <c r="I316" s="43"/>
+      <c r="I316" s="66"/>
     </row>
     <row r="317" ht="18" customHeight="1" spans="1:9">
-      <c r="A317" s="44">
+      <c r="A317" s="67">
         <v>17</v>
       </c>
-      <c r="B317" s="48"/>
+      <c r="B317" s="63"/>
       <c r="C317" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D317" s="28" t="s">
+      <c r="D317" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E317" s="19" t="s">
@@ -7833,17 +8069,17 @@
       </c>
       <c r="G317" s="19"/>
       <c r="H317" s="20"/>
-      <c r="I317" s="43"/>
+      <c r="I317" s="66"/>
     </row>
     <row r="318" ht="18" customHeight="1" spans="1:9">
-      <c r="A318" s="44">
+      <c r="A318" s="67">
         <v>18</v>
       </c>
-      <c r="B318" s="48"/>
+      <c r="B318" s="63"/>
       <c r="C318" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D318" s="28" t="s">
+      <c r="D318" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E318" s="19" t="s">
@@ -7854,17 +8090,17 @@
       </c>
       <c r="G318" s="19"/>
       <c r="H318" s="20"/>
-      <c r="I318" s="43"/>
+      <c r="I318" s="66"/>
     </row>
     <row r="319" ht="18" customHeight="1" spans="1:9">
-      <c r="A319" s="44">
+      <c r="A319" s="67">
         <v>19</v>
       </c>
-      <c r="B319" s="48"/>
+      <c r="B319" s="63"/>
       <c r="C319" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D319" s="28" t="s">
+      <c r="D319" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E319" s="19" t="s">
@@ -7875,17 +8111,17 @@
       </c>
       <c r="G319" s="19"/>
       <c r="H319" s="20"/>
-      <c r="I319" s="43"/>
+      <c r="I319" s="66"/>
     </row>
     <row r="320" ht="18" customHeight="1" spans="1:9">
-      <c r="A320" s="44">
+      <c r="A320" s="67">
         <v>20</v>
       </c>
-      <c r="B320" s="48"/>
+      <c r="B320" s="63"/>
       <c r="C320" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D320" s="28" t="s">
+      <c r="D320" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E320" s="19" t="s">
@@ -7896,17 +8132,17 @@
       </c>
       <c r="G320" s="19"/>
       <c r="H320" s="20"/>
-      <c r="I320" s="43"/>
+      <c r="I320" s="66"/>
     </row>
     <row r="321" ht="18" customHeight="1" spans="1:9">
-      <c r="A321" s="44">
+      <c r="A321" s="67">
         <v>21</v>
       </c>
-      <c r="B321" s="48"/>
+      <c r="B321" s="63"/>
       <c r="C321" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D321" s="28" t="s">
+      <c r="D321" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E321" s="19" t="s">
@@ -7917,17 +8153,17 @@
       </c>
       <c r="G321" s="19"/>
       <c r="H321" s="20"/>
-      <c r="I321" s="43"/>
+      <c r="I321" s="66"/>
     </row>
     <row r="322" ht="18" customHeight="1" spans="1:9">
-      <c r="A322" s="44">
+      <c r="A322" s="67">
         <v>22</v>
       </c>
-      <c r="B322" s="48"/>
+      <c r="B322" s="63"/>
       <c r="C322" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D322" s="28" t="s">
+      <c r="D322" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E322" s="19" t="s">
@@ -7938,17 +8174,17 @@
       </c>
       <c r="G322" s="19"/>
       <c r="H322" s="20"/>
-      <c r="I322" s="43"/>
+      <c r="I322" s="66"/>
     </row>
     <row r="323" ht="18" customHeight="1" spans="1:9">
-      <c r="A323" s="44">
+      <c r="A323" s="67">
         <v>23</v>
       </c>
-      <c r="B323" s="48"/>
+      <c r="B323" s="63"/>
       <c r="C323" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D323" s="28" t="s">
+      <c r="D323" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E323" s="19" t="s">
@@ -7959,17 +8195,17 @@
       </c>
       <c r="G323" s="19"/>
       <c r="H323" s="20"/>
-      <c r="I323" s="43"/>
+      <c r="I323" s="66"/>
     </row>
     <row r="324" ht="18" customHeight="1" spans="1:9">
-      <c r="A324" s="44">
+      <c r="A324" s="67">
         <v>24</v>
       </c>
-      <c r="B324" s="48"/>
+      <c r="B324" s="63"/>
       <c r="C324" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D324" s="28" t="s">
+      <c r="D324" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E324" s="19" t="s">
@@ -7980,17 +8216,17 @@
       </c>
       <c r="G324" s="19"/>
       <c r="H324" s="20"/>
-      <c r="I324" s="43"/>
+      <c r="I324" s="66"/>
     </row>
     <row r="325" ht="18" customHeight="1" spans="1:9">
-      <c r="A325" s="44">
+      <c r="A325" s="67">
         <v>25</v>
       </c>
-      <c r="B325" s="48"/>
+      <c r="B325" s="63"/>
       <c r="C325" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="28" t="s">
+      <c r="D325" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E325" s="19" t="s">
@@ -8001,17 +8237,17 @@
       </c>
       <c r="G325" s="19"/>
       <c r="H325" s="20"/>
-      <c r="I325" s="43"/>
+      <c r="I325" s="66"/>
     </row>
     <row r="326" ht="18" customHeight="1" spans="1:9">
-      <c r="A326" s="44">
+      <c r="A326" s="67">
         <v>26</v>
       </c>
-      <c r="B326" s="48"/>
+      <c r="B326" s="63"/>
       <c r="C326" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="D326" s="28" t="s">
+      <c r="D326" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E326" s="19" t="s">
@@ -8022,17 +8258,17 @@
       </c>
       <c r="G326" s="19"/>
       <c r="H326" s="20"/>
-      <c r="I326" s="43"/>
+      <c r="I326" s="66"/>
     </row>
     <row r="327" ht="18" customHeight="1" spans="1:9">
-      <c r="A327" s="44">
+      <c r="A327" s="67">
         <v>27</v>
       </c>
-      <c r="B327" s="48"/>
+      <c r="B327" s="63"/>
       <c r="C327" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D327" s="28" t="s">
+      <c r="D327" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E327" s="19" t="s">
@@ -8043,17 +8279,17 @@
       </c>
       <c r="G327" s="19"/>
       <c r="H327" s="20"/>
-      <c r="I327" s="43"/>
+      <c r="I327" s="66"/>
     </row>
     <row r="328" ht="18" customHeight="1" spans="1:9">
-      <c r="A328" s="44">
+      <c r="A328" s="67">
         <v>28</v>
       </c>
-      <c r="B328" s="48"/>
+      <c r="B328" s="63"/>
       <c r="C328" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D328" s="28" t="s">
+      <c r="D328" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E328" s="19" t="s">
@@ -8064,17 +8300,17 @@
       </c>
       <c r="G328" s="19"/>
       <c r="H328" s="20"/>
-      <c r="I328" s="43"/>
+      <c r="I328" s="66"/>
     </row>
     <row r="329" ht="18" customHeight="1" spans="1:9">
-      <c r="A329" s="44">
+      <c r="A329" s="67">
         <v>29</v>
       </c>
-      <c r="B329" s="48"/>
+      <c r="B329" s="63"/>
       <c r="C329" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D329" s="28" t="s">
+      <c r="D329" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E329" s="19" t="s">
@@ -8085,17 +8321,17 @@
       </c>
       <c r="G329" s="19"/>
       <c r="H329" s="20"/>
-      <c r="I329" s="43"/>
+      <c r="I329" s="66"/>
     </row>
     <row r="330" ht="18" customHeight="1" spans="1:9">
-      <c r="A330" s="44">
+      <c r="A330" s="67">
         <v>30</v>
       </c>
-      <c r="B330" s="48"/>
+      <c r="B330" s="63"/>
       <c r="C330" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D330" s="28" t="s">
+      <c r="D330" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E330" s="19" t="s">
@@ -8106,19 +8342,19 @@
       </c>
       <c r="G330" s="19"/>
       <c r="H330" s="20"/>
-      <c r="I330" s="43"/>
+      <c r="I330" s="66"/>
     </row>
     <row r="331" ht="18" customHeight="1" spans="1:9">
-      <c r="A331" s="44">
+      <c r="A331" s="67">
         <v>31</v>
       </c>
-      <c r="B331" s="48" t="s">
+      <c r="B331" s="63" t="s">
         <v>67</v>
       </c>
       <c r="C331" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D331" s="28" t="s">
+      <c r="D331" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E331" s="19" t="s">
@@ -8129,17 +8365,17 @@
       </c>
       <c r="G331" s="19"/>
       <c r="H331" s="20"/>
-      <c r="I331" s="43"/>
+      <c r="I331" s="66"/>
     </row>
     <row r="332" ht="18" customHeight="1" spans="1:9">
-      <c r="A332" s="44">
+      <c r="A332" s="67">
         <v>32</v>
       </c>
-      <c r="B332" s="48"/>
+      <c r="B332" s="63"/>
       <c r="C332" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D332" s="28" t="s">
+      <c r="D332" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E332" s="19" t="s">
@@ -8150,17 +8386,17 @@
       </c>
       <c r="G332" s="19"/>
       <c r="H332" s="20"/>
-      <c r="I332" s="43"/>
+      <c r="I332" s="66"/>
     </row>
     <row r="333" ht="18" customHeight="1" spans="1:9">
-      <c r="A333" s="44">
+      <c r="A333" s="67">
         <v>33</v>
       </c>
-      <c r="B333" s="48"/>
+      <c r="B333" s="63"/>
       <c r="C333" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D333" s="28" t="s">
+      <c r="D333" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E333" s="19" t="s">
@@ -8171,17 +8407,17 @@
       </c>
       <c r="G333" s="19"/>
       <c r="H333" s="20"/>
-      <c r="I333" s="43"/>
+      <c r="I333" s="66"/>
     </row>
     <row r="334" ht="18" customHeight="1" spans="1:9">
-      <c r="A334" s="44">
+      <c r="A334" s="67">
         <v>34</v>
       </c>
-      <c r="B334" s="48"/>
+      <c r="B334" s="63"/>
       <c r="C334" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D334" s="28" t="s">
+      <c r="D334" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E334" s="19" t="s">
@@ -8192,17 +8428,17 @@
       </c>
       <c r="G334" s="19"/>
       <c r="H334" s="20"/>
-      <c r="I334" s="43"/>
+      <c r="I334" s="66"/>
     </row>
     <row r="335" ht="18" customHeight="1" spans="1:9">
-      <c r="A335" s="44">
+      <c r="A335" s="67">
         <v>35</v>
       </c>
-      <c r="B335" s="48"/>
+      <c r="B335" s="63"/>
       <c r="C335" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D335" s="28" t="s">
+      <c r="D335" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E335" s="19" t="s">
@@ -8213,17 +8449,17 @@
       </c>
       <c r="G335" s="19"/>
       <c r="H335" s="20"/>
-      <c r="I335" s="43"/>
+      <c r="I335" s="66"/>
     </row>
     <row r="336" ht="18" customHeight="1" spans="1:9">
-      <c r="A336" s="44">
+      <c r="A336" s="67">
         <v>36</v>
       </c>
-      <c r="B336" s="48"/>
+      <c r="B336" s="63"/>
       <c r="C336" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D336" s="28" t="s">
+      <c r="D336" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E336" s="19" t="s">
@@ -8234,17 +8470,17 @@
       </c>
       <c r="G336" s="19"/>
       <c r="H336" s="20"/>
-      <c r="I336" s="43"/>
+      <c r="I336" s="66"/>
     </row>
     <row r="337" ht="18" customHeight="1" spans="1:9">
-      <c r="A337" s="44">
+      <c r="A337" s="67">
         <v>37</v>
       </c>
-      <c r="B337" s="48"/>
+      <c r="B337" s="63"/>
       <c r="C337" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D337" s="28" t="s">
+      <c r="D337" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E337" s="19" t="s">
@@ -8255,17 +8491,17 @@
       </c>
       <c r="G337" s="19"/>
       <c r="H337" s="20"/>
-      <c r="I337" s="43"/>
+      <c r="I337" s="66"/>
     </row>
     <row r="338" ht="18" customHeight="1" spans="1:9">
-      <c r="A338" s="44">
+      <c r="A338" s="67">
         <v>38</v>
       </c>
-      <c r="B338" s="48"/>
+      <c r="B338" s="63"/>
       <c r="C338" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D338" s="28" t="s">
+      <c r="D338" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E338" s="19" t="s">
@@ -8276,17 +8512,17 @@
       </c>
       <c r="G338" s="19"/>
       <c r="H338" s="20"/>
-      <c r="I338" s="43"/>
+      <c r="I338" s="66"/>
     </row>
     <row r="339" ht="18" customHeight="1" spans="1:9">
-      <c r="A339" s="44">
+      <c r="A339" s="67">
         <v>39</v>
       </c>
-      <c r="B339" s="48"/>
+      <c r="B339" s="63"/>
       <c r="C339" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D339" s="28" t="s">
+      <c r="D339" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E339" s="19" t="s">
@@ -8297,17 +8533,17 @@
       </c>
       <c r="G339" s="19"/>
       <c r="H339" s="20"/>
-      <c r="I339" s="43"/>
+      <c r="I339" s="66"/>
     </row>
     <row r="340" ht="18" customHeight="1" spans="1:9">
-      <c r="A340" s="44">
+      <c r="A340" s="67">
         <v>40</v>
       </c>
-      <c r="B340" s="48"/>
+      <c r="B340" s="63"/>
       <c r="C340" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D340" s="28" t="s">
+      <c r="D340" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E340" s="19" t="s">
@@ -8318,19 +8554,19 @@
       </c>
       <c r="G340" s="19"/>
       <c r="H340" s="20"/>
-      <c r="I340" s="43"/>
+      <c r="I340" s="66"/>
     </row>
     <row r="341" ht="18" customHeight="1" spans="1:9">
-      <c r="A341" s="44">
+      <c r="A341" s="67">
         <v>41</v>
       </c>
-      <c r="B341" s="55" t="s">
+      <c r="B341" s="72" t="s">
         <v>184</v>
       </c>
       <c r="C341" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D341" s="28" t="s">
+      <c r="D341" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E341" s="19" t="s">
@@ -8341,17 +8577,17 @@
       </c>
       <c r="G341" s="19"/>
       <c r="H341" s="20"/>
-      <c r="I341" s="43"/>
+      <c r="I341" s="66"/>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:9">
-      <c r="A342" s="44">
+      <c r="A342" s="67">
         <v>42</v>
       </c>
-      <c r="B342" s="56"/>
+      <c r="B342" s="73"/>
       <c r="C342" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D342" s="28" t="s">
+      <c r="D342" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E342" s="19" t="s">
@@ -8362,17 +8598,17 @@
       </c>
       <c r="G342" s="19"/>
       <c r="H342" s="20"/>
-      <c r="I342" s="43"/>
+      <c r="I342" s="66"/>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:9">
-      <c r="A343" s="44">
-        <v>43</v>
-      </c>
-      <c r="B343" s="56"/>
+      <c r="A343" s="67">
+        <v>43</v>
+      </c>
+      <c r="B343" s="73"/>
       <c r="C343" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D343" s="28" t="s">
+      <c r="D343" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E343" s="19" t="s">
@@ -8383,17 +8619,17 @@
       </c>
       <c r="G343" s="19"/>
       <c r="H343" s="20"/>
-      <c r="I343" s="43"/>
+      <c r="I343" s="66"/>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:9">
-      <c r="A344" s="44">
+      <c r="A344" s="67">
         <v>44</v>
       </c>
-      <c r="B344" s="56"/>
+      <c r="B344" s="73"/>
       <c r="C344" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="D344" s="28" t="s">
+      <c r="D344" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E344" s="19" t="s">
@@ -8404,17 +8640,17 @@
       </c>
       <c r="G344" s="19"/>
       <c r="H344" s="20"/>
-      <c r="I344" s="43"/>
+      <c r="I344" s="66"/>
     </row>
     <row r="345" ht="18" customHeight="1" spans="1:9">
-      <c r="A345" s="44">
+      <c r="A345" s="67">
         <v>45</v>
       </c>
-      <c r="B345" s="56"/>
+      <c r="B345" s="73"/>
       <c r="C345" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D345" s="28" t="s">
+      <c r="D345" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E345" s="19" t="s">
@@ -8425,17 +8661,17 @@
       </c>
       <c r="G345" s="19"/>
       <c r="H345" s="20"/>
-      <c r="I345" s="43"/>
+      <c r="I345" s="66"/>
     </row>
     <row r="346" ht="18" customHeight="1" spans="1:9">
-      <c r="A346" s="44">
+      <c r="A346" s="67">
         <v>46</v>
       </c>
-      <c r="B346" s="56"/>
+      <c r="B346" s="73"/>
       <c r="C346" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D346" s="28" t="s">
+      <c r="D346" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E346" s="19" t="s">
@@ -8446,17 +8682,17 @@
       </c>
       <c r="G346" s="19"/>
       <c r="H346" s="20"/>
-      <c r="I346" s="43"/>
+      <c r="I346" s="66"/>
     </row>
     <row r="347" ht="18" customHeight="1" spans="1:9">
-      <c r="A347" s="44">
+      <c r="A347" s="67">
         <v>47</v>
       </c>
-      <c r="B347" s="56"/>
+      <c r="B347" s="73"/>
       <c r="C347" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D347" s="28" t="s">
+      <c r="D347" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E347" s="19" t="s">
@@ -8467,17 +8703,17 @@
       </c>
       <c r="G347" s="19"/>
       <c r="H347" s="20"/>
-      <c r="I347" s="43"/>
+      <c r="I347" s="66"/>
     </row>
     <row r="348" ht="18" customHeight="1" spans="1:9">
-      <c r="A348" s="44">
+      <c r="A348" s="67">
         <v>48</v>
       </c>
-      <c r="B348" s="57"/>
+      <c r="B348" s="74"/>
       <c r="C348" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D348" s="28" t="s">
+      <c r="D348" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E348" s="19" t="s">
@@ -8488,10 +8724,10 @@
       </c>
       <c r="G348" s="19"/>
       <c r="H348" s="20"/>
-      <c r="I348" s="43"/>
+      <c r="I348" s="66"/>
     </row>
     <row r="349" ht="18" customHeight="1" spans="1:9">
-      <c r="A349" s="44">
+      <c r="A349" s="67">
         <v>49</v>
       </c>
       <c r="B349" s="19" t="s">
@@ -8511,47 +8747,47 @@
       </c>
       <c r="G349" s="19"/>
       <c r="H349" s="20"/>
-      <c r="I349" s="43"/>
+      <c r="I349" s="66"/>
     </row>
     <row r="350" ht="18" customHeight="1" spans="1:9">
-      <c r="A350" s="44">
+      <c r="A350" s="67">
         <v>50</v>
       </c>
-      <c r="B350" s="40" t="s">
+      <c r="B350" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C350" s="58" t="s">
+      <c r="C350" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="58" t="s">
+      <c r="D350" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="E350" s="40" t="s">
+      <c r="E350" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="F350" s="40">
+      <c r="F350" s="63">
         <v>3</v>
       </c>
       <c r="G350" s="19"/>
       <c r="H350" s="19"/>
-      <c r="I350" s="43"/>
+      <c r="I350" s="66"/>
     </row>
     <row r="351" ht="18" customHeight="1" spans="1:9">
-      <c r="A351" s="44">
+      <c r="A351" s="67">
         <v>51</v>
       </c>
-      <c r="B351" s="41"/>
-      <c r="C351" s="32" t="s">
+      <c r="B351" s="64"/>
+      <c r="C351" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D351" s="32" t="s">
+      <c r="D351" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E351" s="41"/>
-      <c r="F351" s="41"/>
+      <c r="E351" s="64"/>
+      <c r="F351" s="64"/>
       <c r="G351" s="19"/>
       <c r="H351" s="19"/>
-      <c r="I351" s="43"/>
+      <c r="I351" s="66"/>
     </row>
     <row r="352" ht="18" customHeight="1" spans="1:9">
       <c r="A352" s="3" t="s">
@@ -8566,7 +8802,7 @@
         <v>34</v>
       </c>
       <c r="H352" s="3"/>
-      <c r="I352" s="43"/>
+      <c r="I352" s="66"/>
     </row>
     <row r="353" ht="18" customHeight="1" spans="1:9">
       <c r="A353" s="3" t="s">
@@ -8581,7 +8817,7 @@
         <v>36</v>
       </c>
       <c r="H353" s="3"/>
-      <c r="I353" s="43"/>
+      <c r="I353" s="66"/>
     </row>
     <row r="354" ht="18" customHeight="1" spans="1:9">
       <c r="A354" s="2" t="s">
@@ -8594,7 +8830,7 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
-      <c r="I354" s="43"/>
+      <c r="I354" s="66"/>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="1"/>
@@ -8605,7 +8841,7 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
-      <c r="I355" s="43"/>
+      <c r="I355" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="101">
@@ -8732,10 +8968,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H114"/>
+  <dimension ref="A2:H227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -9847,124 +10083,124 @@
       <c r="A65" s="21">
         <v>18</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="19">
         <v>120</v>
       </c>
-      <c r="H65" s="29"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:8">
       <c r="A66" s="21">
         <v>19</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19">
         <f>SUM(G48:G65)</f>
         <v>28801</v>
       </c>
-      <c r="H66" s="29"/>
+      <c r="H66" s="20"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:8">
       <c r="A67" s="21">
         <v>20</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="29"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20"/>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:8">
       <c r="A68" s="21">
         <v>21</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="29"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="20"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:8">
       <c r="A69" s="21">
         <v>22</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="20"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:8">
       <c r="A70" s="21">
         <v>23</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="29"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:8">
       <c r="A71" s="21">
         <v>24</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="29"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="20"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:8">
       <c r="A72" s="21">
         <v>25</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:8">
       <c r="A73" s="21">
         <v>26</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="20"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:8">
       <c r="A74" s="3" t="s">
@@ -10140,7 +10376,7 @@
       <c r="F86" s="26">
         <v>360</v>
       </c>
-      <c r="G86" s="30">
+      <c r="G86" s="28">
         <v>740</v>
       </c>
       <c r="H86" s="25"/>
@@ -10293,11 +10529,11 @@
       <c r="A97" s="21">
         <v>12</v>
       </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
       <c r="G97" s="26"/>
       <c r="H97" s="25"/>
     </row>
@@ -10310,7 +10546,7 @@
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
       <c r="F98" s="26"/>
-      <c r="G98" s="32"/>
+      <c r="G98" s="14"/>
       <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8">
@@ -10332,8 +10568,8 @@
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="31"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="29"/>
       <c r="G100" s="22"/>
       <c r="H100" s="25"/>
     </row>
@@ -10353,109 +10589,109 @@
       <c r="A102" s="21">
         <v>17</v>
       </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="29"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="21">
         <v>18</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="29"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="21">
         <v>19</v>
       </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="29"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="21">
         <v>20</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="29"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="20"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="21">
         <v>21</v>
       </c>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="29"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="20"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="21">
         <v>22</v>
       </c>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="29"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="20"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="21">
         <v>23</v>
       </c>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="29"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="20"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="21">
         <v>24</v>
       </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="29"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="21">
         <v>25</v>
       </c>
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="29"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="20"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="3" t="s">
@@ -10507,8 +10743,1800 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="31"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="31"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+    </row>
+    <row r="117" ht="21" spans="1:8">
+      <c r="A117" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+    </row>
+    <row r="118" ht="19.2" spans="1:8">
+      <c r="A118" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+    </row>
+    <row r="121" ht="16.35" spans="1:8">
+      <c r="A121" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="39">
+        <v>1</v>
+      </c>
+      <c r="B123" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="D123" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="E123" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F123" s="41">
+        <v>32</v>
+      </c>
+      <c r="G123" s="42">
+        <f>490+20</f>
+        <v>510</v>
+      </c>
+      <c r="H123" s="43"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="39">
+        <v>2</v>
+      </c>
+      <c r="B124" s="42"/>
+      <c r="C124" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="D124" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E124" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="44">
+        <v>30</v>
+      </c>
+      <c r="G124" s="42"/>
+      <c r="H124" s="43"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="39">
+        <v>3</v>
+      </c>
+      <c r="B125" s="44"/>
+      <c r="C125" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="E125" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="44">
+        <v>12</v>
+      </c>
+      <c r="G125" s="44"/>
+      <c r="H125" s="43"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="39">
+        <v>4</v>
+      </c>
+      <c r="B126" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E126" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="44">
+        <v>1</v>
+      </c>
+      <c r="G126" s="44">
+        <f>2984+40</f>
+        <v>3024</v>
+      </c>
+      <c r="H126" s="43"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="39">
+        <v>5</v>
+      </c>
+      <c r="B127" s="42"/>
+      <c r="C127" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E127" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" s="45">
+        <v>3</v>
+      </c>
+      <c r="G127" s="45">
+        <f>8708+120</f>
+        <v>8828</v>
+      </c>
+      <c r="H127" s="46"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="39">
+        <v>6</v>
+      </c>
+      <c r="B128" s="42"/>
+      <c r="C128" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="D128" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E128" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" s="45">
+        <v>1</v>
+      </c>
+      <c r="G128" s="45">
+        <f>2968+30</f>
+        <v>2998</v>
+      </c>
+      <c r="H128" s="46"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="39">
+        <v>7</v>
+      </c>
+      <c r="B129" s="42"/>
+      <c r="C129" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D129" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E129" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="45">
+        <v>1</v>
+      </c>
+      <c r="G129" s="45">
+        <f>2970+40</f>
+        <v>3010</v>
+      </c>
+      <c r="H129" s="46"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="39">
+        <v>8</v>
+      </c>
+      <c r="B130" s="42"/>
+      <c r="C130" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="D130" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E130" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="45">
+        <v>1</v>
+      </c>
+      <c r="G130" s="45">
+        <f>2988+40</f>
+        <v>3028</v>
+      </c>
+      <c r="H130" s="46"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="39">
+        <v>9</v>
+      </c>
+      <c r="B131" s="42"/>
+      <c r="C131" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D131" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E131" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" s="45">
+        <v>1</v>
+      </c>
+      <c r="G131" s="45">
+        <f>2902+40</f>
+        <v>2942</v>
+      </c>
+      <c r="H131" s="46"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="39">
+        <v>10</v>
+      </c>
+      <c r="B132" s="42"/>
+      <c r="C132" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D132" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E132" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="45">
+        <v>1</v>
+      </c>
+      <c r="G132" s="45">
+        <f>1578+40</f>
+        <v>1618</v>
+      </c>
+      <c r="H132" s="46"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="39">
+        <v>11</v>
+      </c>
+      <c r="B133" s="42"/>
+      <c r="C133" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D133" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E133" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="45">
+        <v>1</v>
+      </c>
+      <c r="G133" s="45">
+        <f>1546+40</f>
+        <v>1586</v>
+      </c>
+      <c r="H133" s="46"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="39">
+        <v>12</v>
+      </c>
+      <c r="B134" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C134" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D134" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="45">
+        <v>110</v>
+      </c>
+      <c r="H134" s="46"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="39">
+        <v>13</v>
+      </c>
+      <c r="B135" s="44"/>
+      <c r="C135" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D135" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G135" s="45">
+        <v>120</v>
+      </c>
+      <c r="H135" s="46"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="39">
+        <v>14</v>
+      </c>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="F136" s="48"/>
+      <c r="G136" s="48">
+        <f>SUM(G123:G135)</f>
+        <v>27774</v>
+      </c>
+      <c r="H136" s="46"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="39">
+        <v>15</v>
+      </c>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="46"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="39">
+        <v>16</v>
+      </c>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="46"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="39">
+        <v>17</v>
+      </c>
+      <c r="B139" s="45"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="46"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="39">
+        <v>18</v>
+      </c>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="46"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="39">
+        <v>19</v>
+      </c>
+      <c r="B141" s="45"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="46"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="39">
+        <v>20</v>
+      </c>
+      <c r="B142" s="45"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="46"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="39">
+        <v>21</v>
+      </c>
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="46"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="39">
+        <v>22</v>
+      </c>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="46"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="39">
+        <v>23</v>
+      </c>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="46"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="39">
+        <v>24</v>
+      </c>
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="46"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="39">
+        <v>25</v>
+      </c>
+      <c r="B147" s="45"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="46"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="39">
+        <v>26</v>
+      </c>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="46"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149" s="33"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H150" s="33"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="31"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="31"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
+    </row>
+    <row r="155" ht="21" spans="1:8">
+      <c r="A155" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="34"/>
+    </row>
+    <row r="156" ht="19.2" spans="1:8">
+      <c r="A156" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="34"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
+      <c r="E156" s="34"/>
+      <c r="F156" s="34"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="34"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B158" s="33"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G158" s="33"/>
+      <c r="H158" s="33"/>
+    </row>
+    <row r="159" ht="16.35" spans="1:8">
+      <c r="A159" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G159" s="33"/>
+      <c r="H159" s="33"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="39">
+        <v>1</v>
+      </c>
+      <c r="B161" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C161" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D161" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E161" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F161" s="44">
+        <v>14</v>
+      </c>
+      <c r="G161" s="44"/>
+      <c r="H161" s="43"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="39">
+        <v>2</v>
+      </c>
+      <c r="B162" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="D162" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="E162" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F162" s="44">
+        <v>83</v>
+      </c>
+      <c r="G162" s="44"/>
+      <c r="H162" s="49"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="39">
+        <v>3</v>
+      </c>
+      <c r="B163" s="42"/>
+      <c r="C163" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D163" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="E163" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F163" s="44">
+        <v>74</v>
+      </c>
+      <c r="G163" s="44"/>
+      <c r="H163" s="49"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="39">
+        <v>4</v>
+      </c>
+      <c r="B164" s="42"/>
+      <c r="C164" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="D164" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="E164" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F164" s="44">
+        <v>74</v>
+      </c>
+      <c r="G164" s="44"/>
+      <c r="H164" s="49"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="39">
+        <v>5</v>
+      </c>
+      <c r="B165" s="42"/>
+      <c r="C165" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D165" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="E165" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165" s="45">
+        <v>11</v>
+      </c>
+      <c r="G165" s="45"/>
+      <c r="H165" s="50"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="39">
+        <v>6</v>
+      </c>
+      <c r="B166" s="44"/>
+      <c r="C166" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="D166" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="E166" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" s="45">
+        <v>12</v>
+      </c>
+      <c r="G166" s="45"/>
+      <c r="H166" s="46"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="39">
+        <v>7</v>
+      </c>
+      <c r="B167" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="D167" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="E167" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" s="45">
+        <v>224</v>
+      </c>
+      <c r="G167" s="45"/>
+      <c r="H167" s="50"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="39">
+        <v>8</v>
+      </c>
+      <c r="B168" s="45"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="45"/>
+      <c r="E168" s="45"/>
+      <c r="F168" s="45"/>
+      <c r="G168" s="45"/>
+      <c r="H168" s="46"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="39">
+        <v>9</v>
+      </c>
+      <c r="B169" s="45"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="45"/>
+      <c r="H169" s="46"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="39">
+        <v>10</v>
+      </c>
+      <c r="B170" s="45"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="45"/>
+      <c r="G170" s="45"/>
+      <c r="H170" s="46"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="39">
+        <v>11</v>
+      </c>
+      <c r="B171" s="45"/>
+      <c r="C171" s="45"/>
+      <c r="D171" s="45"/>
+      <c r="E171" s="45"/>
+      <c r="F171" s="45"/>
+      <c r="G171" s="45"/>
+      <c r="H171" s="46"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="39">
+        <v>12</v>
+      </c>
+      <c r="B172" s="45"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="45"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="45"/>
+      <c r="H172" s="46"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="39">
+        <v>13</v>
+      </c>
+      <c r="B173" s="45"/>
+      <c r="C173" s="45"/>
+      <c r="D173" s="45"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="45"/>
+      <c r="H173" s="46"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="39">
+        <v>14</v>
+      </c>
+      <c r="B174" s="45"/>
+      <c r="C174" s="45"/>
+      <c r="D174" s="45"/>
+      <c r="E174" s="45"/>
+      <c r="F174" s="45"/>
+      <c r="G174" s="45"/>
+      <c r="H174" s="46"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="39">
+        <v>15</v>
+      </c>
+      <c r="B175" s="45"/>
+      <c r="C175" s="45"/>
+      <c r="D175" s="45"/>
+      <c r="E175" s="45"/>
+      <c r="F175" s="45"/>
+      <c r="G175" s="45"/>
+      <c r="H175" s="46"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="39">
+        <v>16</v>
+      </c>
+      <c r="B176" s="45"/>
+      <c r="C176" s="45"/>
+      <c r="D176" s="45"/>
+      <c r="E176" s="45"/>
+      <c r="F176" s="45"/>
+      <c r="G176" s="45"/>
+      <c r="H176" s="46"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="39">
+        <v>17</v>
+      </c>
+      <c r="B177" s="45"/>
+      <c r="C177" s="45"/>
+      <c r="D177" s="45"/>
+      <c r="E177" s="45"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="45"/>
+      <c r="H177" s="46"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="39">
+        <v>18</v>
+      </c>
+      <c r="B178" s="45"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="45"/>
+      <c r="E178" s="45"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="45"/>
+      <c r="H178" s="46"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="39">
+        <v>19</v>
+      </c>
+      <c r="B179" s="45"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="45"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="45"/>
+      <c r="H179" s="46"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="39">
+        <v>20</v>
+      </c>
+      <c r="B180" s="45"/>
+      <c r="C180" s="45"/>
+      <c r="D180" s="45"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="45"/>
+      <c r="H180" s="46"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="39">
+        <v>21</v>
+      </c>
+      <c r="B181" s="45"/>
+      <c r="C181" s="45"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="45"/>
+      <c r="H181" s="46"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="39">
+        <v>22</v>
+      </c>
+      <c r="B182" s="45"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="45"/>
+      <c r="F182" s="45"/>
+      <c r="G182" s="45"/>
+      <c r="H182" s="46"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="39">
+        <v>23</v>
+      </c>
+      <c r="B183" s="45"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="45"/>
+      <c r="E183" s="45"/>
+      <c r="F183" s="45"/>
+      <c r="G183" s="45"/>
+      <c r="H183" s="46"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="39">
+        <v>24</v>
+      </c>
+      <c r="B184" s="45"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="45"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="45"/>
+      <c r="G184" s="45"/>
+      <c r="H184" s="46"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="39">
+        <v>25</v>
+      </c>
+      <c r="B185" s="45"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="45"/>
+      <c r="H185" s="46"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="39">
+        <v>26</v>
+      </c>
+      <c r="B186" s="45"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="45"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="45"/>
+      <c r="H186" s="46"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B187" s="33"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="G187" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H187" s="33"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B188" s="33"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
+      <c r="F188" s="33"/>
+      <c r="G188" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H188" s="33"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="31"/>
+      <c r="H189" s="31"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="31"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G191" s="32"/>
+      <c r="H191" s="32"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="31"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="G192" s="33"/>
+      <c r="H192" s="33"/>
+    </row>
+    <row r="193" ht="21" spans="1:8">
+      <c r="A193" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="34"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="34"/>
+    </row>
+    <row r="194" ht="19.2" spans="1:8">
+      <c r="A194" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" s="34"/>
+      <c r="C194" s="34"/>
+      <c r="D194" s="34"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="34"/>
+      <c r="G194" s="34"/>
+      <c r="H194" s="34"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B195" s="33"/>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="33"/>
+      <c r="G195" s="33"/>
+      <c r="H195" s="33"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B196" s="33"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+    </row>
+    <row r="197" ht="16.35" spans="1:8">
+      <c r="A197" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B197" s="33"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="51">
+        <v>1</v>
+      </c>
+      <c r="B199" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C199" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="D199" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="E199" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F199" s="41">
+        <v>4</v>
+      </c>
+      <c r="G199" s="44">
+        <f>5358+19+19+19+19</f>
+        <v>5434</v>
+      </c>
+      <c r="H199" s="43"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="51">
+        <v>2</v>
+      </c>
+      <c r="B200" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C200" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="D200" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E200" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F200" s="41">
+        <v>1</v>
+      </c>
+      <c r="G200" s="44">
+        <f>1218+19</f>
+        <v>1237</v>
+      </c>
+      <c r="H200" s="43"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="51">
+        <v>3</v>
+      </c>
+      <c r="B201" s="41"/>
+      <c r="C201" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="D201" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E201" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F201" s="41">
+        <v>1</v>
+      </c>
+      <c r="G201" s="44">
+        <f>1224+19</f>
+        <v>1243</v>
+      </c>
+      <c r="H201" s="43"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="51">
+        <v>4</v>
+      </c>
+      <c r="B202" s="41"/>
+      <c r="C202" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D202" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E202" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F202" s="41">
+        <v>1</v>
+      </c>
+      <c r="G202" s="44">
+        <f>1228+18</f>
+        <v>1246</v>
+      </c>
+      <c r="H202" s="43"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="51">
+        <v>5</v>
+      </c>
+      <c r="B203" s="41"/>
+      <c r="C203" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="D203" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E203" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F203" s="45">
+        <v>1</v>
+      </c>
+      <c r="G203" s="45">
+        <f>1546+19</f>
+        <v>1565</v>
+      </c>
+      <c r="H203" s="46"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="51">
+        <v>6</v>
+      </c>
+      <c r="B204" s="41"/>
+      <c r="C204" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="D204" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E204" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F204" s="45">
+        <v>1</v>
+      </c>
+      <c r="G204" s="45">
+        <f>1580+18</f>
+        <v>1598</v>
+      </c>
+      <c r="H204" s="46"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="51">
+        <v>7</v>
+      </c>
+      <c r="B205" s="41"/>
+      <c r="C205" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D205" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E205" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F205" s="45">
+        <v>1</v>
+      </c>
+      <c r="G205" s="45">
+        <f>1190+18</f>
+        <v>1208</v>
+      </c>
+      <c r="H205" s="46"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="51">
+        <v>8</v>
+      </c>
+      <c r="B206" s="41"/>
+      <c r="C206" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="D206" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E206" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F206" s="45">
+        <v>2</v>
+      </c>
+      <c r="G206" s="45">
+        <f>3120+19+19</f>
+        <v>3158</v>
+      </c>
+      <c r="H206" s="46"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="51">
+        <v>9</v>
+      </c>
+      <c r="B207" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C207" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="D207" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="E207" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F207" s="45">
+        <v>4</v>
+      </c>
+      <c r="G207" s="54">
+        <f>526+154</f>
+        <v>680</v>
+      </c>
+      <c r="H207" s="46"/>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="51">
+        <v>10</v>
+      </c>
+      <c r="B208" s="45"/>
+      <c r="C208" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D208" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="E208" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F208" s="45">
+        <v>4</v>
+      </c>
+      <c r="G208" s="55"/>
+      <c r="H208" s="46"/>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="51">
+        <v>11</v>
+      </c>
+      <c r="B209" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C209" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="D209" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="E209" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F209" s="45">
+        <v>1</v>
+      </c>
+      <c r="G209" s="45">
+        <f>1116+19</f>
+        <v>1135</v>
+      </c>
+      <c r="H209" s="46"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="51">
+        <v>12</v>
+      </c>
+      <c r="B210" s="56"/>
+      <c r="C210" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="D210" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="E210" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F210" s="45">
+        <v>4</v>
+      </c>
+      <c r="G210" s="45">
+        <f>6450+74</f>
+        <v>6524</v>
+      </c>
+      <c r="H210" s="46"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="51">
+        <v>13</v>
+      </c>
+      <c r="B211" s="56"/>
+      <c r="C211" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="D211" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="E211" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F211" s="56">
+        <v>2</v>
+      </c>
+      <c r="G211" s="45">
+        <f>3226+40</f>
+        <v>3266</v>
+      </c>
+      <c r="H211" s="46"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="51">
+        <v>14</v>
+      </c>
+      <c r="B212" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C212" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="D212" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="E212" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F212" s="45">
+        <v>15</v>
+      </c>
+      <c r="G212" s="45">
+        <f>1178+19</f>
+        <v>1197</v>
+      </c>
+      <c r="H212" s="46"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="51">
+        <v>15</v>
+      </c>
+      <c r="B213" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="C213" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D213" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F213" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G213" s="45">
+        <v>80</v>
+      </c>
+      <c r="H213" s="46"/>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="51">
+        <v>16</v>
+      </c>
+      <c r="B214" s="41"/>
+      <c r="C214" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D214" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E214" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G214" s="45">
+        <v>100</v>
+      </c>
+      <c r="H214" s="46"/>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="39">
+        <v>17</v>
+      </c>
+      <c r="B215" s="31"/>
+      <c r="C215" s="45"/>
+      <c r="D215" s="45"/>
+      <c r="E215" s="45"/>
+      <c r="F215" s="45"/>
+      <c r="G215" s="45">
+        <f>SUM(G199:G214)</f>
+        <v>29671</v>
+      </c>
+      <c r="H215" s="46"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="39">
+        <v>18</v>
+      </c>
+      <c r="B216" s="45"/>
+      <c r="C216" s="45"/>
+      <c r="D216" s="45"/>
+      <c r="E216" s="45"/>
+      <c r="F216" s="45"/>
+      <c r="G216" s="45"/>
+      <c r="H216" s="46"/>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="39">
+        <v>19</v>
+      </c>
+      <c r="B217" s="45"/>
+      <c r="C217" s="45"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="45"/>
+      <c r="F217" s="45"/>
+      <c r="G217" s="45"/>
+      <c r="H217" s="46"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="39">
+        <v>20</v>
+      </c>
+      <c r="B218" s="45"/>
+      <c r="C218" s="45"/>
+      <c r="D218" s="45"/>
+      <c r="E218" s="45"/>
+      <c r="F218" s="45"/>
+      <c r="G218" s="45"/>
+      <c r="H218" s="46"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="39">
+        <v>21</v>
+      </c>
+      <c r="B219" s="45"/>
+      <c r="C219" s="45"/>
+      <c r="D219" s="45"/>
+      <c r="E219" s="45"/>
+      <c r="F219" s="45"/>
+      <c r="G219" s="45"/>
+      <c r="H219" s="46"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="39">
+        <v>22</v>
+      </c>
+      <c r="B220" s="45"/>
+      <c r="C220" s="45"/>
+      <c r="D220" s="45"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="45"/>
+      <c r="G220" s="45"/>
+      <c r="H220" s="46"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="39">
+        <v>23</v>
+      </c>
+      <c r="B221" s="45"/>
+      <c r="C221" s="45"/>
+      <c r="D221" s="45"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="45"/>
+      <c r="H221" s="46"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="39">
+        <v>24</v>
+      </c>
+      <c r="B222" s="45"/>
+      <c r="C222" s="45"/>
+      <c r="D222" s="45"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="45"/>
+      <c r="G222" s="45"/>
+      <c r="H222" s="46"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="39">
+        <v>25</v>
+      </c>
+      <c r="B223" s="45"/>
+      <c r="C223" s="45"/>
+      <c r="D223" s="45"/>
+      <c r="E223" s="45"/>
+      <c r="F223" s="45"/>
+      <c r="G223" s="45"/>
+      <c r="H223" s="46"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="39">
+        <v>26</v>
+      </c>
+      <c r="B224" s="45"/>
+      <c r="C224" s="45"/>
+      <c r="D224" s="45"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="45"/>
+      <c r="G224" s="45"/>
+      <c r="H224" s="46"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B225" s="33"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="33"/>
+      <c r="G225" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H225" s="33"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B226" s="33"/>
+      <c r="C226" s="33"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
+      <c r="F226" s="33"/>
+      <c r="G226" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H226" s="33"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B227" s="31"/>
+      <c r="C227" s="31"/>
+      <c r="D227" s="31"/>
+      <c r="E227" s="31"/>
+      <c r="F227" s="31"/>
+      <c r="G227" s="31"/>
+      <c r="H227" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="85">
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -10539,14 +12567,61 @@
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="F84:H84"/>
     <mergeCell ref="A113:C113"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="A155:H155"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="A193:H193"/>
+    <mergeCell ref="A194:H194"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C227"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B48:B59"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="B200:B206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="B213:B214"/>
     <mergeCell ref="C86:C90"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G86:G90"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G207:G208"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/出库统计.xlsx
+++ b/出库统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="359">
   <si>
     <t xml:space="preserve"> 发货单号：001</t>
   </si>
@@ -759,6 +759,12 @@
     <t>KL17</t>
   </si>
   <si>
+    <t>合计：</t>
+  </si>
+  <si>
+    <t>单位（kg)</t>
+  </si>
+  <si>
     <t xml:space="preserve">  发货单号：001</t>
   </si>
   <si>
@@ -811,9 +817,6 @@
   </si>
   <si>
     <t>GZ4A</t>
-  </si>
-  <si>
-    <t>合计：</t>
   </si>
   <si>
     <t>司机电话:13791587505</t>
@@ -1097,8 +1100,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1173,6 +1176,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1180,14 +1190,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1195,7 +1205,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1205,6 +1215,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,24 +1265,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,18 +1288,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1278,41 +1303,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1325,13 +1328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,7 +1352,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,7 +1394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,25 +1418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,7 +1436,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,79 +1472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,13 +1502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,21 +1756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1783,17 +1771,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1813,22 +1821,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1849,10 +1852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1861,140 +1864,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2098,6 +2101,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2503,7 +2509,7 @@
   <sheetPr/>
   <dimension ref="A1:I355"/>
   <sheetViews>
-    <sheetView topLeftCell="A303" workbookViewId="0">
+    <sheetView topLeftCell="A325" workbookViewId="0">
       <selection activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
@@ -2572,80 +2578,80 @@
       <c r="I4" s="19"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:9">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:9">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:9">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:9">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="39" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="19"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="48">
-        <v>1</v>
-      </c>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="49">
+        <v>1</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2662,13 +2668,13 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:9">
-      <c r="A10" s="48">
+      <c r="A10" s="49">
         <v>2</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
@@ -2683,13 +2689,13 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:9">
-      <c r="A11" s="48">
+      <c r="A11" s="49">
         <v>3</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
@@ -2704,10 +2710,10 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:9">
-      <c r="A12" s="48">
+      <c r="A12" s="49">
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2727,13 +2733,13 @@
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:9">
-      <c r="A13" s="48">
+      <c r="A13" s="49">
         <v>5</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2742,100 +2748,100 @@
       <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="46">
         <v>1</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:9">
-      <c r="A14" s="48">
+      <c r="A14" s="49">
         <v>6</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="12"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:9">
-      <c r="A15" s="48">
+      <c r="A15" s="49">
         <v>7</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:9">
-      <c r="A16" s="48">
+      <c r="A16" s="49">
         <v>8</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="51"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:9">
-      <c r="A17" s="48">
+      <c r="A17" s="49">
         <v>9</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:9">
-      <c r="A18" s="48">
+      <c r="A18" s="49">
         <v>10</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:9">
-      <c r="A19" s="48">
+      <c r="A19" s="49">
         <v>11</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="50"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="51"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:9">
-      <c r="A20" s="48">
+      <c r="A20" s="49">
         <v>12</v>
       </c>
       <c r="B20" s="12"/>
@@ -2845,10 +2851,10 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="51"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:9">
-      <c r="A21" s="48">
+      <c r="A21" s="49">
         <v>13</v>
       </c>
       <c r="B21" s="12"/>
@@ -2858,10 +2864,10 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="51"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:9">
-      <c r="A22" s="48">
+      <c r="A22" s="49">
         <v>14</v>
       </c>
       <c r="B22" s="12"/>
@@ -2871,10 +2877,10 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="51"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="48">
+      <c r="A23" s="49">
         <v>15</v>
       </c>
       <c r="B23" s="12"/>
@@ -2884,10 +2890,10 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="51"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="48">
+      <c r="A24" s="49">
         <v>16</v>
       </c>
       <c r="B24" s="12"/>
@@ -2897,10 +2903,10 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="51"/>
+      <c r="I24" s="52"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="48">
+      <c r="A25" s="49">
         <v>17</v>
       </c>
       <c r="B25" s="12"/>
@@ -2910,10 +2916,10 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="51"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="48">
+      <c r="A26" s="49">
         <v>18</v>
       </c>
       <c r="B26" s="12"/>
@@ -2923,10 +2929,10 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="51"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="48">
+      <c r="A27" s="49">
         <v>19</v>
       </c>
       <c r="B27" s="12"/>
@@ -2936,10 +2942,10 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="51"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="48">
+      <c r="A28" s="49">
         <v>20</v>
       </c>
       <c r="B28" s="12"/>
@@ -2949,10 +2955,10 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="51"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="48">
+      <c r="A29" s="49">
         <v>21</v>
       </c>
       <c r="B29" s="12"/>
@@ -2962,10 +2968,10 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="51"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="48">
+      <c r="A30" s="49">
         <v>22</v>
       </c>
       <c r="B30" s="12"/>
@@ -2975,10 +2981,10 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="51"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="48">
+      <c r="A31" s="49">
         <v>23</v>
       </c>
       <c r="B31" s="12"/>
@@ -2988,10 +2994,10 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="51"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:9">
-      <c r="A32" s="48">
+      <c r="A32" s="49">
         <v>24</v>
       </c>
       <c r="B32" s="12"/>
@@ -3001,10 +3007,10 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="51"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:9">
-      <c r="A33" s="48">
+      <c r="A33" s="49">
         <v>25</v>
       </c>
       <c r="B33" s="12"/>
@@ -3014,10 +3020,10 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="51"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:9">
-      <c r="A34" s="48">
+      <c r="A34" s="49">
         <v>26</v>
       </c>
       <c r="B34" s="12"/>
@@ -3027,72 +3033,72 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="51"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:9">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="47"/>
+      <c r="H35" s="48"/>
       <c r="I35" s="19"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:9">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47" t="s">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="47"/>
+      <c r="H36" s="48"/>
       <c r="I36" s="19"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:9">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="19"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:9">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:9">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:9">
       <c r="A40" s="19"/>
@@ -3105,7 +3111,7 @@
         <v>38</v>
       </c>
       <c r="H40" s="20"/>
-      <c r="I40" s="51"/>
+      <c r="I40" s="52"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:9">
       <c r="A41" s="19"/>
@@ -3118,7 +3124,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="21"/>
-      <c r="I41" s="51"/>
+      <c r="I41" s="52"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:9">
       <c r="A42" s="22" t="s">
@@ -3131,7 +3137,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
-      <c r="I42" s="51"/>
+      <c r="I42" s="52"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:9">
       <c r="A43" s="23" t="s">
@@ -3144,7 +3150,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="51"/>
+      <c r="I43" s="52"/>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:9">
       <c r="A44" s="21" t="s">
@@ -3157,7 +3163,7 @@
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="51"/>
+      <c r="I44" s="52"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:9">
       <c r="A45" s="21" t="s">
@@ -3172,7 +3178,7 @@
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="51"/>
+      <c r="I45" s="52"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:9">
       <c r="A46" s="21" t="s">
@@ -3187,7 +3193,7 @@
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
-      <c r="I46" s="51"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
@@ -3214,13 +3220,13 @@
       <c r="H47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="51"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:9">
-      <c r="A48" s="52">
-        <v>1</v>
-      </c>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="53">
+        <v>1</v>
+      </c>
+      <c r="B48" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -3237,13 +3243,13 @@
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="51"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:9">
-      <c r="A49" s="52">
+      <c r="A49" s="53">
         <v>2</v>
       </c>
-      <c r="B49" s="49"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="12" t="s">
         <v>44</v>
       </c>
@@ -3258,13 +3264,13 @@
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="51"/>
+      <c r="I49" s="52"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:9">
-      <c r="A50" s="52">
+      <c r="A50" s="53">
         <v>3</v>
       </c>
-      <c r="B50" s="49"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12" t="s">
         <v>45</v>
       </c>
@@ -3279,13 +3285,13 @@
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="51"/>
+      <c r="I50" s="52"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:9">
-      <c r="A51" s="52">
+      <c r="A51" s="53">
         <v>4</v>
       </c>
-      <c r="B51" s="49"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="12" t="s">
         <v>46</v>
       </c>
@@ -3300,13 +3306,13 @@
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="18"/>
-      <c r="I51" s="51"/>
+      <c r="I51" s="52"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:9">
-      <c r="A52" s="52">
+      <c r="A52" s="53">
         <v>5</v>
       </c>
-      <c r="B52" s="49"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="12" t="s">
         <v>47</v>
       </c>
@@ -3321,13 +3327,13 @@
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="51"/>
+      <c r="I52" s="52"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:9">
-      <c r="A53" s="52">
+      <c r="A53" s="53">
         <v>6</v>
       </c>
-      <c r="B53" s="46"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="12" t="s">
         <v>48</v>
       </c>
@@ -3342,10 +3348,10 @@
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="51"/>
+      <c r="I53" s="52"/>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:9">
-      <c r="A54" s="52">
+      <c r="A54" s="53">
         <v>7</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -3365,10 +3371,10 @@
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="51"/>
+      <c r="I54" s="52"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:9">
-      <c r="A55" s="52">
+      <c r="A55" s="53">
         <v>8</v>
       </c>
       <c r="B55" s="12"/>
@@ -3378,10 +3384,10 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="51"/>
+      <c r="I55" s="52"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:9">
-      <c r="A56" s="52">
+      <c r="A56" s="53">
         <v>9</v>
       </c>
       <c r="B56" s="12"/>
@@ -3391,10 +3397,10 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="51"/>
+      <c r="I56" s="52"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:9">
-      <c r="A57" s="52">
+      <c r="A57" s="53">
         <v>10</v>
       </c>
       <c r="B57" s="12"/>
@@ -3404,10 +3410,10 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="51"/>
+      <c r="I57" s="52"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:9">
-      <c r="A58" s="52">
+      <c r="A58" s="53">
         <v>11</v>
       </c>
       <c r="B58" s="12"/>
@@ -3417,10 +3423,10 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="51"/>
+      <c r="I58" s="52"/>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:9">
-      <c r="A59" s="52">
+      <c r="A59" s="53">
         <v>12</v>
       </c>
       <c r="B59" s="12"/>
@@ -3430,10 +3436,10 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="51"/>
+      <c r="I59" s="52"/>
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:9">
-      <c r="A60" s="52">
+      <c r="A60" s="53">
         <v>13</v>
       </c>
       <c r="B60" s="12"/>
@@ -3443,10 +3449,10 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="51"/>
+      <c r="I60" s="52"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:9">
-      <c r="A61" s="52">
+      <c r="A61" s="53">
         <v>14</v>
       </c>
       <c r="B61" s="12"/>
@@ -3456,10 +3462,10 @@
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="18"/>
-      <c r="I61" s="51"/>
+      <c r="I61" s="52"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:9">
-      <c r="A62" s="52">
+      <c r="A62" s="53">
         <v>15</v>
       </c>
       <c r="B62" s="12"/>
@@ -3469,10 +3475,10 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="18"/>
-      <c r="I62" s="51"/>
+      <c r="I62" s="52"/>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:9">
-      <c r="A63" s="52">
+      <c r="A63" s="53">
         <v>16</v>
       </c>
       <c r="B63" s="12"/>
@@ -3482,75 +3488,75 @@
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="51"/>
+      <c r="I63" s="52"/>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:9">
-      <c r="A64" s="52">
+      <c r="A64" s="53">
         <v>17</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
-      <c r="D64" s="50"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="18"/>
-      <c r="I64" s="51"/>
+      <c r="I64" s="52"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:9">
-      <c r="A65" s="52">
+      <c r="A65" s="53">
         <v>18</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="50"/>
+      <c r="D65" s="51"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="51"/>
+      <c r="I65" s="52"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:9">
-      <c r="A66" s="52">
+      <c r="A66" s="53">
         <v>19</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="50"/>
+      <c r="D66" s="51"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="51"/>
+      <c r="I66" s="52"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:9">
-      <c r="A67" s="52">
+      <c r="A67" s="53">
         <v>20</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="50"/>
+      <c r="D67" s="51"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="51"/>
+      <c r="I67" s="52"/>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:9">
-      <c r="A68" s="52">
+      <c r="A68" s="53">
         <v>21</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="50"/>
+      <c r="D68" s="51"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="18"/>
-      <c r="I68" s="51"/>
+      <c r="I68" s="52"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:9">
-      <c r="A69" s="52">
+      <c r="A69" s="53">
         <v>22</v>
       </c>
       <c r="B69" s="12"/>
@@ -3560,10 +3566,10 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="18"/>
-      <c r="I69" s="51"/>
+      <c r="I69" s="52"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:9">
-      <c r="A70" s="52">
+      <c r="A70" s="53">
         <v>23</v>
       </c>
       <c r="B70" s="12"/>
@@ -3573,10 +3579,10 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="18"/>
-      <c r="I70" s="51"/>
+      <c r="I70" s="52"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:9">
-      <c r="A71" s="52">
+      <c r="A71" s="53">
         <v>24</v>
       </c>
       <c r="B71" s="12"/>
@@ -3586,10 +3592,10 @@
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="18"/>
-      <c r="I71" s="51"/>
+      <c r="I71" s="52"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:9">
-      <c r="A72" s="52">
+      <c r="A72" s="53">
         <v>25</v>
       </c>
       <c r="B72" s="12"/>
@@ -3599,10 +3605,10 @@
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="18"/>
-      <c r="I72" s="51"/>
+      <c r="I72" s="52"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:9">
-      <c r="A73" s="52">
+      <c r="A73" s="53">
         <v>26</v>
       </c>
       <c r="B73" s="12"/>
@@ -3612,7 +3618,7 @@
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="18"/>
-      <c r="I73" s="51"/>
+      <c r="I73" s="52"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:9">
       <c r="A74" s="21" t="s">
@@ -3627,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="H74" s="21"/>
-      <c r="I74" s="51"/>
+      <c r="I74" s="52"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:9">
       <c r="A75" s="21" t="s">
@@ -3642,7 +3648,7 @@
         <v>36</v>
       </c>
       <c r="H75" s="21"/>
-      <c r="I75" s="51"/>
+      <c r="I75" s="52"/>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:9">
       <c r="A76" s="20" t="s">
@@ -3655,18 +3661,18 @@
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="51"/>
+      <c r="I76" s="52"/>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:9">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:9">
       <c r="A78" s="19"/>
@@ -3679,7 +3685,7 @@
         <v>50</v>
       </c>
       <c r="H78" s="20"/>
-      <c r="I78" s="51"/>
+      <c r="I78" s="52"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:9">
       <c r="A79" s="19"/>
@@ -3692,7 +3698,7 @@
         <v>51</v>
       </c>
       <c r="H79" s="21"/>
-      <c r="I79" s="51"/>
+      <c r="I79" s="52"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:9">
       <c r="A80" s="22" t="s">
@@ -3705,7 +3711,7 @@
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
-      <c r="I80" s="51"/>
+      <c r="I80" s="52"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:9">
       <c r="A81" s="23" t="s">
@@ -3718,7 +3724,7 @@
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
-      <c r="I81" s="51"/>
+      <c r="I81" s="52"/>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:9">
       <c r="A82" s="21" t="s">
@@ -3731,7 +3737,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
-      <c r="I82" s="51"/>
+      <c r="I82" s="52"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:9">
       <c r="A83" s="21" t="s">
@@ -3746,7 +3752,7 @@
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
-      <c r="I83" s="51"/>
+      <c r="I83" s="52"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:9">
       <c r="A84" s="21" t="s">
@@ -3761,7 +3767,7 @@
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
-      <c r="I84" s="51"/>
+      <c r="I84" s="52"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:9">
       <c r="A85" s="6" t="s">
@@ -3788,13 +3794,13 @@
       <c r="H85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I85" s="51"/>
+      <c r="I85" s="52"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:9">
-      <c r="A86" s="52">
-        <v>1</v>
-      </c>
-      <c r="B86" s="45" t="s">
+      <c r="A86" s="53">
+        <v>1</v>
+      </c>
+      <c r="B86" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -3811,13 +3817,13 @@
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="18"/>
-      <c r="I86" s="51"/>
+      <c r="I86" s="52"/>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:9">
-      <c r="A87" s="52">
+      <c r="A87" s="53">
         <v>2</v>
       </c>
-      <c r="B87" s="49"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="12" t="s">
         <v>56</v>
       </c>
@@ -3832,13 +3838,13 @@
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="18"/>
-      <c r="I87" s="51"/>
+      <c r="I87" s="52"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:9">
-      <c r="A88" s="52">
+      <c r="A88" s="53">
         <v>3</v>
       </c>
-      <c r="B88" s="49"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="12" t="s">
         <v>57</v>
       </c>
@@ -3853,13 +3859,13 @@
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="18"/>
-      <c r="I88" s="51"/>
+      <c r="I88" s="52"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:9">
-      <c r="A89" s="52">
+      <c r="A89" s="53">
         <v>4</v>
       </c>
-      <c r="B89" s="49"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="12" t="s">
         <v>58</v>
       </c>
@@ -3874,13 +3880,13 @@
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="18"/>
-      <c r="I89" s="51"/>
+      <c r="I89" s="52"/>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:9">
-      <c r="A90" s="52">
+      <c r="A90" s="53">
         <v>5</v>
       </c>
-      <c r="B90" s="49"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="12" t="s">
         <v>59</v>
       </c>
@@ -3895,13 +3901,13 @@
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="18"/>
-      <c r="I90" s="51"/>
+      <c r="I90" s="52"/>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:9">
-      <c r="A91" s="52">
+      <c r="A91" s="53">
         <v>6</v>
       </c>
-      <c r="B91" s="49"/>
+      <c r="B91" s="50"/>
       <c r="C91" s="12" t="s">
         <v>60</v>
       </c>
@@ -3916,13 +3922,13 @@
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="18"/>
-      <c r="I91" s="51"/>
+      <c r="I91" s="52"/>
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:9">
-      <c r="A92" s="52">
+      <c r="A92" s="53">
         <v>7</v>
       </c>
-      <c r="B92" s="49"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="12" t="s">
         <v>61</v>
       </c>
@@ -3937,13 +3943,13 @@
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="18"/>
-      <c r="I92" s="51"/>
+      <c r="I92" s="52"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:9">
-      <c r="A93" s="52">
+      <c r="A93" s="53">
         <v>8</v>
       </c>
-      <c r="B93" s="49"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="12" t="s">
         <v>62</v>
       </c>
@@ -3958,13 +3964,13 @@
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="18"/>
-      <c r="I93" s="51"/>
+      <c r="I93" s="52"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:9">
-      <c r="A94" s="52">
+      <c r="A94" s="53">
         <v>9</v>
       </c>
-      <c r="B94" s="49"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="12" t="s">
         <v>63</v>
       </c>
@@ -3979,13 +3985,13 @@
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="18"/>
-      <c r="I94" s="51"/>
+      <c r="I94" s="52"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:9">
-      <c r="A95" s="52">
+      <c r="A95" s="53">
         <v>10</v>
       </c>
-      <c r="B95" s="49"/>
+      <c r="B95" s="50"/>
       <c r="C95" s="12" t="s">
         <v>64</v>
       </c>
@@ -4000,13 +4006,13 @@
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="18"/>
-      <c r="I95" s="51"/>
+      <c r="I95" s="52"/>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:9">
-      <c r="A96" s="52">
+      <c r="A96" s="53">
         <v>11</v>
       </c>
-      <c r="B96" s="49"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="12" t="s">
         <v>65</v>
       </c>
@@ -4021,13 +4027,13 @@
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="18"/>
-      <c r="I96" s="51"/>
+      <c r="I96" s="52"/>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:9">
-      <c r="A97" s="52">
+      <c r="A97" s="53">
         <v>12</v>
       </c>
-      <c r="B97" s="46"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="12" t="s">
         <v>66</v>
       </c>
@@ -4042,13 +4048,13 @@
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="18"/>
-      <c r="I97" s="51"/>
+      <c r="I97" s="52"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:9">
-      <c r="A98" s="52">
+      <c r="A98" s="53">
         <v>13</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -4065,13 +4071,13 @@
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="18"/>
-      <c r="I98" s="51"/>
+      <c r="I98" s="52"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:9">
-      <c r="A99" s="52">
+      <c r="A99" s="53">
         <v>14</v>
       </c>
-      <c r="B99" s="49"/>
+      <c r="B99" s="50"/>
       <c r="C99" s="12" t="s">
         <v>70</v>
       </c>
@@ -4086,13 +4092,13 @@
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="18"/>
-      <c r="I99" s="51"/>
+      <c r="I99" s="52"/>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:9">
-      <c r="A100" s="52">
+      <c r="A100" s="53">
         <v>15</v>
       </c>
-      <c r="B100" s="49"/>
+      <c r="B100" s="50"/>
       <c r="C100" s="12" t="s">
         <v>71</v>
       </c>
@@ -4107,13 +4113,13 @@
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="18"/>
-      <c r="I100" s="51"/>
+      <c r="I100" s="52"/>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:9">
-      <c r="A101" s="52">
+      <c r="A101" s="53">
         <v>16</v>
       </c>
-      <c r="B101" s="46"/>
+      <c r="B101" s="47"/>
       <c r="C101" s="12" t="s">
         <v>72</v>
       </c>
@@ -4128,10 +4134,10 @@
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="18"/>
-      <c r="I101" s="51"/>
+      <c r="I101" s="52"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:9">
-      <c r="A102" s="52">
+      <c r="A102" s="53">
         <v>17</v>
       </c>
       <c r="B102" s="12" t="s">
@@ -4140,7 +4146,7 @@
       <c r="C102" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E102" s="12" t="s">
@@ -4151,62 +4157,62 @@
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="18"/>
-      <c r="I102" s="51"/>
+      <c r="I102" s="52"/>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:9">
-      <c r="A103" s="52">
+      <c r="A103" s="53">
         <v>18</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
-      <c r="D103" s="50"/>
+      <c r="D103" s="51"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="18"/>
-      <c r="I103" s="51"/>
+      <c r="I103" s="52"/>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:9">
-      <c r="A104" s="52">
+      <c r="A104" s="53">
         <v>19</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
-      <c r="D104" s="50"/>
+      <c r="D104" s="51"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="18"/>
-      <c r="I104" s="51"/>
+      <c r="I104" s="52"/>
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:9">
-      <c r="A105" s="52">
+      <c r="A105" s="53">
         <v>20</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
-      <c r="D105" s="50"/>
+      <c r="D105" s="51"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="18"/>
-      <c r="I105" s="51"/>
+      <c r="I105" s="52"/>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:9">
-      <c r="A106" s="52">
+      <c r="A106" s="53">
         <v>21</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
-      <c r="D106" s="50"/>
+      <c r="D106" s="51"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="18"/>
-      <c r="I106" s="51"/>
+      <c r="I106" s="52"/>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:9">
-      <c r="A107" s="52">
+      <c r="A107" s="53">
         <v>22</v>
       </c>
       <c r="B107" s="12"/>
@@ -4216,10 +4222,10 @@
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="18"/>
-      <c r="I107" s="51"/>
+      <c r="I107" s="52"/>
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:9">
-      <c r="A108" s="52">
+      <c r="A108" s="53">
         <v>23</v>
       </c>
       <c r="B108" s="12"/>
@@ -4229,10 +4235,10 @@
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="18"/>
-      <c r="I108" s="51"/>
+      <c r="I108" s="52"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:9">
-      <c r="A109" s="52">
+      <c r="A109" s="53">
         <v>24</v>
       </c>
       <c r="B109" s="12"/>
@@ -4242,10 +4248,10 @@
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="18"/>
-      <c r="I109" s="51"/>
+      <c r="I109" s="52"/>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:9">
-      <c r="A110" s="52">
+      <c r="A110" s="53">
         <v>25</v>
       </c>
       <c r="B110" s="12"/>
@@ -4255,10 +4261,10 @@
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="18"/>
-      <c r="I110" s="51"/>
+      <c r="I110" s="52"/>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:9">
-      <c r="A111" s="52">
+      <c r="A111" s="53">
         <v>26</v>
       </c>
       <c r="B111" s="12"/>
@@ -4268,7 +4274,7 @@
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="18"/>
-      <c r="I111" s="51"/>
+      <c r="I111" s="52"/>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:9">
       <c r="A112" s="21" t="s">
@@ -4283,7 +4289,7 @@
         <v>34</v>
       </c>
       <c r="H112" s="21"/>
-      <c r="I112" s="51"/>
+      <c r="I112" s="52"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:9">
       <c r="A113" s="21" t="s">
@@ -4298,7 +4304,7 @@
         <v>36</v>
       </c>
       <c r="H113" s="21"/>
-      <c r="I113" s="51"/>
+      <c r="I113" s="52"/>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:9">
       <c r="A114" s="20" t="s">
@@ -4311,7 +4317,7 @@
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="51"/>
+      <c r="I114" s="52"/>
     </row>
     <row r="115" ht="18" customHeight="1" spans="1:9">
       <c r="A115" s="19"/>
@@ -4322,7 +4328,7 @@
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="51"/>
+      <c r="I115" s="52"/>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:9">
       <c r="A116" s="19"/>
@@ -4335,7 +4341,7 @@
         <v>74</v>
       </c>
       <c r="H116" s="20"/>
-      <c r="I116" s="51"/>
+      <c r="I116" s="52"/>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:9">
       <c r="A117" s="19"/>
@@ -4348,7 +4354,7 @@
         <v>75</v>
       </c>
       <c r="H117" s="21"/>
-      <c r="I117" s="51"/>
+      <c r="I117" s="52"/>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:9">
       <c r="A118" s="22" t="s">
@@ -4361,7 +4367,7 @@
       <c r="F118" s="22"/>
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
-      <c r="I118" s="51"/>
+      <c r="I118" s="52"/>
     </row>
     <row r="119" ht="18" customHeight="1" spans="1:9">
       <c r="A119" s="23" t="s">
@@ -4374,7 +4380,7 @@
       <c r="F119" s="22"/>
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
-      <c r="I119" s="51"/>
+      <c r="I119" s="52"/>
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:9">
       <c r="A120" s="21" t="s">
@@ -4387,7 +4393,7 @@
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
       <c r="H120" s="21"/>
-      <c r="I120" s="51"/>
+      <c r="I120" s="52"/>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:9">
       <c r="A121" s="21" t="s">
@@ -4402,7 +4408,7 @@
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
-      <c r="I121" s="51"/>
+      <c r="I121" s="52"/>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:9">
       <c r="A122" s="21" t="s">
@@ -4417,7 +4423,7 @@
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
-      <c r="I122" s="51"/>
+      <c r="I122" s="52"/>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:9">
       <c r="A123" s="6" t="s">
@@ -4444,13 +4450,13 @@
       <c r="H123" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="51"/>
+      <c r="I123" s="52"/>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:9">
-      <c r="A124" s="52">
-        <v>1</v>
-      </c>
-      <c r="B124" s="45" t="s">
+      <c r="A124" s="53">
+        <v>1</v>
+      </c>
+      <c r="B124" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C124" s="12" t="s">
@@ -4467,13 +4473,13 @@
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="18"/>
-      <c r="I124" s="51"/>
+      <c r="I124" s="52"/>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:9">
-      <c r="A125" s="52">
+      <c r="A125" s="53">
         <v>2</v>
       </c>
-      <c r="B125" s="49"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="12" t="s">
         <v>80</v>
       </c>
@@ -4488,13 +4494,13 @@
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="18"/>
-      <c r="I125" s="51"/>
+      <c r="I125" s="52"/>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:9">
-      <c r="A126" s="52">
+      <c r="A126" s="53">
         <v>3</v>
       </c>
-      <c r="B126" s="49"/>
+      <c r="B126" s="50"/>
       <c r="C126" s="12" t="s">
         <v>81</v>
       </c>
@@ -4509,13 +4515,13 @@
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="18"/>
-      <c r="I126" s="51"/>
+      <c r="I126" s="52"/>
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:9">
-      <c r="A127" s="52">
+      <c r="A127" s="53">
         <v>4</v>
       </c>
-      <c r="B127" s="49"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="12" t="s">
         <v>82</v>
       </c>
@@ -4530,13 +4536,13 @@
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="18"/>
-      <c r="I127" s="51"/>
+      <c r="I127" s="52"/>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:9">
-      <c r="A128" s="52">
+      <c r="A128" s="53">
         <v>5</v>
       </c>
-      <c r="B128" s="49"/>
+      <c r="B128" s="50"/>
       <c r="C128" s="12" t="s">
         <v>83</v>
       </c>
@@ -4551,13 +4557,13 @@
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="18"/>
-      <c r="I128" s="51"/>
+      <c r="I128" s="52"/>
     </row>
     <row r="129" ht="18" customHeight="1" spans="1:9">
-      <c r="A129" s="52">
+      <c r="A129" s="53">
         <v>6</v>
       </c>
-      <c r="B129" s="46"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="12" t="s">
         <v>84</v>
       </c>
@@ -4572,10 +4578,10 @@
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="18"/>
-      <c r="I129" s="51"/>
+      <c r="I129" s="52"/>
     </row>
     <row r="130" ht="18" customHeight="1" spans="1:9">
-      <c r="A130" s="52">
+      <c r="A130" s="53">
         <v>7</v>
       </c>
       <c r="B130" s="12" t="s">
@@ -4595,10 +4601,10 @@
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="18"/>
-      <c r="I130" s="51"/>
+      <c r="I130" s="52"/>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:9">
-      <c r="A131" s="52">
+      <c r="A131" s="53">
         <v>8</v>
       </c>
       <c r="B131" s="12"/>
@@ -4608,10 +4614,10 @@
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="18"/>
-      <c r="I131" s="51"/>
+      <c r="I131" s="52"/>
     </row>
     <row r="132" ht="18" customHeight="1" spans="1:9">
-      <c r="A132" s="52">
+      <c r="A132" s="53">
         <v>9</v>
       </c>
       <c r="B132" s="12"/>
@@ -4621,10 +4627,10 @@
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="18"/>
-      <c r="I132" s="51"/>
+      <c r="I132" s="52"/>
     </row>
     <row r="133" ht="18" customHeight="1" spans="1:9">
-      <c r="A133" s="52">
+      <c r="A133" s="53">
         <v>10</v>
       </c>
       <c r="B133" s="12"/>
@@ -4634,10 +4640,10 @@
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="18"/>
-      <c r="I133" s="51"/>
+      <c r="I133" s="52"/>
     </row>
     <row r="134" ht="18" customHeight="1" spans="1:9">
-      <c r="A134" s="52">
+      <c r="A134" s="53">
         <v>11</v>
       </c>
       <c r="B134" s="12"/>
@@ -4647,10 +4653,10 @@
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="18"/>
-      <c r="I134" s="51"/>
+      <c r="I134" s="52"/>
     </row>
     <row r="135" ht="18" customHeight="1" spans="1:9">
-      <c r="A135" s="52">
+      <c r="A135" s="53">
         <v>12</v>
       </c>
       <c r="B135" s="12"/>
@@ -4660,10 +4666,10 @@
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
       <c r="H135" s="18"/>
-      <c r="I135" s="51"/>
+      <c r="I135" s="52"/>
     </row>
     <row r="136" ht="18" customHeight="1" spans="1:9">
-      <c r="A136" s="52">
+      <c r="A136" s="53">
         <v>13</v>
       </c>
       <c r="B136" s="12"/>
@@ -4673,10 +4679,10 @@
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
       <c r="H136" s="18"/>
-      <c r="I136" s="51"/>
+      <c r="I136" s="52"/>
     </row>
     <row r="137" ht="18" customHeight="1" spans="1:9">
-      <c r="A137" s="52">
+      <c r="A137" s="53">
         <v>14</v>
       </c>
       <c r="B137" s="12"/>
@@ -4686,10 +4692,10 @@
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="18"/>
-      <c r="I137" s="51"/>
+      <c r="I137" s="52"/>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:9">
-      <c r="A138" s="52">
+      <c r="A138" s="53">
         <v>15</v>
       </c>
       <c r="B138" s="12"/>
@@ -4699,10 +4705,10 @@
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="18"/>
-      <c r="I138" s="51"/>
+      <c r="I138" s="52"/>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:9">
-      <c r="A139" s="52">
+      <c r="A139" s="53">
         <v>16</v>
       </c>
       <c r="B139" s="12"/>
@@ -4712,75 +4718,75 @@
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="18"/>
-      <c r="I139" s="51"/>
+      <c r="I139" s="52"/>
     </row>
     <row r="140" ht="18" customHeight="1" spans="1:9">
-      <c r="A140" s="52">
+      <c r="A140" s="53">
         <v>17</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
-      <c r="D140" s="50"/>
+      <c r="D140" s="51"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
       <c r="H140" s="18"/>
-      <c r="I140" s="51"/>
+      <c r="I140" s="52"/>
     </row>
     <row r="141" ht="18" customHeight="1" spans="1:9">
-      <c r="A141" s="52">
+      <c r="A141" s="53">
         <v>18</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
-      <c r="D141" s="50"/>
+      <c r="D141" s="51"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="18"/>
-      <c r="I141" s="51"/>
+      <c r="I141" s="52"/>
     </row>
     <row r="142" ht="18" customHeight="1" spans="1:9">
-      <c r="A142" s="52">
+      <c r="A142" s="53">
         <v>19</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
-      <c r="D142" s="50"/>
+      <c r="D142" s="51"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="18"/>
-      <c r="I142" s="51"/>
+      <c r="I142" s="52"/>
     </row>
     <row r="143" ht="18" customHeight="1" spans="1:9">
-      <c r="A143" s="52">
+      <c r="A143" s="53">
         <v>20</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
-      <c r="D143" s="50"/>
+      <c r="D143" s="51"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
       <c r="H143" s="18"/>
-      <c r="I143" s="51"/>
+      <c r="I143" s="52"/>
     </row>
     <row r="144" ht="18" customHeight="1" spans="1:9">
-      <c r="A144" s="52">
+      <c r="A144" s="53">
         <v>21</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
-      <c r="D144" s="50"/>
+      <c r="D144" s="51"/>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
       <c r="H144" s="18"/>
-      <c r="I144" s="51"/>
+      <c r="I144" s="52"/>
     </row>
     <row r="145" ht="18" customHeight="1" spans="1:9">
-      <c r="A145" s="52">
+      <c r="A145" s="53">
         <v>22</v>
       </c>
       <c r="B145" s="12"/>
@@ -4790,10 +4796,10 @@
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
       <c r="H145" s="18"/>
-      <c r="I145" s="51"/>
+      <c r="I145" s="52"/>
     </row>
     <row r="146" ht="18" customHeight="1" spans="1:9">
-      <c r="A146" s="52">
+      <c r="A146" s="53">
         <v>23</v>
       </c>
       <c r="B146" s="12"/>
@@ -4803,10 +4809,10 @@
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="18"/>
-      <c r="I146" s="51"/>
+      <c r="I146" s="52"/>
     </row>
     <row r="147" ht="18" customHeight="1" spans="1:9">
-      <c r="A147" s="52">
+      <c r="A147" s="53">
         <v>24</v>
       </c>
       <c r="B147" s="12"/>
@@ -4816,10 +4822,10 @@
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
       <c r="H147" s="18"/>
-      <c r="I147" s="51"/>
+      <c r="I147" s="52"/>
     </row>
     <row r="148" ht="18" customHeight="1" spans="1:9">
-      <c r="A148" s="52">
+      <c r="A148" s="53">
         <v>25</v>
       </c>
       <c r="B148" s="12"/>
@@ -4829,10 +4835,10 @@
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
       <c r="H148" s="18"/>
-      <c r="I148" s="51"/>
+      <c r="I148" s="52"/>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:9">
-      <c r="A149" s="52">
+      <c r="A149" s="53">
         <v>26</v>
       </c>
       <c r="B149" s="12"/>
@@ -4842,7 +4848,7 @@
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="18"/>
-      <c r="I149" s="51"/>
+      <c r="I149" s="52"/>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:9">
       <c r="A150" s="21" t="s">
@@ -4857,7 +4863,7 @@
         <v>34</v>
       </c>
       <c r="H150" s="21"/>
-      <c r="I150" s="51"/>
+      <c r="I150" s="52"/>
     </row>
     <row r="151" ht="18" customHeight="1" spans="1:9">
       <c r="A151" s="21" t="s">
@@ -4872,7 +4878,7 @@
         <v>36</v>
       </c>
       <c r="H151" s="21"/>
-      <c r="I151" s="51"/>
+      <c r="I151" s="52"/>
     </row>
     <row r="152" ht="18" customHeight="1" spans="1:9">
       <c r="A152" s="20" t="s">
@@ -4885,18 +4891,18 @@
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="51"/>
+      <c r="I152" s="52"/>
     </row>
     <row r="153" ht="18" customHeight="1" spans="1:9">
-      <c r="A153" s="51"/>
-      <c r="B153" s="51"/>
-      <c r="C153" s="51"/>
-      <c r="D153" s="51"/>
-      <c r="E153" s="51"/>
-      <c r="F153" s="51"/>
-      <c r="G153" s="51"/>
-      <c r="H153" s="51"/>
-      <c r="I153" s="51"/>
+      <c r="A153" s="52"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="52"/>
+      <c r="D153" s="52"/>
+      <c r="E153" s="52"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="52"/>
+      <c r="H153" s="52"/>
+      <c r="I153" s="52"/>
     </row>
     <row r="154" ht="18" customHeight="1" spans="1:9">
       <c r="A154" s="19"/>
@@ -4909,7 +4915,7 @@
         <v>88</v>
       </c>
       <c r="H154" s="20"/>
-      <c r="I154" s="51"/>
+      <c r="I154" s="52"/>
     </row>
     <row r="155" ht="18" customHeight="1" spans="1:9">
       <c r="A155" s="19"/>
@@ -4922,7 +4928,7 @@
         <v>89</v>
       </c>
       <c r="H155" s="21"/>
-      <c r="I155" s="51"/>
+      <c r="I155" s="52"/>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:9">
       <c r="A156" s="22" t="s">
@@ -4935,7 +4941,7 @@
       <c r="F156" s="22"/>
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
-      <c r="I156" s="51"/>
+      <c r="I156" s="52"/>
     </row>
     <row r="157" ht="18" customHeight="1" spans="1:9">
       <c r="A157" s="23" t="s">
@@ -4948,7 +4954,7 @@
       <c r="F157" s="22"/>
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
-      <c r="I157" s="51"/>
+      <c r="I157" s="52"/>
     </row>
     <row r="158" ht="18" customHeight="1" spans="1:9">
       <c r="A158" s="21" t="s">
@@ -4961,7 +4967,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
       <c r="H158" s="21"/>
-      <c r="I158" s="51"/>
+      <c r="I158" s="52"/>
     </row>
     <row r="159" ht="18" customHeight="1" spans="1:9">
       <c r="A159" s="21" t="s">
@@ -4976,7 +4982,7 @@
       </c>
       <c r="G159" s="21"/>
       <c r="H159" s="21"/>
-      <c r="I159" s="51"/>
+      <c r="I159" s="52"/>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:9">
       <c r="A160" s="21" t="s">
@@ -4991,7 +4997,7 @@
       </c>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
-      <c r="I160" s="51"/>
+      <c r="I160" s="52"/>
     </row>
     <row r="161" ht="18" customHeight="1" spans="1:9">
       <c r="A161" s="6" t="s">
@@ -5018,13 +5024,13 @@
       <c r="H161" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I161" s="51"/>
+      <c r="I161" s="52"/>
     </row>
     <row r="162" ht="18" customHeight="1" spans="1:9">
-      <c r="A162" s="52">
-        <v>1</v>
-      </c>
-      <c r="B162" s="45" t="s">
+      <c r="A162" s="53">
+        <v>1</v>
+      </c>
+      <c r="B162" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C162" s="12" t="s">
@@ -5041,13 +5047,13 @@
       </c>
       <c r="G162" s="12"/>
       <c r="H162" s="18"/>
-      <c r="I162" s="51"/>
+      <c r="I162" s="52"/>
     </row>
     <row r="163" ht="18" customHeight="1" spans="1:9">
-      <c r="A163" s="52">
+      <c r="A163" s="53">
         <v>2</v>
       </c>
-      <c r="B163" s="46"/>
+      <c r="B163" s="47"/>
       <c r="C163" s="12" t="s">
         <v>92</v>
       </c>
@@ -5062,13 +5068,13 @@
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="18"/>
-      <c r="I163" s="51"/>
+      <c r="I163" s="52"/>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:9">
-      <c r="A164" s="52">
+      <c r="A164" s="53">
         <v>3</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="B164" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C164" s="12" t="s">
@@ -5085,13 +5091,13 @@
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="18"/>
-      <c r="I164" s="51"/>
+      <c r="I164" s="52"/>
     </row>
     <row r="165" ht="18" customHeight="1" spans="1:9">
-      <c r="A165" s="52">
+      <c r="A165" s="53">
         <v>4</v>
       </c>
-      <c r="B165" s="49"/>
+      <c r="B165" s="50"/>
       <c r="C165" s="12" t="s">
         <v>94</v>
       </c>
@@ -5106,13 +5112,13 @@
       </c>
       <c r="G165" s="12"/>
       <c r="H165" s="18"/>
-      <c r="I165" s="51"/>
+      <c r="I165" s="52"/>
     </row>
     <row r="166" ht="18" customHeight="1" spans="1:9">
-      <c r="A166" s="52">
+      <c r="A166" s="53">
         <v>5</v>
       </c>
-      <c r="B166" s="49"/>
+      <c r="B166" s="50"/>
       <c r="C166" s="12" t="s">
         <v>96</v>
       </c>
@@ -5127,13 +5133,13 @@
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="18"/>
-      <c r="I166" s="51"/>
+      <c r="I166" s="52"/>
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:9">
-      <c r="A167" s="52">
+      <c r="A167" s="53">
         <v>6</v>
       </c>
-      <c r="B167" s="49"/>
+      <c r="B167" s="50"/>
       <c r="C167" s="12" t="s">
         <v>97</v>
       </c>
@@ -5148,13 +5154,13 @@
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="18"/>
-      <c r="I167" s="51"/>
+      <c r="I167" s="52"/>
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:9">
-      <c r="A168" s="52">
+      <c r="A168" s="53">
         <v>7</v>
       </c>
-      <c r="B168" s="49"/>
+      <c r="B168" s="50"/>
       <c r="C168" s="12" t="s">
         <v>98</v>
       </c>
@@ -5169,13 +5175,13 @@
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="18"/>
-      <c r="I168" s="51"/>
+      <c r="I168" s="52"/>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:9">
-      <c r="A169" s="52">
+      <c r="A169" s="53">
         <v>8</v>
       </c>
-      <c r="B169" s="49"/>
+      <c r="B169" s="50"/>
       <c r="C169" s="12" t="s">
         <v>99</v>
       </c>
@@ -5190,13 +5196,13 @@
       </c>
       <c r="G169" s="12"/>
       <c r="H169" s="18"/>
-      <c r="I169" s="51"/>
+      <c r="I169" s="52"/>
     </row>
     <row r="170" ht="18" customHeight="1" spans="1:9">
-      <c r="A170" s="52">
+      <c r="A170" s="53">
         <v>9</v>
       </c>
-      <c r="B170" s="49"/>
+      <c r="B170" s="50"/>
       <c r="C170" s="12" t="s">
         <v>100</v>
       </c>
@@ -5211,13 +5217,13 @@
       </c>
       <c r="G170" s="12"/>
       <c r="H170" s="18"/>
-      <c r="I170" s="51"/>
+      <c r="I170" s="52"/>
     </row>
     <row r="171" ht="18" customHeight="1" spans="1:9">
-      <c r="A171" s="52">
+      <c r="A171" s="53">
         <v>10</v>
       </c>
-      <c r="B171" s="49"/>
+      <c r="B171" s="50"/>
       <c r="C171" s="12" t="s">
         <v>101</v>
       </c>
@@ -5232,17 +5238,17 @@
       </c>
       <c r="G171" s="12"/>
       <c r="H171" s="18"/>
-      <c r="I171" s="51"/>
+      <c r="I171" s="52"/>
     </row>
     <row r="172" ht="18" customHeight="1" spans="1:9">
-      <c r="A172" s="52">
+      <c r="A172" s="53">
         <v>11</v>
       </c>
-      <c r="B172" s="49"/>
+      <c r="B172" s="50"/>
       <c r="C172" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D172" s="50" t="s">
+      <c r="D172" s="51" t="s">
         <v>69</v>
       </c>
       <c r="E172" s="12" t="s">
@@ -5253,17 +5259,17 @@
       </c>
       <c r="G172" s="12"/>
       <c r="H172" s="18"/>
-      <c r="I172" s="51"/>
+      <c r="I172" s="52"/>
     </row>
     <row r="173" ht="18" customHeight="1" spans="1:9">
-      <c r="A173" s="52">
+      <c r="A173" s="53">
         <v>12</v>
       </c>
-      <c r="B173" s="49"/>
+      <c r="B173" s="50"/>
       <c r="C173" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D173" s="50" t="s">
+      <c r="D173" s="51" t="s">
         <v>95</v>
       </c>
       <c r="E173" s="12" t="s">
@@ -5274,17 +5280,17 @@
       </c>
       <c r="G173" s="12"/>
       <c r="H173" s="18"/>
-      <c r="I173" s="51"/>
+      <c r="I173" s="52"/>
     </row>
     <row r="174" ht="18" customHeight="1" spans="1:9">
-      <c r="A174" s="52">
+      <c r="A174" s="53">
         <v>13</v>
       </c>
-      <c r="B174" s="49"/>
+      <c r="B174" s="50"/>
       <c r="C174" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D174" s="50" t="s">
+      <c r="D174" s="51" t="s">
         <v>69</v>
       </c>
       <c r="E174" s="12" t="s">
@@ -5295,17 +5301,17 @@
       </c>
       <c r="G174" s="12"/>
       <c r="H174" s="18"/>
-      <c r="I174" s="51"/>
+      <c r="I174" s="52"/>
     </row>
     <row r="175" ht="18" customHeight="1" spans="1:9">
-      <c r="A175" s="52">
+      <c r="A175" s="53">
         <v>14</v>
       </c>
-      <c r="B175" s="49"/>
+      <c r="B175" s="50"/>
       <c r="C175" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D175" s="50" t="s">
+      <c r="D175" s="51" t="s">
         <v>69</v>
       </c>
       <c r="E175" s="12" t="s">
@@ -5316,17 +5322,17 @@
       </c>
       <c r="G175" s="12"/>
       <c r="H175" s="18"/>
-      <c r="I175" s="51"/>
+      <c r="I175" s="52"/>
     </row>
     <row r="176" ht="18" customHeight="1" spans="1:9">
-      <c r="A176" s="52">
+      <c r="A176" s="53">
         <v>15</v>
       </c>
-      <c r="B176" s="49"/>
+      <c r="B176" s="50"/>
       <c r="C176" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D176" s="50" t="s">
+      <c r="D176" s="51" t="s">
         <v>95</v>
       </c>
       <c r="E176" s="12" t="s">
@@ -5337,13 +5343,13 @@
       </c>
       <c r="G176" s="12"/>
       <c r="H176" s="18"/>
-      <c r="I176" s="51"/>
+      <c r="I176" s="52"/>
     </row>
     <row r="177" ht="18" customHeight="1" spans="1:9">
-      <c r="A177" s="52">
+      <c r="A177" s="53">
         <v>16</v>
       </c>
-      <c r="B177" s="49"/>
+      <c r="B177" s="50"/>
       <c r="C177" s="12" t="s">
         <v>107</v>
       </c>
@@ -5358,13 +5364,13 @@
       </c>
       <c r="G177" s="12"/>
       <c r="H177" s="18"/>
-      <c r="I177" s="51"/>
+      <c r="I177" s="52"/>
     </row>
     <row r="178" ht="18" customHeight="1" spans="1:9">
-      <c r="A178" s="52">
+      <c r="A178" s="53">
         <v>17</v>
       </c>
-      <c r="B178" s="49"/>
+      <c r="B178" s="50"/>
       <c r="C178" s="12" t="s">
         <v>108</v>
       </c>
@@ -5379,13 +5385,13 @@
       </c>
       <c r="G178" s="12"/>
       <c r="H178" s="18"/>
-      <c r="I178" s="51"/>
+      <c r="I178" s="52"/>
     </row>
     <row r="179" ht="18" customHeight="1" spans="1:9">
-      <c r="A179" s="52">
+      <c r="A179" s="53">
         <v>18</v>
       </c>
-      <c r="B179" s="49"/>
+      <c r="B179" s="50"/>
       <c r="C179" s="12" t="s">
         <v>109</v>
       </c>
@@ -5400,13 +5406,13 @@
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="18"/>
-      <c r="I179" s="51"/>
+      <c r="I179" s="52"/>
     </row>
     <row r="180" ht="18" customHeight="1" spans="1:9">
-      <c r="A180" s="52">
+      <c r="A180" s="53">
         <v>19</v>
       </c>
-      <c r="B180" s="46"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="12" t="s">
         <v>110</v>
       </c>
@@ -5421,10 +5427,10 @@
       </c>
       <c r="G180" s="12"/>
       <c r="H180" s="18"/>
-      <c r="I180" s="51"/>
+      <c r="I180" s="52"/>
     </row>
     <row r="181" ht="18" customHeight="1" spans="1:9">
-      <c r="A181" s="52">
+      <c r="A181" s="53">
         <v>20</v>
       </c>
       <c r="B181" s="12" t="s">
@@ -5444,10 +5450,10 @@
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="18"/>
-      <c r="I181" s="51"/>
+      <c r="I181" s="52"/>
     </row>
     <row r="182" ht="18" customHeight="1" spans="1:9">
-      <c r="A182" s="52">
+      <c r="A182" s="53">
         <v>21</v>
       </c>
       <c r="B182" s="12"/>
@@ -5457,10 +5463,10 @@
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="18"/>
-      <c r="I182" s="51"/>
+      <c r="I182" s="52"/>
     </row>
     <row r="183" ht="18" customHeight="1" spans="1:9">
-      <c r="A183" s="52">
+      <c r="A183" s="53">
         <v>22</v>
       </c>
       <c r="B183" s="12"/>
@@ -5470,10 +5476,10 @@
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="18"/>
-      <c r="I183" s="51"/>
+      <c r="I183" s="52"/>
     </row>
     <row r="184" ht="18" customHeight="1" spans="1:9">
-      <c r="A184" s="52">
+      <c r="A184" s="53">
         <v>23</v>
       </c>
       <c r="B184" s="12"/>
@@ -5483,10 +5489,10 @@
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="18"/>
-      <c r="I184" s="51"/>
+      <c r="I184" s="52"/>
     </row>
     <row r="185" ht="18" customHeight="1" spans="1:9">
-      <c r="A185" s="52">
+      <c r="A185" s="53">
         <v>24</v>
       </c>
       <c r="B185" s="12"/>
@@ -5496,10 +5502,10 @@
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="18"/>
-      <c r="I185" s="51"/>
+      <c r="I185" s="52"/>
     </row>
     <row r="186" ht="18" customHeight="1" spans="1:9">
-      <c r="A186" s="52">
+      <c r="A186" s="53">
         <v>25</v>
       </c>
       <c r="B186" s="12"/>
@@ -5509,10 +5515,10 @@
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="18"/>
-      <c r="I186" s="51"/>
+      <c r="I186" s="52"/>
     </row>
     <row r="187" ht="18" customHeight="1" spans="1:9">
-      <c r="A187" s="52">
+      <c r="A187" s="53">
         <v>26</v>
       </c>
       <c r="B187" s="12"/>
@@ -5522,7 +5528,7 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="18"/>
-      <c r="I187" s="51"/>
+      <c r="I187" s="52"/>
     </row>
     <row r="188" ht="18" customHeight="1" spans="1:9">
       <c r="A188" s="21" t="s">
@@ -5537,7 +5543,7 @@
         <v>34</v>
       </c>
       <c r="H188" s="21"/>
-      <c r="I188" s="51"/>
+      <c r="I188" s="52"/>
     </row>
     <row r="189" ht="18" customHeight="1" spans="1:9">
       <c r="A189" s="21" t="s">
@@ -5552,7 +5558,7 @@
         <v>36</v>
       </c>
       <c r="H189" s="21"/>
-      <c r="I189" s="51"/>
+      <c r="I189" s="52"/>
     </row>
     <row r="190" ht="18" customHeight="1" spans="1:9">
       <c r="A190" s="20" t="s">
@@ -5565,18 +5571,18 @@
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
       <c r="H190" s="19"/>
-      <c r="I190" s="51"/>
+      <c r="I190" s="52"/>
     </row>
     <row r="191" ht="18" customHeight="1" spans="1:9">
-      <c r="A191" s="51"/>
-      <c r="B191" s="51"/>
-      <c r="C191" s="51"/>
-      <c r="D191" s="51"/>
-      <c r="E191" s="51"/>
-      <c r="F191" s="51"/>
-      <c r="G191" s="51"/>
-      <c r="H191" s="51"/>
-      <c r="I191" s="51"/>
+      <c r="A191" s="52"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="52"/>
+      <c r="D191" s="52"/>
+      <c r="E191" s="52"/>
+      <c r="F191" s="52"/>
+      <c r="G191" s="52"/>
+      <c r="H191" s="52"/>
+      <c r="I191" s="52"/>
     </row>
     <row r="192" ht="18" customHeight="1" spans="1:9">
       <c r="A192" s="19"/>
@@ -5589,7 +5595,7 @@
         <v>112</v>
       </c>
       <c r="H192" s="20"/>
-      <c r="I192" s="51"/>
+      <c r="I192" s="52"/>
     </row>
     <row r="193" ht="18" customHeight="1" spans="1:9">
       <c r="A193" s="19"/>
@@ -5602,7 +5608,7 @@
         <v>113</v>
       </c>
       <c r="H193" s="21"/>
-      <c r="I193" s="51"/>
+      <c r="I193" s="52"/>
     </row>
     <row r="194" ht="18" customHeight="1" spans="1:9">
       <c r="A194" s="22" t="s">
@@ -5615,7 +5621,7 @@
       <c r="F194" s="22"/>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
-      <c r="I194" s="51"/>
+      <c r="I194" s="52"/>
     </row>
     <row r="195" ht="18" customHeight="1" spans="1:9">
       <c r="A195" s="23" t="s">
@@ -5628,7 +5634,7 @@
       <c r="F195" s="22"/>
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
-      <c r="I195" s="51"/>
+      <c r="I195" s="52"/>
     </row>
     <row r="196" ht="18" customHeight="1" spans="1:9">
       <c r="A196" s="21" t="s">
@@ -5641,7 +5647,7 @@
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
-      <c r="I196" s="51"/>
+      <c r="I196" s="52"/>
     </row>
     <row r="197" ht="18" customHeight="1" spans="1:9">
       <c r="A197" s="21" t="s">
@@ -5656,7 +5662,7 @@
       </c>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
-      <c r="I197" s="51"/>
+      <c r="I197" s="52"/>
     </row>
     <row r="198" ht="18" customHeight="1" spans="1:9">
       <c r="A198" s="21" t="s">
@@ -5671,7 +5677,7 @@
       </c>
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
-      <c r="I198" s="51"/>
+      <c r="I198" s="52"/>
     </row>
     <row r="199" ht="18" customHeight="1" spans="1:9">
       <c r="A199" s="6" t="s">
@@ -5698,13 +5704,13 @@
       <c r="H199" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I199" s="51"/>
+      <c r="I199" s="52"/>
     </row>
     <row r="200" ht="18" customHeight="1" spans="1:9">
-      <c r="A200" s="52">
-        <v>1</v>
-      </c>
-      <c r="B200" s="45" t="s">
+      <c r="A200" s="53">
+        <v>1</v>
+      </c>
+      <c r="B200" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C200" s="12" t="s">
@@ -5721,13 +5727,13 @@
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="18"/>
-      <c r="I200" s="51"/>
+      <c r="I200" s="52"/>
     </row>
     <row r="201" ht="18" customHeight="1" spans="1:9">
-      <c r="A201" s="52">
+      <c r="A201" s="53">
         <v>2</v>
       </c>
-      <c r="B201" s="49"/>
+      <c r="B201" s="50"/>
       <c r="C201" s="12" t="s">
         <v>117</v>
       </c>
@@ -5742,13 +5748,13 @@
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="18"/>
-      <c r="I201" s="51"/>
+      <c r="I201" s="52"/>
     </row>
     <row r="202" ht="18" customHeight="1" spans="1:9">
-      <c r="A202" s="52">
+      <c r="A202" s="53">
         <v>3</v>
       </c>
-      <c r="B202" s="46"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="12" t="s">
         <v>91</v>
       </c>
@@ -5763,13 +5769,13 @@
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="18"/>
-      <c r="I202" s="51"/>
+      <c r="I202" s="52"/>
     </row>
     <row r="203" ht="18" customHeight="1" spans="1:9">
-      <c r="A203" s="52">
+      <c r="A203" s="53">
         <v>4</v>
       </c>
-      <c r="B203" s="45" t="s">
+      <c r="B203" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C203" s="12" t="s">
@@ -5786,13 +5792,13 @@
       </c>
       <c r="G203" s="12"/>
       <c r="H203" s="18"/>
-      <c r="I203" s="51"/>
+      <c r="I203" s="52"/>
     </row>
     <row r="204" ht="18" customHeight="1" spans="1:9">
-      <c r="A204" s="52">
+      <c r="A204" s="53">
         <v>5</v>
       </c>
-      <c r="B204" s="49"/>
+      <c r="B204" s="50"/>
       <c r="C204" s="12" t="s">
         <v>119</v>
       </c>
@@ -5807,13 +5813,13 @@
       </c>
       <c r="G204" s="12"/>
       <c r="H204" s="18"/>
-      <c r="I204" s="51"/>
+      <c r="I204" s="52"/>
     </row>
     <row r="205" ht="18" customHeight="1" spans="1:9">
-      <c r="A205" s="52">
+      <c r="A205" s="53">
         <v>6</v>
       </c>
-      <c r="B205" s="49"/>
+      <c r="B205" s="50"/>
       <c r="C205" s="12" t="s">
         <v>120</v>
       </c>
@@ -5828,13 +5834,13 @@
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="18"/>
-      <c r="I205" s="51"/>
+      <c r="I205" s="52"/>
     </row>
     <row r="206" ht="18" customHeight="1" spans="1:9">
-      <c r="A206" s="52">
+      <c r="A206" s="53">
         <v>7</v>
       </c>
-      <c r="B206" s="49"/>
+      <c r="B206" s="50"/>
       <c r="C206" s="12" t="s">
         <v>121</v>
       </c>
@@ -5849,13 +5855,13 @@
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="18"/>
-      <c r="I206" s="51"/>
+      <c r="I206" s="52"/>
     </row>
     <row r="207" ht="18" customHeight="1" spans="1:9">
-      <c r="A207" s="52">
+      <c r="A207" s="53">
         <v>8</v>
       </c>
-      <c r="B207" s="49"/>
+      <c r="B207" s="50"/>
       <c r="C207" s="12" t="s">
         <v>122</v>
       </c>
@@ -5870,13 +5876,13 @@
       </c>
       <c r="G207" s="12"/>
       <c r="H207" s="18"/>
-      <c r="I207" s="51"/>
+      <c r="I207" s="52"/>
     </row>
     <row r="208" ht="18" customHeight="1" spans="1:9">
-      <c r="A208" s="52">
+      <c r="A208" s="53">
         <v>9</v>
       </c>
-      <c r="B208" s="49"/>
+      <c r="B208" s="50"/>
       <c r="C208" s="12" t="s">
         <v>123</v>
       </c>
@@ -5891,13 +5897,13 @@
       </c>
       <c r="G208" s="12"/>
       <c r="H208" s="18"/>
-      <c r="I208" s="51"/>
+      <c r="I208" s="52"/>
     </row>
     <row r="209" ht="18" customHeight="1" spans="1:9">
-      <c r="A209" s="52">
+      <c r="A209" s="53">
         <v>10</v>
       </c>
-      <c r="B209" s="49"/>
+      <c r="B209" s="50"/>
       <c r="C209" s="12" t="s">
         <v>124</v>
       </c>
@@ -5912,13 +5918,13 @@
       </c>
       <c r="G209" s="12"/>
       <c r="H209" s="18"/>
-      <c r="I209" s="51"/>
+      <c r="I209" s="52"/>
     </row>
     <row r="210" ht="18" customHeight="1" spans="1:9">
-      <c r="A210" s="52">
+      <c r="A210" s="53">
         <v>11</v>
       </c>
-      <c r="B210" s="49"/>
+      <c r="B210" s="50"/>
       <c r="C210" s="12" t="s">
         <v>125</v>
       </c>
@@ -5933,13 +5939,13 @@
       </c>
       <c r="G210" s="12"/>
       <c r="H210" s="18"/>
-      <c r="I210" s="51"/>
+      <c r="I210" s="52"/>
     </row>
     <row r="211" ht="18" customHeight="1" spans="1:9">
-      <c r="A211" s="52">
+      <c r="A211" s="53">
         <v>12</v>
       </c>
-      <c r="B211" s="49"/>
+      <c r="B211" s="50"/>
       <c r="C211" s="12" t="s">
         <v>126</v>
       </c>
@@ -5954,13 +5960,13 @@
       </c>
       <c r="G211" s="12"/>
       <c r="H211" s="18"/>
-      <c r="I211" s="51"/>
+      <c r="I211" s="52"/>
     </row>
     <row r="212" ht="18" customHeight="1" spans="1:9">
-      <c r="A212" s="52">
+      <c r="A212" s="53">
         <v>13</v>
       </c>
-      <c r="B212" s="49"/>
+      <c r="B212" s="50"/>
       <c r="C212" s="12" t="s">
         <v>127</v>
       </c>
@@ -5975,13 +5981,13 @@
       </c>
       <c r="G212" s="12"/>
       <c r="H212" s="18"/>
-      <c r="I212" s="51"/>
+      <c r="I212" s="52"/>
     </row>
     <row r="213" ht="18" customHeight="1" spans="1:9">
-      <c r="A213" s="52">
+      <c r="A213" s="53">
         <v>14</v>
       </c>
-      <c r="B213" s="49"/>
+      <c r="B213" s="50"/>
       <c r="C213" s="12" t="s">
         <v>128</v>
       </c>
@@ -5996,13 +6002,13 @@
       </c>
       <c r="G213" s="12"/>
       <c r="H213" s="18"/>
-      <c r="I213" s="51"/>
+      <c r="I213" s="52"/>
     </row>
     <row r="214" ht="18" customHeight="1" spans="1:9">
-      <c r="A214" s="52">
+      <c r="A214" s="53">
         <v>15</v>
       </c>
-      <c r="B214" s="49"/>
+      <c r="B214" s="50"/>
       <c r="C214" s="12" t="s">
         <v>129</v>
       </c>
@@ -6017,13 +6023,13 @@
       </c>
       <c r="G214" s="12"/>
       <c r="H214" s="18"/>
-      <c r="I214" s="51"/>
+      <c r="I214" s="52"/>
     </row>
     <row r="215" ht="18" customHeight="1" spans="1:9">
-      <c r="A215" s="52">
+      <c r="A215" s="53">
         <v>16</v>
       </c>
-      <c r="B215" s="49"/>
+      <c r="B215" s="50"/>
       <c r="C215" s="12" t="s">
         <v>130</v>
       </c>
@@ -6038,13 +6044,13 @@
       </c>
       <c r="G215" s="12"/>
       <c r="H215" s="18"/>
-      <c r="I215" s="51"/>
+      <c r="I215" s="52"/>
     </row>
     <row r="216" ht="18" customHeight="1" spans="1:9">
-      <c r="A216" s="52">
+      <c r="A216" s="53">
         <v>17</v>
       </c>
-      <c r="B216" s="49"/>
+      <c r="B216" s="50"/>
       <c r="C216" s="12" t="s">
         <v>131</v>
       </c>
@@ -6059,13 +6065,13 @@
       </c>
       <c r="G216" s="12"/>
       <c r="H216" s="18"/>
-      <c r="I216" s="51"/>
+      <c r="I216" s="52"/>
     </row>
     <row r="217" ht="18" customHeight="1" spans="1:9">
-      <c r="A217" s="52">
+      <c r="A217" s="53">
         <v>18</v>
       </c>
-      <c r="B217" s="49"/>
+      <c r="B217" s="50"/>
       <c r="C217" s="12" t="s">
         <v>132</v>
       </c>
@@ -6080,13 +6086,13 @@
       </c>
       <c r="G217" s="12"/>
       <c r="H217" s="18"/>
-      <c r="I217" s="51"/>
+      <c r="I217" s="52"/>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:9">
-      <c r="A218" s="52">
+      <c r="A218" s="53">
         <v>19</v>
       </c>
-      <c r="B218" s="49"/>
+      <c r="B218" s="50"/>
       <c r="C218" s="12" t="s">
         <v>133</v>
       </c>
@@ -6101,13 +6107,13 @@
       </c>
       <c r="G218" s="12"/>
       <c r="H218" s="18"/>
-      <c r="I218" s="51"/>
+      <c r="I218" s="52"/>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:9">
-      <c r="A219" s="52">
+      <c r="A219" s="53">
         <v>20</v>
       </c>
-      <c r="B219" s="49"/>
+      <c r="B219" s="50"/>
       <c r="C219" s="12" t="s">
         <v>134</v>
       </c>
@@ -6122,13 +6128,13 @@
       </c>
       <c r="G219" s="12"/>
       <c r="H219" s="18"/>
-      <c r="I219" s="51"/>
+      <c r="I219" s="52"/>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:9">
-      <c r="A220" s="52">
+      <c r="A220" s="53">
         <v>21</v>
       </c>
-      <c r="B220" s="49"/>
+      <c r="B220" s="50"/>
       <c r="C220" s="12" t="s">
         <v>135</v>
       </c>
@@ -6143,13 +6149,13 @@
       </c>
       <c r="G220" s="12"/>
       <c r="H220" s="18"/>
-      <c r="I220" s="51"/>
+      <c r="I220" s="52"/>
     </row>
     <row r="221" ht="18" customHeight="1" spans="1:9">
-      <c r="A221" s="52">
+      <c r="A221" s="53">
         <v>22</v>
       </c>
-      <c r="B221" s="49"/>
+      <c r="B221" s="50"/>
       <c r="C221" s="12" t="s">
         <v>136</v>
       </c>
@@ -6164,13 +6170,13 @@
       </c>
       <c r="G221" s="12"/>
       <c r="H221" s="18"/>
-      <c r="I221" s="51"/>
+      <c r="I221" s="52"/>
     </row>
     <row r="222" ht="18" customHeight="1" spans="1:9">
-      <c r="A222" s="52">
+      <c r="A222" s="53">
         <v>23</v>
       </c>
-      <c r="B222" s="49"/>
+      <c r="B222" s="50"/>
       <c r="C222" s="12" t="s">
         <v>137</v>
       </c>
@@ -6185,13 +6191,13 @@
       </c>
       <c r="G222" s="12"/>
       <c r="H222" s="18"/>
-      <c r="I222" s="51"/>
+      <c r="I222" s="52"/>
     </row>
     <row r="223" ht="18" customHeight="1" spans="1:9">
-      <c r="A223" s="52">
+      <c r="A223" s="53">
         <v>24</v>
       </c>
-      <c r="B223" s="49"/>
+      <c r="B223" s="50"/>
       <c r="C223" s="12" t="s">
         <v>138</v>
       </c>
@@ -6206,13 +6212,13 @@
       </c>
       <c r="G223" s="12"/>
       <c r="H223" s="18"/>
-      <c r="I223" s="51"/>
+      <c r="I223" s="52"/>
     </row>
     <row r="224" ht="18" customHeight="1" spans="1:9">
-      <c r="A224" s="52">
+      <c r="A224" s="53">
         <v>25</v>
       </c>
-      <c r="B224" s="49"/>
+      <c r="B224" s="50"/>
       <c r="C224" s="12" t="s">
         <v>139</v>
       </c>
@@ -6227,13 +6233,13 @@
       </c>
       <c r="G224" s="12"/>
       <c r="H224" s="18"/>
-      <c r="I224" s="51"/>
+      <c r="I224" s="52"/>
     </row>
     <row r="225" ht="18" customHeight="1" spans="1:9">
-      <c r="A225" s="52">
+      <c r="A225" s="53">
         <v>26</v>
       </c>
-      <c r="B225" s="49"/>
+      <c r="B225" s="50"/>
       <c r="C225" s="12" t="s">
         <v>140</v>
       </c>
@@ -6248,13 +6254,13 @@
       </c>
       <c r="G225" s="12"/>
       <c r="H225" s="18"/>
-      <c r="I225" s="51"/>
+      <c r="I225" s="52"/>
     </row>
     <row r="226" ht="18" customHeight="1" spans="1:9">
-      <c r="A226" s="52">
+      <c r="A226" s="53">
         <v>27</v>
       </c>
-      <c r="B226" s="49"/>
+      <c r="B226" s="50"/>
       <c r="C226" s="12" t="s">
         <v>141</v>
       </c>
@@ -6269,13 +6275,13 @@
       </c>
       <c r="G226" s="12"/>
       <c r="H226" s="18"/>
-      <c r="I226" s="51"/>
+      <c r="I226" s="52"/>
     </row>
     <row r="227" ht="18" customHeight="1" spans="1:9">
-      <c r="A227" s="52">
+      <c r="A227" s="53">
         <v>28</v>
       </c>
-      <c r="B227" s="49"/>
+      <c r="B227" s="50"/>
       <c r="C227" s="12" t="s">
         <v>142</v>
       </c>
@@ -6290,13 +6296,13 @@
       </c>
       <c r="G227" s="12"/>
       <c r="H227" s="18"/>
-      <c r="I227" s="51"/>
+      <c r="I227" s="52"/>
     </row>
     <row r="228" ht="18" customHeight="1" spans="1:9">
-      <c r="A228" s="52">
+      <c r="A228" s="53">
         <v>29</v>
       </c>
-      <c r="B228" s="46"/>
+      <c r="B228" s="47"/>
       <c r="C228" s="12" t="s">
         <v>143</v>
       </c>
@@ -6311,7 +6317,7 @@
       </c>
       <c r="G228" s="12"/>
       <c r="H228" s="18"/>
-      <c r="I228" s="51"/>
+      <c r="I228" s="52"/>
     </row>
     <row r="229" ht="18" customHeight="1" spans="1:9">
       <c r="A229" s="21" t="s">
@@ -6326,7 +6332,7 @@
         <v>34</v>
       </c>
       <c r="H229" s="21"/>
-      <c r="I229" s="51"/>
+      <c r="I229" s="52"/>
     </row>
     <row r="230" ht="18" customHeight="1" spans="1:9">
       <c r="A230" s="21" t="s">
@@ -6341,7 +6347,7 @@
         <v>36</v>
       </c>
       <c r="H230" s="21"/>
-      <c r="I230" s="51"/>
+      <c r="I230" s="52"/>
     </row>
     <row r="231" ht="18" customHeight="1" spans="1:9">
       <c r="A231" s="20" t="s">
@@ -6354,18 +6360,18 @@
       <c r="F231" s="19"/>
       <c r="G231" s="19"/>
       <c r="H231" s="19"/>
-      <c r="I231" s="51"/>
+      <c r="I231" s="52"/>
     </row>
     <row r="232" ht="18" customHeight="1" spans="1:9">
-      <c r="A232" s="51"/>
-      <c r="B232" s="51"/>
-      <c r="C232" s="51"/>
-      <c r="D232" s="51"/>
-      <c r="E232" s="51"/>
-      <c r="F232" s="51"/>
-      <c r="G232" s="51"/>
-      <c r="H232" s="51"/>
-      <c r="I232" s="51"/>
+      <c r="A232" s="52"/>
+      <c r="B232" s="52"/>
+      <c r="C232" s="52"/>
+      <c r="D232" s="52"/>
+      <c r="E232" s="52"/>
+      <c r="F232" s="52"/>
+      <c r="G232" s="52"/>
+      <c r="H232" s="52"/>
+      <c r="I232" s="52"/>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:9">
       <c r="A233" s="19"/>
@@ -6378,7 +6384,7 @@
         <v>144</v>
       </c>
       <c r="H233" s="20"/>
-      <c r="I233" s="51"/>
+      <c r="I233" s="52"/>
     </row>
     <row r="234" ht="18" customHeight="1" spans="1:9">
       <c r="A234" s="19"/>
@@ -6391,7 +6397,7 @@
         <v>145</v>
       </c>
       <c r="H234" s="21"/>
-      <c r="I234" s="51"/>
+      <c r="I234" s="52"/>
     </row>
     <row r="235" ht="18" customHeight="1" spans="1:9">
       <c r="A235" s="22" t="s">
@@ -6404,7 +6410,7 @@
       <c r="F235" s="22"/>
       <c r="G235" s="22"/>
       <c r="H235" s="22"/>
-      <c r="I235" s="51"/>
+      <c r="I235" s="52"/>
     </row>
     <row r="236" ht="18" customHeight="1" spans="1:9">
       <c r="A236" s="23" t="s">
@@ -6417,7 +6423,7 @@
       <c r="F236" s="22"/>
       <c r="G236" s="22"/>
       <c r="H236" s="22"/>
-      <c r="I236" s="51"/>
+      <c r="I236" s="52"/>
     </row>
     <row r="237" ht="18" customHeight="1" spans="1:9">
       <c r="A237" s="21" t="s">
@@ -6430,7 +6436,7 @@
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
       <c r="H237" s="21"/>
-      <c r="I237" s="51"/>
+      <c r="I237" s="52"/>
     </row>
     <row r="238" ht="18" customHeight="1" spans="1:9">
       <c r="A238" s="21" t="s">
@@ -6445,7 +6451,7 @@
       </c>
       <c r="G238" s="21"/>
       <c r="H238" s="21"/>
-      <c r="I238" s="51"/>
+      <c r="I238" s="52"/>
     </row>
     <row r="239" ht="18" customHeight="1" spans="1:9">
       <c r="A239" s="21" t="s">
@@ -6460,7 +6466,7 @@
       </c>
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
-      <c r="I239" s="51"/>
+      <c r="I239" s="52"/>
     </row>
     <row r="240" ht="18" customHeight="1" spans="1:9">
       <c r="A240" s="6" t="s">
@@ -6487,13 +6493,13 @@
       <c r="H240" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I240" s="51"/>
+      <c r="I240" s="52"/>
     </row>
     <row r="241" ht="18" customHeight="1" spans="1:9">
-      <c r="A241" s="52">
-        <v>1</v>
-      </c>
-      <c r="B241" s="45" t="s">
+      <c r="A241" s="53">
+        <v>1</v>
+      </c>
+      <c r="B241" s="46" t="s">
         <v>146</v>
       </c>
       <c r="C241" s="12" t="s">
@@ -6510,14 +6516,14 @@
       </c>
       <c r="G241" s="12"/>
       <c r="H241" s="18"/>
-      <c r="I241" s="51"/>
+      <c r="I241" s="52"/>
     </row>
     <row r="242" ht="18" customHeight="1" spans="1:9">
-      <c r="A242" s="52">
+      <c r="A242" s="53">
         <v>2</v>
       </c>
-      <c r="B242" s="49"/>
-      <c r="C242" s="51" t="s">
+      <c r="B242" s="50"/>
+      <c r="C242" s="52" t="s">
         <v>148</v>
       </c>
       <c r="D242" s="12" t="s">
@@ -6531,13 +6537,13 @@
       </c>
       <c r="G242" s="12"/>
       <c r="H242" s="18"/>
-      <c r="I242" s="51"/>
+      <c r="I242" s="52"/>
     </row>
     <row r="243" ht="18" customHeight="1" spans="1:9">
-      <c r="A243" s="52">
+      <c r="A243" s="53">
         <v>3</v>
       </c>
-      <c r="B243" s="49"/>
+      <c r="B243" s="50"/>
       <c r="C243" s="12" t="s">
         <v>150</v>
       </c>
@@ -6552,13 +6558,13 @@
       </c>
       <c r="G243" s="12"/>
       <c r="H243" s="18"/>
-      <c r="I243" s="51"/>
+      <c r="I243" s="52"/>
     </row>
     <row r="244" ht="18" customHeight="1" spans="1:9">
-      <c r="A244" s="52">
+      <c r="A244" s="53">
         <v>4</v>
       </c>
-      <c r="B244" s="46"/>
+      <c r="B244" s="47"/>
       <c r="C244" s="12" t="s">
         <v>151</v>
       </c>
@@ -6573,16 +6579,16 @@
       </c>
       <c r="G244" s="12"/>
       <c r="H244" s="18"/>
-      <c r="I244" s="51"/>
+      <c r="I244" s="52"/>
     </row>
     <row r="245" ht="18" customHeight="1" spans="1:9">
-      <c r="A245" s="53">
+      <c r="A245" s="54">
         <v>5</v>
       </c>
       <c r="B245" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C245" s="54" t="s">
+      <c r="C245" s="55" t="s">
         <v>153</v>
       </c>
       <c r="D245" s="12" t="s">
@@ -6596,14 +6602,14 @@
       </c>
       <c r="G245" s="12"/>
       <c r="H245" s="18"/>
-      <c r="I245" s="51"/>
+      <c r="I245" s="52"/>
     </row>
     <row r="246" ht="18" customHeight="1" spans="1:9">
-      <c r="A246" s="53">
+      <c r="A246" s="54">
         <v>6</v>
       </c>
       <c r="B246" s="12"/>
-      <c r="C246" s="54" t="s">
+      <c r="C246" s="55" t="s">
         <v>154</v>
       </c>
       <c r="D246" s="12" t="s">
@@ -6617,14 +6623,14 @@
       </c>
       <c r="G246" s="12"/>
       <c r="H246" s="18"/>
-      <c r="I246" s="51"/>
+      <c r="I246" s="52"/>
     </row>
     <row r="247" ht="18" customHeight="1" spans="1:9">
-      <c r="A247" s="53">
+      <c r="A247" s="54">
         <v>7</v>
       </c>
       <c r="B247" s="12"/>
-      <c r="C247" s="54" t="s">
+      <c r="C247" s="55" t="s">
         <v>155</v>
       </c>
       <c r="D247" s="12" t="s">
@@ -6638,14 +6644,14 @@
       </c>
       <c r="G247" s="12"/>
       <c r="H247" s="18"/>
-      <c r="I247" s="51"/>
+      <c r="I247" s="52"/>
     </row>
     <row r="248" ht="18" customHeight="1" spans="1:9">
-      <c r="A248" s="53">
+      <c r="A248" s="54">
         <v>8</v>
       </c>
       <c r="B248" s="12"/>
-      <c r="C248" s="54" t="s">
+      <c r="C248" s="55" t="s">
         <v>156</v>
       </c>
       <c r="D248" s="12" t="s">
@@ -6659,14 +6665,14 @@
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="18"/>
-      <c r="I248" s="51"/>
+      <c r="I248" s="52"/>
     </row>
     <row r="249" ht="18" customHeight="1" spans="1:9">
-      <c r="A249" s="53">
+      <c r="A249" s="54">
         <v>9</v>
       </c>
       <c r="B249" s="12"/>
-      <c r="C249" s="54" t="s">
+      <c r="C249" s="55" t="s">
         <v>157</v>
       </c>
       <c r="D249" s="12" t="s">
@@ -6680,14 +6686,14 @@
       </c>
       <c r="G249" s="12"/>
       <c r="H249" s="18"/>
-      <c r="I249" s="51"/>
+      <c r="I249" s="52"/>
     </row>
     <row r="250" ht="18" customHeight="1" spans="1:9">
-      <c r="A250" s="53">
+      <c r="A250" s="54">
         <v>10</v>
       </c>
       <c r="B250" s="12"/>
-      <c r="C250" s="54" t="s">
+      <c r="C250" s="55" t="s">
         <v>158</v>
       </c>
       <c r="D250" s="12" t="s">
@@ -6701,14 +6707,14 @@
       </c>
       <c r="G250" s="12"/>
       <c r="H250" s="18"/>
-      <c r="I250" s="51"/>
+      <c r="I250" s="52"/>
     </row>
     <row r="251" ht="18" customHeight="1" spans="1:9">
-      <c r="A251" s="53">
+      <c r="A251" s="54">
         <v>11</v>
       </c>
       <c r="B251" s="12"/>
-      <c r="C251" s="54" t="s">
+      <c r="C251" s="55" t="s">
         <v>159</v>
       </c>
       <c r="D251" s="12" t="s">
@@ -6722,14 +6728,14 @@
       </c>
       <c r="G251" s="12"/>
       <c r="H251" s="18"/>
-      <c r="I251" s="51"/>
+      <c r="I251" s="52"/>
     </row>
     <row r="252" ht="18" customHeight="1" spans="1:9">
-      <c r="A252" s="53">
+      <c r="A252" s="54">
         <v>12</v>
       </c>
       <c r="B252" s="12"/>
-      <c r="C252" s="54" t="s">
+      <c r="C252" s="55" t="s">
         <v>160</v>
       </c>
       <c r="D252" s="12" t="s">
@@ -6743,14 +6749,14 @@
       </c>
       <c r="G252" s="12"/>
       <c r="H252" s="18"/>
-      <c r="I252" s="51"/>
+      <c r="I252" s="52"/>
     </row>
     <row r="253" ht="18" customHeight="1" spans="1:9">
-      <c r="A253" s="53">
+      <c r="A253" s="54">
         <v>13</v>
       </c>
       <c r="B253" s="12"/>
-      <c r="C253" s="54" t="s">
+      <c r="C253" s="55" t="s">
         <v>161</v>
       </c>
       <c r="D253" s="12" t="s">
@@ -6764,14 +6770,14 @@
       </c>
       <c r="G253" s="12"/>
       <c r="H253" s="18"/>
-      <c r="I253" s="51"/>
+      <c r="I253" s="52"/>
     </row>
     <row r="254" ht="18" customHeight="1" spans="1:9">
-      <c r="A254" s="53">
+      <c r="A254" s="54">
         <v>14</v>
       </c>
       <c r="B254" s="12"/>
-      <c r="C254" s="54" t="s">
+      <c r="C254" s="55" t="s">
         <v>162</v>
       </c>
       <c r="D254" s="12" t="s">
@@ -6785,14 +6791,14 @@
       </c>
       <c r="G254" s="12"/>
       <c r="H254" s="18"/>
-      <c r="I254" s="51"/>
+      <c r="I254" s="52"/>
     </row>
     <row r="255" ht="18" customHeight="1" spans="1:9">
-      <c r="A255" s="53">
+      <c r="A255" s="54">
         <v>15</v>
       </c>
       <c r="B255" s="12"/>
-      <c r="C255" s="54" t="s">
+      <c r="C255" s="55" t="s">
         <v>163</v>
       </c>
       <c r="D255" s="12" t="s">
@@ -6806,14 +6812,14 @@
       </c>
       <c r="G255" s="12"/>
       <c r="H255" s="18"/>
-      <c r="I255" s="51"/>
+      <c r="I255" s="52"/>
     </row>
     <row r="256" ht="18" customHeight="1" spans="1:9">
-      <c r="A256" s="53">
+      <c r="A256" s="54">
         <v>16</v>
       </c>
       <c r="B256" s="12"/>
-      <c r="C256" s="54" t="s">
+      <c r="C256" s="55" t="s">
         <v>164</v>
       </c>
       <c r="D256" s="12" t="s">
@@ -6827,14 +6833,14 @@
       </c>
       <c r="G256" s="12"/>
       <c r="H256" s="18"/>
-      <c r="I256" s="51"/>
+      <c r="I256" s="52"/>
     </row>
     <row r="257" ht="18" customHeight="1" spans="1:9">
-      <c r="A257" s="53">
+      <c r="A257" s="54">
         <v>17</v>
       </c>
       <c r="B257" s="12"/>
-      <c r="C257" s="54" t="s">
+      <c r="C257" s="55" t="s">
         <v>165</v>
       </c>
       <c r="D257" s="12" t="s">
@@ -6848,14 +6854,14 @@
       </c>
       <c r="G257" s="12"/>
       <c r="H257" s="18"/>
-      <c r="I257" s="51"/>
+      <c r="I257" s="52"/>
     </row>
     <row r="258" ht="18" customHeight="1" spans="1:9">
-      <c r="A258" s="53">
+      <c r="A258" s="54">
         <v>18</v>
       </c>
       <c r="B258" s="12"/>
-      <c r="C258" s="54" t="s">
+      <c r="C258" s="55" t="s">
         <v>102</v>
       </c>
       <c r="D258" s="12" t="s">
@@ -6869,14 +6875,14 @@
       </c>
       <c r="G258" s="12"/>
       <c r="H258" s="18"/>
-      <c r="I258" s="51"/>
+      <c r="I258" s="52"/>
     </row>
     <row r="259" ht="18" customHeight="1" spans="1:9">
-      <c r="A259" s="53">
+      <c r="A259" s="54">
         <v>19</v>
       </c>
       <c r="B259" s="12"/>
-      <c r="C259" s="54" t="s">
+      <c r="C259" s="55" t="s">
         <v>166</v>
       </c>
       <c r="D259" s="12" t="s">
@@ -6890,14 +6896,14 @@
       </c>
       <c r="G259" s="12"/>
       <c r="H259" s="18"/>
-      <c r="I259" s="51"/>
+      <c r="I259" s="52"/>
     </row>
     <row r="260" ht="18" customHeight="1" spans="1:9">
-      <c r="A260" s="53">
+      <c r="A260" s="54">
         <v>20</v>
       </c>
       <c r="B260" s="12"/>
-      <c r="C260" s="54" t="s">
+      <c r="C260" s="55" t="s">
         <v>140</v>
       </c>
       <c r="D260" s="12" t="s">
@@ -6911,14 +6917,14 @@
       </c>
       <c r="G260" s="12"/>
       <c r="H260" s="18"/>
-      <c r="I260" s="51"/>
+      <c r="I260" s="52"/>
     </row>
     <row r="261" ht="18" customHeight="1" spans="1:9">
-      <c r="A261" s="53">
+      <c r="A261" s="54">
         <v>21</v>
       </c>
       <c r="B261" s="12"/>
-      <c r="C261" s="54" t="s">
+      <c r="C261" s="55" t="s">
         <v>167</v>
       </c>
       <c r="D261" s="12" t="s">
@@ -6932,14 +6938,14 @@
       </c>
       <c r="G261" s="12"/>
       <c r="H261" s="18"/>
-      <c r="I261" s="51"/>
+      <c r="I261" s="52"/>
     </row>
     <row r="262" ht="18" customHeight="1" spans="1:9">
-      <c r="A262" s="53">
+      <c r="A262" s="54">
         <v>22</v>
       </c>
       <c r="B262" s="12"/>
-      <c r="C262" s="54" t="s">
+      <c r="C262" s="55" t="s">
         <v>168</v>
       </c>
       <c r="D262" s="12" t="s">
@@ -6953,14 +6959,14 @@
       </c>
       <c r="G262" s="12"/>
       <c r="H262" s="18"/>
-      <c r="I262" s="51"/>
+      <c r="I262" s="52"/>
     </row>
     <row r="263" ht="18" customHeight="1" spans="1:9">
-      <c r="A263" s="53">
+      <c r="A263" s="54">
         <v>23</v>
       </c>
       <c r="B263" s="12"/>
-      <c r="C263" s="54" t="s">
+      <c r="C263" s="55" t="s">
         <v>169</v>
       </c>
       <c r="D263" s="12" t="s">
@@ -6974,14 +6980,14 @@
       </c>
       <c r="G263" s="12"/>
       <c r="H263" s="18"/>
-      <c r="I263" s="51"/>
+      <c r="I263" s="52"/>
     </row>
     <row r="264" ht="18" customHeight="1" spans="1:9">
-      <c r="A264" s="53">
+      <c r="A264" s="54">
         <v>24</v>
       </c>
       <c r="B264" s="12"/>
-      <c r="C264" s="54" t="s">
+      <c r="C264" s="55" t="s">
         <v>170</v>
       </c>
       <c r="D264" s="12" t="s">
@@ -6995,14 +7001,14 @@
       </c>
       <c r="G264" s="12"/>
       <c r="H264" s="18"/>
-      <c r="I264" s="51"/>
+      <c r="I264" s="52"/>
     </row>
     <row r="265" ht="18" customHeight="1" spans="1:9">
-      <c r="A265" s="53">
+      <c r="A265" s="54">
         <v>25</v>
       </c>
       <c r="B265" s="12"/>
-      <c r="C265" s="54" t="s">
+      <c r="C265" s="55" t="s">
         <v>171</v>
       </c>
       <c r="D265" s="12" t="s">
@@ -7016,14 +7022,14 @@
       </c>
       <c r="G265" s="12"/>
       <c r="H265" s="18"/>
-      <c r="I265" s="51"/>
+      <c r="I265" s="52"/>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:9">
-      <c r="A266" s="53">
+      <c r="A266" s="54">
         <v>26</v>
       </c>
       <c r="B266" s="12"/>
-      <c r="C266" s="54" t="s">
+      <c r="C266" s="55" t="s">
         <v>172</v>
       </c>
       <c r="D266" s="12" t="s">
@@ -7037,14 +7043,14 @@
       </c>
       <c r="G266" s="12"/>
       <c r="H266" s="18"/>
-      <c r="I266" s="51"/>
+      <c r="I266" s="52"/>
     </row>
     <row r="267" ht="18" customHeight="1" spans="1:9">
-      <c r="A267" s="53">
+      <c r="A267" s="54">
         <v>27</v>
       </c>
       <c r="B267" s="12"/>
-      <c r="C267" s="54" t="s">
+      <c r="C267" s="55" t="s">
         <v>173</v>
       </c>
       <c r="D267" s="12" t="s">
@@ -7057,15 +7063,15 @@
         <v>1</v>
       </c>
       <c r="G267" s="12"/>
-      <c r="H267" s="55"/>
-      <c r="I267" s="51"/>
+      <c r="H267" s="56"/>
+      <c r="I267" s="52"/>
     </row>
     <row r="268" ht="18" customHeight="1" spans="1:9">
-      <c r="A268" s="53">
+      <c r="A268" s="54">
         <v>28</v>
       </c>
       <c r="B268" s="12"/>
-      <c r="C268" s="54" t="s">
+      <c r="C268" s="55" t="s">
         <v>174</v>
       </c>
       <c r="D268" s="12" t="s">
@@ -7078,15 +7084,15 @@
         <v>1</v>
       </c>
       <c r="G268" s="12"/>
-      <c r="H268" s="55"/>
-      <c r="I268" s="51"/>
+      <c r="H268" s="56"/>
+      <c r="I268" s="52"/>
     </row>
     <row r="269" ht="18" customHeight="1" spans="1:9">
-      <c r="A269" s="53">
+      <c r="A269" s="54">
         <v>29</v>
       </c>
       <c r="B269" s="12"/>
-      <c r="C269" s="54" t="s">
+      <c r="C269" s="55" t="s">
         <v>175</v>
       </c>
       <c r="D269" s="12" t="s">
@@ -7099,15 +7105,15 @@
         <v>1</v>
       </c>
       <c r="G269" s="12"/>
-      <c r="H269" s="55"/>
-      <c r="I269" s="51"/>
+      <c r="H269" s="56"/>
+      <c r="I269" s="52"/>
     </row>
     <row r="270" ht="18" customHeight="1" spans="1:9">
-      <c r="A270" s="53">
+      <c r="A270" s="54">
         <v>30</v>
       </c>
       <c r="B270" s="12"/>
-      <c r="C270" s="54" t="s">
+      <c r="C270" s="55" t="s">
         <v>176</v>
       </c>
       <c r="D270" s="12" t="s">
@@ -7120,15 +7126,15 @@
         <v>1</v>
       </c>
       <c r="G270" s="12"/>
-      <c r="H270" s="55"/>
-      <c r="I270" s="51"/>
+      <c r="H270" s="56"/>
+      <c r="I270" s="52"/>
     </row>
     <row r="271" ht="18" customHeight="1" spans="1:9">
-      <c r="A271" s="53">
+      <c r="A271" s="54">
         <v>31</v>
       </c>
       <c r="B271" s="12"/>
-      <c r="C271" s="54" t="s">
+      <c r="C271" s="55" t="s">
         <v>177</v>
       </c>
       <c r="D271" s="12" t="s">
@@ -7141,15 +7147,15 @@
         <v>1</v>
       </c>
       <c r="G271" s="12"/>
-      <c r="H271" s="55"/>
-      <c r="I271" s="51"/>
+      <c r="H271" s="56"/>
+      <c r="I271" s="52"/>
     </row>
     <row r="272" ht="18" customHeight="1" spans="1:9">
-      <c r="A272" s="53">
+      <c r="A272" s="54">
         <v>32</v>
       </c>
       <c r="B272" s="12"/>
-      <c r="C272" s="54" t="s">
+      <c r="C272" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D272" s="12" t="s">
@@ -7162,15 +7168,15 @@
         <v>1</v>
       </c>
       <c r="G272" s="12"/>
-      <c r="H272" s="55"/>
-      <c r="I272" s="51"/>
+      <c r="H272" s="56"/>
+      <c r="I272" s="52"/>
     </row>
     <row r="273" ht="18" customHeight="1" spans="1:9">
-      <c r="A273" s="53">
+      <c r="A273" s="54">
         <v>33</v>
       </c>
       <c r="B273" s="12"/>
-      <c r="C273" s="54" t="s">
+      <c r="C273" s="55" t="s">
         <v>180</v>
       </c>
       <c r="D273" s="12" t="s">
@@ -7183,15 +7189,15 @@
         <v>1</v>
       </c>
       <c r="G273" s="12"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="51"/>
+      <c r="H273" s="56"/>
+      <c r="I273" s="52"/>
     </row>
     <row r="274" ht="18" customHeight="1" spans="1:9">
-      <c r="A274" s="53">
+      <c r="A274" s="54">
         <v>34</v>
       </c>
       <c r="B274" s="12"/>
-      <c r="C274" s="54" t="s">
+      <c r="C274" s="55" t="s">
         <v>181</v>
       </c>
       <c r="D274" s="12" t="s">
@@ -7204,15 +7210,15 @@
         <v>1</v>
       </c>
       <c r="G274" s="12"/>
-      <c r="H274" s="55"/>
-      <c r="I274" s="51"/>
+      <c r="H274" s="56"/>
+      <c r="I274" s="52"/>
     </row>
     <row r="275" ht="18" customHeight="1" spans="1:9">
-      <c r="A275" s="53">
+      <c r="A275" s="54">
         <v>35</v>
       </c>
       <c r="B275" s="12"/>
-      <c r="C275" s="54" t="s">
+      <c r="C275" s="55" t="s">
         <v>182</v>
       </c>
       <c r="D275" s="12" t="s">
@@ -7225,15 +7231,15 @@
         <v>1</v>
       </c>
       <c r="G275" s="12"/>
-      <c r="H275" s="55"/>
-      <c r="I275" s="51"/>
+      <c r="H275" s="56"/>
+      <c r="I275" s="52"/>
     </row>
     <row r="276" ht="18" customHeight="1" spans="1:9">
-      <c r="A276" s="53">
+      <c r="A276" s="54">
         <v>36</v>
       </c>
       <c r="B276" s="12"/>
-      <c r="C276" s="54" t="s">
+      <c r="C276" s="55" t="s">
         <v>183</v>
       </c>
       <c r="D276" s="12" t="s">
@@ -7246,17 +7252,17 @@
         <v>1</v>
       </c>
       <c r="G276" s="12"/>
-      <c r="H276" s="55"/>
-      <c r="I276" s="51"/>
+      <c r="H276" s="56"/>
+      <c r="I276" s="52"/>
     </row>
     <row r="277" ht="18" customHeight="1" spans="1:9">
-      <c r="A277" s="53">
+      <c r="A277" s="54">
         <v>37</v>
       </c>
       <c r="B277" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C277" s="54" t="s">
+      <c r="C277" s="55" t="s">
         <v>185</v>
       </c>
       <c r="D277" s="12" t="s">
@@ -7269,15 +7275,15 @@
         <v>1</v>
       </c>
       <c r="G277" s="12"/>
-      <c r="H277" s="55"/>
-      <c r="I277" s="51"/>
+      <c r="H277" s="56"/>
+      <c r="I277" s="52"/>
     </row>
     <row r="278" ht="18" customHeight="1" spans="1:9">
-      <c r="A278" s="53">
+      <c r="A278" s="54">
         <v>38</v>
       </c>
       <c r="B278" s="12"/>
-      <c r="C278" s="54" t="s">
+      <c r="C278" s="55" t="s">
         <v>186</v>
       </c>
       <c r="D278" s="12" t="s">
@@ -7290,15 +7296,15 @@
         <v>1</v>
       </c>
       <c r="G278" s="12"/>
-      <c r="H278" s="55"/>
-      <c r="I278" s="51"/>
+      <c r="H278" s="56"/>
+      <c r="I278" s="52"/>
     </row>
     <row r="279" ht="18" customHeight="1" spans="1:9">
-      <c r="A279" s="53">
+      <c r="A279" s="54">
         <v>39</v>
       </c>
       <c r="B279" s="12"/>
-      <c r="C279" s="54" t="s">
+      <c r="C279" s="55" t="s">
         <v>187</v>
       </c>
       <c r="D279" s="12" t="s">
@@ -7311,15 +7317,15 @@
         <v>1</v>
       </c>
       <c r="G279" s="12"/>
-      <c r="H279" s="55"/>
-      <c r="I279" s="51"/>
+      <c r="H279" s="56"/>
+      <c r="I279" s="52"/>
     </row>
     <row r="280" ht="18" customHeight="1" spans="1:9">
-      <c r="A280" s="53">
+      <c r="A280" s="54">
         <v>40</v>
       </c>
       <c r="B280" s="12"/>
-      <c r="C280" s="54" t="s">
+      <c r="C280" s="55" t="s">
         <v>188</v>
       </c>
       <c r="D280" s="12" t="s">
@@ -7332,15 +7338,15 @@
         <v>3</v>
       </c>
       <c r="G280" s="12"/>
-      <c r="H280" s="55"/>
-      <c r="I280" s="51"/>
+      <c r="H280" s="56"/>
+      <c r="I280" s="52"/>
     </row>
     <row r="281" ht="18" customHeight="1" spans="1:9">
-      <c r="A281" s="53">
+      <c r="A281" s="54">
         <v>41</v>
       </c>
       <c r="B281" s="12"/>
-      <c r="C281" s="54" t="s">
+      <c r="C281" s="55" t="s">
         <v>189</v>
       </c>
       <c r="D281" s="12" t="s">
@@ -7353,15 +7359,15 @@
         <v>3</v>
       </c>
       <c r="G281" s="12"/>
-      <c r="H281" s="55"/>
-      <c r="I281" s="51"/>
+      <c r="H281" s="56"/>
+      <c r="I281" s="52"/>
     </row>
     <row r="282" ht="18" customHeight="1" spans="1:9">
-      <c r="A282" s="53">
+      <c r="A282" s="54">
         <v>42</v>
       </c>
       <c r="B282" s="12"/>
-      <c r="C282" s="54" t="s">
+      <c r="C282" s="55" t="s">
         <v>190</v>
       </c>
       <c r="D282" s="12" t="s">
@@ -7374,15 +7380,15 @@
         <v>1</v>
       </c>
       <c r="G282" s="12"/>
-      <c r="H282" s="55"/>
-      <c r="I282" s="51"/>
+      <c r="H282" s="56"/>
+      <c r="I282" s="52"/>
     </row>
     <row r="283" ht="18" customHeight="1" spans="1:9">
-      <c r="A283" s="53">
+      <c r="A283" s="54">
         <v>43</v>
       </c>
       <c r="B283" s="12"/>
-      <c r="C283" s="54" t="s">
+      <c r="C283" s="55" t="s">
         <v>191</v>
       </c>
       <c r="D283" s="12" t="s">
@@ -7395,15 +7401,15 @@
         <v>1</v>
       </c>
       <c r="G283" s="12"/>
-      <c r="H283" s="55"/>
-      <c r="I283" s="51"/>
+      <c r="H283" s="56"/>
+      <c r="I283" s="52"/>
     </row>
     <row r="284" ht="18" customHeight="1" spans="1:9">
-      <c r="A284" s="53">
+      <c r="A284" s="54">
         <v>44</v>
       </c>
       <c r="B284" s="12"/>
-      <c r="C284" s="54" t="s">
+      <c r="C284" s="55" t="s">
         <v>192</v>
       </c>
       <c r="D284" s="12" t="s">
@@ -7416,15 +7422,15 @@
         <v>1</v>
       </c>
       <c r="G284" s="12"/>
-      <c r="H284" s="55"/>
-      <c r="I284" s="51"/>
+      <c r="H284" s="56"/>
+      <c r="I284" s="52"/>
     </row>
     <row r="285" ht="18" customHeight="1" spans="1:9">
-      <c r="A285" s="53">
+      <c r="A285" s="54">
         <v>45</v>
       </c>
       <c r="B285" s="12"/>
-      <c r="C285" s="54" t="s">
+      <c r="C285" s="55" t="s">
         <v>193</v>
       </c>
       <c r="D285" s="12" t="s">
@@ -7437,15 +7443,15 @@
         <v>1</v>
       </c>
       <c r="G285" s="12"/>
-      <c r="H285" s="55"/>
-      <c r="I285" s="51"/>
+      <c r="H285" s="56"/>
+      <c r="I285" s="52"/>
     </row>
     <row r="286" ht="18" customHeight="1" spans="1:9">
-      <c r="A286" s="53">
+      <c r="A286" s="54">
         <v>46</v>
       </c>
       <c r="B286" s="12"/>
-      <c r="C286" s="54" t="s">
+      <c r="C286" s="55" t="s">
         <v>194</v>
       </c>
       <c r="D286" s="12" t="s">
@@ -7454,21 +7460,21 @@
       <c r="E286" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F286" s="44">
+      <c r="F286" s="45">
         <v>1</v>
       </c>
       <c r="G286" s="12"/>
-      <c r="H286" s="55"/>
-      <c r="I286" s="51"/>
+      <c r="H286" s="56"/>
+      <c r="I286" s="52"/>
     </row>
     <row r="287" ht="18" customHeight="1" spans="1:9">
-      <c r="A287" s="53">
+      <c r="A287" s="54">
         <v>47</v>
       </c>
       <c r="B287" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C287" s="54" t="s">
+      <c r="C287" s="55" t="s">
         <v>196</v>
       </c>
       <c r="D287" s="12" t="s">
@@ -7477,15 +7483,15 @@
       <c r="E287" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F287" s="44">
+      <c r="F287" s="45">
         <v>1</v>
       </c>
       <c r="G287" s="12"/>
-      <c r="H287" s="55"/>
-      <c r="I287" s="51"/>
+      <c r="H287" s="56"/>
+      <c r="I287" s="52"/>
     </row>
     <row r="288" ht="18" customHeight="1" spans="1:9">
-      <c r="A288" s="52">
+      <c r="A288" s="53">
         <v>48</v>
       </c>
       <c r="B288" s="12" t="s">
@@ -7505,7 +7511,7 @@
       </c>
       <c r="G288" s="12"/>
       <c r="H288" s="12"/>
-      <c r="I288" s="51"/>
+      <c r="I288" s="52"/>
     </row>
     <row r="289" ht="18" customHeight="1" spans="1:9">
       <c r="A289" s="21" t="s">
@@ -7520,7 +7526,7 @@
         <v>34</v>
       </c>
       <c r="H289" s="21"/>
-      <c r="I289" s="51"/>
+      <c r="I289" s="52"/>
     </row>
     <row r="290" ht="18" customHeight="1" spans="1:9">
       <c r="A290" s="21" t="s">
@@ -7535,7 +7541,7 @@
         <v>36</v>
       </c>
       <c r="H290" s="21"/>
-      <c r="I290" s="51"/>
+      <c r="I290" s="52"/>
     </row>
     <row r="291" ht="18" customHeight="1" spans="1:9">
       <c r="A291" s="20" t="s">
@@ -7548,18 +7554,18 @@
       <c r="F291" s="19"/>
       <c r="G291" s="19"/>
       <c r="H291" s="19"/>
-      <c r="I291" s="51"/>
+      <c r="I291" s="52"/>
     </row>
     <row r="292" ht="18" customHeight="1" spans="1:9">
-      <c r="A292" s="51"/>
-      <c r="B292" s="51"/>
-      <c r="C292" s="51"/>
-      <c r="D292" s="51"/>
-      <c r="E292" s="51"/>
-      <c r="F292" s="51"/>
-      <c r="G292" s="51"/>
-      <c r="H292" s="51"/>
-      <c r="I292" s="51"/>
+      <c r="A292" s="52"/>
+      <c r="B292" s="52"/>
+      <c r="C292" s="52"/>
+      <c r="D292" s="52"/>
+      <c r="E292" s="52"/>
+      <c r="F292" s="52"/>
+      <c r="G292" s="52"/>
+      <c r="H292" s="52"/>
+      <c r="I292" s="52"/>
     </row>
     <row r="293" ht="18" customHeight="1" spans="1:9">
       <c r="A293" s="19"/>
@@ -7572,7 +7578,7 @@
         <v>197</v>
       </c>
       <c r="H293" s="20"/>
-      <c r="I293" s="51"/>
+      <c r="I293" s="52"/>
     </row>
     <row r="294" ht="18" customHeight="1" spans="1:9">
       <c r="A294" s="19"/>
@@ -7585,7 +7591,7 @@
         <v>198</v>
       </c>
       <c r="H294" s="21"/>
-      <c r="I294" s="51"/>
+      <c r="I294" s="52"/>
     </row>
     <row r="295" ht="18" customHeight="1" spans="1:9">
       <c r="A295" s="22" t="s">
@@ -7598,7 +7604,7 @@
       <c r="F295" s="22"/>
       <c r="G295" s="22"/>
       <c r="H295" s="22"/>
-      <c r="I295" s="51"/>
+      <c r="I295" s="52"/>
     </row>
     <row r="296" ht="18" customHeight="1" spans="1:9">
       <c r="A296" s="23" t="s">
@@ -7611,7 +7617,7 @@
       <c r="F296" s="22"/>
       <c r="G296" s="22"/>
       <c r="H296" s="22"/>
-      <c r="I296" s="51"/>
+      <c r="I296" s="52"/>
     </row>
     <row r="297" ht="18" customHeight="1" spans="1:9">
       <c r="A297" s="21" t="s">
@@ -7624,7 +7630,7 @@
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
       <c r="H297" s="21"/>
-      <c r="I297" s="51"/>
+      <c r="I297" s="52"/>
     </row>
     <row r="298" ht="18" customHeight="1" spans="1:9">
       <c r="A298" s="21" t="s">
@@ -7639,7 +7645,7 @@
       </c>
       <c r="G298" s="21"/>
       <c r="H298" s="21"/>
-      <c r="I298" s="51"/>
+      <c r="I298" s="52"/>
     </row>
     <row r="299" ht="18" customHeight="1" spans="1:9">
       <c r="A299" s="21" t="s">
@@ -7654,7 +7660,7 @@
       </c>
       <c r="G299" s="21"/>
       <c r="H299" s="21"/>
-      <c r="I299" s="51"/>
+      <c r="I299" s="52"/>
     </row>
     <row r="300" ht="18" customHeight="1" spans="1:9">
       <c r="A300" s="6" t="s">
@@ -7681,13 +7687,13 @@
       <c r="H300" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I300" s="51"/>
+      <c r="I300" s="52"/>
     </row>
     <row r="301" ht="18" customHeight="1" spans="1:9">
-      <c r="A301" s="52">
-        <v>1</v>
-      </c>
-      <c r="B301" s="45" t="s">
+      <c r="A301" s="53">
+        <v>1</v>
+      </c>
+      <c r="B301" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C301" s="12" t="s">
@@ -7704,13 +7710,13 @@
       </c>
       <c r="G301" s="12"/>
       <c r="H301" s="18"/>
-      <c r="I301" s="51"/>
+      <c r="I301" s="52"/>
     </row>
     <row r="302" ht="18" customHeight="1" spans="1:9">
-      <c r="A302" s="52">
+      <c r="A302" s="53">
         <v>2</v>
       </c>
-      <c r="B302" s="46"/>
+      <c r="B302" s="47"/>
       <c r="C302" s="12" t="s">
         <v>202</v>
       </c>
@@ -7725,13 +7731,13 @@
       </c>
       <c r="G302" s="12"/>
       <c r="H302" s="18"/>
-      <c r="I302" s="51"/>
+      <c r="I302" s="52"/>
     </row>
     <row r="303" ht="18" customHeight="1" spans="1:9">
-      <c r="A303" s="52">
+      <c r="A303" s="53">
         <v>3</v>
       </c>
-      <c r="B303" s="45" t="s">
+      <c r="B303" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C303" s="12" t="s">
@@ -7748,13 +7754,13 @@
       </c>
       <c r="G303" s="12"/>
       <c r="H303" s="18"/>
-      <c r="I303" s="51"/>
+      <c r="I303" s="52"/>
     </row>
     <row r="304" ht="18" customHeight="1" spans="1:9">
-      <c r="A304" s="52">
+      <c r="A304" s="53">
         <v>4</v>
       </c>
-      <c r="B304" s="49"/>
+      <c r="B304" s="50"/>
       <c r="C304" s="12" t="s">
         <v>204</v>
       </c>
@@ -7769,13 +7775,13 @@
       </c>
       <c r="G304" s="12"/>
       <c r="H304" s="18"/>
-      <c r="I304" s="51"/>
+      <c r="I304" s="52"/>
     </row>
     <row r="305" ht="18" customHeight="1" spans="1:9">
-      <c r="A305" s="52">
+      <c r="A305" s="53">
         <v>5</v>
       </c>
-      <c r="B305" s="49"/>
+      <c r="B305" s="50"/>
       <c r="C305" s="12" t="s">
         <v>205</v>
       </c>
@@ -7790,13 +7796,13 @@
       </c>
       <c r="G305" s="12"/>
       <c r="H305" s="18"/>
-      <c r="I305" s="51"/>
+      <c r="I305" s="52"/>
     </row>
     <row r="306" ht="18" customHeight="1" spans="1:9">
-      <c r="A306" s="52">
+      <c r="A306" s="53">
         <v>6</v>
       </c>
-      <c r="B306" s="49"/>
+      <c r="B306" s="50"/>
       <c r="C306" s="12" t="s">
         <v>206</v>
       </c>
@@ -7811,13 +7817,13 @@
       </c>
       <c r="G306" s="12"/>
       <c r="H306" s="18"/>
-      <c r="I306" s="51"/>
+      <c r="I306" s="52"/>
     </row>
     <row r="307" ht="18" customHeight="1" spans="1:9">
-      <c r="A307" s="52">
+      <c r="A307" s="53">
         <v>7</v>
       </c>
-      <c r="B307" s="49"/>
+      <c r="B307" s="50"/>
       <c r="C307" s="12" t="s">
         <v>207</v>
       </c>
@@ -7832,13 +7838,13 @@
       </c>
       <c r="G307" s="12"/>
       <c r="H307" s="18"/>
-      <c r="I307" s="51"/>
+      <c r="I307" s="52"/>
     </row>
     <row r="308" ht="18" customHeight="1" spans="1:9">
-      <c r="A308" s="52">
+      <c r="A308" s="53">
         <v>8</v>
       </c>
-      <c r="B308" s="49"/>
+      <c r="B308" s="50"/>
       <c r="C308" s="12" t="s">
         <v>208</v>
       </c>
@@ -7853,13 +7859,13 @@
       </c>
       <c r="G308" s="12"/>
       <c r="H308" s="18"/>
-      <c r="I308" s="51"/>
+      <c r="I308" s="52"/>
     </row>
     <row r="309" ht="18" customHeight="1" spans="1:9">
-      <c r="A309" s="52">
+      <c r="A309" s="53">
         <v>9</v>
       </c>
-      <c r="B309" s="49"/>
+      <c r="B309" s="50"/>
       <c r="C309" s="12" t="s">
         <v>209</v>
       </c>
@@ -7874,13 +7880,13 @@
       </c>
       <c r="G309" s="12"/>
       <c r="H309" s="18"/>
-      <c r="I309" s="51"/>
+      <c r="I309" s="52"/>
     </row>
     <row r="310" ht="18" customHeight="1" spans="1:9">
-      <c r="A310" s="52">
+      <c r="A310" s="53">
         <v>10</v>
       </c>
-      <c r="B310" s="49"/>
+      <c r="B310" s="50"/>
       <c r="C310" s="12" t="s">
         <v>210</v>
       </c>
@@ -7895,13 +7901,13 @@
       </c>
       <c r="G310" s="12"/>
       <c r="H310" s="18"/>
-      <c r="I310" s="51"/>
+      <c r="I310" s="52"/>
     </row>
     <row r="311" ht="18" customHeight="1" spans="1:9">
-      <c r="A311" s="52">
+      <c r="A311" s="53">
         <v>11</v>
       </c>
-      <c r="B311" s="49"/>
+      <c r="B311" s="50"/>
       <c r="C311" s="12" t="s">
         <v>211</v>
       </c>
@@ -7916,13 +7922,13 @@
       </c>
       <c r="G311" s="12"/>
       <c r="H311" s="18"/>
-      <c r="I311" s="51"/>
+      <c r="I311" s="52"/>
     </row>
     <row r="312" ht="18" customHeight="1" spans="1:9">
-      <c r="A312" s="52">
+      <c r="A312" s="53">
         <v>12</v>
       </c>
-      <c r="B312" s="49"/>
+      <c r="B312" s="50"/>
       <c r="C312" s="12" t="s">
         <v>212</v>
       </c>
@@ -7937,13 +7943,13 @@
       </c>
       <c r="G312" s="12"/>
       <c r="H312" s="18"/>
-      <c r="I312" s="51"/>
+      <c r="I312" s="52"/>
     </row>
     <row r="313" ht="18" customHeight="1" spans="1:9">
-      <c r="A313" s="52">
+      <c r="A313" s="53">
         <v>13</v>
       </c>
-      <c r="B313" s="49"/>
+      <c r="B313" s="50"/>
       <c r="C313" s="12" t="s">
         <v>213</v>
       </c>
@@ -7958,13 +7964,13 @@
       </c>
       <c r="G313" s="12"/>
       <c r="H313" s="18"/>
-      <c r="I313" s="51"/>
+      <c r="I313" s="52"/>
     </row>
     <row r="314" ht="18" customHeight="1" spans="1:9">
-      <c r="A314" s="52">
+      <c r="A314" s="53">
         <v>14</v>
       </c>
-      <c r="B314" s="49"/>
+      <c r="B314" s="50"/>
       <c r="C314" s="12" t="s">
         <v>214</v>
       </c>
@@ -7979,13 +7985,13 @@
       </c>
       <c r="G314" s="12"/>
       <c r="H314" s="18"/>
-      <c r="I314" s="51"/>
+      <c r="I314" s="52"/>
     </row>
     <row r="315" ht="18" customHeight="1" spans="1:9">
-      <c r="A315" s="52">
+      <c r="A315" s="53">
         <v>15</v>
       </c>
-      <c r="B315" s="49"/>
+      <c r="B315" s="50"/>
       <c r="C315" s="12" t="s">
         <v>154</v>
       </c>
@@ -8000,13 +8006,13 @@
       </c>
       <c r="G315" s="12"/>
       <c r="H315" s="18"/>
-      <c r="I315" s="51"/>
+      <c r="I315" s="52"/>
     </row>
     <row r="316" ht="18" customHeight="1" spans="1:9">
-      <c r="A316" s="52">
+      <c r="A316" s="53">
         <v>16</v>
       </c>
-      <c r="B316" s="49"/>
+      <c r="B316" s="50"/>
       <c r="C316" s="12" t="s">
         <v>215</v>
       </c>
@@ -8021,13 +8027,13 @@
       </c>
       <c r="G316" s="12"/>
       <c r="H316" s="18"/>
-      <c r="I316" s="51"/>
+      <c r="I316" s="52"/>
     </row>
     <row r="317" ht="18" customHeight="1" spans="1:9">
-      <c r="A317" s="52">
+      <c r="A317" s="53">
         <v>17</v>
       </c>
-      <c r="B317" s="49"/>
+      <c r="B317" s="50"/>
       <c r="C317" s="12" t="s">
         <v>216</v>
       </c>
@@ -8042,13 +8048,13 @@
       </c>
       <c r="G317" s="12"/>
       <c r="H317" s="18"/>
-      <c r="I317" s="51"/>
+      <c r="I317" s="52"/>
     </row>
     <row r="318" ht="18" customHeight="1" spans="1:9">
-      <c r="A318" s="52">
+      <c r="A318" s="53">
         <v>18</v>
       </c>
-      <c r="B318" s="49"/>
+      <c r="B318" s="50"/>
       <c r="C318" s="12" t="s">
         <v>217</v>
       </c>
@@ -8063,13 +8069,13 @@
       </c>
       <c r="G318" s="12"/>
       <c r="H318" s="18"/>
-      <c r="I318" s="51"/>
+      <c r="I318" s="52"/>
     </row>
     <row r="319" ht="18" customHeight="1" spans="1:9">
-      <c r="A319" s="52">
+      <c r="A319" s="53">
         <v>19</v>
       </c>
-      <c r="B319" s="49"/>
+      <c r="B319" s="50"/>
       <c r="C319" s="12" t="s">
         <v>218</v>
       </c>
@@ -8084,13 +8090,13 @@
       </c>
       <c r="G319" s="12"/>
       <c r="H319" s="18"/>
-      <c r="I319" s="51"/>
+      <c r="I319" s="52"/>
     </row>
     <row r="320" ht="18" customHeight="1" spans="1:9">
-      <c r="A320" s="52">
+      <c r="A320" s="53">
         <v>20</v>
       </c>
-      <c r="B320" s="49"/>
+      <c r="B320" s="50"/>
       <c r="C320" s="12" t="s">
         <v>219</v>
       </c>
@@ -8105,13 +8111,13 @@
       </c>
       <c r="G320" s="12"/>
       <c r="H320" s="18"/>
-      <c r="I320" s="51"/>
+      <c r="I320" s="52"/>
     </row>
     <row r="321" ht="18" customHeight="1" spans="1:9">
-      <c r="A321" s="52">
+      <c r="A321" s="53">
         <v>21</v>
       </c>
-      <c r="B321" s="49"/>
+      <c r="B321" s="50"/>
       <c r="C321" s="12" t="s">
         <v>220</v>
       </c>
@@ -8126,13 +8132,13 @@
       </c>
       <c r="G321" s="12"/>
       <c r="H321" s="18"/>
-      <c r="I321" s="51"/>
+      <c r="I321" s="52"/>
     </row>
     <row r="322" ht="18" customHeight="1" spans="1:9">
-      <c r="A322" s="52">
+      <c r="A322" s="53">
         <v>22</v>
       </c>
-      <c r="B322" s="49"/>
+      <c r="B322" s="50"/>
       <c r="C322" s="12" t="s">
         <v>221</v>
       </c>
@@ -8147,13 +8153,13 @@
       </c>
       <c r="G322" s="12"/>
       <c r="H322" s="18"/>
-      <c r="I322" s="51"/>
+      <c r="I322" s="52"/>
     </row>
     <row r="323" ht="18" customHeight="1" spans="1:9">
-      <c r="A323" s="52">
+      <c r="A323" s="53">
         <v>23</v>
       </c>
-      <c r="B323" s="49"/>
+      <c r="B323" s="50"/>
       <c r="C323" s="12" t="s">
         <v>222</v>
       </c>
@@ -8168,13 +8174,13 @@
       </c>
       <c r="G323" s="12"/>
       <c r="H323" s="18"/>
-      <c r="I323" s="51"/>
+      <c r="I323" s="52"/>
     </row>
     <row r="324" ht="18" customHeight="1" spans="1:9">
-      <c r="A324" s="52">
+      <c r="A324" s="53">
         <v>24</v>
       </c>
-      <c r="B324" s="49"/>
+      <c r="B324" s="50"/>
       <c r="C324" s="12" t="s">
         <v>166</v>
       </c>
@@ -8189,13 +8195,13 @@
       </c>
       <c r="G324" s="12"/>
       <c r="H324" s="18"/>
-      <c r="I324" s="51"/>
+      <c r="I324" s="52"/>
     </row>
     <row r="325" ht="18" customHeight="1" spans="1:9">
-      <c r="A325" s="52">
+      <c r="A325" s="53">
         <v>25</v>
       </c>
-      <c r="B325" s="49"/>
+      <c r="B325" s="50"/>
       <c r="C325" s="12" t="s">
         <v>223</v>
       </c>
@@ -8210,13 +8216,13 @@
       </c>
       <c r="G325" s="12"/>
       <c r="H325" s="18"/>
-      <c r="I325" s="51"/>
+      <c r="I325" s="52"/>
     </row>
     <row r="326" ht="18" customHeight="1" spans="1:9">
-      <c r="A326" s="52">
+      <c r="A326" s="53">
         <v>26</v>
       </c>
-      <c r="B326" s="49"/>
+      <c r="B326" s="50"/>
       <c r="C326" s="12" t="s">
         <v>224</v>
       </c>
@@ -8231,13 +8237,13 @@
       </c>
       <c r="G326" s="12"/>
       <c r="H326" s="18"/>
-      <c r="I326" s="51"/>
+      <c r="I326" s="52"/>
     </row>
     <row r="327" ht="18" customHeight="1" spans="1:9">
-      <c r="A327" s="52">
+      <c r="A327" s="53">
         <v>27</v>
       </c>
-      <c r="B327" s="49"/>
+      <c r="B327" s="50"/>
       <c r="C327" s="12" t="s">
         <v>225</v>
       </c>
@@ -8252,13 +8258,13 @@
       </c>
       <c r="G327" s="12"/>
       <c r="H327" s="18"/>
-      <c r="I327" s="51"/>
+      <c r="I327" s="52"/>
     </row>
     <row r="328" ht="18" customHeight="1" spans="1:9">
-      <c r="A328" s="52">
+      <c r="A328" s="53">
         <v>28</v>
       </c>
-      <c r="B328" s="49"/>
+      <c r="B328" s="50"/>
       <c r="C328" s="12" t="s">
         <v>226</v>
       </c>
@@ -8273,13 +8279,13 @@
       </c>
       <c r="G328" s="12"/>
       <c r="H328" s="18"/>
-      <c r="I328" s="51"/>
+      <c r="I328" s="52"/>
     </row>
     <row r="329" ht="18" customHeight="1" spans="1:9">
-      <c r="A329" s="52">
+      <c r="A329" s="53">
         <v>29</v>
       </c>
-      <c r="B329" s="49"/>
+      <c r="B329" s="50"/>
       <c r="C329" s="12" t="s">
         <v>227</v>
       </c>
@@ -8294,13 +8300,13 @@
       </c>
       <c r="G329" s="12"/>
       <c r="H329" s="18"/>
-      <c r="I329" s="51"/>
+      <c r="I329" s="52"/>
     </row>
     <row r="330" ht="18" customHeight="1" spans="1:9">
-      <c r="A330" s="52">
+      <c r="A330" s="53">
         <v>30</v>
       </c>
-      <c r="B330" s="49"/>
+      <c r="B330" s="50"/>
       <c r="C330" s="12" t="s">
         <v>228</v>
       </c>
@@ -8315,13 +8321,13 @@
       </c>
       <c r="G330" s="12"/>
       <c r="H330" s="18"/>
-      <c r="I330" s="51"/>
+      <c r="I330" s="52"/>
     </row>
     <row r="331" ht="18" customHeight="1" spans="1:9">
-      <c r="A331" s="52">
+      <c r="A331" s="53">
         <v>31</v>
       </c>
-      <c r="B331" s="49" t="s">
+      <c r="B331" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C331" s="12" t="s">
@@ -8338,13 +8344,13 @@
       </c>
       <c r="G331" s="12"/>
       <c r="H331" s="18"/>
-      <c r="I331" s="51"/>
+      <c r="I331" s="52"/>
     </row>
     <row r="332" ht="18" customHeight="1" spans="1:9">
-      <c r="A332" s="52">
+      <c r="A332" s="53">
         <v>32</v>
       </c>
-      <c r="B332" s="49"/>
+      <c r="B332" s="50"/>
       <c r="C332" s="12" t="s">
         <v>230</v>
       </c>
@@ -8359,13 +8365,13 @@
       </c>
       <c r="G332" s="12"/>
       <c r="H332" s="18"/>
-      <c r="I332" s="51"/>
+      <c r="I332" s="52"/>
     </row>
     <row r="333" ht="18" customHeight="1" spans="1:9">
-      <c r="A333" s="52">
+      <c r="A333" s="53">
         <v>33</v>
       </c>
-      <c r="B333" s="49"/>
+      <c r="B333" s="50"/>
       <c r="C333" s="12" t="s">
         <v>231</v>
       </c>
@@ -8380,13 +8386,13 @@
       </c>
       <c r="G333" s="12"/>
       <c r="H333" s="18"/>
-      <c r="I333" s="51"/>
+      <c r="I333" s="52"/>
     </row>
     <row r="334" ht="18" customHeight="1" spans="1:9">
-      <c r="A334" s="52">
+      <c r="A334" s="53">
         <v>34</v>
       </c>
-      <c r="B334" s="49"/>
+      <c r="B334" s="50"/>
       <c r="C334" s="12" t="s">
         <v>232</v>
       </c>
@@ -8401,13 +8407,13 @@
       </c>
       <c r="G334" s="12"/>
       <c r="H334" s="18"/>
-      <c r="I334" s="51"/>
+      <c r="I334" s="52"/>
     </row>
     <row r="335" ht="18" customHeight="1" spans="1:9">
-      <c r="A335" s="52">
+      <c r="A335" s="53">
         <v>35</v>
       </c>
-      <c r="B335" s="49"/>
+      <c r="B335" s="50"/>
       <c r="C335" s="12" t="s">
         <v>233</v>
       </c>
@@ -8422,13 +8428,13 @@
       </c>
       <c r="G335" s="12"/>
       <c r="H335" s="18"/>
-      <c r="I335" s="51"/>
+      <c r="I335" s="52"/>
     </row>
     <row r="336" ht="18" customHeight="1" spans="1:9">
-      <c r="A336" s="52">
+      <c r="A336" s="53">
         <v>36</v>
       </c>
-      <c r="B336" s="49"/>
+      <c r="B336" s="50"/>
       <c r="C336" s="12" t="s">
         <v>234</v>
       </c>
@@ -8443,13 +8449,13 @@
       </c>
       <c r="G336" s="12"/>
       <c r="H336" s="18"/>
-      <c r="I336" s="51"/>
+      <c r="I336" s="52"/>
     </row>
     <row r="337" ht="18" customHeight="1" spans="1:9">
-      <c r="A337" s="52">
+      <c r="A337" s="53">
         <v>37</v>
       </c>
-      <c r="B337" s="49"/>
+      <c r="B337" s="50"/>
       <c r="C337" s="12" t="s">
         <v>235</v>
       </c>
@@ -8464,13 +8470,13 @@
       </c>
       <c r="G337" s="12"/>
       <c r="H337" s="18"/>
-      <c r="I337" s="51"/>
+      <c r="I337" s="52"/>
     </row>
     <row r="338" ht="18" customHeight="1" spans="1:9">
-      <c r="A338" s="52">
+      <c r="A338" s="53">
         <v>38</v>
       </c>
-      <c r="B338" s="49"/>
+      <c r="B338" s="50"/>
       <c r="C338" s="12" t="s">
         <v>236</v>
       </c>
@@ -8485,13 +8491,13 @@
       </c>
       <c r="G338" s="12"/>
       <c r="H338" s="18"/>
-      <c r="I338" s="51"/>
+      <c r="I338" s="52"/>
     </row>
     <row r="339" ht="18" customHeight="1" spans="1:9">
-      <c r="A339" s="52">
+      <c r="A339" s="53">
         <v>39</v>
       </c>
-      <c r="B339" s="49"/>
+      <c r="B339" s="50"/>
       <c r="C339" s="12" t="s">
         <v>237</v>
       </c>
@@ -8506,13 +8512,13 @@
       </c>
       <c r="G339" s="12"/>
       <c r="H339" s="18"/>
-      <c r="I339" s="51"/>
+      <c r="I339" s="52"/>
     </row>
     <row r="340" ht="18" customHeight="1" spans="1:9">
-      <c r="A340" s="52">
+      <c r="A340" s="53">
         <v>40</v>
       </c>
-      <c r="B340" s="49"/>
+      <c r="B340" s="50"/>
       <c r="C340" s="12" t="s">
         <v>238</v>
       </c>
@@ -8527,13 +8533,13 @@
       </c>
       <c r="G340" s="12"/>
       <c r="H340" s="18"/>
-      <c r="I340" s="51"/>
+      <c r="I340" s="52"/>
     </row>
     <row r="341" ht="18" customHeight="1" spans="1:9">
-      <c r="A341" s="52">
+      <c r="A341" s="53">
         <v>41</v>
       </c>
-      <c r="B341" s="56" t="s">
+      <c r="B341" s="57" t="s">
         <v>184</v>
       </c>
       <c r="C341" s="12" t="s">
@@ -8550,13 +8556,13 @@
       </c>
       <c r="G341" s="12"/>
       <c r="H341" s="18"/>
-      <c r="I341" s="51"/>
+      <c r="I341" s="52"/>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:9">
-      <c r="A342" s="52">
+      <c r="A342" s="53">
         <v>42</v>
       </c>
-      <c r="B342" s="57"/>
+      <c r="B342" s="58"/>
       <c r="C342" s="12" t="s">
         <v>240</v>
       </c>
@@ -8571,13 +8577,13 @@
       </c>
       <c r="G342" s="12"/>
       <c r="H342" s="18"/>
-      <c r="I342" s="51"/>
+      <c r="I342" s="52"/>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:9">
-      <c r="A343" s="52">
-        <v>43</v>
-      </c>
-      <c r="B343" s="57"/>
+      <c r="A343" s="53">
+        <v>43</v>
+      </c>
+      <c r="B343" s="58"/>
       <c r="C343" s="12" t="s">
         <v>241</v>
       </c>
@@ -8592,13 +8598,13 @@
       </c>
       <c r="G343" s="12"/>
       <c r="H343" s="18"/>
-      <c r="I343" s="51"/>
+      <c r="I343" s="52"/>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:9">
-      <c r="A344" s="52">
+      <c r="A344" s="53">
         <v>44</v>
       </c>
-      <c r="B344" s="57"/>
+      <c r="B344" s="58"/>
       <c r="C344" s="12" t="s">
         <v>242</v>
       </c>
@@ -8613,13 +8619,13 @@
       </c>
       <c r="G344" s="12"/>
       <c r="H344" s="18"/>
-      <c r="I344" s="51"/>
+      <c r="I344" s="52"/>
     </row>
     <row r="345" ht="18" customHeight="1" spans="1:9">
-      <c r="A345" s="52">
+      <c r="A345" s="53">
         <v>45</v>
       </c>
-      <c r="B345" s="57"/>
+      <c r="B345" s="58"/>
       <c r="C345" s="12" t="s">
         <v>243</v>
       </c>
@@ -8634,13 +8640,13 @@
       </c>
       <c r="G345" s="12"/>
       <c r="H345" s="18"/>
-      <c r="I345" s="51"/>
+      <c r="I345" s="52"/>
     </row>
     <row r="346" ht="18" customHeight="1" spans="1:9">
-      <c r="A346" s="52">
+      <c r="A346" s="53">
         <v>46</v>
       </c>
-      <c r="B346" s="57"/>
+      <c r="B346" s="58"/>
       <c r="C346" s="12" t="s">
         <v>244</v>
       </c>
@@ -8655,13 +8661,13 @@
       </c>
       <c r="G346" s="12"/>
       <c r="H346" s="18"/>
-      <c r="I346" s="51"/>
+      <c r="I346" s="52"/>
     </row>
     <row r="347" ht="18" customHeight="1" spans="1:9">
-      <c r="A347" s="52">
+      <c r="A347" s="53">
         <v>47</v>
       </c>
-      <c r="B347" s="57"/>
+      <c r="B347" s="58"/>
       <c r="C347" s="12" t="s">
         <v>245</v>
       </c>
@@ -8676,13 +8682,13 @@
       </c>
       <c r="G347" s="12"/>
       <c r="H347" s="18"/>
-      <c r="I347" s="51"/>
+      <c r="I347" s="52"/>
     </row>
     <row r="348" ht="18" customHeight="1" spans="1:9">
-      <c r="A348" s="52">
+      <c r="A348" s="53">
         <v>48</v>
       </c>
-      <c r="B348" s="58"/>
+      <c r="B348" s="59"/>
       <c r="C348" s="12" t="s">
         <v>246</v>
       </c>
@@ -8697,10 +8703,10 @@
       </c>
       <c r="G348" s="12"/>
       <c r="H348" s="18"/>
-      <c r="I348" s="51"/>
+      <c r="I348" s="52"/>
     </row>
     <row r="349" ht="18" customHeight="1" spans="1:9">
-      <c r="A349" s="52">
+      <c r="A349" s="53">
         <v>49</v>
       </c>
       <c r="B349" s="12" t="s">
@@ -8720,47 +8726,47 @@
       </c>
       <c r="G349" s="12"/>
       <c r="H349" s="18"/>
-      <c r="I349" s="51"/>
+      <c r="I349" s="52"/>
     </row>
     <row r="350" ht="18" customHeight="1" spans="1:9">
-      <c r="A350" s="52">
+      <c r="A350" s="53">
         <v>50</v>
       </c>
-      <c r="B350" s="49" t="s">
+      <c r="B350" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C350" s="58" t="s">
+      <c r="C350" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="58" t="s">
+      <c r="D350" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E350" s="49" t="s">
+      <c r="E350" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F350" s="49">
+      <c r="F350" s="50">
         <v>3</v>
       </c>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
-      <c r="I350" s="51"/>
+      <c r="I350" s="52"/>
     </row>
     <row r="351" ht="18" customHeight="1" spans="1:9">
-      <c r="A351" s="52">
+      <c r="A351" s="53">
         <v>51</v>
       </c>
-      <c r="B351" s="46"/>
+      <c r="B351" s="47"/>
       <c r="C351" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D351" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E351" s="46"/>
-      <c r="F351" s="46"/>
+      <c r="E351" s="47"/>
+      <c r="F351" s="47"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
-      <c r="I351" s="51"/>
+      <c r="I351" s="52"/>
     </row>
     <row r="352" ht="18" customHeight="1" spans="1:9">
       <c r="A352" s="21" t="s">
@@ -8775,7 +8781,7 @@
         <v>34</v>
       </c>
       <c r="H352" s="21"/>
-      <c r="I352" s="51"/>
+      <c r="I352" s="52"/>
     </row>
     <row r="353" ht="18" customHeight="1" spans="1:9">
       <c r="A353" s="21" t="s">
@@ -8790,7 +8796,7 @@
         <v>36</v>
       </c>
       <c r="H353" s="21"/>
-      <c r="I353" s="51"/>
+      <c r="I353" s="52"/>
     </row>
     <row r="354" ht="18" customHeight="1" spans="1:9">
       <c r="A354" s="20" t="s">
@@ -8803,7 +8809,7 @@
       <c r="F354" s="19"/>
       <c r="G354" s="19"/>
       <c r="H354" s="19"/>
-      <c r="I354" s="51"/>
+      <c r="I354" s="52"/>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="19"/>
@@ -8814,7 +8820,7 @@
       <c r="F355" s="19"/>
       <c r="G355" s="19"/>
       <c r="H355" s="19"/>
-      <c r="I355" s="51"/>
+      <c r="I355" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="101">
@@ -8941,13 +8947,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H227"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="G198" sqref="G198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="6.41666666666667" customWidth="1"/>
     <col min="2" max="2" width="7.76666666666667" customWidth="1"/>
@@ -8957,9 +8963,19 @@
     <col min="6" max="6" width="5.06666666666667" customWidth="1"/>
     <col min="7" max="7" width="10.575" customWidth="1"/>
     <col min="8" max="8" width="11.4833333333333" customWidth="1"/>
+    <col min="12" max="12" width="17.4" customWidth="1"/>
+    <col min="13" max="13" width="10.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="1" spans="12:13">
+      <c r="L1" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -8967,11 +8983,19 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="L2" s="35">
+        <f>SUM(M2:M999)</f>
+        <v>138026</v>
+      </c>
+      <c r="M2" s="35">
+        <f>G25</f>
+        <v>26410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -8979,11 +9003,16 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H3" s="21"/>
-    </row>
-    <row r="4" ht="21" spans="1:8">
+      <c r="L3" s="35"/>
+      <c r="M3" s="35">
+        <f>G66</f>
+        <v>28801</v>
+      </c>
+    </row>
+    <row r="4" ht="21" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
@@ -8994,8 +9023,13 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
-    </row>
-    <row r="5" ht="19.2" spans="1:8">
+      <c r="L4" s="35"/>
+      <c r="M4" s="35">
+        <f>G86</f>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="5" ht="19.2" spans="1:13">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
@@ -9006,10 +9040,15 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="L5" s="35"/>
+      <c r="M5" s="35">
+        <f>G136</f>
+        <v>27774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -9018,31 +9057,41 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="L6" s="35"/>
+      <c r="M6" s="35">
+        <f>G172</f>
+        <v>24630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35">
+        <f>G215</f>
+        <v>29671</v>
+      </c>
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -9078,11 +9127,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>43</v>
@@ -9102,7 +9151,7 @@
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>43</v>
@@ -9120,7 +9169,7 @@
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>43</v>
@@ -9142,7 +9191,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>43</v>
@@ -9161,10 +9210,10 @@
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>43</v>
@@ -9183,10 +9232,10 @@
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>257</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>43</v>
@@ -9205,10 +9254,10 @@
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>43</v>
@@ -9227,10 +9276,10 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>43</v>
@@ -9249,10 +9298,10 @@
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>43</v>
@@ -9271,10 +9320,10 @@
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>43</v>
@@ -9293,10 +9342,10 @@
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>43</v>
@@ -9378,7 +9427,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="30"/>
       <c r="F25" s="31" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G25" s="32">
         <f>SUM(G12:G22)</f>
@@ -9522,7 +9571,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -9536,7 +9585,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -9554,7 +9603,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H40" s="20"/>
     </row>
@@ -9566,7 +9615,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -9596,7 +9645,7 @@
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:8">
       <c r="A44" s="21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -9608,28 +9657,28 @@
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:8">
       <c r="A45" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:8">
       <c r="A46" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9671,7 +9720,7 @@
         <v>71</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>43</v>
@@ -9691,10 +9740,10 @@
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>270</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>43</v>
@@ -9711,10 +9760,10 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>43</v>
@@ -9734,10 +9783,10 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>43</v>
@@ -9760,7 +9809,7 @@
         <v>68</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>43</v>
@@ -9783,7 +9832,7 @@
         <v>176</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>43</v>
@@ -9803,10 +9852,10 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>43</v>
@@ -9826,10 +9875,10 @@
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>43</v>
@@ -9849,10 +9898,10 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>43</v>
@@ -9872,10 +9921,10 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>43</v>
@@ -9895,10 +9944,10 @@
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>43</v>
@@ -9918,10 +9967,10 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>43</v>
@@ -9943,10 +9992,10 @@
         <v>146</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>43</v>
@@ -9966,10 +10015,10 @@
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>43</v>
@@ -9989,10 +10038,10 @@
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>43</v>
@@ -10012,10 +10061,10 @@
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>43</v>
@@ -10035,10 +10084,10 @@
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>43</v>
@@ -10057,7 +10106,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>19</v>
@@ -10191,7 +10240,7 @@
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:8">
       <c r="A75" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -10205,7 +10254,7 @@
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:8">
       <c r="A76" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -10224,7 +10273,7 @@
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H78" s="20"/>
     </row>
@@ -10236,7 +10285,7 @@
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H79" s="21"/>
     </row>
@@ -10266,7 +10315,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -10278,28 +10327,28 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
     </row>
     <row r="84" ht="16.35" spans="1:8">
       <c r="A84" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
@@ -10335,21 +10384,21 @@
         <v>1</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D86" s="11">
         <v>1.35</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F86" s="11">
         <v>360</v>
       </c>
-      <c r="G86" s="35">
+      <c r="G86" s="36">
         <v>740</v>
       </c>
       <c r="H86" s="13"/>
@@ -10364,7 +10413,7 @@
         <v>1.5</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F87" s="11">
         <v>120</v>
@@ -10382,7 +10431,7 @@
         <v>1.1</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F88" s="11">
         <v>11</v>
@@ -10400,7 +10449,7 @@
         <v>0.9</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F89" s="11">
         <v>2</v>
@@ -10418,7 +10467,7 @@
         <v>0.5</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F90" s="11">
         <v>3</v>
@@ -10682,7 +10731,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -10696,7 +10745,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -10723,7 +10772,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -10735,7 +10784,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -10766,7 +10815,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -10778,7 +10827,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -10792,7 +10841,7 @@
     </row>
     <row r="121" ht="16.35" spans="1:8">
       <c r="A121" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -10805,28 +10854,28 @@
       <c r="H121" s="5"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="36" t="s">
+      <c r="A122" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="37" t="s">
+      <c r="C122" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="37" t="s">
+      <c r="D122" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="37" t="s">
+      <c r="E122" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F122" s="37" t="s">
+      <c r="F122" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G122" s="37" t="s">
+      <c r="G122" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="38" t="s">
+      <c r="H122" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10835,13 +10884,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>43</v>
@@ -10861,10 +10910,10 @@
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>43</v>
@@ -10881,10 +10930,10 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>43</v>
@@ -10903,10 +10952,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>43</v>
@@ -10929,7 +10978,7 @@
         <v>148</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>43</v>
@@ -10949,10 +10998,10 @@
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>43</v>
@@ -10972,10 +11021,10 @@
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>43</v>
@@ -10995,10 +11044,10 @@
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E130" s="11" t="s">
         <v>43</v>
@@ -11018,10 +11067,10 @@
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>43</v>
@@ -11041,10 +11090,10 @@
       </c>
       <c r="B132" s="15"/>
       <c r="C132" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>43</v>
@@ -11064,10 +11113,10 @@
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>43</v>
@@ -11086,10 +11135,10 @@
         <v>12</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>19</v>
@@ -11111,7 +11160,7 @@
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>19</v>
@@ -11134,11 +11183,11 @@
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
-      <c r="E136" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="F136" s="39"/>
-      <c r="G136" s="39">
+      <c r="E136" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F136" s="40"/>
+      <c r="G136" s="40">
         <f>SUM(G123:G135)</f>
         <v>27774</v>
       </c>
@@ -11304,7 +11353,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -11318,7 +11367,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -11335,7 +11384,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
@@ -11347,7 +11396,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
@@ -11378,7 +11427,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -11390,7 +11439,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -11404,7 +11453,7 @@
     </row>
     <row r="159" ht="16.35" spans="1:8">
       <c r="A159" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -11417,28 +11466,28 @@
       <c r="H159" s="5"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="36" t="s">
+      <c r="A160" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B160" s="37" t="s">
+      <c r="B160" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C160" s="37" t="s">
+      <c r="C160" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="37" t="s">
+      <c r="D160" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="37" t="s">
+      <c r="E160" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F160" s="37" t="s">
+      <c r="F160" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G160" s="37" t="s">
+      <c r="G160" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H160" s="38" t="s">
+      <c r="H160" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11447,13 +11496,13 @@
         <v>1</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>43</v>
@@ -11472,10 +11521,10 @@
         <v>23</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>43</v>
@@ -11484,7 +11533,7 @@
         <v>83</v>
       </c>
       <c r="G162" s="11"/>
-      <c r="H162" s="40"/>
+      <c r="H162" s="41"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="9">
@@ -11492,10 +11541,10 @@
       </c>
       <c r="B163" s="15"/>
       <c r="C163" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>43</v>
@@ -11504,7 +11553,7 @@
         <v>74</v>
       </c>
       <c r="G163" s="11"/>
-      <c r="H163" s="40"/>
+      <c r="H163" s="41"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="9">
@@ -11512,10 +11561,10 @@
       </c>
       <c r="B164" s="15"/>
       <c r="C164" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E164" s="11" t="s">
         <v>43</v>
@@ -11524,7 +11573,7 @@
         <v>74</v>
       </c>
       <c r="G164" s="11"/>
-      <c r="H164" s="40"/>
+      <c r="H164" s="41"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="9">
@@ -11532,10 +11581,10 @@
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>43</v>
@@ -11544,7 +11593,7 @@
         <v>11</v>
       </c>
       <c r="G165" s="12"/>
-      <c r="H165" s="41"/>
+      <c r="H165" s="42"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="9">
@@ -11552,10 +11601,10 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>43</v>
@@ -11574,10 +11623,10 @@
         <v>111</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>43</v>
@@ -11586,7 +11635,7 @@
         <v>224</v>
       </c>
       <c r="G167" s="12"/>
-      <c r="H167" s="41"/>
+      <c r="H167" s="42"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="9">
@@ -11644,8 +11693,12 @@
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
+      <c r="F172" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G172" s="12">
+        <v>24630</v>
+      </c>
       <c r="H172" s="18"/>
     </row>
     <row r="173" spans="1:8">
@@ -11863,7 +11916,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
@@ -11875,7 +11928,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11906,7 +11959,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -11918,70 +11971,70 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
     </row>
     <row r="197" ht="16.35" spans="1:8">
       <c r="A197" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="36" t="s">
+      <c r="A198" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B198" s="37" t="s">
+      <c r="B198" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C198" s="37" t="s">
+      <c r="C198" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="37" t="s">
+      <c r="D198" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E198" s="37" t="s">
+      <c r="E198" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F198" s="37" t="s">
+      <c r="F198" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G198" s="37" t="s">
+      <c r="G198" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H198" s="38" t="s">
+      <c r="H198" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="42">
+      <c r="A199" s="43">
         <v>1</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D199" s="43" t="s">
         <v>334</v>
+      </c>
+      <c r="D199" s="44" t="s">
+        <v>335</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>43</v>
@@ -11996,17 +12049,17 @@
       <c r="H199" s="13"/>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="42">
+      <c r="A200" s="43">
         <v>2</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D200" s="43" t="s">
-        <v>257</v>
+        <v>336</v>
+      </c>
+      <c r="D200" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>43</v>
@@ -12021,15 +12074,15 @@
       <c r="H200" s="13"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="42">
+      <c r="A201" s="43">
         <v>3</v>
       </c>
       <c r="B201" s="10"/>
       <c r="C201" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D201" s="43" t="s">
-        <v>257</v>
+        <v>337</v>
+      </c>
+      <c r="D201" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>43</v>
@@ -12044,15 +12097,15 @@
       <c r="H201" s="13"/>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="42">
+      <c r="A202" s="43">
         <v>4</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D202" s="43" t="s">
-        <v>257</v>
+        <v>338</v>
+      </c>
+      <c r="D202" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>43</v>
@@ -12067,15 +12120,15 @@
       <c r="H202" s="13"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="42">
+      <c r="A203" s="43">
         <v>5</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D203" s="43" t="s">
-        <v>257</v>
+        <v>339</v>
+      </c>
+      <c r="D203" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>43</v>
@@ -12090,15 +12143,15 @@
       <c r="H203" s="18"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="42">
+      <c r="A204" s="43">
         <v>6</v>
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D204" s="43" t="s">
-        <v>257</v>
+        <v>340</v>
+      </c>
+      <c r="D204" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>43</v>
@@ -12113,15 +12166,15 @@
       <c r="H204" s="18"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="42">
+      <c r="A205" s="43">
         <v>7</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D205" s="43" t="s">
-        <v>257</v>
+        <v>341</v>
+      </c>
+      <c r="D205" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>43</v>
@@ -12136,15 +12189,15 @@
       <c r="H205" s="18"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="42">
+      <c r="A206" s="43">
         <v>8</v>
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D206" s="43" t="s">
-        <v>257</v>
+        <v>342</v>
+      </c>
+      <c r="D206" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>43</v>
@@ -12159,17 +12212,17 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="42">
+      <c r="A207" s="43">
         <v>9</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D207" s="44" t="s">
         <v>344</v>
+      </c>
+      <c r="D207" s="45" t="s">
+        <v>345</v>
       </c>
       <c r="E207" s="10" t="s">
         <v>43</v>
@@ -12177,22 +12230,22 @@
       <c r="F207" s="12">
         <v>4</v>
       </c>
-      <c r="G207" s="45">
+      <c r="G207" s="46">
         <f>526+154</f>
         <v>680</v>
       </c>
       <c r="H207" s="18"/>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="42">
+      <c r="A208" s="43">
         <v>10</v>
       </c>
       <c r="B208" s="12"/>
       <c r="C208" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D208" s="45" t="s">
         <v>345</v>
-      </c>
-      <c r="D208" s="44" t="s">
-        <v>344</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>43</v>
@@ -12200,21 +12253,21 @@
       <c r="F208" s="12">
         <v>4</v>
       </c>
-      <c r="G208" s="46"/>
+      <c r="G208" s="47"/>
       <c r="H208" s="18"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="42">
+      <c r="A209" s="43">
         <v>11</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D209" s="43" t="s">
-        <v>316</v>
+        <v>347</v>
+      </c>
+      <c r="D209" s="44" t="s">
+        <v>317</v>
       </c>
       <c r="E209" s="10" t="s">
         <v>43</v>
@@ -12229,15 +12282,15 @@
       <c r="H209" s="18"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="42">
+      <c r="A210" s="43">
         <v>12</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D210" s="43" t="s">
         <v>316</v>
+      </c>
+      <c r="D210" s="44" t="s">
+        <v>317</v>
       </c>
       <c r="E210" s="10" t="s">
         <v>43</v>
@@ -12252,15 +12305,15 @@
       <c r="H210" s="18"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="42">
+      <c r="A211" s="43">
         <v>13</v>
       </c>
       <c r="B211" s="12"/>
       <c r="C211" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D211" s="43" t="s">
-        <v>316</v>
+        <v>348</v>
+      </c>
+      <c r="D211" s="44" t="s">
+        <v>317</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>43</v>
@@ -12275,17 +12328,17 @@
       <c r="H211" s="18"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="42">
+      <c r="A212" s="43">
         <v>14</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D212" s="44" t="s">
         <v>350</v>
+      </c>
+      <c r="D212" s="45" t="s">
+        <v>351</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>43</v>
@@ -12300,14 +12353,14 @@
       <c r="H212" s="18"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="42">
+      <c r="A213" s="43">
         <v>15</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>19</v>
@@ -12324,12 +12377,12 @@
       <c r="H213" s="18"/>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="42">
+      <c r="A214" s="43">
         <v>16</v>
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>19</v>
@@ -12353,7 +12406,9 @@
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
+      <c r="F215" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="G215" s="12">
         <f>SUM(G199:G214)</f>
         <v>29671</v>
@@ -12629,7 +12684,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -12641,7 +12696,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -12672,7 +12727,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -12684,28 +12739,28 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" ht="16.35" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -12744,10 +12799,10 @@
         <v>146</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>43</v>

--- a/出库统计.xlsx
+++ b/出库统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="358">
   <si>
     <t xml:space="preserve"> 发货单号：001</t>
   </si>
@@ -759,64 +759,61 @@
     <t>KL17</t>
   </si>
   <si>
+    <t xml:space="preserve">  发货单号：001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  发货日期：2021.01.19</t>
+  </si>
+  <si>
+    <t>收货单位/工程名称：广东连平华丰电炉冶炼二期工程</t>
+  </si>
+  <si>
+    <t>收  货  人：黄老板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     发  货 人：戴清庭</t>
+  </si>
+  <si>
+    <t>收货人电话：13599645362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     发货人电话:17859324000</t>
+  </si>
+  <si>
+    <t>直发件</t>
+  </si>
+  <si>
+    <t>PL6*30*300</t>
+  </si>
+  <si>
+    <t>PL20*80*80</t>
+  </si>
+  <si>
+    <t>BH780*300*10*14</t>
+  </si>
+  <si>
+    <t>GZ2A</t>
+  </si>
+  <si>
+    <t>GZ2B</t>
+  </si>
+  <si>
+    <t>GZ2C</t>
+  </si>
+  <si>
+    <t>GZ2D</t>
+  </si>
+  <si>
+    <t>GZ2E</t>
+  </si>
+  <si>
+    <t>GZ4</t>
+  </si>
+  <si>
+    <t>GZ4A</t>
+  </si>
+  <si>
     <t>合计：</t>
-  </si>
-  <si>
-    <t>单位（kg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  发货单号：001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  发货日期：2021.01.19</t>
-  </si>
-  <si>
-    <t>收货单位/工程名称：广东连平华丰电炉冶炼二期工程</t>
-  </si>
-  <si>
-    <t>收  货  人：黄老板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     发  货 人：戴清庭</t>
-  </si>
-  <si>
-    <t>收货人电话：13599645362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     发货人电话:17859324000</t>
-  </si>
-  <si>
-    <t>直发件</t>
-  </si>
-  <si>
-    <t>PL6*30*300</t>
-  </si>
-  <si>
-    <t>PL20*80*80</t>
-  </si>
-  <si>
-    <t>BH780*300*10*14</t>
-  </si>
-  <si>
-    <t>GZ2A</t>
-  </si>
-  <si>
-    <t>GZ2B</t>
-  </si>
-  <si>
-    <t>GZ2C</t>
-  </si>
-  <si>
-    <t>GZ2D</t>
-  </si>
-  <si>
-    <t>GZ2E</t>
-  </si>
-  <si>
-    <t>GZ4</t>
-  </si>
-  <si>
-    <t>GZ4A</t>
   </si>
   <si>
     <t>司机电话:13791587505</t>
@@ -1100,10 +1097,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1176,6 +1173,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1183,14 +1187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,6 +1195,29 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1212,9 +1232,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,16 +1255,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,23 +1277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,7 +1286,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,32 +1310,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1325,6 +1322,132 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1346,97 +1469,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,61 +1505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,71 +1753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1844,6 +1776,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1852,10 +1849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1864,16 +1861,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,7 +1879,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1891,113 +1888,113 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2101,9 +2098,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2578,80 +2572,80 @@
       <c r="I4" s="19"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:9">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:9">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:9">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:9">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="19"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="49">
-        <v>1</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="48">
+        <v>1</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2668,13 +2662,13 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:9">
-      <c r="A10" s="49">
+      <c r="A10" s="48">
         <v>2</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
@@ -2689,13 +2683,13 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:9">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <v>3</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
@@ -2710,10 +2704,10 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:9">
-      <c r="A12" s="49">
+      <c r="A12" s="48">
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2733,13 +2727,13 @@
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="52"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:9">
-      <c r="A13" s="49">
+      <c r="A13" s="48">
         <v>5</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2748,100 +2742,100 @@
       <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>1</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="52"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:9">
-      <c r="A14" s="49">
+      <c r="A14" s="48">
         <v>6</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="12"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="52"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:9">
-      <c r="A15" s="49">
+      <c r="A15" s="48">
         <v>7</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="51"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="52"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:9">
-      <c r="A16" s="49">
+      <c r="A16" s="48">
         <v>8</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="52"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:9">
-      <c r="A17" s="49">
+      <c r="A17" s="48">
         <v>9</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="51"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:9">
-      <c r="A18" s="49">
+      <c r="A18" s="48">
         <v>10</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="52"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:9">
-      <c r="A19" s="49">
+      <c r="A19" s="48">
         <v>11</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="51"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="52"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:9">
-      <c r="A20" s="49">
+      <c r="A20" s="48">
         <v>12</v>
       </c>
       <c r="B20" s="12"/>
@@ -2851,10 +2845,10 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:9">
-      <c r="A21" s="49">
+      <c r="A21" s="48">
         <v>13</v>
       </c>
       <c r="B21" s="12"/>
@@ -2864,10 +2858,10 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="52"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:9">
-      <c r="A22" s="49">
+      <c r="A22" s="48">
         <v>14</v>
       </c>
       <c r="B22" s="12"/>
@@ -2877,10 +2871,10 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="52"/>
+      <c r="I22" s="51"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="49">
+      <c r="A23" s="48">
         <v>15</v>
       </c>
       <c r="B23" s="12"/>
@@ -2890,10 +2884,10 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="52"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="49">
+      <c r="A24" s="48">
         <v>16</v>
       </c>
       <c r="B24" s="12"/>
@@ -2903,10 +2897,10 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="52"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="49">
+      <c r="A25" s="48">
         <v>17</v>
       </c>
       <c r="B25" s="12"/>
@@ -2916,10 +2910,10 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="52"/>
+      <c r="I25" s="51"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="49">
+      <c r="A26" s="48">
         <v>18</v>
       </c>
       <c r="B26" s="12"/>
@@ -2929,10 +2923,10 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="52"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="49">
+      <c r="A27" s="48">
         <v>19</v>
       </c>
       <c r="B27" s="12"/>
@@ -2942,10 +2936,10 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="52"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="49">
+      <c r="A28" s="48">
         <v>20</v>
       </c>
       <c r="B28" s="12"/>
@@ -2955,10 +2949,10 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="52"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="49">
+      <c r="A29" s="48">
         <v>21</v>
       </c>
       <c r="B29" s="12"/>
@@ -2968,10 +2962,10 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="52"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="49">
+      <c r="A30" s="48">
         <v>22</v>
       </c>
       <c r="B30" s="12"/>
@@ -2981,10 +2975,10 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="52"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="49">
+      <c r="A31" s="48">
         <v>23</v>
       </c>
       <c r="B31" s="12"/>
@@ -2994,10 +2988,10 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:9">
-      <c r="A32" s="49">
+      <c r="A32" s="48">
         <v>24</v>
       </c>
       <c r="B32" s="12"/>
@@ -3007,10 +3001,10 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="52"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:9">
-      <c r="A33" s="49">
+      <c r="A33" s="48">
         <v>25</v>
       </c>
       <c r="B33" s="12"/>
@@ -3020,10 +3014,10 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="52"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:9">
-      <c r="A34" s="49">
+      <c r="A34" s="48">
         <v>26</v>
       </c>
       <c r="B34" s="12"/>
@@ -3033,72 +3027,72 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="52"/>
+      <c r="I34" s="51"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:9">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48" t="s">
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="48"/>
+      <c r="H35" s="47"/>
       <c r="I35" s="19"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:9">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="48"/>
+      <c r="H36" s="47"/>
       <c r="I36" s="19"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:9">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
       <c r="I37" s="19"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:9">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:9">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:9">
       <c r="A40" s="19"/>
@@ -3111,7 +3105,7 @@
         <v>38</v>
       </c>
       <c r="H40" s="20"/>
-      <c r="I40" s="52"/>
+      <c r="I40" s="51"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:9">
       <c r="A41" s="19"/>
@@ -3124,7 +3118,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="21"/>
-      <c r="I41" s="52"/>
+      <c r="I41" s="51"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:9">
       <c r="A42" s="22" t="s">
@@ -3137,7 +3131,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
-      <c r="I42" s="52"/>
+      <c r="I42" s="51"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:9">
       <c r="A43" s="23" t="s">
@@ -3150,7 +3144,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="52"/>
+      <c r="I43" s="51"/>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:9">
       <c r="A44" s="21" t="s">
@@ -3163,7 +3157,7 @@
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="52"/>
+      <c r="I44" s="51"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:9">
       <c r="A45" s="21" t="s">
@@ -3178,7 +3172,7 @@
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="52"/>
+      <c r="I45" s="51"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:9">
       <c r="A46" s="21" t="s">
@@ -3193,7 +3187,7 @@
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
-      <c r="I46" s="52"/>
+      <c r="I46" s="51"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
@@ -3220,13 +3214,13 @@
       <c r="H47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="52"/>
+      <c r="I47" s="51"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:9">
-      <c r="A48" s="53">
-        <v>1</v>
-      </c>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="52">
+        <v>1</v>
+      </c>
+      <c r="B48" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -3243,13 +3237,13 @@
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="52"/>
+      <c r="I48" s="51"/>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:9">
-      <c r="A49" s="53">
+      <c r="A49" s="52">
         <v>2</v>
       </c>
-      <c r="B49" s="50"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="12" t="s">
         <v>44</v>
       </c>
@@ -3264,13 +3258,13 @@
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="52"/>
+      <c r="I49" s="51"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:9">
-      <c r="A50" s="53">
+      <c r="A50" s="52">
         <v>3</v>
       </c>
-      <c r="B50" s="50"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="12" t="s">
         <v>45</v>
       </c>
@@ -3285,13 +3279,13 @@
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="52"/>
+      <c r="I50" s="51"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:9">
-      <c r="A51" s="53">
+      <c r="A51" s="52">
         <v>4</v>
       </c>
-      <c r="B51" s="50"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="12" t="s">
         <v>46</v>
       </c>
@@ -3306,13 +3300,13 @@
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="18"/>
-      <c r="I51" s="52"/>
+      <c r="I51" s="51"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:9">
-      <c r="A52" s="53">
+      <c r="A52" s="52">
         <v>5</v>
       </c>
-      <c r="B52" s="50"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="12" t="s">
         <v>47</v>
       </c>
@@ -3327,13 +3321,13 @@
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="52"/>
+      <c r="I52" s="51"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:9">
-      <c r="A53" s="53">
+      <c r="A53" s="52">
         <v>6</v>
       </c>
-      <c r="B53" s="47"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="12" t="s">
         <v>48</v>
       </c>
@@ -3348,10 +3342,10 @@
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="52"/>
+      <c r="I53" s="51"/>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:9">
-      <c r="A54" s="53">
+      <c r="A54" s="52">
         <v>7</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -3371,10 +3365,10 @@
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="52"/>
+      <c r="I54" s="51"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:9">
-      <c r="A55" s="53">
+      <c r="A55" s="52">
         <v>8</v>
       </c>
       <c r="B55" s="12"/>
@@ -3384,10 +3378,10 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="52"/>
+      <c r="I55" s="51"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:9">
-      <c r="A56" s="53">
+      <c r="A56" s="52">
         <v>9</v>
       </c>
       <c r="B56" s="12"/>
@@ -3397,10 +3391,10 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="52"/>
+      <c r="I56" s="51"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:9">
-      <c r="A57" s="53">
+      <c r="A57" s="52">
         <v>10</v>
       </c>
       <c r="B57" s="12"/>
@@ -3410,10 +3404,10 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="52"/>
+      <c r="I57" s="51"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:9">
-      <c r="A58" s="53">
+      <c r="A58" s="52">
         <v>11</v>
       </c>
       <c r="B58" s="12"/>
@@ -3423,10 +3417,10 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="52"/>
+      <c r="I58" s="51"/>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:9">
-      <c r="A59" s="53">
+      <c r="A59" s="52">
         <v>12</v>
       </c>
       <c r="B59" s="12"/>
@@ -3436,10 +3430,10 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="52"/>
+      <c r="I59" s="51"/>
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:9">
-      <c r="A60" s="53">
+      <c r="A60" s="52">
         <v>13</v>
       </c>
       <c r="B60" s="12"/>
@@ -3449,10 +3443,10 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="52"/>
+      <c r="I60" s="51"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:9">
-      <c r="A61" s="53">
+      <c r="A61" s="52">
         <v>14</v>
       </c>
       <c r="B61" s="12"/>
@@ -3462,10 +3456,10 @@
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="18"/>
-      <c r="I61" s="52"/>
+      <c r="I61" s="51"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:9">
-      <c r="A62" s="53">
+      <c r="A62" s="52">
         <v>15</v>
       </c>
       <c r="B62" s="12"/>
@@ -3475,10 +3469,10 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="18"/>
-      <c r="I62" s="52"/>
+      <c r="I62" s="51"/>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:9">
-      <c r="A63" s="53">
+      <c r="A63" s="52">
         <v>16</v>
       </c>
       <c r="B63" s="12"/>
@@ -3488,75 +3482,75 @@
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="52"/>
+      <c r="I63" s="51"/>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:9">
-      <c r="A64" s="53">
+      <c r="A64" s="52">
         <v>17</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
-      <c r="D64" s="51"/>
+      <c r="D64" s="50"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="18"/>
-      <c r="I64" s="52"/>
+      <c r="I64" s="51"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:9">
-      <c r="A65" s="53">
+      <c r="A65" s="52">
         <v>18</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="51"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="52"/>
+      <c r="I65" s="51"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:9">
-      <c r="A66" s="53">
+      <c r="A66" s="52">
         <v>19</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="51"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="52"/>
+      <c r="I66" s="51"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:9">
-      <c r="A67" s="53">
+      <c r="A67" s="52">
         <v>20</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="51"/>
+      <c r="D67" s="50"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="52"/>
+      <c r="I67" s="51"/>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:9">
-      <c r="A68" s="53">
+      <c r="A68" s="52">
         <v>21</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="51"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="18"/>
-      <c r="I68" s="52"/>
+      <c r="I68" s="51"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:9">
-      <c r="A69" s="53">
+      <c r="A69" s="52">
         <v>22</v>
       </c>
       <c r="B69" s="12"/>
@@ -3566,10 +3560,10 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="18"/>
-      <c r="I69" s="52"/>
+      <c r="I69" s="51"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:9">
-      <c r="A70" s="53">
+      <c r="A70" s="52">
         <v>23</v>
       </c>
       <c r="B70" s="12"/>
@@ -3579,10 +3573,10 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="18"/>
-      <c r="I70" s="52"/>
+      <c r="I70" s="51"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:9">
-      <c r="A71" s="53">
+      <c r="A71" s="52">
         <v>24</v>
       </c>
       <c r="B71" s="12"/>
@@ -3592,10 +3586,10 @@
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="18"/>
-      <c r="I71" s="52"/>
+      <c r="I71" s="51"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:9">
-      <c r="A72" s="53">
+      <c r="A72" s="52">
         <v>25</v>
       </c>
       <c r="B72" s="12"/>
@@ -3605,10 +3599,10 @@
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="18"/>
-      <c r="I72" s="52"/>
+      <c r="I72" s="51"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:9">
-      <c r="A73" s="53">
+      <c r="A73" s="52">
         <v>26</v>
       </c>
       <c r="B73" s="12"/>
@@ -3618,7 +3612,7 @@
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="18"/>
-      <c r="I73" s="52"/>
+      <c r="I73" s="51"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:9">
       <c r="A74" s="21" t="s">
@@ -3633,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="H74" s="21"/>
-      <c r="I74" s="52"/>
+      <c r="I74" s="51"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:9">
       <c r="A75" s="21" t="s">
@@ -3648,7 +3642,7 @@
         <v>36</v>
       </c>
       <c r="H75" s="21"/>
-      <c r="I75" s="52"/>
+      <c r="I75" s="51"/>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:9">
       <c r="A76" s="20" t="s">
@@ -3661,18 +3655,18 @@
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="52"/>
+      <c r="I76" s="51"/>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:9">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:9">
       <c r="A78" s="19"/>
@@ -3685,7 +3679,7 @@
         <v>50</v>
       </c>
       <c r="H78" s="20"/>
-      <c r="I78" s="52"/>
+      <c r="I78" s="51"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:9">
       <c r="A79" s="19"/>
@@ -3698,7 +3692,7 @@
         <v>51</v>
       </c>
       <c r="H79" s="21"/>
-      <c r="I79" s="52"/>
+      <c r="I79" s="51"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:9">
       <c r="A80" s="22" t="s">
@@ -3711,7 +3705,7 @@
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
-      <c r="I80" s="52"/>
+      <c r="I80" s="51"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:9">
       <c r="A81" s="23" t="s">
@@ -3724,7 +3718,7 @@
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
-      <c r="I81" s="52"/>
+      <c r="I81" s="51"/>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:9">
       <c r="A82" s="21" t="s">
@@ -3737,7 +3731,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
-      <c r="I82" s="52"/>
+      <c r="I82" s="51"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:9">
       <c r="A83" s="21" t="s">
@@ -3752,7 +3746,7 @@
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
-      <c r="I83" s="52"/>
+      <c r="I83" s="51"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:9">
       <c r="A84" s="21" t="s">
@@ -3767,7 +3761,7 @@
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
-      <c r="I84" s="52"/>
+      <c r="I84" s="51"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:9">
       <c r="A85" s="6" t="s">
@@ -3794,13 +3788,13 @@
       <c r="H85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I85" s="52"/>
+      <c r="I85" s="51"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:9">
-      <c r="A86" s="53">
-        <v>1</v>
-      </c>
-      <c r="B86" s="46" t="s">
+      <c r="A86" s="52">
+        <v>1</v>
+      </c>
+      <c r="B86" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -3817,13 +3811,13 @@
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="18"/>
-      <c r="I86" s="52"/>
+      <c r="I86" s="51"/>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:9">
-      <c r="A87" s="53">
+      <c r="A87" s="52">
         <v>2</v>
       </c>
-      <c r="B87" s="50"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="12" t="s">
         <v>56</v>
       </c>
@@ -3838,13 +3832,13 @@
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="18"/>
-      <c r="I87" s="52"/>
+      <c r="I87" s="51"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:9">
-      <c r="A88" s="53">
+      <c r="A88" s="52">
         <v>3</v>
       </c>
-      <c r="B88" s="50"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="12" t="s">
         <v>57</v>
       </c>
@@ -3859,13 +3853,13 @@
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="18"/>
-      <c r="I88" s="52"/>
+      <c r="I88" s="51"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:9">
-      <c r="A89" s="53">
+      <c r="A89" s="52">
         <v>4</v>
       </c>
-      <c r="B89" s="50"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="12" t="s">
         <v>58</v>
       </c>
@@ -3880,13 +3874,13 @@
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="18"/>
-      <c r="I89" s="52"/>
+      <c r="I89" s="51"/>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:9">
-      <c r="A90" s="53">
+      <c r="A90" s="52">
         <v>5</v>
       </c>
-      <c r="B90" s="50"/>
+      <c r="B90" s="49"/>
       <c r="C90" s="12" t="s">
         <v>59</v>
       </c>
@@ -3901,13 +3895,13 @@
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="18"/>
-      <c r="I90" s="52"/>
+      <c r="I90" s="51"/>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:9">
-      <c r="A91" s="53">
+      <c r="A91" s="52">
         <v>6</v>
       </c>
-      <c r="B91" s="50"/>
+      <c r="B91" s="49"/>
       <c r="C91" s="12" t="s">
         <v>60</v>
       </c>
@@ -3922,13 +3916,13 @@
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="18"/>
-      <c r="I91" s="52"/>
+      <c r="I91" s="51"/>
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:9">
-      <c r="A92" s="53">
+      <c r="A92" s="52">
         <v>7</v>
       </c>
-      <c r="B92" s="50"/>
+      <c r="B92" s="49"/>
       <c r="C92" s="12" t="s">
         <v>61</v>
       </c>
@@ -3943,13 +3937,13 @@
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="18"/>
-      <c r="I92" s="52"/>
+      <c r="I92" s="51"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:9">
-      <c r="A93" s="53">
+      <c r="A93" s="52">
         <v>8</v>
       </c>
-      <c r="B93" s="50"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="12" t="s">
         <v>62</v>
       </c>
@@ -3964,13 +3958,13 @@
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="18"/>
-      <c r="I93" s="52"/>
+      <c r="I93" s="51"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:9">
-      <c r="A94" s="53">
+      <c r="A94" s="52">
         <v>9</v>
       </c>
-      <c r="B94" s="50"/>
+      <c r="B94" s="49"/>
       <c r="C94" s="12" t="s">
         <v>63</v>
       </c>
@@ -3985,13 +3979,13 @@
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="18"/>
-      <c r="I94" s="52"/>
+      <c r="I94" s="51"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:9">
-      <c r="A95" s="53">
+      <c r="A95" s="52">
         <v>10</v>
       </c>
-      <c r="B95" s="50"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="12" t="s">
         <v>64</v>
       </c>
@@ -4006,13 +4000,13 @@
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="18"/>
-      <c r="I95" s="52"/>
+      <c r="I95" s="51"/>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:9">
-      <c r="A96" s="53">
+      <c r="A96" s="52">
         <v>11</v>
       </c>
-      <c r="B96" s="50"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="12" t="s">
         <v>65</v>
       </c>
@@ -4027,13 +4021,13 @@
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="18"/>
-      <c r="I96" s="52"/>
+      <c r="I96" s="51"/>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:9">
-      <c r="A97" s="53">
+      <c r="A97" s="52">
         <v>12</v>
       </c>
-      <c r="B97" s="47"/>
+      <c r="B97" s="46"/>
       <c r="C97" s="12" t="s">
         <v>66</v>
       </c>
@@ -4048,13 +4042,13 @@
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="18"/>
-      <c r="I97" s="52"/>
+      <c r="I97" s="51"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:9">
-      <c r="A98" s="53">
+      <c r="A98" s="52">
         <v>13</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -4071,13 +4065,13 @@
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="18"/>
-      <c r="I98" s="52"/>
+      <c r="I98" s="51"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:9">
-      <c r="A99" s="53">
+      <c r="A99" s="52">
         <v>14</v>
       </c>
-      <c r="B99" s="50"/>
+      <c r="B99" s="49"/>
       <c r="C99" s="12" t="s">
         <v>70</v>
       </c>
@@ -4092,13 +4086,13 @@
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="18"/>
-      <c r="I99" s="52"/>
+      <c r="I99" s="51"/>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:9">
-      <c r="A100" s="53">
+      <c r="A100" s="52">
         <v>15</v>
       </c>
-      <c r="B100" s="50"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="12" t="s">
         <v>71</v>
       </c>
@@ -4113,13 +4107,13 @@
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="18"/>
-      <c r="I100" s="52"/>
+      <c r="I100" s="51"/>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:9">
-      <c r="A101" s="53">
+      <c r="A101" s="52">
         <v>16</v>
       </c>
-      <c r="B101" s="47"/>
+      <c r="B101" s="46"/>
       <c r="C101" s="12" t="s">
         <v>72</v>
       </c>
@@ -4134,10 +4128,10 @@
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="18"/>
-      <c r="I101" s="52"/>
+      <c r="I101" s="51"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:9">
-      <c r="A102" s="53">
+      <c r="A102" s="52">
         <v>17</v>
       </c>
       <c r="B102" s="12" t="s">
@@ -4146,7 +4140,7 @@
       <c r="C102" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="51" t="s">
+      <c r="D102" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E102" s="12" t="s">
@@ -4157,62 +4151,62 @@
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="18"/>
-      <c r="I102" s="52"/>
+      <c r="I102" s="51"/>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:9">
-      <c r="A103" s="53">
+      <c r="A103" s="52">
         <v>18</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
-      <c r="D103" s="51"/>
+      <c r="D103" s="50"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="18"/>
-      <c r="I103" s="52"/>
+      <c r="I103" s="51"/>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:9">
-      <c r="A104" s="53">
+      <c r="A104" s="52">
         <v>19</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
-      <c r="D104" s="51"/>
+      <c r="D104" s="50"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="18"/>
-      <c r="I104" s="52"/>
+      <c r="I104" s="51"/>
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:9">
-      <c r="A105" s="53">
+      <c r="A105" s="52">
         <v>20</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
-      <c r="D105" s="51"/>
+      <c r="D105" s="50"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="18"/>
-      <c r="I105" s="52"/>
+      <c r="I105" s="51"/>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:9">
-      <c r="A106" s="53">
+      <c r="A106" s="52">
         <v>21</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
-      <c r="D106" s="51"/>
+      <c r="D106" s="50"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="18"/>
-      <c r="I106" s="52"/>
+      <c r="I106" s="51"/>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:9">
-      <c r="A107" s="53">
+      <c r="A107" s="52">
         <v>22</v>
       </c>
       <c r="B107" s="12"/>
@@ -4222,10 +4216,10 @@
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="18"/>
-      <c r="I107" s="52"/>
+      <c r="I107" s="51"/>
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:9">
-      <c r="A108" s="53">
+      <c r="A108" s="52">
         <v>23</v>
       </c>
       <c r="B108" s="12"/>
@@ -4235,10 +4229,10 @@
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="18"/>
-      <c r="I108" s="52"/>
+      <c r="I108" s="51"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:9">
-      <c r="A109" s="53">
+      <c r="A109" s="52">
         <v>24</v>
       </c>
       <c r="B109" s="12"/>
@@ -4248,10 +4242,10 @@
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="18"/>
-      <c r="I109" s="52"/>
+      <c r="I109" s="51"/>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:9">
-      <c r="A110" s="53">
+      <c r="A110" s="52">
         <v>25</v>
       </c>
       <c r="B110" s="12"/>
@@ -4261,10 +4255,10 @@
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="18"/>
-      <c r="I110" s="52"/>
+      <c r="I110" s="51"/>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:9">
-      <c r="A111" s="53">
+      <c r="A111" s="52">
         <v>26</v>
       </c>
       <c r="B111" s="12"/>
@@ -4274,7 +4268,7 @@
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="18"/>
-      <c r="I111" s="52"/>
+      <c r="I111" s="51"/>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:9">
       <c r="A112" s="21" t="s">
@@ -4289,7 +4283,7 @@
         <v>34</v>
       </c>
       <c r="H112" s="21"/>
-      <c r="I112" s="52"/>
+      <c r="I112" s="51"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:9">
       <c r="A113" s="21" t="s">
@@ -4304,7 +4298,7 @@
         <v>36</v>
       </c>
       <c r="H113" s="21"/>
-      <c r="I113" s="52"/>
+      <c r="I113" s="51"/>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:9">
       <c r="A114" s="20" t="s">
@@ -4317,7 +4311,7 @@
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="52"/>
+      <c r="I114" s="51"/>
     </row>
     <row r="115" ht="18" customHeight="1" spans="1:9">
       <c r="A115" s="19"/>
@@ -4328,7 +4322,7 @@
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="52"/>
+      <c r="I115" s="51"/>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:9">
       <c r="A116" s="19"/>
@@ -4341,7 +4335,7 @@
         <v>74</v>
       </c>
       <c r="H116" s="20"/>
-      <c r="I116" s="52"/>
+      <c r="I116" s="51"/>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:9">
       <c r="A117" s="19"/>
@@ -4354,7 +4348,7 @@
         <v>75</v>
       </c>
       <c r="H117" s="21"/>
-      <c r="I117" s="52"/>
+      <c r="I117" s="51"/>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:9">
       <c r="A118" s="22" t="s">
@@ -4367,7 +4361,7 @@
       <c r="F118" s="22"/>
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
-      <c r="I118" s="52"/>
+      <c r="I118" s="51"/>
     </row>
     <row r="119" ht="18" customHeight="1" spans="1:9">
       <c r="A119" s="23" t="s">
@@ -4380,7 +4374,7 @@
       <c r="F119" s="22"/>
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
-      <c r="I119" s="52"/>
+      <c r="I119" s="51"/>
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:9">
       <c r="A120" s="21" t="s">
@@ -4393,7 +4387,7 @@
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
       <c r="H120" s="21"/>
-      <c r="I120" s="52"/>
+      <c r="I120" s="51"/>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:9">
       <c r="A121" s="21" t="s">
@@ -4408,7 +4402,7 @@
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
-      <c r="I121" s="52"/>
+      <c r="I121" s="51"/>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:9">
       <c r="A122" s="21" t="s">
@@ -4423,7 +4417,7 @@
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
-      <c r="I122" s="52"/>
+      <c r="I122" s="51"/>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:9">
       <c r="A123" s="6" t="s">
@@ -4450,13 +4444,13 @@
       <c r="H123" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="52"/>
+      <c r="I123" s="51"/>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:9">
-      <c r="A124" s="53">
-        <v>1</v>
-      </c>
-      <c r="B124" s="46" t="s">
+      <c r="A124" s="52">
+        <v>1</v>
+      </c>
+      <c r="B124" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C124" s="12" t="s">
@@ -4473,13 +4467,13 @@
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="18"/>
-      <c r="I124" s="52"/>
+      <c r="I124" s="51"/>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:9">
-      <c r="A125" s="53">
+      <c r="A125" s="52">
         <v>2</v>
       </c>
-      <c r="B125" s="50"/>
+      <c r="B125" s="49"/>
       <c r="C125" s="12" t="s">
         <v>80</v>
       </c>
@@ -4494,13 +4488,13 @@
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="18"/>
-      <c r="I125" s="52"/>
+      <c r="I125" s="51"/>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:9">
-      <c r="A126" s="53">
+      <c r="A126" s="52">
         <v>3</v>
       </c>
-      <c r="B126" s="50"/>
+      <c r="B126" s="49"/>
       <c r="C126" s="12" t="s">
         <v>81</v>
       </c>
@@ -4515,13 +4509,13 @@
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="18"/>
-      <c r="I126" s="52"/>
+      <c r="I126" s="51"/>
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:9">
-      <c r="A127" s="53">
+      <c r="A127" s="52">
         <v>4</v>
       </c>
-      <c r="B127" s="50"/>
+      <c r="B127" s="49"/>
       <c r="C127" s="12" t="s">
         <v>82</v>
       </c>
@@ -4536,13 +4530,13 @@
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="18"/>
-      <c r="I127" s="52"/>
+      <c r="I127" s="51"/>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:9">
-      <c r="A128" s="53">
+      <c r="A128" s="52">
         <v>5</v>
       </c>
-      <c r="B128" s="50"/>
+      <c r="B128" s="49"/>
       <c r="C128" s="12" t="s">
         <v>83</v>
       </c>
@@ -4557,13 +4551,13 @@
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="18"/>
-      <c r="I128" s="52"/>
+      <c r="I128" s="51"/>
     </row>
     <row r="129" ht="18" customHeight="1" spans="1:9">
-      <c r="A129" s="53">
+      <c r="A129" s="52">
         <v>6</v>
       </c>
-      <c r="B129" s="47"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="12" t="s">
         <v>84</v>
       </c>
@@ -4578,10 +4572,10 @@
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="18"/>
-      <c r="I129" s="52"/>
+      <c r="I129" s="51"/>
     </row>
     <row r="130" ht="18" customHeight="1" spans="1:9">
-      <c r="A130" s="53">
+      <c r="A130" s="52">
         <v>7</v>
       </c>
       <c r="B130" s="12" t="s">
@@ -4601,10 +4595,10 @@
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="18"/>
-      <c r="I130" s="52"/>
+      <c r="I130" s="51"/>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:9">
-      <c r="A131" s="53">
+      <c r="A131" s="52">
         <v>8</v>
       </c>
       <c r="B131" s="12"/>
@@ -4614,10 +4608,10 @@
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="18"/>
-      <c r="I131" s="52"/>
+      <c r="I131" s="51"/>
     </row>
     <row r="132" ht="18" customHeight="1" spans="1:9">
-      <c r="A132" s="53">
+      <c r="A132" s="52">
         <v>9</v>
       </c>
       <c r="B132" s="12"/>
@@ -4627,10 +4621,10 @@
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="18"/>
-      <c r="I132" s="52"/>
+      <c r="I132" s="51"/>
     </row>
     <row r="133" ht="18" customHeight="1" spans="1:9">
-      <c r="A133" s="53">
+      <c r="A133" s="52">
         <v>10</v>
       </c>
       <c r="B133" s="12"/>
@@ -4640,10 +4634,10 @@
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="18"/>
-      <c r="I133" s="52"/>
+      <c r="I133" s="51"/>
     </row>
     <row r="134" ht="18" customHeight="1" spans="1:9">
-      <c r="A134" s="53">
+      <c r="A134" s="52">
         <v>11</v>
       </c>
       <c r="B134" s="12"/>
@@ -4653,10 +4647,10 @@
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="18"/>
-      <c r="I134" s="52"/>
+      <c r="I134" s="51"/>
     </row>
     <row r="135" ht="18" customHeight="1" spans="1:9">
-      <c r="A135" s="53">
+      <c r="A135" s="52">
         <v>12</v>
       </c>
       <c r="B135" s="12"/>
@@ -4666,10 +4660,10 @@
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
       <c r="H135" s="18"/>
-      <c r="I135" s="52"/>
+      <c r="I135" s="51"/>
     </row>
     <row r="136" ht="18" customHeight="1" spans="1:9">
-      <c r="A136" s="53">
+      <c r="A136" s="52">
         <v>13</v>
       </c>
       <c r="B136" s="12"/>
@@ -4679,10 +4673,10 @@
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
       <c r="H136" s="18"/>
-      <c r="I136" s="52"/>
+      <c r="I136" s="51"/>
     </row>
     <row r="137" ht="18" customHeight="1" spans="1:9">
-      <c r="A137" s="53">
+      <c r="A137" s="52">
         <v>14</v>
       </c>
       <c r="B137" s="12"/>
@@ -4692,10 +4686,10 @@
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="18"/>
-      <c r="I137" s="52"/>
+      <c r="I137" s="51"/>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:9">
-      <c r="A138" s="53">
+      <c r="A138" s="52">
         <v>15</v>
       </c>
       <c r="B138" s="12"/>
@@ -4705,10 +4699,10 @@
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="18"/>
-      <c r="I138" s="52"/>
+      <c r="I138" s="51"/>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:9">
-      <c r="A139" s="53">
+      <c r="A139" s="52">
         <v>16</v>
       </c>
       <c r="B139" s="12"/>
@@ -4718,75 +4712,75 @@
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="18"/>
-      <c r="I139" s="52"/>
+      <c r="I139" s="51"/>
     </row>
     <row r="140" ht="18" customHeight="1" spans="1:9">
-      <c r="A140" s="53">
+      <c r="A140" s="52">
         <v>17</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
-      <c r="D140" s="51"/>
+      <c r="D140" s="50"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
       <c r="H140" s="18"/>
-      <c r="I140" s="52"/>
+      <c r="I140" s="51"/>
     </row>
     <row r="141" ht="18" customHeight="1" spans="1:9">
-      <c r="A141" s="53">
+      <c r="A141" s="52">
         <v>18</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
-      <c r="D141" s="51"/>
+      <c r="D141" s="50"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="18"/>
-      <c r="I141" s="52"/>
+      <c r="I141" s="51"/>
     </row>
     <row r="142" ht="18" customHeight="1" spans="1:9">
-      <c r="A142" s="53">
+      <c r="A142" s="52">
         <v>19</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
-      <c r="D142" s="51"/>
+      <c r="D142" s="50"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="18"/>
-      <c r="I142" s="52"/>
+      <c r="I142" s="51"/>
     </row>
     <row r="143" ht="18" customHeight="1" spans="1:9">
-      <c r="A143" s="53">
+      <c r="A143" s="52">
         <v>20</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
-      <c r="D143" s="51"/>
+      <c r="D143" s="50"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
       <c r="H143" s="18"/>
-      <c r="I143" s="52"/>
+      <c r="I143" s="51"/>
     </row>
     <row r="144" ht="18" customHeight="1" spans="1:9">
-      <c r="A144" s="53">
+      <c r="A144" s="52">
         <v>21</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
-      <c r="D144" s="51"/>
+      <c r="D144" s="50"/>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
       <c r="H144" s="18"/>
-      <c r="I144" s="52"/>
+      <c r="I144" s="51"/>
     </row>
     <row r="145" ht="18" customHeight="1" spans="1:9">
-      <c r="A145" s="53">
+      <c r="A145" s="52">
         <v>22</v>
       </c>
       <c r="B145" s="12"/>
@@ -4796,10 +4790,10 @@
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
       <c r="H145" s="18"/>
-      <c r="I145" s="52"/>
+      <c r="I145" s="51"/>
     </row>
     <row r="146" ht="18" customHeight="1" spans="1:9">
-      <c r="A146" s="53">
+      <c r="A146" s="52">
         <v>23</v>
       </c>
       <c r="B146" s="12"/>
@@ -4809,10 +4803,10 @@
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="18"/>
-      <c r="I146" s="52"/>
+      <c r="I146" s="51"/>
     </row>
     <row r="147" ht="18" customHeight="1" spans="1:9">
-      <c r="A147" s="53">
+      <c r="A147" s="52">
         <v>24</v>
       </c>
       <c r="B147" s="12"/>
@@ -4822,10 +4816,10 @@
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
       <c r="H147" s="18"/>
-      <c r="I147" s="52"/>
+      <c r="I147" s="51"/>
     </row>
     <row r="148" ht="18" customHeight="1" spans="1:9">
-      <c r="A148" s="53">
+      <c r="A148" s="52">
         <v>25</v>
       </c>
       <c r="B148" s="12"/>
@@ -4835,10 +4829,10 @@
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
       <c r="H148" s="18"/>
-      <c r="I148" s="52"/>
+      <c r="I148" s="51"/>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:9">
-      <c r="A149" s="53">
+      <c r="A149" s="52">
         <v>26</v>
       </c>
       <c r="B149" s="12"/>
@@ -4848,7 +4842,7 @@
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="18"/>
-      <c r="I149" s="52"/>
+      <c r="I149" s="51"/>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:9">
       <c r="A150" s="21" t="s">
@@ -4863,7 +4857,7 @@
         <v>34</v>
       </c>
       <c r="H150" s="21"/>
-      <c r="I150" s="52"/>
+      <c r="I150" s="51"/>
     </row>
     <row r="151" ht="18" customHeight="1" spans="1:9">
       <c r="A151" s="21" t="s">
@@ -4878,7 +4872,7 @@
         <v>36</v>
       </c>
       <c r="H151" s="21"/>
-      <c r="I151" s="52"/>
+      <c r="I151" s="51"/>
     </row>
     <row r="152" ht="18" customHeight="1" spans="1:9">
       <c r="A152" s="20" t="s">
@@ -4891,18 +4885,18 @@
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="52"/>
+      <c r="I152" s="51"/>
     </row>
     <row r="153" ht="18" customHeight="1" spans="1:9">
-      <c r="A153" s="52"/>
-      <c r="B153" s="52"/>
-      <c r="C153" s="52"/>
-      <c r="D153" s="52"/>
-      <c r="E153" s="52"/>
-      <c r="F153" s="52"/>
-      <c r="G153" s="52"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="52"/>
+      <c r="A153" s="51"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="51"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
     </row>
     <row r="154" ht="18" customHeight="1" spans="1:9">
       <c r="A154" s="19"/>
@@ -4915,7 +4909,7 @@
         <v>88</v>
       </c>
       <c r="H154" s="20"/>
-      <c r="I154" s="52"/>
+      <c r="I154" s="51"/>
     </row>
     <row r="155" ht="18" customHeight="1" spans="1:9">
       <c r="A155" s="19"/>
@@ -4928,7 +4922,7 @@
         <v>89</v>
       </c>
       <c r="H155" s="21"/>
-      <c r="I155" s="52"/>
+      <c r="I155" s="51"/>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:9">
       <c r="A156" s="22" t="s">
@@ -4941,7 +4935,7 @@
       <c r="F156" s="22"/>
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
-      <c r="I156" s="52"/>
+      <c r="I156" s="51"/>
     </row>
     <row r="157" ht="18" customHeight="1" spans="1:9">
       <c r="A157" s="23" t="s">
@@ -4954,7 +4948,7 @@
       <c r="F157" s="22"/>
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
-      <c r="I157" s="52"/>
+      <c r="I157" s="51"/>
     </row>
     <row r="158" ht="18" customHeight="1" spans="1:9">
       <c r="A158" s="21" t="s">
@@ -4967,7 +4961,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
       <c r="H158" s="21"/>
-      <c r="I158" s="52"/>
+      <c r="I158" s="51"/>
     </row>
     <row r="159" ht="18" customHeight="1" spans="1:9">
       <c r="A159" s="21" t="s">
@@ -4982,7 +4976,7 @@
       </c>
       <c r="G159" s="21"/>
       <c r="H159" s="21"/>
-      <c r="I159" s="52"/>
+      <c r="I159" s="51"/>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:9">
       <c r="A160" s="21" t="s">
@@ -4997,7 +4991,7 @@
       </c>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
-      <c r="I160" s="52"/>
+      <c r="I160" s="51"/>
     </row>
     <row r="161" ht="18" customHeight="1" spans="1:9">
       <c r="A161" s="6" t="s">
@@ -5024,13 +5018,13 @@
       <c r="H161" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I161" s="52"/>
+      <c r="I161" s="51"/>
     </row>
     <row r="162" ht="18" customHeight="1" spans="1:9">
-      <c r="A162" s="53">
-        <v>1</v>
-      </c>
-      <c r="B162" s="46" t="s">
+      <c r="A162" s="52">
+        <v>1</v>
+      </c>
+      <c r="B162" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C162" s="12" t="s">
@@ -5047,13 +5041,13 @@
       </c>
       <c r="G162" s="12"/>
       <c r="H162" s="18"/>
-      <c r="I162" s="52"/>
+      <c r="I162" s="51"/>
     </row>
     <row r="163" ht="18" customHeight="1" spans="1:9">
-      <c r="A163" s="53">
+      <c r="A163" s="52">
         <v>2</v>
       </c>
-      <c r="B163" s="47"/>
+      <c r="B163" s="46"/>
       <c r="C163" s="12" t="s">
         <v>92</v>
       </c>
@@ -5068,13 +5062,13 @@
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="18"/>
-      <c r="I163" s="52"/>
+      <c r="I163" s="51"/>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:9">
-      <c r="A164" s="53">
+      <c r="A164" s="52">
         <v>3</v>
       </c>
-      <c r="B164" s="46" t="s">
+      <c r="B164" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C164" s="12" t="s">
@@ -5091,13 +5085,13 @@
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="18"/>
-      <c r="I164" s="52"/>
+      <c r="I164" s="51"/>
     </row>
     <row r="165" ht="18" customHeight="1" spans="1:9">
-      <c r="A165" s="53">
+      <c r="A165" s="52">
         <v>4</v>
       </c>
-      <c r="B165" s="50"/>
+      <c r="B165" s="49"/>
       <c r="C165" s="12" t="s">
         <v>94</v>
       </c>
@@ -5112,13 +5106,13 @@
       </c>
       <c r="G165" s="12"/>
       <c r="H165" s="18"/>
-      <c r="I165" s="52"/>
+      <c r="I165" s="51"/>
     </row>
     <row r="166" ht="18" customHeight="1" spans="1:9">
-      <c r="A166" s="53">
+      <c r="A166" s="52">
         <v>5</v>
       </c>
-      <c r="B166" s="50"/>
+      <c r="B166" s="49"/>
       <c r="C166" s="12" t="s">
         <v>96</v>
       </c>
@@ -5133,13 +5127,13 @@
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="18"/>
-      <c r="I166" s="52"/>
+      <c r="I166" s="51"/>
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:9">
-      <c r="A167" s="53">
+      <c r="A167" s="52">
         <v>6</v>
       </c>
-      <c r="B167" s="50"/>
+      <c r="B167" s="49"/>
       <c r="C167" s="12" t="s">
         <v>97</v>
       </c>
@@ -5154,13 +5148,13 @@
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="18"/>
-      <c r="I167" s="52"/>
+      <c r="I167" s="51"/>
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:9">
-      <c r="A168" s="53">
+      <c r="A168" s="52">
         <v>7</v>
       </c>
-      <c r="B168" s="50"/>
+      <c r="B168" s="49"/>
       <c r="C168" s="12" t="s">
         <v>98</v>
       </c>
@@ -5175,13 +5169,13 @@
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="18"/>
-      <c r="I168" s="52"/>
+      <c r="I168" s="51"/>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:9">
-      <c r="A169" s="53">
+      <c r="A169" s="52">
         <v>8</v>
       </c>
-      <c r="B169" s="50"/>
+      <c r="B169" s="49"/>
       <c r="C169" s="12" t="s">
         <v>99</v>
       </c>
@@ -5196,13 +5190,13 @@
       </c>
       <c r="G169" s="12"/>
       <c r="H169" s="18"/>
-      <c r="I169" s="52"/>
+      <c r="I169" s="51"/>
     </row>
     <row r="170" ht="18" customHeight="1" spans="1:9">
-      <c r="A170" s="53">
+      <c r="A170" s="52">
         <v>9</v>
       </c>
-      <c r="B170" s="50"/>
+      <c r="B170" s="49"/>
       <c r="C170" s="12" t="s">
         <v>100</v>
       </c>
@@ -5217,13 +5211,13 @@
       </c>
       <c r="G170" s="12"/>
       <c r="H170" s="18"/>
-      <c r="I170" s="52"/>
+      <c r="I170" s="51"/>
     </row>
     <row r="171" ht="18" customHeight="1" spans="1:9">
-      <c r="A171" s="53">
+      <c r="A171" s="52">
         <v>10</v>
       </c>
-      <c r="B171" s="50"/>
+      <c r="B171" s="49"/>
       <c r="C171" s="12" t="s">
         <v>101</v>
       </c>
@@ -5238,17 +5232,17 @@
       </c>
       <c r="G171" s="12"/>
       <c r="H171" s="18"/>
-      <c r="I171" s="52"/>
+      <c r="I171" s="51"/>
     </row>
     <row r="172" ht="18" customHeight="1" spans="1:9">
-      <c r="A172" s="53">
+      <c r="A172" s="52">
         <v>11</v>
       </c>
-      <c r="B172" s="50"/>
+      <c r="B172" s="49"/>
       <c r="C172" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D172" s="51" t="s">
+      <c r="D172" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E172" s="12" t="s">
@@ -5259,17 +5253,17 @@
       </c>
       <c r="G172" s="12"/>
       <c r="H172" s="18"/>
-      <c r="I172" s="52"/>
+      <c r="I172" s="51"/>
     </row>
     <row r="173" ht="18" customHeight="1" spans="1:9">
-      <c r="A173" s="53">
+      <c r="A173" s="52">
         <v>12</v>
       </c>
-      <c r="B173" s="50"/>
+      <c r="B173" s="49"/>
       <c r="C173" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D173" s="51" t="s">
+      <c r="D173" s="50" t="s">
         <v>95</v>
       </c>
       <c r="E173" s="12" t="s">
@@ -5280,17 +5274,17 @@
       </c>
       <c r="G173" s="12"/>
       <c r="H173" s="18"/>
-      <c r="I173" s="52"/>
+      <c r="I173" s="51"/>
     </row>
     <row r="174" ht="18" customHeight="1" spans="1:9">
-      <c r="A174" s="53">
+      <c r="A174" s="52">
         <v>13</v>
       </c>
-      <c r="B174" s="50"/>
+      <c r="B174" s="49"/>
       <c r="C174" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D174" s="51" t="s">
+      <c r="D174" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E174" s="12" t="s">
@@ -5301,17 +5295,17 @@
       </c>
       <c r="G174" s="12"/>
       <c r="H174" s="18"/>
-      <c r="I174" s="52"/>
+      <c r="I174" s="51"/>
     </row>
     <row r="175" ht="18" customHeight="1" spans="1:9">
-      <c r="A175" s="53">
+      <c r="A175" s="52">
         <v>14</v>
       </c>
-      <c r="B175" s="50"/>
+      <c r="B175" s="49"/>
       <c r="C175" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D175" s="51" t="s">
+      <c r="D175" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E175" s="12" t="s">
@@ -5322,17 +5316,17 @@
       </c>
       <c r="G175" s="12"/>
       <c r="H175" s="18"/>
-      <c r="I175" s="52"/>
+      <c r="I175" s="51"/>
     </row>
     <row r="176" ht="18" customHeight="1" spans="1:9">
-      <c r="A176" s="53">
+      <c r="A176" s="52">
         <v>15</v>
       </c>
-      <c r="B176" s="50"/>
+      <c r="B176" s="49"/>
       <c r="C176" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D176" s="51" t="s">
+      <c r="D176" s="50" t="s">
         <v>95</v>
       </c>
       <c r="E176" s="12" t="s">
@@ -5343,13 +5337,13 @@
       </c>
       <c r="G176" s="12"/>
       <c r="H176" s="18"/>
-      <c r="I176" s="52"/>
+      <c r="I176" s="51"/>
     </row>
     <row r="177" ht="18" customHeight="1" spans="1:9">
-      <c r="A177" s="53">
+      <c r="A177" s="52">
         <v>16</v>
       </c>
-      <c r="B177" s="50"/>
+      <c r="B177" s="49"/>
       <c r="C177" s="12" t="s">
         <v>107</v>
       </c>
@@ -5364,13 +5358,13 @@
       </c>
       <c r="G177" s="12"/>
       <c r="H177" s="18"/>
-      <c r="I177" s="52"/>
+      <c r="I177" s="51"/>
     </row>
     <row r="178" ht="18" customHeight="1" spans="1:9">
-      <c r="A178" s="53">
+      <c r="A178" s="52">
         <v>17</v>
       </c>
-      <c r="B178" s="50"/>
+      <c r="B178" s="49"/>
       <c r="C178" s="12" t="s">
         <v>108</v>
       </c>
@@ -5385,13 +5379,13 @@
       </c>
       <c r="G178" s="12"/>
       <c r="H178" s="18"/>
-      <c r="I178" s="52"/>
+      <c r="I178" s="51"/>
     </row>
     <row r="179" ht="18" customHeight="1" spans="1:9">
-      <c r="A179" s="53">
+      <c r="A179" s="52">
         <v>18</v>
       </c>
-      <c r="B179" s="50"/>
+      <c r="B179" s="49"/>
       <c r="C179" s="12" t="s">
         <v>109</v>
       </c>
@@ -5406,13 +5400,13 @@
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="18"/>
-      <c r="I179" s="52"/>
+      <c r="I179" s="51"/>
     </row>
     <row r="180" ht="18" customHeight="1" spans="1:9">
-      <c r="A180" s="53">
+      <c r="A180" s="52">
         <v>19</v>
       </c>
-      <c r="B180" s="47"/>
+      <c r="B180" s="46"/>
       <c r="C180" s="12" t="s">
         <v>110</v>
       </c>
@@ -5427,10 +5421,10 @@
       </c>
       <c r="G180" s="12"/>
       <c r="H180" s="18"/>
-      <c r="I180" s="52"/>
+      <c r="I180" s="51"/>
     </row>
     <row r="181" ht="18" customHeight="1" spans="1:9">
-      <c r="A181" s="53">
+      <c r="A181" s="52">
         <v>20</v>
       </c>
       <c r="B181" s="12" t="s">
@@ -5450,10 +5444,10 @@
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="18"/>
-      <c r="I181" s="52"/>
+      <c r="I181" s="51"/>
     </row>
     <row r="182" ht="18" customHeight="1" spans="1:9">
-      <c r="A182" s="53">
+      <c r="A182" s="52">
         <v>21</v>
       </c>
       <c r="B182" s="12"/>
@@ -5463,10 +5457,10 @@
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="18"/>
-      <c r="I182" s="52"/>
+      <c r="I182" s="51"/>
     </row>
     <row r="183" ht="18" customHeight="1" spans="1:9">
-      <c r="A183" s="53">
+      <c r="A183" s="52">
         <v>22</v>
       </c>
       <c r="B183" s="12"/>
@@ -5476,10 +5470,10 @@
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="18"/>
-      <c r="I183" s="52"/>
+      <c r="I183" s="51"/>
     </row>
     <row r="184" ht="18" customHeight="1" spans="1:9">
-      <c r="A184" s="53">
+      <c r="A184" s="52">
         <v>23</v>
       </c>
       <c r="B184" s="12"/>
@@ -5489,10 +5483,10 @@
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="18"/>
-      <c r="I184" s="52"/>
+      <c r="I184" s="51"/>
     </row>
     <row r="185" ht="18" customHeight="1" spans="1:9">
-      <c r="A185" s="53">
+      <c r="A185" s="52">
         <v>24</v>
       </c>
       <c r="B185" s="12"/>
@@ -5502,10 +5496,10 @@
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="18"/>
-      <c r="I185" s="52"/>
+      <c r="I185" s="51"/>
     </row>
     <row r="186" ht="18" customHeight="1" spans="1:9">
-      <c r="A186" s="53">
+      <c r="A186" s="52">
         <v>25</v>
       </c>
       <c r="B186" s="12"/>
@@ -5515,10 +5509,10 @@
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="18"/>
-      <c r="I186" s="52"/>
+      <c r="I186" s="51"/>
     </row>
     <row r="187" ht="18" customHeight="1" spans="1:9">
-      <c r="A187" s="53">
+      <c r="A187" s="52">
         <v>26</v>
       </c>
       <c r="B187" s="12"/>
@@ -5528,7 +5522,7 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="18"/>
-      <c r="I187" s="52"/>
+      <c r="I187" s="51"/>
     </row>
     <row r="188" ht="18" customHeight="1" spans="1:9">
       <c r="A188" s="21" t="s">
@@ -5543,7 +5537,7 @@
         <v>34</v>
       </c>
       <c r="H188" s="21"/>
-      <c r="I188" s="52"/>
+      <c r="I188" s="51"/>
     </row>
     <row r="189" ht="18" customHeight="1" spans="1:9">
       <c r="A189" s="21" t="s">
@@ -5558,7 +5552,7 @@
         <v>36</v>
       </c>
       <c r="H189" s="21"/>
-      <c r="I189" s="52"/>
+      <c r="I189" s="51"/>
     </row>
     <row r="190" ht="18" customHeight="1" spans="1:9">
       <c r="A190" s="20" t="s">
@@ -5571,18 +5565,18 @@
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
       <c r="H190" s="19"/>
-      <c r="I190" s="52"/>
+      <c r="I190" s="51"/>
     </row>
     <row r="191" ht="18" customHeight="1" spans="1:9">
-      <c r="A191" s="52"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="52"/>
-      <c r="D191" s="52"/>
-      <c r="E191" s="52"/>
-      <c r="F191" s="52"/>
-      <c r="G191" s="52"/>
-      <c r="H191" s="52"/>
-      <c r="I191" s="52"/>
+      <c r="A191" s="51"/>
+      <c r="B191" s="51"/>
+      <c r="C191" s="51"/>
+      <c r="D191" s="51"/>
+      <c r="E191" s="51"/>
+      <c r="F191" s="51"/>
+      <c r="G191" s="51"/>
+      <c r="H191" s="51"/>
+      <c r="I191" s="51"/>
     </row>
     <row r="192" ht="18" customHeight="1" spans="1:9">
       <c r="A192" s="19"/>
@@ -5595,7 +5589,7 @@
         <v>112</v>
       </c>
       <c r="H192" s="20"/>
-      <c r="I192" s="52"/>
+      <c r="I192" s="51"/>
     </row>
     <row r="193" ht="18" customHeight="1" spans="1:9">
       <c r="A193" s="19"/>
@@ -5608,7 +5602,7 @@
         <v>113</v>
       </c>
       <c r="H193" s="21"/>
-      <c r="I193" s="52"/>
+      <c r="I193" s="51"/>
     </row>
     <row r="194" ht="18" customHeight="1" spans="1:9">
       <c r="A194" s="22" t="s">
@@ -5621,7 +5615,7 @@
       <c r="F194" s="22"/>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
-      <c r="I194" s="52"/>
+      <c r="I194" s="51"/>
     </row>
     <row r="195" ht="18" customHeight="1" spans="1:9">
       <c r="A195" s="23" t="s">
@@ -5634,7 +5628,7 @@
       <c r="F195" s="22"/>
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
-      <c r="I195" s="52"/>
+      <c r="I195" s="51"/>
     </row>
     <row r="196" ht="18" customHeight="1" spans="1:9">
       <c r="A196" s="21" t="s">
@@ -5647,7 +5641,7 @@
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
-      <c r="I196" s="52"/>
+      <c r="I196" s="51"/>
     </row>
     <row r="197" ht="18" customHeight="1" spans="1:9">
       <c r="A197" s="21" t="s">
@@ -5662,7 +5656,7 @@
       </c>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
-      <c r="I197" s="52"/>
+      <c r="I197" s="51"/>
     </row>
     <row r="198" ht="18" customHeight="1" spans="1:9">
       <c r="A198" s="21" t="s">
@@ -5677,7 +5671,7 @@
       </c>
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
-      <c r="I198" s="52"/>
+      <c r="I198" s="51"/>
     </row>
     <row r="199" ht="18" customHeight="1" spans="1:9">
       <c r="A199" s="6" t="s">
@@ -5704,13 +5698,13 @@
       <c r="H199" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I199" s="52"/>
+      <c r="I199" s="51"/>
     </row>
     <row r="200" ht="18" customHeight="1" spans="1:9">
-      <c r="A200" s="53">
-        <v>1</v>
-      </c>
-      <c r="B200" s="46" t="s">
+      <c r="A200" s="52">
+        <v>1</v>
+      </c>
+      <c r="B200" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C200" s="12" t="s">
@@ -5727,13 +5721,13 @@
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="18"/>
-      <c r="I200" s="52"/>
+      <c r="I200" s="51"/>
     </row>
     <row r="201" ht="18" customHeight="1" spans="1:9">
-      <c r="A201" s="53">
+      <c r="A201" s="52">
         <v>2</v>
       </c>
-      <c r="B201" s="50"/>
+      <c r="B201" s="49"/>
       <c r="C201" s="12" t="s">
         <v>117</v>
       </c>
@@ -5748,13 +5742,13 @@
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="18"/>
-      <c r="I201" s="52"/>
+      <c r="I201" s="51"/>
     </row>
     <row r="202" ht="18" customHeight="1" spans="1:9">
-      <c r="A202" s="53">
+      <c r="A202" s="52">
         <v>3</v>
       </c>
-      <c r="B202" s="47"/>
+      <c r="B202" s="46"/>
       <c r="C202" s="12" t="s">
         <v>91</v>
       </c>
@@ -5769,13 +5763,13 @@
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="18"/>
-      <c r="I202" s="52"/>
+      <c r="I202" s="51"/>
     </row>
     <row r="203" ht="18" customHeight="1" spans="1:9">
-      <c r="A203" s="53">
+      <c r="A203" s="52">
         <v>4</v>
       </c>
-      <c r="B203" s="46" t="s">
+      <c r="B203" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C203" s="12" t="s">
@@ -5792,13 +5786,13 @@
       </c>
       <c r="G203" s="12"/>
       <c r="H203" s="18"/>
-      <c r="I203" s="52"/>
+      <c r="I203" s="51"/>
     </row>
     <row r="204" ht="18" customHeight="1" spans="1:9">
-      <c r="A204" s="53">
+      <c r="A204" s="52">
         <v>5</v>
       </c>
-      <c r="B204" s="50"/>
+      <c r="B204" s="49"/>
       <c r="C204" s="12" t="s">
         <v>119</v>
       </c>
@@ -5813,13 +5807,13 @@
       </c>
       <c r="G204" s="12"/>
       <c r="H204" s="18"/>
-      <c r="I204" s="52"/>
+      <c r="I204" s="51"/>
     </row>
     <row r="205" ht="18" customHeight="1" spans="1:9">
-      <c r="A205" s="53">
+      <c r="A205" s="52">
         <v>6</v>
       </c>
-      <c r="B205" s="50"/>
+      <c r="B205" s="49"/>
       <c r="C205" s="12" t="s">
         <v>120</v>
       </c>
@@ -5834,13 +5828,13 @@
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="18"/>
-      <c r="I205" s="52"/>
+      <c r="I205" s="51"/>
     </row>
     <row r="206" ht="18" customHeight="1" spans="1:9">
-      <c r="A206" s="53">
+      <c r="A206" s="52">
         <v>7</v>
       </c>
-      <c r="B206" s="50"/>
+      <c r="B206" s="49"/>
       <c r="C206" s="12" t="s">
         <v>121</v>
       </c>
@@ -5855,13 +5849,13 @@
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="18"/>
-      <c r="I206" s="52"/>
+      <c r="I206" s="51"/>
     </row>
     <row r="207" ht="18" customHeight="1" spans="1:9">
-      <c r="A207" s="53">
+      <c r="A207" s="52">
         <v>8</v>
       </c>
-      <c r="B207" s="50"/>
+      <c r="B207" s="49"/>
       <c r="C207" s="12" t="s">
         <v>122</v>
       </c>
@@ -5876,13 +5870,13 @@
       </c>
       <c r="G207" s="12"/>
       <c r="H207" s="18"/>
-      <c r="I207" s="52"/>
+      <c r="I207" s="51"/>
     </row>
     <row r="208" ht="18" customHeight="1" spans="1:9">
-      <c r="A208" s="53">
+      <c r="A208" s="52">
         <v>9</v>
       </c>
-      <c r="B208" s="50"/>
+      <c r="B208" s="49"/>
       <c r="C208" s="12" t="s">
         <v>123</v>
       </c>
@@ -5897,13 +5891,13 @@
       </c>
       <c r="G208" s="12"/>
       <c r="H208" s="18"/>
-      <c r="I208" s="52"/>
+      <c r="I208" s="51"/>
     </row>
     <row r="209" ht="18" customHeight="1" spans="1:9">
-      <c r="A209" s="53">
+      <c r="A209" s="52">
         <v>10</v>
       </c>
-      <c r="B209" s="50"/>
+      <c r="B209" s="49"/>
       <c r="C209" s="12" t="s">
         <v>124</v>
       </c>
@@ -5918,13 +5912,13 @@
       </c>
       <c r="G209" s="12"/>
       <c r="H209" s="18"/>
-      <c r="I209" s="52"/>
+      <c r="I209" s="51"/>
     </row>
     <row r="210" ht="18" customHeight="1" spans="1:9">
-      <c r="A210" s="53">
+      <c r="A210" s="52">
         <v>11</v>
       </c>
-      <c r="B210" s="50"/>
+      <c r="B210" s="49"/>
       <c r="C210" s="12" t="s">
         <v>125</v>
       </c>
@@ -5939,13 +5933,13 @@
       </c>
       <c r="G210" s="12"/>
       <c r="H210" s="18"/>
-      <c r="I210" s="52"/>
+      <c r="I210" s="51"/>
     </row>
     <row r="211" ht="18" customHeight="1" spans="1:9">
-      <c r="A211" s="53">
+      <c r="A211" s="52">
         <v>12</v>
       </c>
-      <c r="B211" s="50"/>
+      <c r="B211" s="49"/>
       <c r="C211" s="12" t="s">
         <v>126</v>
       </c>
@@ -5960,13 +5954,13 @@
       </c>
       <c r="G211" s="12"/>
       <c r="H211" s="18"/>
-      <c r="I211" s="52"/>
+      <c r="I211" s="51"/>
     </row>
     <row r="212" ht="18" customHeight="1" spans="1:9">
-      <c r="A212" s="53">
+      <c r="A212" s="52">
         <v>13</v>
       </c>
-      <c r="B212" s="50"/>
+      <c r="B212" s="49"/>
       <c r="C212" s="12" t="s">
         <v>127</v>
       </c>
@@ -5981,13 +5975,13 @@
       </c>
       <c r="G212" s="12"/>
       <c r="H212" s="18"/>
-      <c r="I212" s="52"/>
+      <c r="I212" s="51"/>
     </row>
     <row r="213" ht="18" customHeight="1" spans="1:9">
-      <c r="A213" s="53">
+      <c r="A213" s="52">
         <v>14</v>
       </c>
-      <c r="B213" s="50"/>
+      <c r="B213" s="49"/>
       <c r="C213" s="12" t="s">
         <v>128</v>
       </c>
@@ -6002,13 +5996,13 @@
       </c>
       <c r="G213" s="12"/>
       <c r="H213" s="18"/>
-      <c r="I213" s="52"/>
+      <c r="I213" s="51"/>
     </row>
     <row r="214" ht="18" customHeight="1" spans="1:9">
-      <c r="A214" s="53">
+      <c r="A214" s="52">
         <v>15</v>
       </c>
-      <c r="B214" s="50"/>
+      <c r="B214" s="49"/>
       <c r="C214" s="12" t="s">
         <v>129</v>
       </c>
@@ -6023,13 +6017,13 @@
       </c>
       <c r="G214" s="12"/>
       <c r="H214" s="18"/>
-      <c r="I214" s="52"/>
+      <c r="I214" s="51"/>
     </row>
     <row r="215" ht="18" customHeight="1" spans="1:9">
-      <c r="A215" s="53">
+      <c r="A215" s="52">
         <v>16</v>
       </c>
-      <c r="B215" s="50"/>
+      <c r="B215" s="49"/>
       <c r="C215" s="12" t="s">
         <v>130</v>
       </c>
@@ -6044,13 +6038,13 @@
       </c>
       <c r="G215" s="12"/>
       <c r="H215" s="18"/>
-      <c r="I215" s="52"/>
+      <c r="I215" s="51"/>
     </row>
     <row r="216" ht="18" customHeight="1" spans="1:9">
-      <c r="A216" s="53">
+      <c r="A216" s="52">
         <v>17</v>
       </c>
-      <c r="B216" s="50"/>
+      <c r="B216" s="49"/>
       <c r="C216" s="12" t="s">
         <v>131</v>
       </c>
@@ -6065,13 +6059,13 @@
       </c>
       <c r="G216" s="12"/>
       <c r="H216" s="18"/>
-      <c r="I216" s="52"/>
+      <c r="I216" s="51"/>
     </row>
     <row r="217" ht="18" customHeight="1" spans="1:9">
-      <c r="A217" s="53">
+      <c r="A217" s="52">
         <v>18</v>
       </c>
-      <c r="B217" s="50"/>
+      <c r="B217" s="49"/>
       <c r="C217" s="12" t="s">
         <v>132</v>
       </c>
@@ -6086,13 +6080,13 @@
       </c>
       <c r="G217" s="12"/>
       <c r="H217" s="18"/>
-      <c r="I217" s="52"/>
+      <c r="I217" s="51"/>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:9">
-      <c r="A218" s="53">
+      <c r="A218" s="52">
         <v>19</v>
       </c>
-      <c r="B218" s="50"/>
+      <c r="B218" s="49"/>
       <c r="C218" s="12" t="s">
         <v>133</v>
       </c>
@@ -6107,13 +6101,13 @@
       </c>
       <c r="G218" s="12"/>
       <c r="H218" s="18"/>
-      <c r="I218" s="52"/>
+      <c r="I218" s="51"/>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:9">
-      <c r="A219" s="53">
+      <c r="A219" s="52">
         <v>20</v>
       </c>
-      <c r="B219" s="50"/>
+      <c r="B219" s="49"/>
       <c r="C219" s="12" t="s">
         <v>134</v>
       </c>
@@ -6128,13 +6122,13 @@
       </c>
       <c r="G219" s="12"/>
       <c r="H219" s="18"/>
-      <c r="I219" s="52"/>
+      <c r="I219" s="51"/>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:9">
-      <c r="A220" s="53">
+      <c r="A220" s="52">
         <v>21</v>
       </c>
-      <c r="B220" s="50"/>
+      <c r="B220" s="49"/>
       <c r="C220" s="12" t="s">
         <v>135</v>
       </c>
@@ -6149,13 +6143,13 @@
       </c>
       <c r="G220" s="12"/>
       <c r="H220" s="18"/>
-      <c r="I220" s="52"/>
+      <c r="I220" s="51"/>
     </row>
     <row r="221" ht="18" customHeight="1" spans="1:9">
-      <c r="A221" s="53">
+      <c r="A221" s="52">
         <v>22</v>
       </c>
-      <c r="B221" s="50"/>
+      <c r="B221" s="49"/>
       <c r="C221" s="12" t="s">
         <v>136</v>
       </c>
@@ -6170,13 +6164,13 @@
       </c>
       <c r="G221" s="12"/>
       <c r="H221" s="18"/>
-      <c r="I221" s="52"/>
+      <c r="I221" s="51"/>
     </row>
     <row r="222" ht="18" customHeight="1" spans="1:9">
-      <c r="A222" s="53">
+      <c r="A222" s="52">
         <v>23</v>
       </c>
-      <c r="B222" s="50"/>
+      <c r="B222" s="49"/>
       <c r="C222" s="12" t="s">
         <v>137</v>
       </c>
@@ -6191,13 +6185,13 @@
       </c>
       <c r="G222" s="12"/>
       <c r="H222" s="18"/>
-      <c r="I222" s="52"/>
+      <c r="I222" s="51"/>
     </row>
     <row r="223" ht="18" customHeight="1" spans="1:9">
-      <c r="A223" s="53">
+      <c r="A223" s="52">
         <v>24</v>
       </c>
-      <c r="B223" s="50"/>
+      <c r="B223" s="49"/>
       <c r="C223" s="12" t="s">
         <v>138</v>
       </c>
@@ -6212,13 +6206,13 @@
       </c>
       <c r="G223" s="12"/>
       <c r="H223" s="18"/>
-      <c r="I223" s="52"/>
+      <c r="I223" s="51"/>
     </row>
     <row r="224" ht="18" customHeight="1" spans="1:9">
-      <c r="A224" s="53">
+      <c r="A224" s="52">
         <v>25</v>
       </c>
-      <c r="B224" s="50"/>
+      <c r="B224" s="49"/>
       <c r="C224" s="12" t="s">
         <v>139</v>
       </c>
@@ -6233,13 +6227,13 @@
       </c>
       <c r="G224" s="12"/>
       <c r="H224" s="18"/>
-      <c r="I224" s="52"/>
+      <c r="I224" s="51"/>
     </row>
     <row r="225" ht="18" customHeight="1" spans="1:9">
-      <c r="A225" s="53">
+      <c r="A225" s="52">
         <v>26</v>
       </c>
-      <c r="B225" s="50"/>
+      <c r="B225" s="49"/>
       <c r="C225" s="12" t="s">
         <v>140</v>
       </c>
@@ -6254,13 +6248,13 @@
       </c>
       <c r="G225" s="12"/>
       <c r="H225" s="18"/>
-      <c r="I225" s="52"/>
+      <c r="I225" s="51"/>
     </row>
     <row r="226" ht="18" customHeight="1" spans="1:9">
-      <c r="A226" s="53">
+      <c r="A226" s="52">
         <v>27</v>
       </c>
-      <c r="B226" s="50"/>
+      <c r="B226" s="49"/>
       <c r="C226" s="12" t="s">
         <v>141</v>
       </c>
@@ -6275,13 +6269,13 @@
       </c>
       <c r="G226" s="12"/>
       <c r="H226" s="18"/>
-      <c r="I226" s="52"/>
+      <c r="I226" s="51"/>
     </row>
     <row r="227" ht="18" customHeight="1" spans="1:9">
-      <c r="A227" s="53">
+      <c r="A227" s="52">
         <v>28</v>
       </c>
-      <c r="B227" s="50"/>
+      <c r="B227" s="49"/>
       <c r="C227" s="12" t="s">
         <v>142</v>
       </c>
@@ -6296,13 +6290,13 @@
       </c>
       <c r="G227" s="12"/>
       <c r="H227" s="18"/>
-      <c r="I227" s="52"/>
+      <c r="I227" s="51"/>
     </row>
     <row r="228" ht="18" customHeight="1" spans="1:9">
-      <c r="A228" s="53">
+      <c r="A228" s="52">
         <v>29</v>
       </c>
-      <c r="B228" s="47"/>
+      <c r="B228" s="46"/>
       <c r="C228" s="12" t="s">
         <v>143</v>
       </c>
@@ -6317,7 +6311,7 @@
       </c>
       <c r="G228" s="12"/>
       <c r="H228" s="18"/>
-      <c r="I228" s="52"/>
+      <c r="I228" s="51"/>
     </row>
     <row r="229" ht="18" customHeight="1" spans="1:9">
       <c r="A229" s="21" t="s">
@@ -6332,7 +6326,7 @@
         <v>34</v>
       </c>
       <c r="H229" s="21"/>
-      <c r="I229" s="52"/>
+      <c r="I229" s="51"/>
     </row>
     <row r="230" ht="18" customHeight="1" spans="1:9">
       <c r="A230" s="21" t="s">
@@ -6347,7 +6341,7 @@
         <v>36</v>
       </c>
       <c r="H230" s="21"/>
-      <c r="I230" s="52"/>
+      <c r="I230" s="51"/>
     </row>
     <row r="231" ht="18" customHeight="1" spans="1:9">
       <c r="A231" s="20" t="s">
@@ -6360,18 +6354,18 @@
       <c r="F231" s="19"/>
       <c r="G231" s="19"/>
       <c r="H231" s="19"/>
-      <c r="I231" s="52"/>
+      <c r="I231" s="51"/>
     </row>
     <row r="232" ht="18" customHeight="1" spans="1:9">
-      <c r="A232" s="52"/>
-      <c r="B232" s="52"/>
-      <c r="C232" s="52"/>
-      <c r="D232" s="52"/>
-      <c r="E232" s="52"/>
-      <c r="F232" s="52"/>
-      <c r="G232" s="52"/>
-      <c r="H232" s="52"/>
-      <c r="I232" s="52"/>
+      <c r="A232" s="51"/>
+      <c r="B232" s="51"/>
+      <c r="C232" s="51"/>
+      <c r="D232" s="51"/>
+      <c r="E232" s="51"/>
+      <c r="F232" s="51"/>
+      <c r="G232" s="51"/>
+      <c r="H232" s="51"/>
+      <c r="I232" s="51"/>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:9">
       <c r="A233" s="19"/>
@@ -6384,7 +6378,7 @@
         <v>144</v>
       </c>
       <c r="H233" s="20"/>
-      <c r="I233" s="52"/>
+      <c r="I233" s="51"/>
     </row>
     <row r="234" ht="18" customHeight="1" spans="1:9">
       <c r="A234" s="19"/>
@@ -6397,7 +6391,7 @@
         <v>145</v>
       </c>
       <c r="H234" s="21"/>
-      <c r="I234" s="52"/>
+      <c r="I234" s="51"/>
     </row>
     <row r="235" ht="18" customHeight="1" spans="1:9">
       <c r="A235" s="22" t="s">
@@ -6410,7 +6404,7 @@
       <c r="F235" s="22"/>
       <c r="G235" s="22"/>
       <c r="H235" s="22"/>
-      <c r="I235" s="52"/>
+      <c r="I235" s="51"/>
     </row>
     <row r="236" ht="18" customHeight="1" spans="1:9">
       <c r="A236" s="23" t="s">
@@ -6423,7 +6417,7 @@
       <c r="F236" s="22"/>
       <c r="G236" s="22"/>
       <c r="H236" s="22"/>
-      <c r="I236" s="52"/>
+      <c r="I236" s="51"/>
     </row>
     <row r="237" ht="18" customHeight="1" spans="1:9">
       <c r="A237" s="21" t="s">
@@ -6436,7 +6430,7 @@
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
       <c r="H237" s="21"/>
-      <c r="I237" s="52"/>
+      <c r="I237" s="51"/>
     </row>
     <row r="238" ht="18" customHeight="1" spans="1:9">
       <c r="A238" s="21" t="s">
@@ -6451,7 +6445,7 @@
       </c>
       <c r="G238" s="21"/>
       <c r="H238" s="21"/>
-      <c r="I238" s="52"/>
+      <c r="I238" s="51"/>
     </row>
     <row r="239" ht="18" customHeight="1" spans="1:9">
       <c r="A239" s="21" t="s">
@@ -6466,7 +6460,7 @@
       </c>
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
-      <c r="I239" s="52"/>
+      <c r="I239" s="51"/>
     </row>
     <row r="240" ht="18" customHeight="1" spans="1:9">
       <c r="A240" s="6" t="s">
@@ -6493,13 +6487,13 @@
       <c r="H240" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I240" s="52"/>
+      <c r="I240" s="51"/>
     </row>
     <row r="241" ht="18" customHeight="1" spans="1:9">
-      <c r="A241" s="53">
-        <v>1</v>
-      </c>
-      <c r="B241" s="46" t="s">
+      <c r="A241" s="52">
+        <v>1</v>
+      </c>
+      <c r="B241" s="45" t="s">
         <v>146</v>
       </c>
       <c r="C241" s="12" t="s">
@@ -6516,14 +6510,14 @@
       </c>
       <c r="G241" s="12"/>
       <c r="H241" s="18"/>
-      <c r="I241" s="52"/>
+      <c r="I241" s="51"/>
     </row>
     <row r="242" ht="18" customHeight="1" spans="1:9">
-      <c r="A242" s="53">
+      <c r="A242" s="52">
         <v>2</v>
       </c>
-      <c r="B242" s="50"/>
-      <c r="C242" s="52" t="s">
+      <c r="B242" s="49"/>
+      <c r="C242" s="51" t="s">
         <v>148</v>
       </c>
       <c r="D242" s="12" t="s">
@@ -6537,13 +6531,13 @@
       </c>
       <c r="G242" s="12"/>
       <c r="H242" s="18"/>
-      <c r="I242" s="52"/>
+      <c r="I242" s="51"/>
     </row>
     <row r="243" ht="18" customHeight="1" spans="1:9">
-      <c r="A243" s="53">
+      <c r="A243" s="52">
         <v>3</v>
       </c>
-      <c r="B243" s="50"/>
+      <c r="B243" s="49"/>
       <c r="C243" s="12" t="s">
         <v>150</v>
       </c>
@@ -6558,13 +6552,13 @@
       </c>
       <c r="G243" s="12"/>
       <c r="H243" s="18"/>
-      <c r="I243" s="52"/>
+      <c r="I243" s="51"/>
     </row>
     <row r="244" ht="18" customHeight="1" spans="1:9">
-      <c r="A244" s="53">
+      <c r="A244" s="52">
         <v>4</v>
       </c>
-      <c r="B244" s="47"/>
+      <c r="B244" s="46"/>
       <c r="C244" s="12" t="s">
         <v>151</v>
       </c>
@@ -6579,16 +6573,16 @@
       </c>
       <c r="G244" s="12"/>
       <c r="H244" s="18"/>
-      <c r="I244" s="52"/>
+      <c r="I244" s="51"/>
     </row>
     <row r="245" ht="18" customHeight="1" spans="1:9">
-      <c r="A245" s="54">
+      <c r="A245" s="53">
         <v>5</v>
       </c>
       <c r="B245" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C245" s="55" t="s">
+      <c r="C245" s="54" t="s">
         <v>153</v>
       </c>
       <c r="D245" s="12" t="s">
@@ -6602,14 +6596,14 @@
       </c>
       <c r="G245" s="12"/>
       <c r="H245" s="18"/>
-      <c r="I245" s="52"/>
+      <c r="I245" s="51"/>
     </row>
     <row r="246" ht="18" customHeight="1" spans="1:9">
-      <c r="A246" s="54">
+      <c r="A246" s="53">
         <v>6</v>
       </c>
       <c r="B246" s="12"/>
-      <c r="C246" s="55" t="s">
+      <c r="C246" s="54" t="s">
         <v>154</v>
       </c>
       <c r="D246" s="12" t="s">
@@ -6623,14 +6617,14 @@
       </c>
       <c r="G246" s="12"/>
       <c r="H246" s="18"/>
-      <c r="I246" s="52"/>
+      <c r="I246" s="51"/>
     </row>
     <row r="247" ht="18" customHeight="1" spans="1:9">
-      <c r="A247" s="54">
+      <c r="A247" s="53">
         <v>7</v>
       </c>
       <c r="B247" s="12"/>
-      <c r="C247" s="55" t="s">
+      <c r="C247" s="54" t="s">
         <v>155</v>
       </c>
       <c r="D247" s="12" t="s">
@@ -6644,14 +6638,14 @@
       </c>
       <c r="G247" s="12"/>
       <c r="H247" s="18"/>
-      <c r="I247" s="52"/>
+      <c r="I247" s="51"/>
     </row>
     <row r="248" ht="18" customHeight="1" spans="1:9">
-      <c r="A248" s="54">
+      <c r="A248" s="53">
         <v>8</v>
       </c>
       <c r="B248" s="12"/>
-      <c r="C248" s="55" t="s">
+      <c r="C248" s="54" t="s">
         <v>156</v>
       </c>
       <c r="D248" s="12" t="s">
@@ -6665,14 +6659,14 @@
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="18"/>
-      <c r="I248" s="52"/>
+      <c r="I248" s="51"/>
     </row>
     <row r="249" ht="18" customHeight="1" spans="1:9">
-      <c r="A249" s="54">
+      <c r="A249" s="53">
         <v>9</v>
       </c>
       <c r="B249" s="12"/>
-      <c r="C249" s="55" t="s">
+      <c r="C249" s="54" t="s">
         <v>157</v>
       </c>
       <c r="D249" s="12" t="s">
@@ -6686,14 +6680,14 @@
       </c>
       <c r="G249" s="12"/>
       <c r="H249" s="18"/>
-      <c r="I249" s="52"/>
+      <c r="I249" s="51"/>
     </row>
     <row r="250" ht="18" customHeight="1" spans="1:9">
-      <c r="A250" s="54">
+      <c r="A250" s="53">
         <v>10</v>
       </c>
       <c r="B250" s="12"/>
-      <c r="C250" s="55" t="s">
+      <c r="C250" s="54" t="s">
         <v>158</v>
       </c>
       <c r="D250" s="12" t="s">
@@ -6707,14 +6701,14 @@
       </c>
       <c r="G250" s="12"/>
       <c r="H250" s="18"/>
-      <c r="I250" s="52"/>
+      <c r="I250" s="51"/>
     </row>
     <row r="251" ht="18" customHeight="1" spans="1:9">
-      <c r="A251" s="54">
+      <c r="A251" s="53">
         <v>11</v>
       </c>
       <c r="B251" s="12"/>
-      <c r="C251" s="55" t="s">
+      <c r="C251" s="54" t="s">
         <v>159</v>
       </c>
       <c r="D251" s="12" t="s">
@@ -6728,14 +6722,14 @@
       </c>
       <c r="G251" s="12"/>
       <c r="H251" s="18"/>
-      <c r="I251" s="52"/>
+      <c r="I251" s="51"/>
     </row>
     <row r="252" ht="18" customHeight="1" spans="1:9">
-      <c r="A252" s="54">
+      <c r="A252" s="53">
         <v>12</v>
       </c>
       <c r="B252" s="12"/>
-      <c r="C252" s="55" t="s">
+      <c r="C252" s="54" t="s">
         <v>160</v>
       </c>
       <c r="D252" s="12" t="s">
@@ -6749,14 +6743,14 @@
       </c>
       <c r="G252" s="12"/>
       <c r="H252" s="18"/>
-      <c r="I252" s="52"/>
+      <c r="I252" s="51"/>
     </row>
     <row r="253" ht="18" customHeight="1" spans="1:9">
-      <c r="A253" s="54">
+      <c r="A253" s="53">
         <v>13</v>
       </c>
       <c r="B253" s="12"/>
-      <c r="C253" s="55" t="s">
+      <c r="C253" s="54" t="s">
         <v>161</v>
       </c>
       <c r="D253" s="12" t="s">
@@ -6770,14 +6764,14 @@
       </c>
       <c r="G253" s="12"/>
       <c r="H253" s="18"/>
-      <c r="I253" s="52"/>
+      <c r="I253" s="51"/>
     </row>
     <row r="254" ht="18" customHeight="1" spans="1:9">
-      <c r="A254" s="54">
+      <c r="A254" s="53">
         <v>14</v>
       </c>
       <c r="B254" s="12"/>
-      <c r="C254" s="55" t="s">
+      <c r="C254" s="54" t="s">
         <v>162</v>
       </c>
       <c r="D254" s="12" t="s">
@@ -6791,14 +6785,14 @@
       </c>
       <c r="G254" s="12"/>
       <c r="H254" s="18"/>
-      <c r="I254" s="52"/>
+      <c r="I254" s="51"/>
     </row>
     <row r="255" ht="18" customHeight="1" spans="1:9">
-      <c r="A255" s="54">
+      <c r="A255" s="53">
         <v>15</v>
       </c>
       <c r="B255" s="12"/>
-      <c r="C255" s="55" t="s">
+      <c r="C255" s="54" t="s">
         <v>163</v>
       </c>
       <c r="D255" s="12" t="s">
@@ -6812,14 +6806,14 @@
       </c>
       <c r="G255" s="12"/>
       <c r="H255" s="18"/>
-      <c r="I255" s="52"/>
+      <c r="I255" s="51"/>
     </row>
     <row r="256" ht="18" customHeight="1" spans="1:9">
-      <c r="A256" s="54">
+      <c r="A256" s="53">
         <v>16</v>
       </c>
       <c r="B256" s="12"/>
-      <c r="C256" s="55" t="s">
+      <c r="C256" s="54" t="s">
         <v>164</v>
       </c>
       <c r="D256" s="12" t="s">
@@ -6833,14 +6827,14 @@
       </c>
       <c r="G256" s="12"/>
       <c r="H256" s="18"/>
-      <c r="I256" s="52"/>
+      <c r="I256" s="51"/>
     </row>
     <row r="257" ht="18" customHeight="1" spans="1:9">
-      <c r="A257" s="54">
+      <c r="A257" s="53">
         <v>17</v>
       </c>
       <c r="B257" s="12"/>
-      <c r="C257" s="55" t="s">
+      <c r="C257" s="54" t="s">
         <v>165</v>
       </c>
       <c r="D257" s="12" t="s">
@@ -6854,14 +6848,14 @@
       </c>
       <c r="G257" s="12"/>
       <c r="H257" s="18"/>
-      <c r="I257" s="52"/>
+      <c r="I257" s="51"/>
     </row>
     <row r="258" ht="18" customHeight="1" spans="1:9">
-      <c r="A258" s="54">
+      <c r="A258" s="53">
         <v>18</v>
       </c>
       <c r="B258" s="12"/>
-      <c r="C258" s="55" t="s">
+      <c r="C258" s="54" t="s">
         <v>102</v>
       </c>
       <c r="D258" s="12" t="s">
@@ -6875,14 +6869,14 @@
       </c>
       <c r="G258" s="12"/>
       <c r="H258" s="18"/>
-      <c r="I258" s="52"/>
+      <c r="I258" s="51"/>
     </row>
     <row r="259" ht="18" customHeight="1" spans="1:9">
-      <c r="A259" s="54">
+      <c r="A259" s="53">
         <v>19</v>
       </c>
       <c r="B259" s="12"/>
-      <c r="C259" s="55" t="s">
+      <c r="C259" s="54" t="s">
         <v>166</v>
       </c>
       <c r="D259" s="12" t="s">
@@ -6896,14 +6890,14 @@
       </c>
       <c r="G259" s="12"/>
       <c r="H259" s="18"/>
-      <c r="I259" s="52"/>
+      <c r="I259" s="51"/>
     </row>
     <row r="260" ht="18" customHeight="1" spans="1:9">
-      <c r="A260" s="54">
+      <c r="A260" s="53">
         <v>20</v>
       </c>
       <c r="B260" s="12"/>
-      <c r="C260" s="55" t="s">
+      <c r="C260" s="54" t="s">
         <v>140</v>
       </c>
       <c r="D260" s="12" t="s">
@@ -6917,14 +6911,14 @@
       </c>
       <c r="G260" s="12"/>
       <c r="H260" s="18"/>
-      <c r="I260" s="52"/>
+      <c r="I260" s="51"/>
     </row>
     <row r="261" ht="18" customHeight="1" spans="1:9">
-      <c r="A261" s="54">
+      <c r="A261" s="53">
         <v>21</v>
       </c>
       <c r="B261" s="12"/>
-      <c r="C261" s="55" t="s">
+      <c r="C261" s="54" t="s">
         <v>167</v>
       </c>
       <c r="D261" s="12" t="s">
@@ -6938,14 +6932,14 @@
       </c>
       <c r="G261" s="12"/>
       <c r="H261" s="18"/>
-      <c r="I261" s="52"/>
+      <c r="I261" s="51"/>
     </row>
     <row r="262" ht="18" customHeight="1" spans="1:9">
-      <c r="A262" s="54">
+      <c r="A262" s="53">
         <v>22</v>
       </c>
       <c r="B262" s="12"/>
-      <c r="C262" s="55" t="s">
+      <c r="C262" s="54" t="s">
         <v>168</v>
       </c>
       <c r="D262" s="12" t="s">
@@ -6959,14 +6953,14 @@
       </c>
       <c r="G262" s="12"/>
       <c r="H262" s="18"/>
-      <c r="I262" s="52"/>
+      <c r="I262" s="51"/>
     </row>
     <row r="263" ht="18" customHeight="1" spans="1:9">
-      <c r="A263" s="54">
+      <c r="A263" s="53">
         <v>23</v>
       </c>
       <c r="B263" s="12"/>
-      <c r="C263" s="55" t="s">
+      <c r="C263" s="54" t="s">
         <v>169</v>
       </c>
       <c r="D263" s="12" t="s">
@@ -6980,14 +6974,14 @@
       </c>
       <c r="G263" s="12"/>
       <c r="H263" s="18"/>
-      <c r="I263" s="52"/>
+      <c r="I263" s="51"/>
     </row>
     <row r="264" ht="18" customHeight="1" spans="1:9">
-      <c r="A264" s="54">
+      <c r="A264" s="53">
         <v>24</v>
       </c>
       <c r="B264" s="12"/>
-      <c r="C264" s="55" t="s">
+      <c r="C264" s="54" t="s">
         <v>170</v>
       </c>
       <c r="D264" s="12" t="s">
@@ -7001,14 +6995,14 @@
       </c>
       <c r="G264" s="12"/>
       <c r="H264" s="18"/>
-      <c r="I264" s="52"/>
+      <c r="I264" s="51"/>
     </row>
     <row r="265" ht="18" customHeight="1" spans="1:9">
-      <c r="A265" s="54">
+      <c r="A265" s="53">
         <v>25</v>
       </c>
       <c r="B265" s="12"/>
-      <c r="C265" s="55" t="s">
+      <c r="C265" s="54" t="s">
         <v>171</v>
       </c>
       <c r="D265" s="12" t="s">
@@ -7022,14 +7016,14 @@
       </c>
       <c r="G265" s="12"/>
       <c r="H265" s="18"/>
-      <c r="I265" s="52"/>
+      <c r="I265" s="51"/>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:9">
-      <c r="A266" s="54">
+      <c r="A266" s="53">
         <v>26</v>
       </c>
       <c r="B266" s="12"/>
-      <c r="C266" s="55" t="s">
+      <c r="C266" s="54" t="s">
         <v>172</v>
       </c>
       <c r="D266" s="12" t="s">
@@ -7043,14 +7037,14 @@
       </c>
       <c r="G266" s="12"/>
       <c r="H266" s="18"/>
-      <c r="I266" s="52"/>
+      <c r="I266" s="51"/>
     </row>
     <row r="267" ht="18" customHeight="1" spans="1:9">
-      <c r="A267" s="54">
+      <c r="A267" s="53">
         <v>27</v>
       </c>
       <c r="B267" s="12"/>
-      <c r="C267" s="55" t="s">
+      <c r="C267" s="54" t="s">
         <v>173</v>
       </c>
       <c r="D267" s="12" t="s">
@@ -7063,15 +7057,15 @@
         <v>1</v>
       </c>
       <c r="G267" s="12"/>
-      <c r="H267" s="56"/>
-      <c r="I267" s="52"/>
+      <c r="H267" s="55"/>
+      <c r="I267" s="51"/>
     </row>
     <row r="268" ht="18" customHeight="1" spans="1:9">
-      <c r="A268" s="54">
+      <c r="A268" s="53">
         <v>28</v>
       </c>
       <c r="B268" s="12"/>
-      <c r="C268" s="55" t="s">
+      <c r="C268" s="54" t="s">
         <v>174</v>
       </c>
       <c r="D268" s="12" t="s">
@@ -7084,15 +7078,15 @@
         <v>1</v>
       </c>
       <c r="G268" s="12"/>
-      <c r="H268" s="56"/>
-      <c r="I268" s="52"/>
+      <c r="H268" s="55"/>
+      <c r="I268" s="51"/>
     </row>
     <row r="269" ht="18" customHeight="1" spans="1:9">
-      <c r="A269" s="54">
+      <c r="A269" s="53">
         <v>29</v>
       </c>
       <c r="B269" s="12"/>
-      <c r="C269" s="55" t="s">
+      <c r="C269" s="54" t="s">
         <v>175</v>
       </c>
       <c r="D269" s="12" t="s">
@@ -7105,15 +7099,15 @@
         <v>1</v>
       </c>
       <c r="G269" s="12"/>
-      <c r="H269" s="56"/>
-      <c r="I269" s="52"/>
+      <c r="H269" s="55"/>
+      <c r="I269" s="51"/>
     </row>
     <row r="270" ht="18" customHeight="1" spans="1:9">
-      <c r="A270" s="54">
+      <c r="A270" s="53">
         <v>30</v>
       </c>
       <c r="B270" s="12"/>
-      <c r="C270" s="55" t="s">
+      <c r="C270" s="54" t="s">
         <v>176</v>
       </c>
       <c r="D270" s="12" t="s">
@@ -7126,15 +7120,15 @@
         <v>1</v>
       </c>
       <c r="G270" s="12"/>
-      <c r="H270" s="56"/>
-      <c r="I270" s="52"/>
+      <c r="H270" s="55"/>
+      <c r="I270" s="51"/>
     </row>
     <row r="271" ht="18" customHeight="1" spans="1:9">
-      <c r="A271" s="54">
+      <c r="A271" s="53">
         <v>31</v>
       </c>
       <c r="B271" s="12"/>
-      <c r="C271" s="55" t="s">
+      <c r="C271" s="54" t="s">
         <v>177</v>
       </c>
       <c r="D271" s="12" t="s">
@@ -7147,15 +7141,15 @@
         <v>1</v>
       </c>
       <c r="G271" s="12"/>
-      <c r="H271" s="56"/>
-      <c r="I271" s="52"/>
+      <c r="H271" s="55"/>
+      <c r="I271" s="51"/>
     </row>
     <row r="272" ht="18" customHeight="1" spans="1:9">
-      <c r="A272" s="54">
+      <c r="A272" s="53">
         <v>32</v>
       </c>
       <c r="B272" s="12"/>
-      <c r="C272" s="55" t="s">
+      <c r="C272" s="54" t="s">
         <v>178</v>
       </c>
       <c r="D272" s="12" t="s">
@@ -7168,15 +7162,15 @@
         <v>1</v>
       </c>
       <c r="G272" s="12"/>
-      <c r="H272" s="56"/>
-      <c r="I272" s="52"/>
+      <c r="H272" s="55"/>
+      <c r="I272" s="51"/>
     </row>
     <row r="273" ht="18" customHeight="1" spans="1:9">
-      <c r="A273" s="54">
+      <c r="A273" s="53">
         <v>33</v>
       </c>
       <c r="B273" s="12"/>
-      <c r="C273" s="55" t="s">
+      <c r="C273" s="54" t="s">
         <v>180</v>
       </c>
       <c r="D273" s="12" t="s">
@@ -7189,15 +7183,15 @@
         <v>1</v>
       </c>
       <c r="G273" s="12"/>
-      <c r="H273" s="56"/>
-      <c r="I273" s="52"/>
+      <c r="H273" s="55"/>
+      <c r="I273" s="51"/>
     </row>
     <row r="274" ht="18" customHeight="1" spans="1:9">
-      <c r="A274" s="54">
+      <c r="A274" s="53">
         <v>34</v>
       </c>
       <c r="B274" s="12"/>
-      <c r="C274" s="55" t="s">
+      <c r="C274" s="54" t="s">
         <v>181</v>
       </c>
       <c r="D274" s="12" t="s">
@@ -7210,15 +7204,15 @@
         <v>1</v>
       </c>
       <c r="G274" s="12"/>
-      <c r="H274" s="56"/>
-      <c r="I274" s="52"/>
+      <c r="H274" s="55"/>
+      <c r="I274" s="51"/>
     </row>
     <row r="275" ht="18" customHeight="1" spans="1:9">
-      <c r="A275" s="54">
+      <c r="A275" s="53">
         <v>35</v>
       </c>
       <c r="B275" s="12"/>
-      <c r="C275" s="55" t="s">
+      <c r="C275" s="54" t="s">
         <v>182</v>
       </c>
       <c r="D275" s="12" t="s">
@@ -7231,15 +7225,15 @@
         <v>1</v>
       </c>
       <c r="G275" s="12"/>
-      <c r="H275" s="56"/>
-      <c r="I275" s="52"/>
+      <c r="H275" s="55"/>
+      <c r="I275" s="51"/>
     </row>
     <row r="276" ht="18" customHeight="1" spans="1:9">
-      <c r="A276" s="54">
+      <c r="A276" s="53">
         <v>36</v>
       </c>
       <c r="B276" s="12"/>
-      <c r="C276" s="55" t="s">
+      <c r="C276" s="54" t="s">
         <v>183</v>
       </c>
       <c r="D276" s="12" t="s">
@@ -7252,17 +7246,17 @@
         <v>1</v>
       </c>
       <c r="G276" s="12"/>
-      <c r="H276" s="56"/>
-      <c r="I276" s="52"/>
+      <c r="H276" s="55"/>
+      <c r="I276" s="51"/>
     </row>
     <row r="277" ht="18" customHeight="1" spans="1:9">
-      <c r="A277" s="54">
+      <c r="A277" s="53">
         <v>37</v>
       </c>
       <c r="B277" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C277" s="55" t="s">
+      <c r="C277" s="54" t="s">
         <v>185</v>
       </c>
       <c r="D277" s="12" t="s">
@@ -7275,15 +7269,15 @@
         <v>1</v>
       </c>
       <c r="G277" s="12"/>
-      <c r="H277" s="56"/>
-      <c r="I277" s="52"/>
+      <c r="H277" s="55"/>
+      <c r="I277" s="51"/>
     </row>
     <row r="278" ht="18" customHeight="1" spans="1:9">
-      <c r="A278" s="54">
+      <c r="A278" s="53">
         <v>38</v>
       </c>
       <c r="B278" s="12"/>
-      <c r="C278" s="55" t="s">
+      <c r="C278" s="54" t="s">
         <v>186</v>
       </c>
       <c r="D278" s="12" t="s">
@@ -7296,15 +7290,15 @@
         <v>1</v>
       </c>
       <c r="G278" s="12"/>
-      <c r="H278" s="56"/>
-      <c r="I278" s="52"/>
+      <c r="H278" s="55"/>
+      <c r="I278" s="51"/>
     </row>
     <row r="279" ht="18" customHeight="1" spans="1:9">
-      <c r="A279" s="54">
+      <c r="A279" s="53">
         <v>39</v>
       </c>
       <c r="B279" s="12"/>
-      <c r="C279" s="55" t="s">
+      <c r="C279" s="54" t="s">
         <v>187</v>
       </c>
       <c r="D279" s="12" t="s">
@@ -7317,15 +7311,15 @@
         <v>1</v>
       </c>
       <c r="G279" s="12"/>
-      <c r="H279" s="56"/>
-      <c r="I279" s="52"/>
+      <c r="H279" s="55"/>
+      <c r="I279" s="51"/>
     </row>
     <row r="280" ht="18" customHeight="1" spans="1:9">
-      <c r="A280" s="54">
+      <c r="A280" s="53">
         <v>40</v>
       </c>
       <c r="B280" s="12"/>
-      <c r="C280" s="55" t="s">
+      <c r="C280" s="54" t="s">
         <v>188</v>
       </c>
       <c r="D280" s="12" t="s">
@@ -7338,15 +7332,15 @@
         <v>3</v>
       </c>
       <c r="G280" s="12"/>
-      <c r="H280" s="56"/>
-      <c r="I280" s="52"/>
+      <c r="H280" s="55"/>
+      <c r="I280" s="51"/>
     </row>
     <row r="281" ht="18" customHeight="1" spans="1:9">
-      <c r="A281" s="54">
+      <c r="A281" s="53">
         <v>41</v>
       </c>
       <c r="B281" s="12"/>
-      <c r="C281" s="55" t="s">
+      <c r="C281" s="54" t="s">
         <v>189</v>
       </c>
       <c r="D281" s="12" t="s">
@@ -7359,15 +7353,15 @@
         <v>3</v>
       </c>
       <c r="G281" s="12"/>
-      <c r="H281" s="56"/>
-      <c r="I281" s="52"/>
+      <c r="H281" s="55"/>
+      <c r="I281" s="51"/>
     </row>
     <row r="282" ht="18" customHeight="1" spans="1:9">
-      <c r="A282" s="54">
+      <c r="A282" s="53">
         <v>42</v>
       </c>
       <c r="B282" s="12"/>
-      <c r="C282" s="55" t="s">
+      <c r="C282" s="54" t="s">
         <v>190</v>
       </c>
       <c r="D282" s="12" t="s">
@@ -7380,15 +7374,15 @@
         <v>1</v>
       </c>
       <c r="G282" s="12"/>
-      <c r="H282" s="56"/>
-      <c r="I282" s="52"/>
+      <c r="H282" s="55"/>
+      <c r="I282" s="51"/>
     </row>
     <row r="283" ht="18" customHeight="1" spans="1:9">
-      <c r="A283" s="54">
+      <c r="A283" s="53">
         <v>43</v>
       </c>
       <c r="B283" s="12"/>
-      <c r="C283" s="55" t="s">
+      <c r="C283" s="54" t="s">
         <v>191</v>
       </c>
       <c r="D283" s="12" t="s">
@@ -7401,15 +7395,15 @@
         <v>1</v>
       </c>
       <c r="G283" s="12"/>
-      <c r="H283" s="56"/>
-      <c r="I283" s="52"/>
+      <c r="H283" s="55"/>
+      <c r="I283" s="51"/>
     </row>
     <row r="284" ht="18" customHeight="1" spans="1:9">
-      <c r="A284" s="54">
+      <c r="A284" s="53">
         <v>44</v>
       </c>
       <c r="B284" s="12"/>
-      <c r="C284" s="55" t="s">
+      <c r="C284" s="54" t="s">
         <v>192</v>
       </c>
       <c r="D284" s="12" t="s">
@@ -7422,15 +7416,15 @@
         <v>1</v>
       </c>
       <c r="G284" s="12"/>
-      <c r="H284" s="56"/>
-      <c r="I284" s="52"/>
+      <c r="H284" s="55"/>
+      <c r="I284" s="51"/>
     </row>
     <row r="285" ht="18" customHeight="1" spans="1:9">
-      <c r="A285" s="54">
+      <c r="A285" s="53">
         <v>45</v>
       </c>
       <c r="B285" s="12"/>
-      <c r="C285" s="55" t="s">
+      <c r="C285" s="54" t="s">
         <v>193</v>
       </c>
       <c r="D285" s="12" t="s">
@@ -7443,15 +7437,15 @@
         <v>1</v>
       </c>
       <c r="G285" s="12"/>
-      <c r="H285" s="56"/>
-      <c r="I285" s="52"/>
+      <c r="H285" s="55"/>
+      <c r="I285" s="51"/>
     </row>
     <row r="286" ht="18" customHeight="1" spans="1:9">
-      <c r="A286" s="54">
+      <c r="A286" s="53">
         <v>46</v>
       </c>
       <c r="B286" s="12"/>
-      <c r="C286" s="55" t="s">
+      <c r="C286" s="54" t="s">
         <v>194</v>
       </c>
       <c r="D286" s="12" t="s">
@@ -7460,21 +7454,21 @@
       <c r="E286" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F286" s="45">
+      <c r="F286" s="44">
         <v>1</v>
       </c>
       <c r="G286" s="12"/>
-      <c r="H286" s="56"/>
-      <c r="I286" s="52"/>
+      <c r="H286" s="55"/>
+      <c r="I286" s="51"/>
     </row>
     <row r="287" ht="18" customHeight="1" spans="1:9">
-      <c r="A287" s="54">
+      <c r="A287" s="53">
         <v>47</v>
       </c>
       <c r="B287" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C287" s="55" t="s">
+      <c r="C287" s="54" t="s">
         <v>196</v>
       </c>
       <c r="D287" s="12" t="s">
@@ -7483,15 +7477,15 @@
       <c r="E287" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F287" s="45">
+      <c r="F287" s="44">
         <v>1</v>
       </c>
       <c r="G287" s="12"/>
-      <c r="H287" s="56"/>
-      <c r="I287" s="52"/>
+      <c r="H287" s="55"/>
+      <c r="I287" s="51"/>
     </row>
     <row r="288" ht="18" customHeight="1" spans="1:9">
-      <c r="A288" s="53">
+      <c r="A288" s="52">
         <v>48</v>
       </c>
       <c r="B288" s="12" t="s">
@@ -7511,7 +7505,7 @@
       </c>
       <c r="G288" s="12"/>
       <c r="H288" s="12"/>
-      <c r="I288" s="52"/>
+      <c r="I288" s="51"/>
     </row>
     <row r="289" ht="18" customHeight="1" spans="1:9">
       <c r="A289" s="21" t="s">
@@ -7526,7 +7520,7 @@
         <v>34</v>
       </c>
       <c r="H289" s="21"/>
-      <c r="I289" s="52"/>
+      <c r="I289" s="51"/>
     </row>
     <row r="290" ht="18" customHeight="1" spans="1:9">
       <c r="A290" s="21" t="s">
@@ -7541,7 +7535,7 @@
         <v>36</v>
       </c>
       <c r="H290" s="21"/>
-      <c r="I290" s="52"/>
+      <c r="I290" s="51"/>
     </row>
     <row r="291" ht="18" customHeight="1" spans="1:9">
       <c r="A291" s="20" t="s">
@@ -7554,18 +7548,18 @@
       <c r="F291" s="19"/>
       <c r="G291" s="19"/>
       <c r="H291" s="19"/>
-      <c r="I291" s="52"/>
+      <c r="I291" s="51"/>
     </row>
     <row r="292" ht="18" customHeight="1" spans="1:9">
-      <c r="A292" s="52"/>
-      <c r="B292" s="52"/>
-      <c r="C292" s="52"/>
-      <c r="D292" s="52"/>
-      <c r="E292" s="52"/>
-      <c r="F292" s="52"/>
-      <c r="G292" s="52"/>
-      <c r="H292" s="52"/>
-      <c r="I292" s="52"/>
+      <c r="A292" s="51"/>
+      <c r="B292" s="51"/>
+      <c r="C292" s="51"/>
+      <c r="D292" s="51"/>
+      <c r="E292" s="51"/>
+      <c r="F292" s="51"/>
+      <c r="G292" s="51"/>
+      <c r="H292" s="51"/>
+      <c r="I292" s="51"/>
     </row>
     <row r="293" ht="18" customHeight="1" spans="1:9">
       <c r="A293" s="19"/>
@@ -7578,7 +7572,7 @@
         <v>197</v>
       </c>
       <c r="H293" s="20"/>
-      <c r="I293" s="52"/>
+      <c r="I293" s="51"/>
     </row>
     <row r="294" ht="18" customHeight="1" spans="1:9">
       <c r="A294" s="19"/>
@@ -7591,7 +7585,7 @@
         <v>198</v>
       </c>
       <c r="H294" s="21"/>
-      <c r="I294" s="52"/>
+      <c r="I294" s="51"/>
     </row>
     <row r="295" ht="18" customHeight="1" spans="1:9">
       <c r="A295" s="22" t="s">
@@ -7604,7 +7598,7 @@
       <c r="F295" s="22"/>
       <c r="G295" s="22"/>
       <c r="H295" s="22"/>
-      <c r="I295" s="52"/>
+      <c r="I295" s="51"/>
     </row>
     <row r="296" ht="18" customHeight="1" spans="1:9">
       <c r="A296" s="23" t="s">
@@ -7617,7 +7611,7 @@
       <c r="F296" s="22"/>
       <c r="G296" s="22"/>
       <c r="H296" s="22"/>
-      <c r="I296" s="52"/>
+      <c r="I296" s="51"/>
     </row>
     <row r="297" ht="18" customHeight="1" spans="1:9">
       <c r="A297" s="21" t="s">
@@ -7630,7 +7624,7 @@
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
       <c r="H297" s="21"/>
-      <c r="I297" s="52"/>
+      <c r="I297" s="51"/>
     </row>
     <row r="298" ht="18" customHeight="1" spans="1:9">
       <c r="A298" s="21" t="s">
@@ -7645,7 +7639,7 @@
       </c>
       <c r="G298" s="21"/>
       <c r="H298" s="21"/>
-      <c r="I298" s="52"/>
+      <c r="I298" s="51"/>
     </row>
     <row r="299" ht="18" customHeight="1" spans="1:9">
       <c r="A299" s="21" t="s">
@@ -7660,7 +7654,7 @@
       </c>
       <c r="G299" s="21"/>
       <c r="H299" s="21"/>
-      <c r="I299" s="52"/>
+      <c r="I299" s="51"/>
     </row>
     <row r="300" ht="18" customHeight="1" spans="1:9">
       <c r="A300" s="6" t="s">
@@ -7687,13 +7681,13 @@
       <c r="H300" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I300" s="52"/>
+      <c r="I300" s="51"/>
     </row>
     <row r="301" ht="18" customHeight="1" spans="1:9">
-      <c r="A301" s="53">
-        <v>1</v>
-      </c>
-      <c r="B301" s="46" t="s">
+      <c r="A301" s="52">
+        <v>1</v>
+      </c>
+      <c r="B301" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C301" s="12" t="s">
@@ -7710,13 +7704,13 @@
       </c>
       <c r="G301" s="12"/>
       <c r="H301" s="18"/>
-      <c r="I301" s="52"/>
+      <c r="I301" s="51"/>
     </row>
     <row r="302" ht="18" customHeight="1" spans="1:9">
-      <c r="A302" s="53">
+      <c r="A302" s="52">
         <v>2</v>
       </c>
-      <c r="B302" s="47"/>
+      <c r="B302" s="46"/>
       <c r="C302" s="12" t="s">
         <v>202</v>
       </c>
@@ -7731,13 +7725,13 @@
       </c>
       <c r="G302" s="12"/>
       <c r="H302" s="18"/>
-      <c r="I302" s="52"/>
+      <c r="I302" s="51"/>
     </row>
     <row r="303" ht="18" customHeight="1" spans="1:9">
-      <c r="A303" s="53">
+      <c r="A303" s="52">
         <v>3</v>
       </c>
-      <c r="B303" s="46" t="s">
+      <c r="B303" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C303" s="12" t="s">
@@ -7754,13 +7748,13 @@
       </c>
       <c r="G303" s="12"/>
       <c r="H303" s="18"/>
-      <c r="I303" s="52"/>
+      <c r="I303" s="51"/>
     </row>
     <row r="304" ht="18" customHeight="1" spans="1:9">
-      <c r="A304" s="53">
+      <c r="A304" s="52">
         <v>4</v>
       </c>
-      <c r="B304" s="50"/>
+      <c r="B304" s="49"/>
       <c r="C304" s="12" t="s">
         <v>204</v>
       </c>
@@ -7775,13 +7769,13 @@
       </c>
       <c r="G304" s="12"/>
       <c r="H304" s="18"/>
-      <c r="I304" s="52"/>
+      <c r="I304" s="51"/>
     </row>
     <row r="305" ht="18" customHeight="1" spans="1:9">
-      <c r="A305" s="53">
+      <c r="A305" s="52">
         <v>5</v>
       </c>
-      <c r="B305" s="50"/>
+      <c r="B305" s="49"/>
       <c r="C305" s="12" t="s">
         <v>205</v>
       </c>
@@ -7796,13 +7790,13 @@
       </c>
       <c r="G305" s="12"/>
       <c r="H305" s="18"/>
-      <c r="I305" s="52"/>
+      <c r="I305" s="51"/>
     </row>
     <row r="306" ht="18" customHeight="1" spans="1:9">
-      <c r="A306" s="53">
+      <c r="A306" s="52">
         <v>6</v>
       </c>
-      <c r="B306" s="50"/>
+      <c r="B306" s="49"/>
       <c r="C306" s="12" t="s">
         <v>206</v>
       </c>
@@ -7817,13 +7811,13 @@
       </c>
       <c r="G306" s="12"/>
       <c r="H306" s="18"/>
-      <c r="I306" s="52"/>
+      <c r="I306" s="51"/>
     </row>
     <row r="307" ht="18" customHeight="1" spans="1:9">
-      <c r="A307" s="53">
+      <c r="A307" s="52">
         <v>7</v>
       </c>
-      <c r="B307" s="50"/>
+      <c r="B307" s="49"/>
       <c r="C307" s="12" t="s">
         <v>207</v>
       </c>
@@ -7838,13 +7832,13 @@
       </c>
       <c r="G307" s="12"/>
       <c r="H307" s="18"/>
-      <c r="I307" s="52"/>
+      <c r="I307" s="51"/>
     </row>
     <row r="308" ht="18" customHeight="1" spans="1:9">
-      <c r="A308" s="53">
+      <c r="A308" s="52">
         <v>8</v>
       </c>
-      <c r="B308" s="50"/>
+      <c r="B308" s="49"/>
       <c r="C308" s="12" t="s">
         <v>208</v>
       </c>
@@ -7859,13 +7853,13 @@
       </c>
       <c r="G308" s="12"/>
       <c r="H308" s="18"/>
-      <c r="I308" s="52"/>
+      <c r="I308" s="51"/>
     </row>
     <row r="309" ht="18" customHeight="1" spans="1:9">
-      <c r="A309" s="53">
+      <c r="A309" s="52">
         <v>9</v>
       </c>
-      <c r="B309" s="50"/>
+      <c r="B309" s="49"/>
       <c r="C309" s="12" t="s">
         <v>209</v>
       </c>
@@ -7880,13 +7874,13 @@
       </c>
       <c r="G309" s="12"/>
       <c r="H309" s="18"/>
-      <c r="I309" s="52"/>
+      <c r="I309" s="51"/>
     </row>
     <row r="310" ht="18" customHeight="1" spans="1:9">
-      <c r="A310" s="53">
+      <c r="A310" s="52">
         <v>10</v>
       </c>
-      <c r="B310" s="50"/>
+      <c r="B310" s="49"/>
       <c r="C310" s="12" t="s">
         <v>210</v>
       </c>
@@ -7901,13 +7895,13 @@
       </c>
       <c r="G310" s="12"/>
       <c r="H310" s="18"/>
-      <c r="I310" s="52"/>
+      <c r="I310" s="51"/>
     </row>
     <row r="311" ht="18" customHeight="1" spans="1:9">
-      <c r="A311" s="53">
+      <c r="A311" s="52">
         <v>11</v>
       </c>
-      <c r="B311" s="50"/>
+      <c r="B311" s="49"/>
       <c r="C311" s="12" t="s">
         <v>211</v>
       </c>
@@ -7922,13 +7916,13 @@
       </c>
       <c r="G311" s="12"/>
       <c r="H311" s="18"/>
-      <c r="I311" s="52"/>
+      <c r="I311" s="51"/>
     </row>
     <row r="312" ht="18" customHeight="1" spans="1:9">
-      <c r="A312" s="53">
+      <c r="A312" s="52">
         <v>12</v>
       </c>
-      <c r="B312" s="50"/>
+      <c r="B312" s="49"/>
       <c r="C312" s="12" t="s">
         <v>212</v>
       </c>
@@ -7943,13 +7937,13 @@
       </c>
       <c r="G312" s="12"/>
       <c r="H312" s="18"/>
-      <c r="I312" s="52"/>
+      <c r="I312" s="51"/>
     </row>
     <row r="313" ht="18" customHeight="1" spans="1:9">
-      <c r="A313" s="53">
+      <c r="A313" s="52">
         <v>13</v>
       </c>
-      <c r="B313" s="50"/>
+      <c r="B313" s="49"/>
       <c r="C313" s="12" t="s">
         <v>213</v>
       </c>
@@ -7964,13 +7958,13 @@
       </c>
       <c r="G313" s="12"/>
       <c r="H313" s="18"/>
-      <c r="I313" s="52"/>
+      <c r="I313" s="51"/>
     </row>
     <row r="314" ht="18" customHeight="1" spans="1:9">
-      <c r="A314" s="53">
+      <c r="A314" s="52">
         <v>14</v>
       </c>
-      <c r="B314" s="50"/>
+      <c r="B314" s="49"/>
       <c r="C314" s="12" t="s">
         <v>214</v>
       </c>
@@ -7985,13 +7979,13 @@
       </c>
       <c r="G314" s="12"/>
       <c r="H314" s="18"/>
-      <c r="I314" s="52"/>
+      <c r="I314" s="51"/>
     </row>
     <row r="315" ht="18" customHeight="1" spans="1:9">
-      <c r="A315" s="53">
+      <c r="A315" s="52">
         <v>15</v>
       </c>
-      <c r="B315" s="50"/>
+      <c r="B315" s="49"/>
       <c r="C315" s="12" t="s">
         <v>154</v>
       </c>
@@ -8006,13 +8000,13 @@
       </c>
       <c r="G315" s="12"/>
       <c r="H315" s="18"/>
-      <c r="I315" s="52"/>
+      <c r="I315" s="51"/>
     </row>
     <row r="316" ht="18" customHeight="1" spans="1:9">
-      <c r="A316" s="53">
+      <c r="A316" s="52">
         <v>16</v>
       </c>
-      <c r="B316" s="50"/>
+      <c r="B316" s="49"/>
       <c r="C316" s="12" t="s">
         <v>215</v>
       </c>
@@ -8027,13 +8021,13 @@
       </c>
       <c r="G316" s="12"/>
       <c r="H316" s="18"/>
-      <c r="I316" s="52"/>
+      <c r="I316" s="51"/>
     </row>
     <row r="317" ht="18" customHeight="1" spans="1:9">
-      <c r="A317" s="53">
+      <c r="A317" s="52">
         <v>17</v>
       </c>
-      <c r="B317" s="50"/>
+      <c r="B317" s="49"/>
       <c r="C317" s="12" t="s">
         <v>216</v>
       </c>
@@ -8048,13 +8042,13 @@
       </c>
       <c r="G317" s="12"/>
       <c r="H317" s="18"/>
-      <c r="I317" s="52"/>
+      <c r="I317" s="51"/>
     </row>
     <row r="318" ht="18" customHeight="1" spans="1:9">
-      <c r="A318" s="53">
+      <c r="A318" s="52">
         <v>18</v>
       </c>
-      <c r="B318" s="50"/>
+      <c r="B318" s="49"/>
       <c r="C318" s="12" t="s">
         <v>217</v>
       </c>
@@ -8069,13 +8063,13 @@
       </c>
       <c r="G318" s="12"/>
       <c r="H318" s="18"/>
-      <c r="I318" s="52"/>
+      <c r="I318" s="51"/>
     </row>
     <row r="319" ht="18" customHeight="1" spans="1:9">
-      <c r="A319" s="53">
+      <c r="A319" s="52">
         <v>19</v>
       </c>
-      <c r="B319" s="50"/>
+      <c r="B319" s="49"/>
       <c r="C319" s="12" t="s">
         <v>218</v>
       </c>
@@ -8090,13 +8084,13 @@
       </c>
       <c r="G319" s="12"/>
       <c r="H319" s="18"/>
-      <c r="I319" s="52"/>
+      <c r="I319" s="51"/>
     </row>
     <row r="320" ht="18" customHeight="1" spans="1:9">
-      <c r="A320" s="53">
+      <c r="A320" s="52">
         <v>20</v>
       </c>
-      <c r="B320" s="50"/>
+      <c r="B320" s="49"/>
       <c r="C320" s="12" t="s">
         <v>219</v>
       </c>
@@ -8111,13 +8105,13 @@
       </c>
       <c r="G320" s="12"/>
       <c r="H320" s="18"/>
-      <c r="I320" s="52"/>
+      <c r="I320" s="51"/>
     </row>
     <row r="321" ht="18" customHeight="1" spans="1:9">
-      <c r="A321" s="53">
+      <c r="A321" s="52">
         <v>21</v>
       </c>
-      <c r="B321" s="50"/>
+      <c r="B321" s="49"/>
       <c r="C321" s="12" t="s">
         <v>220</v>
       </c>
@@ -8132,13 +8126,13 @@
       </c>
       <c r="G321" s="12"/>
       <c r="H321" s="18"/>
-      <c r="I321" s="52"/>
+      <c r="I321" s="51"/>
     </row>
     <row r="322" ht="18" customHeight="1" spans="1:9">
-      <c r="A322" s="53">
+      <c r="A322" s="52">
         <v>22</v>
       </c>
-      <c r="B322" s="50"/>
+      <c r="B322" s="49"/>
       <c r="C322" s="12" t="s">
         <v>221</v>
       </c>
@@ -8153,13 +8147,13 @@
       </c>
       <c r="G322" s="12"/>
       <c r="H322" s="18"/>
-      <c r="I322" s="52"/>
+      <c r="I322" s="51"/>
     </row>
     <row r="323" ht="18" customHeight="1" spans="1:9">
-      <c r="A323" s="53">
+      <c r="A323" s="52">
         <v>23</v>
       </c>
-      <c r="B323" s="50"/>
+      <c r="B323" s="49"/>
       <c r="C323" s="12" t="s">
         <v>222</v>
       </c>
@@ -8174,13 +8168,13 @@
       </c>
       <c r="G323" s="12"/>
       <c r="H323" s="18"/>
-      <c r="I323" s="52"/>
+      <c r="I323" s="51"/>
     </row>
     <row r="324" ht="18" customHeight="1" spans="1:9">
-      <c r="A324" s="53">
+      <c r="A324" s="52">
         <v>24</v>
       </c>
-      <c r="B324" s="50"/>
+      <c r="B324" s="49"/>
       <c r="C324" s="12" t="s">
         <v>166</v>
       </c>
@@ -8195,13 +8189,13 @@
       </c>
       <c r="G324" s="12"/>
       <c r="H324" s="18"/>
-      <c r="I324" s="52"/>
+      <c r="I324" s="51"/>
     </row>
     <row r="325" ht="18" customHeight="1" spans="1:9">
-      <c r="A325" s="53">
+      <c r="A325" s="52">
         <v>25</v>
       </c>
-      <c r="B325" s="50"/>
+      <c r="B325" s="49"/>
       <c r="C325" s="12" t="s">
         <v>223</v>
       </c>
@@ -8216,13 +8210,13 @@
       </c>
       <c r="G325" s="12"/>
       <c r="H325" s="18"/>
-      <c r="I325" s="52"/>
+      <c r="I325" s="51"/>
     </row>
     <row r="326" ht="18" customHeight="1" spans="1:9">
-      <c r="A326" s="53">
+      <c r="A326" s="52">
         <v>26</v>
       </c>
-      <c r="B326" s="50"/>
+      <c r="B326" s="49"/>
       <c r="C326" s="12" t="s">
         <v>224</v>
       </c>
@@ -8237,13 +8231,13 @@
       </c>
       <c r="G326" s="12"/>
       <c r="H326" s="18"/>
-      <c r="I326" s="52"/>
+      <c r="I326" s="51"/>
     </row>
     <row r="327" ht="18" customHeight="1" spans="1:9">
-      <c r="A327" s="53">
+      <c r="A327" s="52">
         <v>27</v>
       </c>
-      <c r="B327" s="50"/>
+      <c r="B327" s="49"/>
       <c r="C327" s="12" t="s">
         <v>225</v>
       </c>
@@ -8258,13 +8252,13 @@
       </c>
       <c r="G327" s="12"/>
       <c r="H327" s="18"/>
-      <c r="I327" s="52"/>
+      <c r="I327" s="51"/>
     </row>
     <row r="328" ht="18" customHeight="1" spans="1:9">
-      <c r="A328" s="53">
+      <c r="A328" s="52">
         <v>28</v>
       </c>
-      <c r="B328" s="50"/>
+      <c r="B328" s="49"/>
       <c r="C328" s="12" t="s">
         <v>226</v>
       </c>
@@ -8279,13 +8273,13 @@
       </c>
       <c r="G328" s="12"/>
       <c r="H328" s="18"/>
-      <c r="I328" s="52"/>
+      <c r="I328" s="51"/>
     </row>
     <row r="329" ht="18" customHeight="1" spans="1:9">
-      <c r="A329" s="53">
+      <c r="A329" s="52">
         <v>29</v>
       </c>
-      <c r="B329" s="50"/>
+      <c r="B329" s="49"/>
       <c r="C329" s="12" t="s">
         <v>227</v>
       </c>
@@ -8300,13 +8294,13 @@
       </c>
       <c r="G329" s="12"/>
       <c r="H329" s="18"/>
-      <c r="I329" s="52"/>
+      <c r="I329" s="51"/>
     </row>
     <row r="330" ht="18" customHeight="1" spans="1:9">
-      <c r="A330" s="53">
+      <c r="A330" s="52">
         <v>30</v>
       </c>
-      <c r="B330" s="50"/>
+      <c r="B330" s="49"/>
       <c r="C330" s="12" t="s">
         <v>228</v>
       </c>
@@ -8321,13 +8315,13 @@
       </c>
       <c r="G330" s="12"/>
       <c r="H330" s="18"/>
-      <c r="I330" s="52"/>
+      <c r="I330" s="51"/>
     </row>
     <row r="331" ht="18" customHeight="1" spans="1:9">
-      <c r="A331" s="53">
+      <c r="A331" s="52">
         <v>31</v>
       </c>
-      <c r="B331" s="50" t="s">
+      <c r="B331" s="49" t="s">
         <v>67</v>
       </c>
       <c r="C331" s="12" t="s">
@@ -8344,13 +8338,13 @@
       </c>
       <c r="G331" s="12"/>
       <c r="H331" s="18"/>
-      <c r="I331" s="52"/>
+      <c r="I331" s="51"/>
     </row>
     <row r="332" ht="18" customHeight="1" spans="1:9">
-      <c r="A332" s="53">
+      <c r="A332" s="52">
         <v>32</v>
       </c>
-      <c r="B332" s="50"/>
+      <c r="B332" s="49"/>
       <c r="C332" s="12" t="s">
         <v>230</v>
       </c>
@@ -8365,13 +8359,13 @@
       </c>
       <c r="G332" s="12"/>
       <c r="H332" s="18"/>
-      <c r="I332" s="52"/>
+      <c r="I332" s="51"/>
     </row>
     <row r="333" ht="18" customHeight="1" spans="1:9">
-      <c r="A333" s="53">
+      <c r="A333" s="52">
         <v>33</v>
       </c>
-      <c r="B333" s="50"/>
+      <c r="B333" s="49"/>
       <c r="C333" s="12" t="s">
         <v>231</v>
       </c>
@@ -8386,13 +8380,13 @@
       </c>
       <c r="G333" s="12"/>
       <c r="H333" s="18"/>
-      <c r="I333" s="52"/>
+      <c r="I333" s="51"/>
     </row>
     <row r="334" ht="18" customHeight="1" spans="1:9">
-      <c r="A334" s="53">
+      <c r="A334" s="52">
         <v>34</v>
       </c>
-      <c r="B334" s="50"/>
+      <c r="B334" s="49"/>
       <c r="C334" s="12" t="s">
         <v>232</v>
       </c>
@@ -8407,13 +8401,13 @@
       </c>
       <c r="G334" s="12"/>
       <c r="H334" s="18"/>
-      <c r="I334" s="52"/>
+      <c r="I334" s="51"/>
     </row>
     <row r="335" ht="18" customHeight="1" spans="1:9">
-      <c r="A335" s="53">
+      <c r="A335" s="52">
         <v>35</v>
       </c>
-      <c r="B335" s="50"/>
+      <c r="B335" s="49"/>
       <c r="C335" s="12" t="s">
         <v>233</v>
       </c>
@@ -8428,13 +8422,13 @@
       </c>
       <c r="G335" s="12"/>
       <c r="H335" s="18"/>
-      <c r="I335" s="52"/>
+      <c r="I335" s="51"/>
     </row>
     <row r="336" ht="18" customHeight="1" spans="1:9">
-      <c r="A336" s="53">
+      <c r="A336" s="52">
         <v>36</v>
       </c>
-      <c r="B336" s="50"/>
+      <c r="B336" s="49"/>
       <c r="C336" s="12" t="s">
         <v>234</v>
       </c>
@@ -8449,13 +8443,13 @@
       </c>
       <c r="G336" s="12"/>
       <c r="H336" s="18"/>
-      <c r="I336" s="52"/>
+      <c r="I336" s="51"/>
     </row>
     <row r="337" ht="18" customHeight="1" spans="1:9">
-      <c r="A337" s="53">
+      <c r="A337" s="52">
         <v>37</v>
       </c>
-      <c r="B337" s="50"/>
+      <c r="B337" s="49"/>
       <c r="C337" s="12" t="s">
         <v>235</v>
       </c>
@@ -8470,13 +8464,13 @@
       </c>
       <c r="G337" s="12"/>
       <c r="H337" s="18"/>
-      <c r="I337" s="52"/>
+      <c r="I337" s="51"/>
     </row>
     <row r="338" ht="18" customHeight="1" spans="1:9">
-      <c r="A338" s="53">
+      <c r="A338" s="52">
         <v>38</v>
       </c>
-      <c r="B338" s="50"/>
+      <c r="B338" s="49"/>
       <c r="C338" s="12" t="s">
         <v>236</v>
       </c>
@@ -8491,13 +8485,13 @@
       </c>
       <c r="G338" s="12"/>
       <c r="H338" s="18"/>
-      <c r="I338" s="52"/>
+      <c r="I338" s="51"/>
     </row>
     <row r="339" ht="18" customHeight="1" spans="1:9">
-      <c r="A339" s="53">
+      <c r="A339" s="52">
         <v>39</v>
       </c>
-      <c r="B339" s="50"/>
+      <c r="B339" s="49"/>
       <c r="C339" s="12" t="s">
         <v>237</v>
       </c>
@@ -8512,13 +8506,13 @@
       </c>
       <c r="G339" s="12"/>
       <c r="H339" s="18"/>
-      <c r="I339" s="52"/>
+      <c r="I339" s="51"/>
     </row>
     <row r="340" ht="18" customHeight="1" spans="1:9">
-      <c r="A340" s="53">
+      <c r="A340" s="52">
         <v>40</v>
       </c>
-      <c r="B340" s="50"/>
+      <c r="B340" s="49"/>
       <c r="C340" s="12" t="s">
         <v>238</v>
       </c>
@@ -8533,13 +8527,13 @@
       </c>
       <c r="G340" s="12"/>
       <c r="H340" s="18"/>
-      <c r="I340" s="52"/>
+      <c r="I340" s="51"/>
     </row>
     <row r="341" ht="18" customHeight="1" spans="1:9">
-      <c r="A341" s="53">
+      <c r="A341" s="52">
         <v>41</v>
       </c>
-      <c r="B341" s="57" t="s">
+      <c r="B341" s="56" t="s">
         <v>184</v>
       </c>
       <c r="C341" s="12" t="s">
@@ -8556,13 +8550,13 @@
       </c>
       <c r="G341" s="12"/>
       <c r="H341" s="18"/>
-      <c r="I341" s="52"/>
+      <c r="I341" s="51"/>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:9">
-      <c r="A342" s="53">
+      <c r="A342" s="52">
         <v>42</v>
       </c>
-      <c r="B342" s="58"/>
+      <c r="B342" s="57"/>
       <c r="C342" s="12" t="s">
         <v>240</v>
       </c>
@@ -8577,13 +8571,13 @@
       </c>
       <c r="G342" s="12"/>
       <c r="H342" s="18"/>
-      <c r="I342" s="52"/>
+      <c r="I342" s="51"/>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:9">
-      <c r="A343" s="53">
-        <v>43</v>
-      </c>
-      <c r="B343" s="58"/>
+      <c r="A343" s="52">
+        <v>43</v>
+      </c>
+      <c r="B343" s="57"/>
       <c r="C343" s="12" t="s">
         <v>241</v>
       </c>
@@ -8598,13 +8592,13 @@
       </c>
       <c r="G343" s="12"/>
       <c r="H343" s="18"/>
-      <c r="I343" s="52"/>
+      <c r="I343" s="51"/>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:9">
-      <c r="A344" s="53">
+      <c r="A344" s="52">
         <v>44</v>
       </c>
-      <c r="B344" s="58"/>
+      <c r="B344" s="57"/>
       <c r="C344" s="12" t="s">
         <v>242</v>
       </c>
@@ -8619,13 +8613,13 @@
       </c>
       <c r="G344" s="12"/>
       <c r="H344" s="18"/>
-      <c r="I344" s="52"/>
+      <c r="I344" s="51"/>
     </row>
     <row r="345" ht="18" customHeight="1" spans="1:9">
-      <c r="A345" s="53">
+      <c r="A345" s="52">
         <v>45</v>
       </c>
-      <c r="B345" s="58"/>
+      <c r="B345" s="57"/>
       <c r="C345" s="12" t="s">
         <v>243</v>
       </c>
@@ -8640,13 +8634,13 @@
       </c>
       <c r="G345" s="12"/>
       <c r="H345" s="18"/>
-      <c r="I345" s="52"/>
+      <c r="I345" s="51"/>
     </row>
     <row r="346" ht="18" customHeight="1" spans="1:9">
-      <c r="A346" s="53">
+      <c r="A346" s="52">
         <v>46</v>
       </c>
-      <c r="B346" s="58"/>
+      <c r="B346" s="57"/>
       <c r="C346" s="12" t="s">
         <v>244</v>
       </c>
@@ -8661,13 +8655,13 @@
       </c>
       <c r="G346" s="12"/>
       <c r="H346" s="18"/>
-      <c r="I346" s="52"/>
+      <c r="I346" s="51"/>
     </row>
     <row r="347" ht="18" customHeight="1" spans="1:9">
-      <c r="A347" s="53">
+      <c r="A347" s="52">
         <v>47</v>
       </c>
-      <c r="B347" s="58"/>
+      <c r="B347" s="57"/>
       <c r="C347" s="12" t="s">
         <v>245</v>
       </c>
@@ -8682,13 +8676,13 @@
       </c>
       <c r="G347" s="12"/>
       <c r="H347" s="18"/>
-      <c r="I347" s="52"/>
+      <c r="I347" s="51"/>
     </row>
     <row r="348" ht="18" customHeight="1" spans="1:9">
-      <c r="A348" s="53">
+      <c r="A348" s="52">
         <v>48</v>
       </c>
-      <c r="B348" s="59"/>
+      <c r="B348" s="58"/>
       <c r="C348" s="12" t="s">
         <v>246</v>
       </c>
@@ -8703,10 +8697,10 @@
       </c>
       <c r="G348" s="12"/>
       <c r="H348" s="18"/>
-      <c r="I348" s="52"/>
+      <c r="I348" s="51"/>
     </row>
     <row r="349" ht="18" customHeight="1" spans="1:9">
-      <c r="A349" s="53">
+      <c r="A349" s="52">
         <v>49</v>
       </c>
       <c r="B349" s="12" t="s">
@@ -8726,47 +8720,47 @@
       </c>
       <c r="G349" s="12"/>
       <c r="H349" s="18"/>
-      <c r="I349" s="52"/>
+      <c r="I349" s="51"/>
     </row>
     <row r="350" ht="18" customHeight="1" spans="1:9">
-      <c r="A350" s="53">
+      <c r="A350" s="52">
         <v>50</v>
       </c>
-      <c r="B350" s="50" t="s">
+      <c r="B350" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C350" s="59" t="s">
+      <c r="C350" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="59" t="s">
+      <c r="D350" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E350" s="50" t="s">
+      <c r="E350" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F350" s="50">
+      <c r="F350" s="49">
         <v>3</v>
       </c>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
-      <c r="I350" s="52"/>
+      <c r="I350" s="51"/>
     </row>
     <row r="351" ht="18" customHeight="1" spans="1:9">
-      <c r="A351" s="53">
+      <c r="A351" s="52">
         <v>51</v>
       </c>
-      <c r="B351" s="47"/>
+      <c r="B351" s="46"/>
       <c r="C351" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D351" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E351" s="47"/>
-      <c r="F351" s="47"/>
+      <c r="E351" s="46"/>
+      <c r="F351" s="46"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
-      <c r="I351" s="52"/>
+      <c r="I351" s="51"/>
     </row>
     <row r="352" ht="18" customHeight="1" spans="1:9">
       <c r="A352" s="21" t="s">
@@ -8781,7 +8775,7 @@
         <v>34</v>
       </c>
       <c r="H352" s="21"/>
-      <c r="I352" s="52"/>
+      <c r="I352" s="51"/>
     </row>
     <row r="353" ht="18" customHeight="1" spans="1:9">
       <c r="A353" s="21" t="s">
@@ -8796,7 +8790,7 @@
         <v>36</v>
       </c>
       <c r="H353" s="21"/>
-      <c r="I353" s="52"/>
+      <c r="I353" s="51"/>
     </row>
     <row r="354" ht="18" customHeight="1" spans="1:9">
       <c r="A354" s="20" t="s">
@@ -8809,7 +8803,7 @@
       <c r="F354" s="19"/>
       <c r="G354" s="19"/>
       <c r="H354" s="19"/>
-      <c r="I354" s="52"/>
+      <c r="I354" s="51"/>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="19"/>
@@ -8820,7 +8814,7 @@
       <c r="F355" s="19"/>
       <c r="G355" s="19"/>
       <c r="H355" s="19"/>
-      <c r="I355" s="52"/>
+      <c r="I355" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="101">
@@ -8947,13 +8941,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M227"/>
+  <dimension ref="A2:H227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.41666666666667" customWidth="1"/>
     <col min="2" max="2" width="7.76666666666667" customWidth="1"/>
@@ -8967,15 +8961,7 @@
     <col min="13" max="13" width="10.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:13">
-      <c r="L1" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:8">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -8983,19 +8969,11 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="20"/>
-      <c r="L2" s="35">
-        <f>SUM(M2:M999)</f>
-        <v>138026</v>
-      </c>
-      <c r="M2" s="35">
-        <f>G25</f>
-        <v>26410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -9003,16 +8981,11 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H3" s="21"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35">
-        <f>G66</f>
-        <v>28801</v>
-      </c>
-    </row>
-    <row r="4" ht="21" spans="1:13">
+    </row>
+    <row r="4" ht="21" spans="1:8">
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
@@ -9023,13 +8996,8 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35">
-        <f>G86</f>
-        <v>740</v>
-      </c>
-    </row>
-    <row r="5" ht="19.2" spans="1:13">
+    </row>
+    <row r="5" ht="19.2" spans="1:8">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
@@ -9040,15 +9008,10 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35">
-        <f>G136</f>
-        <v>27774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -9057,41 +9020,31 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35">
-        <f>G172</f>
-        <v>24630</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35">
-        <f>G215</f>
-        <v>29671</v>
-      </c>
-    </row>
-    <row r="8" ht="16.35" spans="1:8">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -9127,11 +9080,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>43</v>
@@ -9151,7 +9104,7 @@
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>43</v>
@@ -9169,7 +9122,7 @@
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>43</v>
@@ -9191,7 +9144,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>43</v>
@@ -9210,10 +9163,10 @@
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>43</v>
@@ -9232,10 +9185,10 @@
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>43</v>
@@ -9254,10 +9207,10 @@
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>43</v>
@@ -9276,10 +9229,10 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>43</v>
@@ -9298,10 +9251,10 @@
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>43</v>
@@ -9320,10 +9273,10 @@
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>43</v>
@@ -9342,10 +9295,10 @@
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>43</v>
@@ -9427,7 +9380,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="30"/>
       <c r="F25" s="31" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="G25" s="32">
         <f>SUM(G12:G22)</f>
@@ -9571,7 +9524,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -9585,7 +9538,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -9603,7 +9556,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H40" s="20"/>
     </row>
@@ -9615,7 +9568,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -9645,7 +9598,7 @@
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:8">
       <c r="A44" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -9657,28 +9610,28 @@
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:8">
       <c r="A45" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:8">
       <c r="A46" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9720,7 +9673,7 @@
         <v>71</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>43</v>
@@ -9740,10 +9693,10 @@
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>43</v>
@@ -9760,10 +9713,10 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>43</v>
@@ -9783,10 +9736,10 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>43</v>
@@ -9809,7 +9762,7 @@
         <v>68</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>43</v>
@@ -9832,7 +9785,7 @@
         <v>176</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>43</v>
@@ -9852,10 +9805,10 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>43</v>
@@ -9875,10 +9828,10 @@
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>43</v>
@@ -9898,10 +9851,10 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>43</v>
@@ -9921,10 +9874,10 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>43</v>
@@ -9944,10 +9897,10 @@
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>43</v>
@@ -9967,10 +9920,10 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>43</v>
@@ -9992,10 +9945,10 @@
         <v>146</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>43</v>
@@ -10015,10 +9968,10 @@
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>43</v>
@@ -10038,10 +9991,10 @@
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>43</v>
@@ -10061,10 +10014,10 @@
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>43</v>
@@ -10084,10 +10037,10 @@
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>43</v>
@@ -10106,7 +10059,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>19</v>
@@ -10240,7 +10193,7 @@
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:8">
       <c r="A75" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -10254,7 +10207,7 @@
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:8">
       <c r="A76" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -10273,7 +10226,7 @@
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H78" s="20"/>
     </row>
@@ -10285,7 +10238,7 @@
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H79" s="21"/>
     </row>
@@ -10315,7 +10268,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -10327,28 +10280,28 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
     </row>
     <row r="84" ht="16.35" spans="1:8">
       <c r="A84" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
@@ -10384,21 +10337,21 @@
         <v>1</v>
       </c>
       <c r="B86" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="D86" s="11">
         <v>1.35</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F86" s="11">
         <v>360</v>
       </c>
-      <c r="G86" s="36">
+      <c r="G86" s="35">
         <v>740</v>
       </c>
       <c r="H86" s="13"/>
@@ -10413,7 +10366,7 @@
         <v>1.5</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F87" s="11">
         <v>120</v>
@@ -10431,7 +10384,7 @@
         <v>1.1</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F88" s="11">
         <v>11</v>
@@ -10449,7 +10402,7 @@
         <v>0.9</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F89" s="11">
         <v>2</v>
@@ -10467,7 +10420,7 @@
         <v>0.5</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F90" s="11">
         <v>3</v>
@@ -10731,7 +10684,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -10745,7 +10698,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -10772,7 +10725,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -10784,7 +10737,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -10815,7 +10768,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -10827,7 +10780,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -10841,7 +10794,7 @@
     </row>
     <row r="121" ht="16.35" spans="1:8">
       <c r="A121" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -10854,28 +10807,28 @@
       <c r="H121" s="5"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="37" t="s">
+      <c r="A122" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="38" t="s">
+      <c r="D122" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="38" t="s">
+      <c r="E122" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F122" s="38" t="s">
+      <c r="F122" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G122" s="38" t="s">
+      <c r="G122" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="39" t="s">
+      <c r="H122" s="38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10884,13 +10837,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C123" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>43</v>
@@ -10910,10 +10863,10 @@
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D124" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>298</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>43</v>
@@ -10930,10 +10883,10 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>43</v>
@@ -10952,10 +10905,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>43</v>
@@ -10978,7 +10931,7 @@
         <v>148</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>43</v>
@@ -10998,10 +10951,10 @@
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>43</v>
@@ -11021,10 +10974,10 @@
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>43</v>
@@ -11044,10 +10997,10 @@
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E130" s="11" t="s">
         <v>43</v>
@@ -11067,10 +11020,10 @@
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>43</v>
@@ -11090,10 +11043,10 @@
       </c>
       <c r="B132" s="15"/>
       <c r="C132" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>43</v>
@@ -11113,10 +11066,10 @@
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>43</v>
@@ -11135,10 +11088,10 @@
         <v>12</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>19</v>
@@ -11160,7 +11113,7 @@
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>19</v>
@@ -11183,11 +11136,11 @@
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
-      <c r="E136" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="F136" s="40"/>
-      <c r="G136" s="40">
+      <c r="E136" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39">
         <f>SUM(G123:G135)</f>
         <v>27774</v>
       </c>
@@ -11353,7 +11306,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -11367,7 +11320,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -11384,7 +11337,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
@@ -11396,7 +11349,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
@@ -11427,7 +11380,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -11439,7 +11392,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -11453,7 +11406,7 @@
     </row>
     <row r="159" ht="16.35" spans="1:8">
       <c r="A159" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -11466,28 +11419,28 @@
       <c r="H159" s="5"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="37" t="s">
+      <c r="A160" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C160" s="38" t="s">
+      <c r="C160" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="38" t="s">
+      <c r="D160" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="38" t="s">
+      <c r="E160" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F160" s="38" t="s">
+      <c r="F160" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G160" s="38" t="s">
+      <c r="G160" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H160" s="39" t="s">
+      <c r="H160" s="38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11496,13 +11449,13 @@
         <v>1</v>
       </c>
       <c r="B161" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="D161" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>317</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>43</v>
@@ -11521,10 +11474,10 @@
         <v>23</v>
       </c>
       <c r="C162" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D162" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>43</v>
@@ -11533,7 +11486,7 @@
         <v>83</v>
       </c>
       <c r="G162" s="11"/>
-      <c r="H162" s="41"/>
+      <c r="H162" s="40"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="9">
@@ -11541,10 +11494,10 @@
       </c>
       <c r="B163" s="15"/>
       <c r="C163" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D163" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>321</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>43</v>
@@ -11553,7 +11506,7 @@
         <v>74</v>
       </c>
       <c r="G163" s="11"/>
-      <c r="H163" s="41"/>
+      <c r="H163" s="40"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="9">
@@ -11561,10 +11514,10 @@
       </c>
       <c r="B164" s="15"/>
       <c r="C164" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D164" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="E164" s="11" t="s">
         <v>43</v>
@@ -11573,7 +11526,7 @@
         <v>74</v>
       </c>
       <c r="G164" s="11"/>
-      <c r="H164" s="41"/>
+      <c r="H164" s="40"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="9">
@@ -11581,10 +11534,10 @@
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D165" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>43</v>
@@ -11593,7 +11546,7 @@
         <v>11</v>
       </c>
       <c r="G165" s="12"/>
-      <c r="H165" s="42"/>
+      <c r="H165" s="41"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="9">
@@ -11601,10 +11554,10 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D166" s="12" t="s">
         <v>326</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>327</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>43</v>
@@ -11623,10 +11576,10 @@
         <v>111</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>43</v>
@@ -11635,7 +11588,7 @@
         <v>224</v>
       </c>
       <c r="G167" s="12"/>
-      <c r="H167" s="42"/>
+      <c r="H167" s="41"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="9">
@@ -11694,7 +11647,7 @@
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
       <c r="F172" s="12" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="G172" s="12">
         <v>24630</v>
@@ -11916,7 +11869,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
@@ -11928,7 +11881,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11959,7 +11912,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -11971,70 +11924,70 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
     </row>
     <row r="197" ht="16.35" spans="1:8">
       <c r="A197" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="37" t="s">
+      <c r="A198" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C198" s="38" t="s">
+      <c r="C198" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="38" t="s">
+      <c r="D198" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E198" s="38" t="s">
+      <c r="E198" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F198" s="38" t="s">
+      <c r="F198" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G198" s="38" t="s">
+      <c r="G198" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H198" s="39" t="s">
+      <c r="H198" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="43">
+      <c r="A199" s="42">
         <v>1</v>
       </c>
       <c r="B199" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C199" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="D199" s="43" t="s">
         <v>334</v>
-      </c>
-      <c r="D199" s="44" t="s">
-        <v>335</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>43</v>
@@ -12049,17 +12002,17 @@
       <c r="H199" s="13"/>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="43">
+      <c r="A200" s="42">
         <v>2</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D200" s="44" t="s">
-        <v>259</v>
+        <v>335</v>
+      </c>
+      <c r="D200" s="43" t="s">
+        <v>257</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>43</v>
@@ -12074,15 +12027,15 @@
       <c r="H200" s="13"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="43">
+      <c r="A201" s="42">
         <v>3</v>
       </c>
       <c r="B201" s="10"/>
       <c r="C201" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D201" s="44" t="s">
-        <v>259</v>
+        <v>336</v>
+      </c>
+      <c r="D201" s="43" t="s">
+        <v>257</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>43</v>
@@ -12097,15 +12050,15 @@
       <c r="H201" s="13"/>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="43">
+      <c r="A202" s="42">
         <v>4</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D202" s="44" t="s">
-        <v>259</v>
+        <v>337</v>
+      </c>
+      <c r="D202" s="43" t="s">
+        <v>257</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>43</v>
@@ -12120,15 +12073,15 @@
       <c r="H202" s="13"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="43">
+      <c r="A203" s="42">
         <v>5</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D203" s="44" t="s">
-        <v>259</v>
+        <v>338</v>
+      </c>
+      <c r="D203" s="43" t="s">
+        <v>257</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>43</v>
@@ -12143,15 +12096,15 @@
       <c r="H203" s="18"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="43">
+      <c r="A204" s="42">
         <v>6</v>
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D204" s="44" t="s">
-        <v>259</v>
+        <v>339</v>
+      </c>
+      <c r="D204" s="43" t="s">
+        <v>257</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>43</v>
@@ -12166,15 +12119,15 @@
       <c r="H204" s="18"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="43">
+      <c r="A205" s="42">
         <v>7</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D205" s="44" t="s">
-        <v>259</v>
+        <v>340</v>
+      </c>
+      <c r="D205" s="43" t="s">
+        <v>257</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>43</v>
@@ -12189,15 +12142,15 @@
       <c r="H205" s="18"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="43">
+      <c r="A206" s="42">
         <v>8</v>
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D206" s="44" t="s">
-        <v>259</v>
+        <v>341</v>
+      </c>
+      <c r="D206" s="43" t="s">
+        <v>257</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>43</v>
@@ -12212,17 +12165,17 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="43">
+      <c r="A207" s="42">
         <v>9</v>
       </c>
       <c r="B207" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C207" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="D207" s="44" t="s">
         <v>344</v>
-      </c>
-      <c r="D207" s="45" t="s">
-        <v>345</v>
       </c>
       <c r="E207" s="10" t="s">
         <v>43</v>
@@ -12230,22 +12183,22 @@
       <c r="F207" s="12">
         <v>4</v>
       </c>
-      <c r="G207" s="46">
+      <c r="G207" s="45">
         <f>526+154</f>
         <v>680</v>
       </c>
       <c r="H207" s="18"/>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="43">
+      <c r="A208" s="42">
         <v>10</v>
       </c>
       <c r="B208" s="12"/>
       <c r="C208" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D208" s="45" t="s">
         <v>345</v>
+      </c>
+      <c r="D208" s="44" t="s">
+        <v>344</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>43</v>
@@ -12253,21 +12206,21 @@
       <c r="F208" s="12">
         <v>4</v>
       </c>
-      <c r="G208" s="47"/>
+      <c r="G208" s="46"/>
       <c r="H208" s="18"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="43">
+      <c r="A209" s="42">
         <v>11</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D209" s="44" t="s">
-        <v>317</v>
+        <v>346</v>
+      </c>
+      <c r="D209" s="43" t="s">
+        <v>316</v>
       </c>
       <c r="E209" s="10" t="s">
         <v>43</v>
@@ -12282,15 +12235,15 @@
       <c r="H209" s="18"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="43">
+      <c r="A210" s="42">
         <v>12</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D210" s="43" t="s">
         <v>316</v>
-      </c>
-      <c r="D210" s="44" t="s">
-        <v>317</v>
       </c>
       <c r="E210" s="10" t="s">
         <v>43</v>
@@ -12305,15 +12258,15 @@
       <c r="H210" s="18"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="43">
+      <c r="A211" s="42">
         <v>13</v>
       </c>
       <c r="B211" s="12"/>
       <c r="C211" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D211" s="44" t="s">
-        <v>317</v>
+        <v>347</v>
+      </c>
+      <c r="D211" s="43" t="s">
+        <v>316</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>43</v>
@@ -12328,17 +12281,17 @@
       <c r="H211" s="18"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="43">
+      <c r="A212" s="42">
         <v>14</v>
       </c>
       <c r="B212" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C212" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="D212" s="44" t="s">
         <v>350</v>
-      </c>
-      <c r="D212" s="45" t="s">
-        <v>351</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>43</v>
@@ -12353,14 +12306,14 @@
       <c r="H212" s="18"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="43">
+      <c r="A213" s="42">
         <v>15</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>19</v>
@@ -12377,12 +12330,12 @@
       <c r="H213" s="18"/>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="43">
+      <c r="A214" s="42">
         <v>16</v>
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>19</v>
@@ -12407,7 +12360,7 @@
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
       <c r="F215" s="12" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="G215" s="12">
         <f>SUM(G199:G214)</f>
@@ -12684,7 +12637,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -12696,7 +12649,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -12727,7 +12680,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -12739,28 +12692,28 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" ht="16.35" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -12799,10 +12752,10 @@
         <v>146</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>358</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>43</v>

--- a/出库统计.xlsx
+++ b/出库统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="浮空栈道（完成）" sheetId="1" r:id="rId1"/>
@@ -1097,10 +1097,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1173,6 +1173,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1180,24 +1219,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1216,32 +1240,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,38 +1278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1300,19 +1293,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1325,7 +1325,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,49 +1457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,7 +1475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,54 +1499,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1464,48 +1506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,6 +1754,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1771,8 +1795,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1802,45 +1841,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1849,10 +1849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1861,37 +1861,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1903,94 +1900,97 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8944,7 +8944,7 @@
   <dimension ref="A2:H227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -9035,7 +9035,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="21" t="s">
         <v>252</v>
       </c>

--- a/出库统计.xlsx
+++ b/出库统计.xlsx
@@ -1172,18 +1172,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1197,17 +1237,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1226,7 +1258,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,15 +1273,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,17 +1295,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1282,37 +1313,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1325,7 +1325,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,49 +1481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,115 +1505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,6 +1744,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1768,15 +1792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1788,6 +1803,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1815,32 +1841,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1849,10 +1849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1861,136 +1861,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8943,8 +8943,8 @@
   <sheetPr/>
   <dimension ref="A2:H227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>

--- a/出库统计.xlsx
+++ b/出库统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="378">
   <si>
     <t xml:space="preserve"> 发货单号：001</t>
   </si>
@@ -1069,6 +1069,66 @@
   </si>
   <si>
     <t>Φ140*4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       发货日期：2021.01.29</t>
+  </si>
+  <si>
+    <t>DCL1B</t>
+  </si>
+  <si>
+    <t>DCL2A</t>
+  </si>
+  <si>
+    <t>DCL3</t>
+  </si>
+  <si>
+    <t>DCL3A</t>
+  </si>
+  <si>
+    <t>DCL3B</t>
+  </si>
+  <si>
+    <t>DCL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        发货单号：008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        发货日期：2021.01.31</t>
+  </si>
+  <si>
+    <t>KFZ9</t>
+  </si>
+  <si>
+    <t>BH600*250*8*12</t>
+  </si>
+  <si>
+    <t>GL2A</t>
+  </si>
+  <si>
+    <t>GL2B</t>
+  </si>
+  <si>
+    <t>GL2C</t>
+  </si>
+  <si>
+    <t>GL2D</t>
+  </si>
+  <si>
+    <t>GL5A</t>
+  </si>
+  <si>
+    <t>GL5B</t>
+  </si>
+  <si>
+    <t>GL5C</t>
+  </si>
+  <si>
+    <t>GL5D</t>
   </si>
   <si>
     <t xml:space="preserve">      发货单号：001</t>
@@ -1097,10 +1157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1172,9 +1232,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,8 +1293,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1205,7 +1317,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1219,17 +1331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,37 +1346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1286,14 +1361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1301,16 +1368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1325,7 +1385,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,25 +1517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,37 +1535,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,103 +1565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,34 +1804,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1788,6 +1826,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1809,17 +1880,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1827,17 +1887,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1849,10 +1909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1861,140 +1921,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2128,6 +2188,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2572,47 +2695,47 @@
       <c r="I4" s="19"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:9">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:9">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:9">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:9">
       <c r="A8" s="36" t="s">
@@ -2642,7 +2765,7 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="48">
+      <c r="A9" s="69">
         <v>1</v>
       </c>
       <c r="B9" s="45" t="s">
@@ -2662,13 +2785,13 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:9">
-      <c r="A10" s="48">
+      <c r="A10" s="69">
         <v>2</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
@@ -2683,10 +2806,10 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:9">
-      <c r="A11" s="48">
+      <c r="A11" s="69">
         <v>3</v>
       </c>
       <c r="B11" s="46"/>
@@ -2704,10 +2827,10 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:9">
-      <c r="A12" s="48">
+      <c r="A12" s="69">
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2727,10 +2850,10 @@
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:9">
-      <c r="A13" s="48">
+      <c r="A13" s="69">
         <v>5</v>
       </c>
       <c r="B13" s="45" t="s">
@@ -2750,10 +2873,10 @@
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:9">
-      <c r="A14" s="48">
+      <c r="A14" s="69">
         <v>6</v>
       </c>
       <c r="B14" s="46"/>
@@ -2767,75 +2890,75 @@
       <c r="F14" s="46"/>
       <c r="G14" s="12"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:9">
-      <c r="A15" s="48">
+      <c r="A15" s="69">
         <v>7</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:9">
-      <c r="A16" s="48">
+      <c r="A16" s="69">
         <v>8</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="51"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:9">
-      <c r="A17" s="48">
+      <c r="A17" s="69">
         <v>9</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:9">
-      <c r="A18" s="48">
+      <c r="A18" s="69">
         <v>10</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:9">
-      <c r="A19" s="48">
+      <c r="A19" s="69">
         <v>11</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="50"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="51"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:9">
-      <c r="A20" s="48">
+      <c r="A20" s="69">
         <v>12</v>
       </c>
       <c r="B20" s="12"/>
@@ -2845,10 +2968,10 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="51"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:9">
-      <c r="A21" s="48">
+      <c r="A21" s="69">
         <v>13</v>
       </c>
       <c r="B21" s="12"/>
@@ -2858,10 +2981,10 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="51"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:9">
-      <c r="A22" s="48">
+      <c r="A22" s="69">
         <v>14</v>
       </c>
       <c r="B22" s="12"/>
@@ -2871,10 +2994,10 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="51"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="48">
+      <c r="A23" s="69">
         <v>15</v>
       </c>
       <c r="B23" s="12"/>
@@ -2884,10 +3007,10 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="51"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="48">
+      <c r="A24" s="69">
         <v>16</v>
       </c>
       <c r="B24" s="12"/>
@@ -2897,10 +3020,10 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="51"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="48">
+      <c r="A25" s="69">
         <v>17</v>
       </c>
       <c r="B25" s="12"/>
@@ -2910,10 +3033,10 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="51"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="48">
+      <c r="A26" s="69">
         <v>18</v>
       </c>
       <c r="B26" s="12"/>
@@ -2923,10 +3046,10 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="51"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="48">
+      <c r="A27" s="69">
         <v>19</v>
       </c>
       <c r="B27" s="12"/>
@@ -2936,10 +3059,10 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="51"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="48">
+      <c r="A28" s="69">
         <v>20</v>
       </c>
       <c r="B28" s="12"/>
@@ -2949,10 +3072,10 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="51"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="48">
+      <c r="A29" s="69">
         <v>21</v>
       </c>
       <c r="B29" s="12"/>
@@ -2962,10 +3085,10 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="51"/>
+      <c r="I29" s="72"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="48">
+      <c r="A30" s="69">
         <v>22</v>
       </c>
       <c r="B30" s="12"/>
@@ -2975,10 +3098,10 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="51"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="48">
+      <c r="A31" s="69">
         <v>23</v>
       </c>
       <c r="B31" s="12"/>
@@ -2988,10 +3111,10 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="51"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:9">
-      <c r="A32" s="48">
+      <c r="A32" s="69">
         <v>24</v>
       </c>
       <c r="B32" s="12"/>
@@ -3001,10 +3124,10 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="51"/>
+      <c r="I32" s="72"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:9">
-      <c r="A33" s="48">
+      <c r="A33" s="69">
         <v>25</v>
       </c>
       <c r="B33" s="12"/>
@@ -3014,10 +3137,10 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="51"/>
+      <c r="I33" s="72"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:9">
-      <c r="A34" s="48">
+      <c r="A34" s="69">
         <v>26</v>
       </c>
       <c r="B34" s="12"/>
@@ -3027,72 +3150,72 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="51"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:9">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47" t="s">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="47"/>
+      <c r="H35" s="68"/>
       <c r="I35" s="19"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:9">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="47"/>
+      <c r="H36" s="68"/>
       <c r="I36" s="19"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:9">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="19"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:9">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:9">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:9">
       <c r="A40" s="19"/>
@@ -3105,7 +3228,7 @@
         <v>38</v>
       </c>
       <c r="H40" s="20"/>
-      <c r="I40" s="51"/>
+      <c r="I40" s="72"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:9">
       <c r="A41" s="19"/>
@@ -3118,7 +3241,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="21"/>
-      <c r="I41" s="51"/>
+      <c r="I41" s="72"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:9">
       <c r="A42" s="22" t="s">
@@ -3131,7 +3254,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
-      <c r="I42" s="51"/>
+      <c r="I42" s="72"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:9">
       <c r="A43" s="23" t="s">
@@ -3144,7 +3267,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="51"/>
+      <c r="I43" s="72"/>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:9">
       <c r="A44" s="21" t="s">
@@ -3157,7 +3280,7 @@
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="51"/>
+      <c r="I44" s="72"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:9">
       <c r="A45" s="21" t="s">
@@ -3172,7 +3295,7 @@
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="51"/>
+      <c r="I45" s="72"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:9">
       <c r="A46" s="21" t="s">
@@ -3187,7 +3310,7 @@
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
-      <c r="I46" s="51"/>
+      <c r="I46" s="72"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
@@ -3214,10 +3337,10 @@
       <c r="H47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="51"/>
+      <c r="I47" s="72"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:9">
-      <c r="A48" s="52">
+      <c r="A48" s="73">
         <v>1</v>
       </c>
       <c r="B48" s="45" t="s">
@@ -3237,13 +3360,13 @@
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="51"/>
+      <c r="I48" s="72"/>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:9">
-      <c r="A49" s="52">
+      <c r="A49" s="73">
         <v>2</v>
       </c>
-      <c r="B49" s="49"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="12" t="s">
         <v>44</v>
       </c>
@@ -3258,13 +3381,13 @@
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="51"/>
+      <c r="I49" s="72"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:9">
-      <c r="A50" s="52">
+      <c r="A50" s="73">
         <v>3</v>
       </c>
-      <c r="B50" s="49"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="12" t="s">
         <v>45</v>
       </c>
@@ -3279,13 +3402,13 @@
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="51"/>
+      <c r="I50" s="72"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:9">
-      <c r="A51" s="52">
+      <c r="A51" s="73">
         <v>4</v>
       </c>
-      <c r="B51" s="49"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="12" t="s">
         <v>46</v>
       </c>
@@ -3300,13 +3423,13 @@
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="18"/>
-      <c r="I51" s="51"/>
+      <c r="I51" s="72"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:9">
-      <c r="A52" s="52">
+      <c r="A52" s="73">
         <v>5</v>
       </c>
-      <c r="B52" s="49"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="12" t="s">
         <v>47</v>
       </c>
@@ -3321,10 +3444,10 @@
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="51"/>
+      <c r="I52" s="72"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:9">
-      <c r="A53" s="52">
+      <c r="A53" s="73">
         <v>6</v>
       </c>
       <c r="B53" s="46"/>
@@ -3342,10 +3465,10 @@
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="51"/>
+      <c r="I53" s="72"/>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:9">
-      <c r="A54" s="52">
+      <c r="A54" s="73">
         <v>7</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -3365,10 +3488,10 @@
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="51"/>
+      <c r="I54" s="72"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:9">
-      <c r="A55" s="52">
+      <c r="A55" s="73">
         <v>8</v>
       </c>
       <c r="B55" s="12"/>
@@ -3378,10 +3501,10 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="51"/>
+      <c r="I55" s="72"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:9">
-      <c r="A56" s="52">
+      <c r="A56" s="73">
         <v>9</v>
       </c>
       <c r="B56" s="12"/>
@@ -3391,10 +3514,10 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="51"/>
+      <c r="I56" s="72"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:9">
-      <c r="A57" s="52">
+      <c r="A57" s="73">
         <v>10</v>
       </c>
       <c r="B57" s="12"/>
@@ -3404,10 +3527,10 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="51"/>
+      <c r="I57" s="72"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:9">
-      <c r="A58" s="52">
+      <c r="A58" s="73">
         <v>11</v>
       </c>
       <c r="B58" s="12"/>
@@ -3417,10 +3540,10 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="51"/>
+      <c r="I58" s="72"/>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:9">
-      <c r="A59" s="52">
+      <c r="A59" s="73">
         <v>12</v>
       </c>
       <c r="B59" s="12"/>
@@ -3430,10 +3553,10 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="51"/>
+      <c r="I59" s="72"/>
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:9">
-      <c r="A60" s="52">
+      <c r="A60" s="73">
         <v>13</v>
       </c>
       <c r="B60" s="12"/>
@@ -3443,10 +3566,10 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="51"/>
+      <c r="I60" s="72"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:9">
-      <c r="A61" s="52">
+      <c r="A61" s="73">
         <v>14</v>
       </c>
       <c r="B61" s="12"/>
@@ -3456,10 +3579,10 @@
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="18"/>
-      <c r="I61" s="51"/>
+      <c r="I61" s="72"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:9">
-      <c r="A62" s="52">
+      <c r="A62" s="73">
         <v>15</v>
       </c>
       <c r="B62" s="12"/>
@@ -3469,10 +3592,10 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="18"/>
-      <c r="I62" s="51"/>
+      <c r="I62" s="72"/>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:9">
-      <c r="A63" s="52">
+      <c r="A63" s="73">
         <v>16</v>
       </c>
       <c r="B63" s="12"/>
@@ -3482,75 +3605,75 @@
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="51"/>
+      <c r="I63" s="72"/>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:9">
-      <c r="A64" s="52">
+      <c r="A64" s="73">
         <v>17</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
-      <c r="D64" s="50"/>
+      <c r="D64" s="71"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="18"/>
-      <c r="I64" s="51"/>
+      <c r="I64" s="72"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:9">
-      <c r="A65" s="52">
+      <c r="A65" s="73">
         <v>18</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="50"/>
+      <c r="D65" s="71"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="51"/>
+      <c r="I65" s="72"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:9">
-      <c r="A66" s="52">
+      <c r="A66" s="73">
         <v>19</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="50"/>
+      <c r="D66" s="71"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="51"/>
+      <c r="I66" s="72"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:9">
-      <c r="A67" s="52">
+      <c r="A67" s="73">
         <v>20</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="50"/>
+      <c r="D67" s="71"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="51"/>
+      <c r="I67" s="72"/>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:9">
-      <c r="A68" s="52">
+      <c r="A68" s="73">
         <v>21</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="50"/>
+      <c r="D68" s="71"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="18"/>
-      <c r="I68" s="51"/>
+      <c r="I68" s="72"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:9">
-      <c r="A69" s="52">
+      <c r="A69" s="73">
         <v>22</v>
       </c>
       <c r="B69" s="12"/>
@@ -3560,10 +3683,10 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="18"/>
-      <c r="I69" s="51"/>
+      <c r="I69" s="72"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:9">
-      <c r="A70" s="52">
+      <c r="A70" s="73">
         <v>23</v>
       </c>
       <c r="B70" s="12"/>
@@ -3573,10 +3696,10 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="18"/>
-      <c r="I70" s="51"/>
+      <c r="I70" s="72"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:9">
-      <c r="A71" s="52">
+      <c r="A71" s="73">
         <v>24</v>
       </c>
       <c r="B71" s="12"/>
@@ -3586,10 +3709,10 @@
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="18"/>
-      <c r="I71" s="51"/>
+      <c r="I71" s="72"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:9">
-      <c r="A72" s="52">
+      <c r="A72" s="73">
         <v>25</v>
       </c>
       <c r="B72" s="12"/>
@@ -3599,10 +3722,10 @@
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="18"/>
-      <c r="I72" s="51"/>
+      <c r="I72" s="72"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:9">
-      <c r="A73" s="52">
+      <c r="A73" s="73">
         <v>26</v>
       </c>
       <c r="B73" s="12"/>
@@ -3612,7 +3735,7 @@
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="18"/>
-      <c r="I73" s="51"/>
+      <c r="I73" s="72"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:9">
       <c r="A74" s="21" t="s">
@@ -3627,7 +3750,7 @@
         <v>34</v>
       </c>
       <c r="H74" s="21"/>
-      <c r="I74" s="51"/>
+      <c r="I74" s="72"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:9">
       <c r="A75" s="21" t="s">
@@ -3642,7 +3765,7 @@
         <v>36</v>
       </c>
       <c r="H75" s="21"/>
-      <c r="I75" s="51"/>
+      <c r="I75" s="72"/>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:9">
       <c r="A76" s="20" t="s">
@@ -3655,18 +3778,18 @@
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="51"/>
+      <c r="I76" s="72"/>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:9">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:9">
       <c r="A78" s="19"/>
@@ -3679,7 +3802,7 @@
         <v>50</v>
       </c>
       <c r="H78" s="20"/>
-      <c r="I78" s="51"/>
+      <c r="I78" s="72"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:9">
       <c r="A79" s="19"/>
@@ -3692,7 +3815,7 @@
         <v>51</v>
       </c>
       <c r="H79" s="21"/>
-      <c r="I79" s="51"/>
+      <c r="I79" s="72"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:9">
       <c r="A80" s="22" t="s">
@@ -3705,7 +3828,7 @@
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
-      <c r="I80" s="51"/>
+      <c r="I80" s="72"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:9">
       <c r="A81" s="23" t="s">
@@ -3718,7 +3841,7 @@
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
-      <c r="I81" s="51"/>
+      <c r="I81" s="72"/>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:9">
       <c r="A82" s="21" t="s">
@@ -3731,7 +3854,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
-      <c r="I82" s="51"/>
+      <c r="I82" s="72"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:9">
       <c r="A83" s="21" t="s">
@@ -3746,7 +3869,7 @@
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
-      <c r="I83" s="51"/>
+      <c r="I83" s="72"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:9">
       <c r="A84" s="21" t="s">
@@ -3761,7 +3884,7 @@
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
-      <c r="I84" s="51"/>
+      <c r="I84" s="72"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:9">
       <c r="A85" s="6" t="s">
@@ -3788,10 +3911,10 @@
       <c r="H85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I85" s="51"/>
+      <c r="I85" s="72"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:9">
-      <c r="A86" s="52">
+      <c r="A86" s="73">
         <v>1</v>
       </c>
       <c r="B86" s="45" t="s">
@@ -3811,13 +3934,13 @@
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="18"/>
-      <c r="I86" s="51"/>
+      <c r="I86" s="72"/>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:9">
-      <c r="A87" s="52">
+      <c r="A87" s="73">
         <v>2</v>
       </c>
-      <c r="B87" s="49"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="12" t="s">
         <v>56</v>
       </c>
@@ -3832,13 +3955,13 @@
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="18"/>
-      <c r="I87" s="51"/>
+      <c r="I87" s="72"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:9">
-      <c r="A88" s="52">
+      <c r="A88" s="73">
         <v>3</v>
       </c>
-      <c r="B88" s="49"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="12" t="s">
         <v>57</v>
       </c>
@@ -3853,13 +3976,13 @@
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="18"/>
-      <c r="I88" s="51"/>
+      <c r="I88" s="72"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:9">
-      <c r="A89" s="52">
+      <c r="A89" s="73">
         <v>4</v>
       </c>
-      <c r="B89" s="49"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="12" t="s">
         <v>58</v>
       </c>
@@ -3874,13 +3997,13 @@
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="18"/>
-      <c r="I89" s="51"/>
+      <c r="I89" s="72"/>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:9">
-      <c r="A90" s="52">
+      <c r="A90" s="73">
         <v>5</v>
       </c>
-      <c r="B90" s="49"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="12" t="s">
         <v>59</v>
       </c>
@@ -3895,13 +4018,13 @@
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="18"/>
-      <c r="I90" s="51"/>
+      <c r="I90" s="72"/>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:9">
-      <c r="A91" s="52">
+      <c r="A91" s="73">
         <v>6</v>
       </c>
-      <c r="B91" s="49"/>
+      <c r="B91" s="70"/>
       <c r="C91" s="12" t="s">
         <v>60</v>
       </c>
@@ -3916,13 +4039,13 @@
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="18"/>
-      <c r="I91" s="51"/>
+      <c r="I91" s="72"/>
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:9">
-      <c r="A92" s="52">
+      <c r="A92" s="73">
         <v>7</v>
       </c>
-      <c r="B92" s="49"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="12" t="s">
         <v>61</v>
       </c>
@@ -3937,13 +4060,13 @@
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="18"/>
-      <c r="I92" s="51"/>
+      <c r="I92" s="72"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:9">
-      <c r="A93" s="52">
+      <c r="A93" s="73">
         <v>8</v>
       </c>
-      <c r="B93" s="49"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="12" t="s">
         <v>62</v>
       </c>
@@ -3958,13 +4081,13 @@
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="18"/>
-      <c r="I93" s="51"/>
+      <c r="I93" s="72"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:9">
-      <c r="A94" s="52">
+      <c r="A94" s="73">
         <v>9</v>
       </c>
-      <c r="B94" s="49"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="12" t="s">
         <v>63</v>
       </c>
@@ -3979,13 +4102,13 @@
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="18"/>
-      <c r="I94" s="51"/>
+      <c r="I94" s="72"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:9">
-      <c r="A95" s="52">
+      <c r="A95" s="73">
         <v>10</v>
       </c>
-      <c r="B95" s="49"/>
+      <c r="B95" s="70"/>
       <c r="C95" s="12" t="s">
         <v>64</v>
       </c>
@@ -4000,13 +4123,13 @@
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="18"/>
-      <c r="I95" s="51"/>
+      <c r="I95" s="72"/>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:9">
-      <c r="A96" s="52">
+      <c r="A96" s="73">
         <v>11</v>
       </c>
-      <c r="B96" s="49"/>
+      <c r="B96" s="70"/>
       <c r="C96" s="12" t="s">
         <v>65</v>
       </c>
@@ -4021,10 +4144,10 @@
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="18"/>
-      <c r="I96" s="51"/>
+      <c r="I96" s="72"/>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:9">
-      <c r="A97" s="52">
+      <c r="A97" s="73">
         <v>12</v>
       </c>
       <c r="B97" s="46"/>
@@ -4042,10 +4165,10 @@
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="18"/>
-      <c r="I97" s="51"/>
+      <c r="I97" s="72"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:9">
-      <c r="A98" s="52">
+      <c r="A98" s="73">
         <v>13</v>
       </c>
       <c r="B98" s="45" t="s">
@@ -4065,13 +4188,13 @@
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="18"/>
-      <c r="I98" s="51"/>
+      <c r="I98" s="72"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:9">
-      <c r="A99" s="52">
+      <c r="A99" s="73">
         <v>14</v>
       </c>
-      <c r="B99" s="49"/>
+      <c r="B99" s="70"/>
       <c r="C99" s="12" t="s">
         <v>70</v>
       </c>
@@ -4086,13 +4209,13 @@
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="18"/>
-      <c r="I99" s="51"/>
+      <c r="I99" s="72"/>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:9">
-      <c r="A100" s="52">
+      <c r="A100" s="73">
         <v>15</v>
       </c>
-      <c r="B100" s="49"/>
+      <c r="B100" s="70"/>
       <c r="C100" s="12" t="s">
         <v>71</v>
       </c>
@@ -4107,10 +4230,10 @@
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="18"/>
-      <c r="I100" s="51"/>
+      <c r="I100" s="72"/>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:9">
-      <c r="A101" s="52">
+      <c r="A101" s="73">
         <v>16</v>
       </c>
       <c r="B101" s="46"/>
@@ -4128,10 +4251,10 @@
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="18"/>
-      <c r="I101" s="51"/>
+      <c r="I101" s="72"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:9">
-      <c r="A102" s="52">
+      <c r="A102" s="73">
         <v>17</v>
       </c>
       <c r="B102" s="12" t="s">
@@ -4140,7 +4263,7 @@
       <c r="C102" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E102" s="12" t="s">
@@ -4151,62 +4274,62 @@
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="18"/>
-      <c r="I102" s="51"/>
+      <c r="I102" s="72"/>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:9">
-      <c r="A103" s="52">
+      <c r="A103" s="73">
         <v>18</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
-      <c r="D103" s="50"/>
+      <c r="D103" s="71"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="18"/>
-      <c r="I103" s="51"/>
+      <c r="I103" s="72"/>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:9">
-      <c r="A104" s="52">
+      <c r="A104" s="73">
         <v>19</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
-      <c r="D104" s="50"/>
+      <c r="D104" s="71"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="18"/>
-      <c r="I104" s="51"/>
+      <c r="I104" s="72"/>
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:9">
-      <c r="A105" s="52">
+      <c r="A105" s="73">
         <v>20</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
-      <c r="D105" s="50"/>
+      <c r="D105" s="71"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="18"/>
-      <c r="I105" s="51"/>
+      <c r="I105" s="72"/>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:9">
-      <c r="A106" s="52">
+      <c r="A106" s="73">
         <v>21</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
-      <c r="D106" s="50"/>
+      <c r="D106" s="71"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="18"/>
-      <c r="I106" s="51"/>
+      <c r="I106" s="72"/>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:9">
-      <c r="A107" s="52">
+      <c r="A107" s="73">
         <v>22</v>
       </c>
       <c r="B107" s="12"/>
@@ -4216,10 +4339,10 @@
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="18"/>
-      <c r="I107" s="51"/>
+      <c r="I107" s="72"/>
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:9">
-      <c r="A108" s="52">
+      <c r="A108" s="73">
         <v>23</v>
       </c>
       <c r="B108" s="12"/>
@@ -4229,10 +4352,10 @@
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="18"/>
-      <c r="I108" s="51"/>
+      <c r="I108" s="72"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:9">
-      <c r="A109" s="52">
+      <c r="A109" s="73">
         <v>24</v>
       </c>
       <c r="B109" s="12"/>
@@ -4242,10 +4365,10 @@
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="18"/>
-      <c r="I109" s="51"/>
+      <c r="I109" s="72"/>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:9">
-      <c r="A110" s="52">
+      <c r="A110" s="73">
         <v>25</v>
       </c>
       <c r="B110" s="12"/>
@@ -4255,10 +4378,10 @@
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="18"/>
-      <c r="I110" s="51"/>
+      <c r="I110" s="72"/>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:9">
-      <c r="A111" s="52">
+      <c r="A111" s="73">
         <v>26</v>
       </c>
       <c r="B111" s="12"/>
@@ -4268,7 +4391,7 @@
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="18"/>
-      <c r="I111" s="51"/>
+      <c r="I111" s="72"/>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:9">
       <c r="A112" s="21" t="s">
@@ -4283,7 +4406,7 @@
         <v>34</v>
       </c>
       <c r="H112" s="21"/>
-      <c r="I112" s="51"/>
+      <c r="I112" s="72"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:9">
       <c r="A113" s="21" t="s">
@@ -4298,7 +4421,7 @@
         <v>36</v>
       </c>
       <c r="H113" s="21"/>
-      <c r="I113" s="51"/>
+      <c r="I113" s="72"/>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:9">
       <c r="A114" s="20" t="s">
@@ -4311,7 +4434,7 @@
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="51"/>
+      <c r="I114" s="72"/>
     </row>
     <row r="115" ht="18" customHeight="1" spans="1:9">
       <c r="A115" s="19"/>
@@ -4322,7 +4445,7 @@
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="51"/>
+      <c r="I115" s="72"/>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:9">
       <c r="A116" s="19"/>
@@ -4335,7 +4458,7 @@
         <v>74</v>
       </c>
       <c r="H116" s="20"/>
-      <c r="I116" s="51"/>
+      <c r="I116" s="72"/>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:9">
       <c r="A117" s="19"/>
@@ -4348,7 +4471,7 @@
         <v>75</v>
       </c>
       <c r="H117" s="21"/>
-      <c r="I117" s="51"/>
+      <c r="I117" s="72"/>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:9">
       <c r="A118" s="22" t="s">
@@ -4361,7 +4484,7 @@
       <c r="F118" s="22"/>
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
-      <c r="I118" s="51"/>
+      <c r="I118" s="72"/>
     </row>
     <row r="119" ht="18" customHeight="1" spans="1:9">
       <c r="A119" s="23" t="s">
@@ -4374,7 +4497,7 @@
       <c r="F119" s="22"/>
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
-      <c r="I119" s="51"/>
+      <c r="I119" s="72"/>
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:9">
       <c r="A120" s="21" t="s">
@@ -4387,7 +4510,7 @@
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
       <c r="H120" s="21"/>
-      <c r="I120" s="51"/>
+      <c r="I120" s="72"/>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:9">
       <c r="A121" s="21" t="s">
@@ -4402,7 +4525,7 @@
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
-      <c r="I121" s="51"/>
+      <c r="I121" s="72"/>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:9">
       <c r="A122" s="21" t="s">
@@ -4417,7 +4540,7 @@
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
-      <c r="I122" s="51"/>
+      <c r="I122" s="72"/>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:9">
       <c r="A123" s="6" t="s">
@@ -4444,10 +4567,10 @@
       <c r="H123" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="51"/>
+      <c r="I123" s="72"/>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:9">
-      <c r="A124" s="52">
+      <c r="A124" s="73">
         <v>1</v>
       </c>
       <c r="B124" s="45" t="s">
@@ -4467,13 +4590,13 @@
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="18"/>
-      <c r="I124" s="51"/>
+      <c r="I124" s="72"/>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:9">
-      <c r="A125" s="52">
+      <c r="A125" s="73">
         <v>2</v>
       </c>
-      <c r="B125" s="49"/>
+      <c r="B125" s="70"/>
       <c r="C125" s="12" t="s">
         <v>80</v>
       </c>
@@ -4488,13 +4611,13 @@
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="18"/>
-      <c r="I125" s="51"/>
+      <c r="I125" s="72"/>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:9">
-      <c r="A126" s="52">
+      <c r="A126" s="73">
         <v>3</v>
       </c>
-      <c r="B126" s="49"/>
+      <c r="B126" s="70"/>
       <c r="C126" s="12" t="s">
         <v>81</v>
       </c>
@@ -4509,13 +4632,13 @@
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="18"/>
-      <c r="I126" s="51"/>
+      <c r="I126" s="72"/>
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:9">
-      <c r="A127" s="52">
+      <c r="A127" s="73">
         <v>4</v>
       </c>
-      <c r="B127" s="49"/>
+      <c r="B127" s="70"/>
       <c r="C127" s="12" t="s">
         <v>82</v>
       </c>
@@ -4530,13 +4653,13 @@
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="18"/>
-      <c r="I127" s="51"/>
+      <c r="I127" s="72"/>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:9">
-      <c r="A128" s="52">
+      <c r="A128" s="73">
         <v>5</v>
       </c>
-      <c r="B128" s="49"/>
+      <c r="B128" s="70"/>
       <c r="C128" s="12" t="s">
         <v>83</v>
       </c>
@@ -4551,10 +4674,10 @@
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="18"/>
-      <c r="I128" s="51"/>
+      <c r="I128" s="72"/>
     </row>
     <row r="129" ht="18" customHeight="1" spans="1:9">
-      <c r="A129" s="52">
+      <c r="A129" s="73">
         <v>6</v>
       </c>
       <c r="B129" s="46"/>
@@ -4572,10 +4695,10 @@
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="18"/>
-      <c r="I129" s="51"/>
+      <c r="I129" s="72"/>
     </row>
     <row r="130" ht="18" customHeight="1" spans="1:9">
-      <c r="A130" s="52">
+      <c r="A130" s="73">
         <v>7</v>
       </c>
       <c r="B130" s="12" t="s">
@@ -4595,10 +4718,10 @@
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="18"/>
-      <c r="I130" s="51"/>
+      <c r="I130" s="72"/>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:9">
-      <c r="A131" s="52">
+      <c r="A131" s="73">
         <v>8</v>
       </c>
       <c r="B131" s="12"/>
@@ -4608,10 +4731,10 @@
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="18"/>
-      <c r="I131" s="51"/>
+      <c r="I131" s="72"/>
     </row>
     <row r="132" ht="18" customHeight="1" spans="1:9">
-      <c r="A132" s="52">
+      <c r="A132" s="73">
         <v>9</v>
       </c>
       <c r="B132" s="12"/>
@@ -4621,10 +4744,10 @@
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="18"/>
-      <c r="I132" s="51"/>
+      <c r="I132" s="72"/>
     </row>
     <row r="133" ht="18" customHeight="1" spans="1:9">
-      <c r="A133" s="52">
+      <c r="A133" s="73">
         <v>10</v>
       </c>
       <c r="B133" s="12"/>
@@ -4634,10 +4757,10 @@
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="18"/>
-      <c r="I133" s="51"/>
+      <c r="I133" s="72"/>
     </row>
     <row r="134" ht="18" customHeight="1" spans="1:9">
-      <c r="A134" s="52">
+      <c r="A134" s="73">
         <v>11</v>
       </c>
       <c r="B134" s="12"/>
@@ -4647,10 +4770,10 @@
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="18"/>
-      <c r="I134" s="51"/>
+      <c r="I134" s="72"/>
     </row>
     <row r="135" ht="18" customHeight="1" spans="1:9">
-      <c r="A135" s="52">
+      <c r="A135" s="73">
         <v>12</v>
       </c>
       <c r="B135" s="12"/>
@@ -4660,10 +4783,10 @@
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
       <c r="H135" s="18"/>
-      <c r="I135" s="51"/>
+      <c r="I135" s="72"/>
     </row>
     <row r="136" ht="18" customHeight="1" spans="1:9">
-      <c r="A136" s="52">
+      <c r="A136" s="73">
         <v>13</v>
       </c>
       <c r="B136" s="12"/>
@@ -4673,10 +4796,10 @@
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
       <c r="H136" s="18"/>
-      <c r="I136" s="51"/>
+      <c r="I136" s="72"/>
     </row>
     <row r="137" ht="18" customHeight="1" spans="1:9">
-      <c r="A137" s="52">
+      <c r="A137" s="73">
         <v>14</v>
       </c>
       <c r="B137" s="12"/>
@@ -4686,10 +4809,10 @@
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="18"/>
-      <c r="I137" s="51"/>
+      <c r="I137" s="72"/>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:9">
-      <c r="A138" s="52">
+      <c r="A138" s="73">
         <v>15</v>
       </c>
       <c r="B138" s="12"/>
@@ -4699,10 +4822,10 @@
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="18"/>
-      <c r="I138" s="51"/>
+      <c r="I138" s="72"/>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:9">
-      <c r="A139" s="52">
+      <c r="A139" s="73">
         <v>16</v>
       </c>
       <c r="B139" s="12"/>
@@ -4712,75 +4835,75 @@
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="18"/>
-      <c r="I139" s="51"/>
+      <c r="I139" s="72"/>
     </row>
     <row r="140" ht="18" customHeight="1" spans="1:9">
-      <c r="A140" s="52">
+      <c r="A140" s="73">
         <v>17</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
-      <c r="D140" s="50"/>
+      <c r="D140" s="71"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
       <c r="H140" s="18"/>
-      <c r="I140" s="51"/>
+      <c r="I140" s="72"/>
     </row>
     <row r="141" ht="18" customHeight="1" spans="1:9">
-      <c r="A141" s="52">
+      <c r="A141" s="73">
         <v>18</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
-      <c r="D141" s="50"/>
+      <c r="D141" s="71"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="18"/>
-      <c r="I141" s="51"/>
+      <c r="I141" s="72"/>
     </row>
     <row r="142" ht="18" customHeight="1" spans="1:9">
-      <c r="A142" s="52">
+      <c r="A142" s="73">
         <v>19</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
-      <c r="D142" s="50"/>
+      <c r="D142" s="71"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="18"/>
-      <c r="I142" s="51"/>
+      <c r="I142" s="72"/>
     </row>
     <row r="143" ht="18" customHeight="1" spans="1:9">
-      <c r="A143" s="52">
+      <c r="A143" s="73">
         <v>20</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
-      <c r="D143" s="50"/>
+      <c r="D143" s="71"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
       <c r="H143" s="18"/>
-      <c r="I143" s="51"/>
+      <c r="I143" s="72"/>
     </row>
     <row r="144" ht="18" customHeight="1" spans="1:9">
-      <c r="A144" s="52">
+      <c r="A144" s="73">
         <v>21</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
-      <c r="D144" s="50"/>
+      <c r="D144" s="71"/>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
       <c r="H144" s="18"/>
-      <c r="I144" s="51"/>
+      <c r="I144" s="72"/>
     </row>
     <row r="145" ht="18" customHeight="1" spans="1:9">
-      <c r="A145" s="52">
+      <c r="A145" s="73">
         <v>22</v>
       </c>
       <c r="B145" s="12"/>
@@ -4790,10 +4913,10 @@
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
       <c r="H145" s="18"/>
-      <c r="I145" s="51"/>
+      <c r="I145" s="72"/>
     </row>
     <row r="146" ht="18" customHeight="1" spans="1:9">
-      <c r="A146" s="52">
+      <c r="A146" s="73">
         <v>23</v>
       </c>
       <c r="B146" s="12"/>
@@ -4803,10 +4926,10 @@
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="18"/>
-      <c r="I146" s="51"/>
+      <c r="I146" s="72"/>
     </row>
     <row r="147" ht="18" customHeight="1" spans="1:9">
-      <c r="A147" s="52">
+      <c r="A147" s="73">
         <v>24</v>
       </c>
       <c r="B147" s="12"/>
@@ -4816,10 +4939,10 @@
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
       <c r="H147" s="18"/>
-      <c r="I147" s="51"/>
+      <c r="I147" s="72"/>
     </row>
     <row r="148" ht="18" customHeight="1" spans="1:9">
-      <c r="A148" s="52">
+      <c r="A148" s="73">
         <v>25</v>
       </c>
       <c r="B148" s="12"/>
@@ -4829,10 +4952,10 @@
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
       <c r="H148" s="18"/>
-      <c r="I148" s="51"/>
+      <c r="I148" s="72"/>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:9">
-      <c r="A149" s="52">
+      <c r="A149" s="73">
         <v>26</v>
       </c>
       <c r="B149" s="12"/>
@@ -4842,7 +4965,7 @@
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="18"/>
-      <c r="I149" s="51"/>
+      <c r="I149" s="72"/>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:9">
       <c r="A150" s="21" t="s">
@@ -4857,7 +4980,7 @@
         <v>34</v>
       </c>
       <c r="H150" s="21"/>
-      <c r="I150" s="51"/>
+      <c r="I150" s="72"/>
     </row>
     <row r="151" ht="18" customHeight="1" spans="1:9">
       <c r="A151" s="21" t="s">
@@ -4872,7 +4995,7 @@
         <v>36</v>
       </c>
       <c r="H151" s="21"/>
-      <c r="I151" s="51"/>
+      <c r="I151" s="72"/>
     </row>
     <row r="152" ht="18" customHeight="1" spans="1:9">
       <c r="A152" s="20" t="s">
@@ -4885,18 +5008,18 @@
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="51"/>
+      <c r="I152" s="72"/>
     </row>
     <row r="153" ht="18" customHeight="1" spans="1:9">
-      <c r="A153" s="51"/>
-      <c r="B153" s="51"/>
-      <c r="C153" s="51"/>
-      <c r="D153" s="51"/>
-      <c r="E153" s="51"/>
-      <c r="F153" s="51"/>
-      <c r="G153" s="51"/>
-      <c r="H153" s="51"/>
-      <c r="I153" s="51"/>
+      <c r="A153" s="72"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="72"/>
+      <c r="H153" s="72"/>
+      <c r="I153" s="72"/>
     </row>
     <row r="154" ht="18" customHeight="1" spans="1:9">
       <c r="A154" s="19"/>
@@ -4909,7 +5032,7 @@
         <v>88</v>
       </c>
       <c r="H154" s="20"/>
-      <c r="I154" s="51"/>
+      <c r="I154" s="72"/>
     </row>
     <row r="155" ht="18" customHeight="1" spans="1:9">
       <c r="A155" s="19"/>
@@ -4922,7 +5045,7 @@
         <v>89</v>
       </c>
       <c r="H155" s="21"/>
-      <c r="I155" s="51"/>
+      <c r="I155" s="72"/>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:9">
       <c r="A156" s="22" t="s">
@@ -4935,7 +5058,7 @@
       <c r="F156" s="22"/>
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
-      <c r="I156" s="51"/>
+      <c r="I156" s="72"/>
     </row>
     <row r="157" ht="18" customHeight="1" spans="1:9">
       <c r="A157" s="23" t="s">
@@ -4948,7 +5071,7 @@
       <c r="F157" s="22"/>
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
-      <c r="I157" s="51"/>
+      <c r="I157" s="72"/>
     </row>
     <row r="158" ht="18" customHeight="1" spans="1:9">
       <c r="A158" s="21" t="s">
@@ -4961,7 +5084,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
       <c r="H158" s="21"/>
-      <c r="I158" s="51"/>
+      <c r="I158" s="72"/>
     </row>
     <row r="159" ht="18" customHeight="1" spans="1:9">
       <c r="A159" s="21" t="s">
@@ -4976,7 +5099,7 @@
       </c>
       <c r="G159" s="21"/>
       <c r="H159" s="21"/>
-      <c r="I159" s="51"/>
+      <c r="I159" s="72"/>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:9">
       <c r="A160" s="21" t="s">
@@ -4991,7 +5114,7 @@
       </c>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
-      <c r="I160" s="51"/>
+      <c r="I160" s="72"/>
     </row>
     <row r="161" ht="18" customHeight="1" spans="1:9">
       <c r="A161" s="6" t="s">
@@ -5018,10 +5141,10 @@
       <c r="H161" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I161" s="51"/>
+      <c r="I161" s="72"/>
     </row>
     <row r="162" ht="18" customHeight="1" spans="1:9">
-      <c r="A162" s="52">
+      <c r="A162" s="73">
         <v>1</v>
       </c>
       <c r="B162" s="45" t="s">
@@ -5041,10 +5164,10 @@
       </c>
       <c r="G162" s="12"/>
       <c r="H162" s="18"/>
-      <c r="I162" s="51"/>
+      <c r="I162" s="72"/>
     </row>
     <row r="163" ht="18" customHeight="1" spans="1:9">
-      <c r="A163" s="52">
+      <c r="A163" s="73">
         <v>2</v>
       </c>
       <c r="B163" s="46"/>
@@ -5062,10 +5185,10 @@
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="18"/>
-      <c r="I163" s="51"/>
+      <c r="I163" s="72"/>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:9">
-      <c r="A164" s="52">
+      <c r="A164" s="73">
         <v>3</v>
       </c>
       <c r="B164" s="45" t="s">
@@ -5085,13 +5208,13 @@
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="18"/>
-      <c r="I164" s="51"/>
+      <c r="I164" s="72"/>
     </row>
     <row r="165" ht="18" customHeight="1" spans="1:9">
-      <c r="A165" s="52">
+      <c r="A165" s="73">
         <v>4</v>
       </c>
-      <c r="B165" s="49"/>
+      <c r="B165" s="70"/>
       <c r="C165" s="12" t="s">
         <v>94</v>
       </c>
@@ -5106,13 +5229,13 @@
       </c>
       <c r="G165" s="12"/>
       <c r="H165" s="18"/>
-      <c r="I165" s="51"/>
+      <c r="I165" s="72"/>
     </row>
     <row r="166" ht="18" customHeight="1" spans="1:9">
-      <c r="A166" s="52">
+      <c r="A166" s="73">
         <v>5</v>
       </c>
-      <c r="B166" s="49"/>
+      <c r="B166" s="70"/>
       <c r="C166" s="12" t="s">
         <v>96</v>
       </c>
@@ -5127,13 +5250,13 @@
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="18"/>
-      <c r="I166" s="51"/>
+      <c r="I166" s="72"/>
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:9">
-      <c r="A167" s="52">
+      <c r="A167" s="73">
         <v>6</v>
       </c>
-      <c r="B167" s="49"/>
+      <c r="B167" s="70"/>
       <c r="C167" s="12" t="s">
         <v>97</v>
       </c>
@@ -5148,13 +5271,13 @@
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="18"/>
-      <c r="I167" s="51"/>
+      <c r="I167" s="72"/>
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:9">
-      <c r="A168" s="52">
+      <c r="A168" s="73">
         <v>7</v>
       </c>
-      <c r="B168" s="49"/>
+      <c r="B168" s="70"/>
       <c r="C168" s="12" t="s">
         <v>98</v>
       </c>
@@ -5169,13 +5292,13 @@
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="18"/>
-      <c r="I168" s="51"/>
+      <c r="I168" s="72"/>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:9">
-      <c r="A169" s="52">
+      <c r="A169" s="73">
         <v>8</v>
       </c>
-      <c r="B169" s="49"/>
+      <c r="B169" s="70"/>
       <c r="C169" s="12" t="s">
         <v>99</v>
       </c>
@@ -5190,13 +5313,13 @@
       </c>
       <c r="G169" s="12"/>
       <c r="H169" s="18"/>
-      <c r="I169" s="51"/>
+      <c r="I169" s="72"/>
     </row>
     <row r="170" ht="18" customHeight="1" spans="1:9">
-      <c r="A170" s="52">
+      <c r="A170" s="73">
         <v>9</v>
       </c>
-      <c r="B170" s="49"/>
+      <c r="B170" s="70"/>
       <c r="C170" s="12" t="s">
         <v>100</v>
       </c>
@@ -5211,13 +5334,13 @@
       </c>
       <c r="G170" s="12"/>
       <c r="H170" s="18"/>
-      <c r="I170" s="51"/>
+      <c r="I170" s="72"/>
     </row>
     <row r="171" ht="18" customHeight="1" spans="1:9">
-      <c r="A171" s="52">
+      <c r="A171" s="73">
         <v>10</v>
       </c>
-      <c r="B171" s="49"/>
+      <c r="B171" s="70"/>
       <c r="C171" s="12" t="s">
         <v>101</v>
       </c>
@@ -5232,17 +5355,17 @@
       </c>
       <c r="G171" s="12"/>
       <c r="H171" s="18"/>
-      <c r="I171" s="51"/>
+      <c r="I171" s="72"/>
     </row>
     <row r="172" ht="18" customHeight="1" spans="1:9">
-      <c r="A172" s="52">
+      <c r="A172" s="73">
         <v>11</v>
       </c>
-      <c r="B172" s="49"/>
+      <c r="B172" s="70"/>
       <c r="C172" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D172" s="50" t="s">
+      <c r="D172" s="71" t="s">
         <v>69</v>
       </c>
       <c r="E172" s="12" t="s">
@@ -5253,17 +5376,17 @@
       </c>
       <c r="G172" s="12"/>
       <c r="H172" s="18"/>
-      <c r="I172" s="51"/>
+      <c r="I172" s="72"/>
     </row>
     <row r="173" ht="18" customHeight="1" spans="1:9">
-      <c r="A173" s="52">
+      <c r="A173" s="73">
         <v>12</v>
       </c>
-      <c r="B173" s="49"/>
+      <c r="B173" s="70"/>
       <c r="C173" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D173" s="50" t="s">
+      <c r="D173" s="71" t="s">
         <v>95</v>
       </c>
       <c r="E173" s="12" t="s">
@@ -5274,17 +5397,17 @@
       </c>
       <c r="G173" s="12"/>
       <c r="H173" s="18"/>
-      <c r="I173" s="51"/>
+      <c r="I173" s="72"/>
     </row>
     <row r="174" ht="18" customHeight="1" spans="1:9">
-      <c r="A174" s="52">
+      <c r="A174" s="73">
         <v>13</v>
       </c>
-      <c r="B174" s="49"/>
+      <c r="B174" s="70"/>
       <c r="C174" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D174" s="50" t="s">
+      <c r="D174" s="71" t="s">
         <v>69</v>
       </c>
       <c r="E174" s="12" t="s">
@@ -5295,17 +5418,17 @@
       </c>
       <c r="G174" s="12"/>
       <c r="H174" s="18"/>
-      <c r="I174" s="51"/>
+      <c r="I174" s="72"/>
     </row>
     <row r="175" ht="18" customHeight="1" spans="1:9">
-      <c r="A175" s="52">
+      <c r="A175" s="73">
         <v>14</v>
       </c>
-      <c r="B175" s="49"/>
+      <c r="B175" s="70"/>
       <c r="C175" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D175" s="50" t="s">
+      <c r="D175" s="71" t="s">
         <v>69</v>
       </c>
       <c r="E175" s="12" t="s">
@@ -5316,17 +5439,17 @@
       </c>
       <c r="G175" s="12"/>
       <c r="H175" s="18"/>
-      <c r="I175" s="51"/>
+      <c r="I175" s="72"/>
     </row>
     <row r="176" ht="18" customHeight="1" spans="1:9">
-      <c r="A176" s="52">
+      <c r="A176" s="73">
         <v>15</v>
       </c>
-      <c r="B176" s="49"/>
+      <c r="B176" s="70"/>
       <c r="C176" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D176" s="50" t="s">
+      <c r="D176" s="71" t="s">
         <v>95</v>
       </c>
       <c r="E176" s="12" t="s">
@@ -5337,13 +5460,13 @@
       </c>
       <c r="G176" s="12"/>
       <c r="H176" s="18"/>
-      <c r="I176" s="51"/>
+      <c r="I176" s="72"/>
     </row>
     <row r="177" ht="18" customHeight="1" spans="1:9">
-      <c r="A177" s="52">
+      <c r="A177" s="73">
         <v>16</v>
       </c>
-      <c r="B177" s="49"/>
+      <c r="B177" s="70"/>
       <c r="C177" s="12" t="s">
         <v>107</v>
       </c>
@@ -5358,13 +5481,13 @@
       </c>
       <c r="G177" s="12"/>
       <c r="H177" s="18"/>
-      <c r="I177" s="51"/>
+      <c r="I177" s="72"/>
     </row>
     <row r="178" ht="18" customHeight="1" spans="1:9">
-      <c r="A178" s="52">
+      <c r="A178" s="73">
         <v>17</v>
       </c>
-      <c r="B178" s="49"/>
+      <c r="B178" s="70"/>
       <c r="C178" s="12" t="s">
         <v>108</v>
       </c>
@@ -5379,13 +5502,13 @@
       </c>
       <c r="G178" s="12"/>
       <c r="H178" s="18"/>
-      <c r="I178" s="51"/>
+      <c r="I178" s="72"/>
     </row>
     <row r="179" ht="18" customHeight="1" spans="1:9">
-      <c r="A179" s="52">
+      <c r="A179" s="73">
         <v>18</v>
       </c>
-      <c r="B179" s="49"/>
+      <c r="B179" s="70"/>
       <c r="C179" s="12" t="s">
         <v>109</v>
       </c>
@@ -5400,10 +5523,10 @@
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="18"/>
-      <c r="I179" s="51"/>
+      <c r="I179" s="72"/>
     </row>
     <row r="180" ht="18" customHeight="1" spans="1:9">
-      <c r="A180" s="52">
+      <c r="A180" s="73">
         <v>19</v>
       </c>
       <c r="B180" s="46"/>
@@ -5421,10 +5544,10 @@
       </c>
       <c r="G180" s="12"/>
       <c r="H180" s="18"/>
-      <c r="I180" s="51"/>
+      <c r="I180" s="72"/>
     </row>
     <row r="181" ht="18" customHeight="1" spans="1:9">
-      <c r="A181" s="52">
+      <c r="A181" s="73">
         <v>20</v>
       </c>
       <c r="B181" s="12" t="s">
@@ -5444,10 +5567,10 @@
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="18"/>
-      <c r="I181" s="51"/>
+      <c r="I181" s="72"/>
     </row>
     <row r="182" ht="18" customHeight="1" spans="1:9">
-      <c r="A182" s="52">
+      <c r="A182" s="73">
         <v>21</v>
       </c>
       <c r="B182" s="12"/>
@@ -5457,10 +5580,10 @@
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="18"/>
-      <c r="I182" s="51"/>
+      <c r="I182" s="72"/>
     </row>
     <row r="183" ht="18" customHeight="1" spans="1:9">
-      <c r="A183" s="52">
+      <c r="A183" s="73">
         <v>22</v>
       </c>
       <c r="B183" s="12"/>
@@ -5470,10 +5593,10 @@
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="18"/>
-      <c r="I183" s="51"/>
+      <c r="I183" s="72"/>
     </row>
     <row r="184" ht="18" customHeight="1" spans="1:9">
-      <c r="A184" s="52">
+      <c r="A184" s="73">
         <v>23</v>
       </c>
       <c r="B184" s="12"/>
@@ -5483,10 +5606,10 @@
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="18"/>
-      <c r="I184" s="51"/>
+      <c r="I184" s="72"/>
     </row>
     <row r="185" ht="18" customHeight="1" spans="1:9">
-      <c r="A185" s="52">
+      <c r="A185" s="73">
         <v>24</v>
       </c>
       <c r="B185" s="12"/>
@@ -5496,10 +5619,10 @@
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="18"/>
-      <c r="I185" s="51"/>
+      <c r="I185" s="72"/>
     </row>
     <row r="186" ht="18" customHeight="1" spans="1:9">
-      <c r="A186" s="52">
+      <c r="A186" s="73">
         <v>25</v>
       </c>
       <c r="B186" s="12"/>
@@ -5509,10 +5632,10 @@
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="18"/>
-      <c r="I186" s="51"/>
+      <c r="I186" s="72"/>
     </row>
     <row r="187" ht="18" customHeight="1" spans="1:9">
-      <c r="A187" s="52">
+      <c r="A187" s="73">
         <v>26</v>
       </c>
       <c r="B187" s="12"/>
@@ -5522,7 +5645,7 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="18"/>
-      <c r="I187" s="51"/>
+      <c r="I187" s="72"/>
     </row>
     <row r="188" ht="18" customHeight="1" spans="1:9">
       <c r="A188" s="21" t="s">
@@ -5537,7 +5660,7 @@
         <v>34</v>
       </c>
       <c r="H188" s="21"/>
-      <c r="I188" s="51"/>
+      <c r="I188" s="72"/>
     </row>
     <row r="189" ht="18" customHeight="1" spans="1:9">
       <c r="A189" s="21" t="s">
@@ -5552,7 +5675,7 @@
         <v>36</v>
       </c>
       <c r="H189" s="21"/>
-      <c r="I189" s="51"/>
+      <c r="I189" s="72"/>
     </row>
     <row r="190" ht="18" customHeight="1" spans="1:9">
       <c r="A190" s="20" t="s">
@@ -5565,18 +5688,18 @@
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
       <c r="H190" s="19"/>
-      <c r="I190" s="51"/>
+      <c r="I190" s="72"/>
     </row>
     <row r="191" ht="18" customHeight="1" spans="1:9">
-      <c r="A191" s="51"/>
-      <c r="B191" s="51"/>
-      <c r="C191" s="51"/>
-      <c r="D191" s="51"/>
-      <c r="E191" s="51"/>
-      <c r="F191" s="51"/>
-      <c r="G191" s="51"/>
-      <c r="H191" s="51"/>
-      <c r="I191" s="51"/>
+      <c r="A191" s="72"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="72"/>
+      <c r="D191" s="72"/>
+      <c r="E191" s="72"/>
+      <c r="F191" s="72"/>
+      <c r="G191" s="72"/>
+      <c r="H191" s="72"/>
+      <c r="I191" s="72"/>
     </row>
     <row r="192" ht="18" customHeight="1" spans="1:9">
       <c r="A192" s="19"/>
@@ -5589,7 +5712,7 @@
         <v>112</v>
       </c>
       <c r="H192" s="20"/>
-      <c r="I192" s="51"/>
+      <c r="I192" s="72"/>
     </row>
     <row r="193" ht="18" customHeight="1" spans="1:9">
       <c r="A193" s="19"/>
@@ -5602,7 +5725,7 @@
         <v>113</v>
       </c>
       <c r="H193" s="21"/>
-      <c r="I193" s="51"/>
+      <c r="I193" s="72"/>
     </row>
     <row r="194" ht="18" customHeight="1" spans="1:9">
       <c r="A194" s="22" t="s">
@@ -5615,7 +5738,7 @@
       <c r="F194" s="22"/>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
-      <c r="I194" s="51"/>
+      <c r="I194" s="72"/>
     </row>
     <row r="195" ht="18" customHeight="1" spans="1:9">
       <c r="A195" s="23" t="s">
@@ -5628,7 +5751,7 @@
       <c r="F195" s="22"/>
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
-      <c r="I195" s="51"/>
+      <c r="I195" s="72"/>
     </row>
     <row r="196" ht="18" customHeight="1" spans="1:9">
       <c r="A196" s="21" t="s">
@@ -5641,7 +5764,7 @@
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
-      <c r="I196" s="51"/>
+      <c r="I196" s="72"/>
     </row>
     <row r="197" ht="18" customHeight="1" spans="1:9">
       <c r="A197" s="21" t="s">
@@ -5656,7 +5779,7 @@
       </c>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
-      <c r="I197" s="51"/>
+      <c r="I197" s="72"/>
     </row>
     <row r="198" ht="18" customHeight="1" spans="1:9">
       <c r="A198" s="21" t="s">
@@ -5671,7 +5794,7 @@
       </c>
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
-      <c r="I198" s="51"/>
+      <c r="I198" s="72"/>
     </row>
     <row r="199" ht="18" customHeight="1" spans="1:9">
       <c r="A199" s="6" t="s">
@@ -5698,10 +5821,10 @@
       <c r="H199" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I199" s="51"/>
+      <c r="I199" s="72"/>
     </row>
     <row r="200" ht="18" customHeight="1" spans="1:9">
-      <c r="A200" s="52">
+      <c r="A200" s="73">
         <v>1</v>
       </c>
       <c r="B200" s="45" t="s">
@@ -5721,13 +5844,13 @@
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="18"/>
-      <c r="I200" s="51"/>
+      <c r="I200" s="72"/>
     </row>
     <row r="201" ht="18" customHeight="1" spans="1:9">
-      <c r="A201" s="52">
+      <c r="A201" s="73">
         <v>2</v>
       </c>
-      <c r="B201" s="49"/>
+      <c r="B201" s="70"/>
       <c r="C201" s="12" t="s">
         <v>117</v>
       </c>
@@ -5742,10 +5865,10 @@
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="18"/>
-      <c r="I201" s="51"/>
+      <c r="I201" s="72"/>
     </row>
     <row r="202" ht="18" customHeight="1" spans="1:9">
-      <c r="A202" s="52">
+      <c r="A202" s="73">
         <v>3</v>
       </c>
       <c r="B202" s="46"/>
@@ -5763,10 +5886,10 @@
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="18"/>
-      <c r="I202" s="51"/>
+      <c r="I202" s="72"/>
     </row>
     <row r="203" ht="18" customHeight="1" spans="1:9">
-      <c r="A203" s="52">
+      <c r="A203" s="73">
         <v>4</v>
       </c>
       <c r="B203" s="45" t="s">
@@ -5786,13 +5909,13 @@
       </c>
       <c r="G203" s="12"/>
       <c r="H203" s="18"/>
-      <c r="I203" s="51"/>
+      <c r="I203" s="72"/>
     </row>
     <row r="204" ht="18" customHeight="1" spans="1:9">
-      <c r="A204" s="52">
+      <c r="A204" s="73">
         <v>5</v>
       </c>
-      <c r="B204" s="49"/>
+      <c r="B204" s="70"/>
       <c r="C204" s="12" t="s">
         <v>119</v>
       </c>
@@ -5807,13 +5930,13 @@
       </c>
       <c r="G204" s="12"/>
       <c r="H204" s="18"/>
-      <c r="I204" s="51"/>
+      <c r="I204" s="72"/>
     </row>
     <row r="205" ht="18" customHeight="1" spans="1:9">
-      <c r="A205" s="52">
+      <c r="A205" s="73">
         <v>6</v>
       </c>
-      <c r="B205" s="49"/>
+      <c r="B205" s="70"/>
       <c r="C205" s="12" t="s">
         <v>120</v>
       </c>
@@ -5828,13 +5951,13 @@
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="18"/>
-      <c r="I205" s="51"/>
+      <c r="I205" s="72"/>
     </row>
     <row r="206" ht="18" customHeight="1" spans="1:9">
-      <c r="A206" s="52">
+      <c r="A206" s="73">
         <v>7</v>
       </c>
-      <c r="B206" s="49"/>
+      <c r="B206" s="70"/>
       <c r="C206" s="12" t="s">
         <v>121</v>
       </c>
@@ -5849,13 +5972,13 @@
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="18"/>
-      <c r="I206" s="51"/>
+      <c r="I206" s="72"/>
     </row>
     <row r="207" ht="18" customHeight="1" spans="1:9">
-      <c r="A207" s="52">
+      <c r="A207" s="73">
         <v>8</v>
       </c>
-      <c r="B207" s="49"/>
+      <c r="B207" s="70"/>
       <c r="C207" s="12" t="s">
         <v>122</v>
       </c>
@@ -5870,13 +5993,13 @@
       </c>
       <c r="G207" s="12"/>
       <c r="H207" s="18"/>
-      <c r="I207" s="51"/>
+      <c r="I207" s="72"/>
     </row>
     <row r="208" ht="18" customHeight="1" spans="1:9">
-      <c r="A208" s="52">
+      <c r="A208" s="73">
         <v>9</v>
       </c>
-      <c r="B208" s="49"/>
+      <c r="B208" s="70"/>
       <c r="C208" s="12" t="s">
         <v>123</v>
       </c>
@@ -5891,13 +6014,13 @@
       </c>
       <c r="G208" s="12"/>
       <c r="H208" s="18"/>
-      <c r="I208" s="51"/>
+      <c r="I208" s="72"/>
     </row>
     <row r="209" ht="18" customHeight="1" spans="1:9">
-      <c r="A209" s="52">
+      <c r="A209" s="73">
         <v>10</v>
       </c>
-      <c r="B209" s="49"/>
+      <c r="B209" s="70"/>
       <c r="C209" s="12" t="s">
         <v>124</v>
       </c>
@@ -5912,13 +6035,13 @@
       </c>
       <c r="G209" s="12"/>
       <c r="H209" s="18"/>
-      <c r="I209" s="51"/>
+      <c r="I209" s="72"/>
     </row>
     <row r="210" ht="18" customHeight="1" spans="1:9">
-      <c r="A210" s="52">
+      <c r="A210" s="73">
         <v>11</v>
       </c>
-      <c r="B210" s="49"/>
+      <c r="B210" s="70"/>
       <c r="C210" s="12" t="s">
         <v>125</v>
       </c>
@@ -5933,13 +6056,13 @@
       </c>
       <c r="G210" s="12"/>
       <c r="H210" s="18"/>
-      <c r="I210" s="51"/>
+      <c r="I210" s="72"/>
     </row>
     <row r="211" ht="18" customHeight="1" spans="1:9">
-      <c r="A211" s="52">
+      <c r="A211" s="73">
         <v>12</v>
       </c>
-      <c r="B211" s="49"/>
+      <c r="B211" s="70"/>
       <c r="C211" s="12" t="s">
         <v>126</v>
       </c>
@@ -5954,13 +6077,13 @@
       </c>
       <c r="G211" s="12"/>
       <c r="H211" s="18"/>
-      <c r="I211" s="51"/>
+      <c r="I211" s="72"/>
     </row>
     <row r="212" ht="18" customHeight="1" spans="1:9">
-      <c r="A212" s="52">
+      <c r="A212" s="73">
         <v>13</v>
       </c>
-      <c r="B212" s="49"/>
+      <c r="B212" s="70"/>
       <c r="C212" s="12" t="s">
         <v>127</v>
       </c>
@@ -5975,13 +6098,13 @@
       </c>
       <c r="G212" s="12"/>
       <c r="H212" s="18"/>
-      <c r="I212" s="51"/>
+      <c r="I212" s="72"/>
     </row>
     <row r="213" ht="18" customHeight="1" spans="1:9">
-      <c r="A213" s="52">
+      <c r="A213" s="73">
         <v>14</v>
       </c>
-      <c r="B213" s="49"/>
+      <c r="B213" s="70"/>
       <c r="C213" s="12" t="s">
         <v>128</v>
       </c>
@@ -5996,13 +6119,13 @@
       </c>
       <c r="G213" s="12"/>
       <c r="H213" s="18"/>
-      <c r="I213" s="51"/>
+      <c r="I213" s="72"/>
     </row>
     <row r="214" ht="18" customHeight="1" spans="1:9">
-      <c r="A214" s="52">
+      <c r="A214" s="73">
         <v>15</v>
       </c>
-      <c r="B214" s="49"/>
+      <c r="B214" s="70"/>
       <c r="C214" s="12" t="s">
         <v>129</v>
       </c>
@@ -6017,13 +6140,13 @@
       </c>
       <c r="G214" s="12"/>
       <c r="H214" s="18"/>
-      <c r="I214" s="51"/>
+      <c r="I214" s="72"/>
     </row>
     <row r="215" ht="18" customHeight="1" spans="1:9">
-      <c r="A215" s="52">
+      <c r="A215" s="73">
         <v>16</v>
       </c>
-      <c r="B215" s="49"/>
+      <c r="B215" s="70"/>
       <c r="C215" s="12" t="s">
         <v>130</v>
       </c>
@@ -6038,13 +6161,13 @@
       </c>
       <c r="G215" s="12"/>
       <c r="H215" s="18"/>
-      <c r="I215" s="51"/>
+      <c r="I215" s="72"/>
     </row>
     <row r="216" ht="18" customHeight="1" spans="1:9">
-      <c r="A216" s="52">
+      <c r="A216" s="73">
         <v>17</v>
       </c>
-      <c r="B216" s="49"/>
+      <c r="B216" s="70"/>
       <c r="C216" s="12" t="s">
         <v>131</v>
       </c>
@@ -6059,13 +6182,13 @@
       </c>
       <c r="G216" s="12"/>
       <c r="H216" s="18"/>
-      <c r="I216" s="51"/>
+      <c r="I216" s="72"/>
     </row>
     <row r="217" ht="18" customHeight="1" spans="1:9">
-      <c r="A217" s="52">
+      <c r="A217" s="73">
         <v>18</v>
       </c>
-      <c r="B217" s="49"/>
+      <c r="B217" s="70"/>
       <c r="C217" s="12" t="s">
         <v>132</v>
       </c>
@@ -6080,13 +6203,13 @@
       </c>
       <c r="G217" s="12"/>
       <c r="H217" s="18"/>
-      <c r="I217" s="51"/>
+      <c r="I217" s="72"/>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:9">
-      <c r="A218" s="52">
+      <c r="A218" s="73">
         <v>19</v>
       </c>
-      <c r="B218" s="49"/>
+      <c r="B218" s="70"/>
       <c r="C218" s="12" t="s">
         <v>133</v>
       </c>
@@ -6101,13 +6224,13 @@
       </c>
       <c r="G218" s="12"/>
       <c r="H218" s="18"/>
-      <c r="I218" s="51"/>
+      <c r="I218" s="72"/>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:9">
-      <c r="A219" s="52">
+      <c r="A219" s="73">
         <v>20</v>
       </c>
-      <c r="B219" s="49"/>
+      <c r="B219" s="70"/>
       <c r="C219" s="12" t="s">
         <v>134</v>
       </c>
@@ -6122,13 +6245,13 @@
       </c>
       <c r="G219" s="12"/>
       <c r="H219" s="18"/>
-      <c r="I219" s="51"/>
+      <c r="I219" s="72"/>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:9">
-      <c r="A220" s="52">
+      <c r="A220" s="73">
         <v>21</v>
       </c>
-      <c r="B220" s="49"/>
+      <c r="B220" s="70"/>
       <c r="C220" s="12" t="s">
         <v>135</v>
       </c>
@@ -6143,13 +6266,13 @@
       </c>
       <c r="G220" s="12"/>
       <c r="H220" s="18"/>
-      <c r="I220" s="51"/>
+      <c r="I220" s="72"/>
     </row>
     <row r="221" ht="18" customHeight="1" spans="1:9">
-      <c r="A221" s="52">
+      <c r="A221" s="73">
         <v>22</v>
       </c>
-      <c r="B221" s="49"/>
+      <c r="B221" s="70"/>
       <c r="C221" s="12" t="s">
         <v>136</v>
       </c>
@@ -6164,13 +6287,13 @@
       </c>
       <c r="G221" s="12"/>
       <c r="H221" s="18"/>
-      <c r="I221" s="51"/>
+      <c r="I221" s="72"/>
     </row>
     <row r="222" ht="18" customHeight="1" spans="1:9">
-      <c r="A222" s="52">
+      <c r="A222" s="73">
         <v>23</v>
       </c>
-      <c r="B222" s="49"/>
+      <c r="B222" s="70"/>
       <c r="C222" s="12" t="s">
         <v>137</v>
       </c>
@@ -6185,13 +6308,13 @@
       </c>
       <c r="G222" s="12"/>
       <c r="H222" s="18"/>
-      <c r="I222" s="51"/>
+      <c r="I222" s="72"/>
     </row>
     <row r="223" ht="18" customHeight="1" spans="1:9">
-      <c r="A223" s="52">
+      <c r="A223" s="73">
         <v>24</v>
       </c>
-      <c r="B223" s="49"/>
+      <c r="B223" s="70"/>
       <c r="C223" s="12" t="s">
         <v>138</v>
       </c>
@@ -6206,13 +6329,13 @@
       </c>
       <c r="G223" s="12"/>
       <c r="H223" s="18"/>
-      <c r="I223" s="51"/>
+      <c r="I223" s="72"/>
     </row>
     <row r="224" ht="18" customHeight="1" spans="1:9">
-      <c r="A224" s="52">
+      <c r="A224" s="73">
         <v>25</v>
       </c>
-      <c r="B224" s="49"/>
+      <c r="B224" s="70"/>
       <c r="C224" s="12" t="s">
         <v>139</v>
       </c>
@@ -6227,13 +6350,13 @@
       </c>
       <c r="G224" s="12"/>
       <c r="H224" s="18"/>
-      <c r="I224" s="51"/>
+      <c r="I224" s="72"/>
     </row>
     <row r="225" ht="18" customHeight="1" spans="1:9">
-      <c r="A225" s="52">
+      <c r="A225" s="73">
         <v>26</v>
       </c>
-      <c r="B225" s="49"/>
+      <c r="B225" s="70"/>
       <c r="C225" s="12" t="s">
         <v>140</v>
       </c>
@@ -6248,13 +6371,13 @@
       </c>
       <c r="G225" s="12"/>
       <c r="H225" s="18"/>
-      <c r="I225" s="51"/>
+      <c r="I225" s="72"/>
     </row>
     <row r="226" ht="18" customHeight="1" spans="1:9">
-      <c r="A226" s="52">
+      <c r="A226" s="73">
         <v>27</v>
       </c>
-      <c r="B226" s="49"/>
+      <c r="B226" s="70"/>
       <c r="C226" s="12" t="s">
         <v>141</v>
       </c>
@@ -6269,13 +6392,13 @@
       </c>
       <c r="G226" s="12"/>
       <c r="H226" s="18"/>
-      <c r="I226" s="51"/>
+      <c r="I226" s="72"/>
     </row>
     <row r="227" ht="18" customHeight="1" spans="1:9">
-      <c r="A227" s="52">
+      <c r="A227" s="73">
         <v>28</v>
       </c>
-      <c r="B227" s="49"/>
+      <c r="B227" s="70"/>
       <c r="C227" s="12" t="s">
         <v>142</v>
       </c>
@@ -6290,10 +6413,10 @@
       </c>
       <c r="G227" s="12"/>
       <c r="H227" s="18"/>
-      <c r="I227" s="51"/>
+      <c r="I227" s="72"/>
     </row>
     <row r="228" ht="18" customHeight="1" spans="1:9">
-      <c r="A228" s="52">
+      <c r="A228" s="73">
         <v>29</v>
       </c>
       <c r="B228" s="46"/>
@@ -6311,7 +6434,7 @@
       </c>
       <c r="G228" s="12"/>
       <c r="H228" s="18"/>
-      <c r="I228" s="51"/>
+      <c r="I228" s="72"/>
     </row>
     <row r="229" ht="18" customHeight="1" spans="1:9">
       <c r="A229" s="21" t="s">
@@ -6326,7 +6449,7 @@
         <v>34</v>
       </c>
       <c r="H229" s="21"/>
-      <c r="I229" s="51"/>
+      <c r="I229" s="72"/>
     </row>
     <row r="230" ht="18" customHeight="1" spans="1:9">
       <c r="A230" s="21" t="s">
@@ -6341,7 +6464,7 @@
         <v>36</v>
       </c>
       <c r="H230" s="21"/>
-      <c r="I230" s="51"/>
+      <c r="I230" s="72"/>
     </row>
     <row r="231" ht="18" customHeight="1" spans="1:9">
       <c r="A231" s="20" t="s">
@@ -6354,18 +6477,18 @@
       <c r="F231" s="19"/>
       <c r="G231" s="19"/>
       <c r="H231" s="19"/>
-      <c r="I231" s="51"/>
+      <c r="I231" s="72"/>
     </row>
     <row r="232" ht="18" customHeight="1" spans="1:9">
-      <c r="A232" s="51"/>
-      <c r="B232" s="51"/>
-      <c r="C232" s="51"/>
-      <c r="D232" s="51"/>
-      <c r="E232" s="51"/>
-      <c r="F232" s="51"/>
-      <c r="G232" s="51"/>
-      <c r="H232" s="51"/>
-      <c r="I232" s="51"/>
+      <c r="A232" s="72"/>
+      <c r="B232" s="72"/>
+      <c r="C232" s="72"/>
+      <c r="D232" s="72"/>
+      <c r="E232" s="72"/>
+      <c r="F232" s="72"/>
+      <c r="G232" s="72"/>
+      <c r="H232" s="72"/>
+      <c r="I232" s="72"/>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:9">
       <c r="A233" s="19"/>
@@ -6378,7 +6501,7 @@
         <v>144</v>
       </c>
       <c r="H233" s="20"/>
-      <c r="I233" s="51"/>
+      <c r="I233" s="72"/>
     </row>
     <row r="234" ht="18" customHeight="1" spans="1:9">
       <c r="A234" s="19"/>
@@ -6391,7 +6514,7 @@
         <v>145</v>
       </c>
       <c r="H234" s="21"/>
-      <c r="I234" s="51"/>
+      <c r="I234" s="72"/>
     </row>
     <row r="235" ht="18" customHeight="1" spans="1:9">
       <c r="A235" s="22" t="s">
@@ -6404,7 +6527,7 @@
       <c r="F235" s="22"/>
       <c r="G235" s="22"/>
       <c r="H235" s="22"/>
-      <c r="I235" s="51"/>
+      <c r="I235" s="72"/>
     </row>
     <row r="236" ht="18" customHeight="1" spans="1:9">
       <c r="A236" s="23" t="s">
@@ -6417,7 +6540,7 @@
       <c r="F236" s="22"/>
       <c r="G236" s="22"/>
       <c r="H236" s="22"/>
-      <c r="I236" s="51"/>
+      <c r="I236" s="72"/>
     </row>
     <row r="237" ht="18" customHeight="1" spans="1:9">
       <c r="A237" s="21" t="s">
@@ -6430,7 +6553,7 @@
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
       <c r="H237" s="21"/>
-      <c r="I237" s="51"/>
+      <c r="I237" s="72"/>
     </row>
     <row r="238" ht="18" customHeight="1" spans="1:9">
       <c r="A238" s="21" t="s">
@@ -6445,7 +6568,7 @@
       </c>
       <c r="G238" s="21"/>
       <c r="H238" s="21"/>
-      <c r="I238" s="51"/>
+      <c r="I238" s="72"/>
     </row>
     <row r="239" ht="18" customHeight="1" spans="1:9">
       <c r="A239" s="21" t="s">
@@ -6460,7 +6583,7 @@
       </c>
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
-      <c r="I239" s="51"/>
+      <c r="I239" s="72"/>
     </row>
     <row r="240" ht="18" customHeight="1" spans="1:9">
       <c r="A240" s="6" t="s">
@@ -6487,10 +6610,10 @@
       <c r="H240" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I240" s="51"/>
+      <c r="I240" s="72"/>
     </row>
     <row r="241" ht="18" customHeight="1" spans="1:9">
-      <c r="A241" s="52">
+      <c r="A241" s="73">
         <v>1</v>
       </c>
       <c r="B241" s="45" t="s">
@@ -6510,14 +6633,14 @@
       </c>
       <c r="G241" s="12"/>
       <c r="H241" s="18"/>
-      <c r="I241" s="51"/>
+      <c r="I241" s="72"/>
     </row>
     <row r="242" ht="18" customHeight="1" spans="1:9">
-      <c r="A242" s="52">
+      <c r="A242" s="73">
         <v>2</v>
       </c>
-      <c r="B242" s="49"/>
-      <c r="C242" s="51" t="s">
+      <c r="B242" s="70"/>
+      <c r="C242" s="72" t="s">
         <v>148</v>
       </c>
       <c r="D242" s="12" t="s">
@@ -6531,13 +6654,13 @@
       </c>
       <c r="G242" s="12"/>
       <c r="H242" s="18"/>
-      <c r="I242" s="51"/>
+      <c r="I242" s="72"/>
     </row>
     <row r="243" ht="18" customHeight="1" spans="1:9">
-      <c r="A243" s="52">
+      <c r="A243" s="73">
         <v>3</v>
       </c>
-      <c r="B243" s="49"/>
+      <c r="B243" s="70"/>
       <c r="C243" s="12" t="s">
         <v>150</v>
       </c>
@@ -6552,10 +6675,10 @@
       </c>
       <c r="G243" s="12"/>
       <c r="H243" s="18"/>
-      <c r="I243" s="51"/>
+      <c r="I243" s="72"/>
     </row>
     <row r="244" ht="18" customHeight="1" spans="1:9">
-      <c r="A244" s="52">
+      <c r="A244" s="73">
         <v>4</v>
       </c>
       <c r="B244" s="46"/>
@@ -6573,16 +6696,16 @@
       </c>
       <c r="G244" s="12"/>
       <c r="H244" s="18"/>
-      <c r="I244" s="51"/>
+      <c r="I244" s="72"/>
     </row>
     <row r="245" ht="18" customHeight="1" spans="1:9">
-      <c r="A245" s="53">
+      <c r="A245" s="74">
         <v>5</v>
       </c>
       <c r="B245" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C245" s="54" t="s">
+      <c r="C245" s="75" t="s">
         <v>153</v>
       </c>
       <c r="D245" s="12" t="s">
@@ -6596,14 +6719,14 @@
       </c>
       <c r="G245" s="12"/>
       <c r="H245" s="18"/>
-      <c r="I245" s="51"/>
+      <c r="I245" s="72"/>
     </row>
     <row r="246" ht="18" customHeight="1" spans="1:9">
-      <c r="A246" s="53">
+      <c r="A246" s="74">
         <v>6</v>
       </c>
       <c r="B246" s="12"/>
-      <c r="C246" s="54" t="s">
+      <c r="C246" s="75" t="s">
         <v>154</v>
       </c>
       <c r="D246" s="12" t="s">
@@ -6617,14 +6740,14 @@
       </c>
       <c r="G246" s="12"/>
       <c r="H246" s="18"/>
-      <c r="I246" s="51"/>
+      <c r="I246" s="72"/>
     </row>
     <row r="247" ht="18" customHeight="1" spans="1:9">
-      <c r="A247" s="53">
+      <c r="A247" s="74">
         <v>7</v>
       </c>
       <c r="B247" s="12"/>
-      <c r="C247" s="54" t="s">
+      <c r="C247" s="75" t="s">
         <v>155</v>
       </c>
       <c r="D247" s="12" t="s">
@@ -6638,14 +6761,14 @@
       </c>
       <c r="G247" s="12"/>
       <c r="H247" s="18"/>
-      <c r="I247" s="51"/>
+      <c r="I247" s="72"/>
     </row>
     <row r="248" ht="18" customHeight="1" spans="1:9">
-      <c r="A248" s="53">
+      <c r="A248" s="74">
         <v>8</v>
       </c>
       <c r="B248" s="12"/>
-      <c r="C248" s="54" t="s">
+      <c r="C248" s="75" t="s">
         <v>156</v>
       </c>
       <c r="D248" s="12" t="s">
@@ -6659,14 +6782,14 @@
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="18"/>
-      <c r="I248" s="51"/>
+      <c r="I248" s="72"/>
     </row>
     <row r="249" ht="18" customHeight="1" spans="1:9">
-      <c r="A249" s="53">
+      <c r="A249" s="74">
         <v>9</v>
       </c>
       <c r="B249" s="12"/>
-      <c r="C249" s="54" t="s">
+      <c r="C249" s="75" t="s">
         <v>157</v>
       </c>
       <c r="D249" s="12" t="s">
@@ -6680,14 +6803,14 @@
       </c>
       <c r="G249" s="12"/>
       <c r="H249" s="18"/>
-      <c r="I249" s="51"/>
+      <c r="I249" s="72"/>
     </row>
     <row r="250" ht="18" customHeight="1" spans="1:9">
-      <c r="A250" s="53">
+      <c r="A250" s="74">
         <v>10</v>
       </c>
       <c r="B250" s="12"/>
-      <c r="C250" s="54" t="s">
+      <c r="C250" s="75" t="s">
         <v>158</v>
       </c>
       <c r="D250" s="12" t="s">
@@ -6701,14 +6824,14 @@
       </c>
       <c r="G250" s="12"/>
       <c r="H250" s="18"/>
-      <c r="I250" s="51"/>
+      <c r="I250" s="72"/>
     </row>
     <row r="251" ht="18" customHeight="1" spans="1:9">
-      <c r="A251" s="53">
+      <c r="A251" s="74">
         <v>11</v>
       </c>
       <c r="B251" s="12"/>
-      <c r="C251" s="54" t="s">
+      <c r="C251" s="75" t="s">
         <v>159</v>
       </c>
       <c r="D251" s="12" t="s">
@@ -6722,14 +6845,14 @@
       </c>
       <c r="G251" s="12"/>
       <c r="H251" s="18"/>
-      <c r="I251" s="51"/>
+      <c r="I251" s="72"/>
     </row>
     <row r="252" ht="18" customHeight="1" spans="1:9">
-      <c r="A252" s="53">
+      <c r="A252" s="74">
         <v>12</v>
       </c>
       <c r="B252" s="12"/>
-      <c r="C252" s="54" t="s">
+      <c r="C252" s="75" t="s">
         <v>160</v>
       </c>
       <c r="D252" s="12" t="s">
@@ -6743,14 +6866,14 @@
       </c>
       <c r="G252" s="12"/>
       <c r="H252" s="18"/>
-      <c r="I252" s="51"/>
+      <c r="I252" s="72"/>
     </row>
     <row r="253" ht="18" customHeight="1" spans="1:9">
-      <c r="A253" s="53">
+      <c r="A253" s="74">
         <v>13</v>
       </c>
       <c r="B253" s="12"/>
-      <c r="C253" s="54" t="s">
+      <c r="C253" s="75" t="s">
         <v>161</v>
       </c>
       <c r="D253" s="12" t="s">
@@ -6764,14 +6887,14 @@
       </c>
       <c r="G253" s="12"/>
       <c r="H253" s="18"/>
-      <c r="I253" s="51"/>
+      <c r="I253" s="72"/>
     </row>
     <row r="254" ht="18" customHeight="1" spans="1:9">
-      <c r="A254" s="53">
+      <c r="A254" s="74">
         <v>14</v>
       </c>
       <c r="B254" s="12"/>
-      <c r="C254" s="54" t="s">
+      <c r="C254" s="75" t="s">
         <v>162</v>
       </c>
       <c r="D254" s="12" t="s">
@@ -6785,14 +6908,14 @@
       </c>
       <c r="G254" s="12"/>
       <c r="H254" s="18"/>
-      <c r="I254" s="51"/>
+      <c r="I254" s="72"/>
     </row>
     <row r="255" ht="18" customHeight="1" spans="1:9">
-      <c r="A255" s="53">
+      <c r="A255" s="74">
         <v>15</v>
       </c>
       <c r="B255" s="12"/>
-      <c r="C255" s="54" t="s">
+      <c r="C255" s="75" t="s">
         <v>163</v>
       </c>
       <c r="D255" s="12" t="s">
@@ -6806,14 +6929,14 @@
       </c>
       <c r="G255" s="12"/>
       <c r="H255" s="18"/>
-      <c r="I255" s="51"/>
+      <c r="I255" s="72"/>
     </row>
     <row r="256" ht="18" customHeight="1" spans="1:9">
-      <c r="A256" s="53">
+      <c r="A256" s="74">
         <v>16</v>
       </c>
       <c r="B256" s="12"/>
-      <c r="C256" s="54" t="s">
+      <c r="C256" s="75" t="s">
         <v>164</v>
       </c>
       <c r="D256" s="12" t="s">
@@ -6827,14 +6950,14 @@
       </c>
       <c r="G256" s="12"/>
       <c r="H256" s="18"/>
-      <c r="I256" s="51"/>
+      <c r="I256" s="72"/>
     </row>
     <row r="257" ht="18" customHeight="1" spans="1:9">
-      <c r="A257" s="53">
+      <c r="A257" s="74">
         <v>17</v>
       </c>
       <c r="B257" s="12"/>
-      <c r="C257" s="54" t="s">
+      <c r="C257" s="75" t="s">
         <v>165</v>
       </c>
       <c r="D257" s="12" t="s">
@@ -6848,14 +6971,14 @@
       </c>
       <c r="G257" s="12"/>
       <c r="H257" s="18"/>
-      <c r="I257" s="51"/>
+      <c r="I257" s="72"/>
     </row>
     <row r="258" ht="18" customHeight="1" spans="1:9">
-      <c r="A258" s="53">
+      <c r="A258" s="74">
         <v>18</v>
       </c>
       <c r="B258" s="12"/>
-      <c r="C258" s="54" t="s">
+      <c r="C258" s="75" t="s">
         <v>102</v>
       </c>
       <c r="D258" s="12" t="s">
@@ -6869,14 +6992,14 @@
       </c>
       <c r="G258" s="12"/>
       <c r="H258" s="18"/>
-      <c r="I258" s="51"/>
+      <c r="I258" s="72"/>
     </row>
     <row r="259" ht="18" customHeight="1" spans="1:9">
-      <c r="A259" s="53">
+      <c r="A259" s="74">
         <v>19</v>
       </c>
       <c r="B259" s="12"/>
-      <c r="C259" s="54" t="s">
+      <c r="C259" s="75" t="s">
         <v>166</v>
       </c>
       <c r="D259" s="12" t="s">
@@ -6890,14 +7013,14 @@
       </c>
       <c r="G259" s="12"/>
       <c r="H259" s="18"/>
-      <c r="I259" s="51"/>
+      <c r="I259" s="72"/>
     </row>
     <row r="260" ht="18" customHeight="1" spans="1:9">
-      <c r="A260" s="53">
+      <c r="A260" s="74">
         <v>20</v>
       </c>
       <c r="B260" s="12"/>
-      <c r="C260" s="54" t="s">
+      <c r="C260" s="75" t="s">
         <v>140</v>
       </c>
       <c r="D260" s="12" t="s">
@@ -6911,14 +7034,14 @@
       </c>
       <c r="G260" s="12"/>
       <c r="H260" s="18"/>
-      <c r="I260" s="51"/>
+      <c r="I260" s="72"/>
     </row>
     <row r="261" ht="18" customHeight="1" spans="1:9">
-      <c r="A261" s="53">
+      <c r="A261" s="74">
         <v>21</v>
       </c>
       <c r="B261" s="12"/>
-      <c r="C261" s="54" t="s">
+      <c r="C261" s="75" t="s">
         <v>167</v>
       </c>
       <c r="D261" s="12" t="s">
@@ -6932,14 +7055,14 @@
       </c>
       <c r="G261" s="12"/>
       <c r="H261" s="18"/>
-      <c r="I261" s="51"/>
+      <c r="I261" s="72"/>
     </row>
     <row r="262" ht="18" customHeight="1" spans="1:9">
-      <c r="A262" s="53">
+      <c r="A262" s="74">
         <v>22</v>
       </c>
       <c r="B262" s="12"/>
-      <c r="C262" s="54" t="s">
+      <c r="C262" s="75" t="s">
         <v>168</v>
       </c>
       <c r="D262" s="12" t="s">
@@ -6953,14 +7076,14 @@
       </c>
       <c r="G262" s="12"/>
       <c r="H262" s="18"/>
-      <c r="I262" s="51"/>
+      <c r="I262" s="72"/>
     </row>
     <row r="263" ht="18" customHeight="1" spans="1:9">
-      <c r="A263" s="53">
+      <c r="A263" s="74">
         <v>23</v>
       </c>
       <c r="B263" s="12"/>
-      <c r="C263" s="54" t="s">
+      <c r="C263" s="75" t="s">
         <v>169</v>
       </c>
       <c r="D263" s="12" t="s">
@@ -6974,14 +7097,14 @@
       </c>
       <c r="G263" s="12"/>
       <c r="H263" s="18"/>
-      <c r="I263" s="51"/>
+      <c r="I263" s="72"/>
     </row>
     <row r="264" ht="18" customHeight="1" spans="1:9">
-      <c r="A264" s="53">
+      <c r="A264" s="74">
         <v>24</v>
       </c>
       <c r="B264" s="12"/>
-      <c r="C264" s="54" t="s">
+      <c r="C264" s="75" t="s">
         <v>170</v>
       </c>
       <c r="D264" s="12" t="s">
@@ -6995,14 +7118,14 @@
       </c>
       <c r="G264" s="12"/>
       <c r="H264" s="18"/>
-      <c r="I264" s="51"/>
+      <c r="I264" s="72"/>
     </row>
     <row r="265" ht="18" customHeight="1" spans="1:9">
-      <c r="A265" s="53">
+      <c r="A265" s="74">
         <v>25</v>
       </c>
       <c r="B265" s="12"/>
-      <c r="C265" s="54" t="s">
+      <c r="C265" s="75" t="s">
         <v>171</v>
       </c>
       <c r="D265" s="12" t="s">
@@ -7016,14 +7139,14 @@
       </c>
       <c r="G265" s="12"/>
       <c r="H265" s="18"/>
-      <c r="I265" s="51"/>
+      <c r="I265" s="72"/>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:9">
-      <c r="A266" s="53">
+      <c r="A266" s="74">
         <v>26</v>
       </c>
       <c r="B266" s="12"/>
-      <c r="C266" s="54" t="s">
+      <c r="C266" s="75" t="s">
         <v>172</v>
       </c>
       <c r="D266" s="12" t="s">
@@ -7037,14 +7160,14 @@
       </c>
       <c r="G266" s="12"/>
       <c r="H266" s="18"/>
-      <c r="I266" s="51"/>
+      <c r="I266" s="72"/>
     </row>
     <row r="267" ht="18" customHeight="1" spans="1:9">
-      <c r="A267" s="53">
+      <c r="A267" s="74">
         <v>27</v>
       </c>
       <c r="B267" s="12"/>
-      <c r="C267" s="54" t="s">
+      <c r="C267" s="75" t="s">
         <v>173</v>
       </c>
       <c r="D267" s="12" t="s">
@@ -7057,15 +7180,15 @@
         <v>1</v>
       </c>
       <c r="G267" s="12"/>
-      <c r="H267" s="55"/>
-      <c r="I267" s="51"/>
+      <c r="H267" s="76"/>
+      <c r="I267" s="72"/>
     </row>
     <row r="268" ht="18" customHeight="1" spans="1:9">
-      <c r="A268" s="53">
+      <c r="A268" s="74">
         <v>28</v>
       </c>
       <c r="B268" s="12"/>
-      <c r="C268" s="54" t="s">
+      <c r="C268" s="75" t="s">
         <v>174</v>
       </c>
       <c r="D268" s="12" t="s">
@@ -7078,15 +7201,15 @@
         <v>1</v>
       </c>
       <c r="G268" s="12"/>
-      <c r="H268" s="55"/>
-      <c r="I268" s="51"/>
+      <c r="H268" s="76"/>
+      <c r="I268" s="72"/>
     </row>
     <row r="269" ht="18" customHeight="1" spans="1:9">
-      <c r="A269" s="53">
+      <c r="A269" s="74">
         <v>29</v>
       </c>
       <c r="B269" s="12"/>
-      <c r="C269" s="54" t="s">
+      <c r="C269" s="75" t="s">
         <v>175</v>
       </c>
       <c r="D269" s="12" t="s">
@@ -7099,15 +7222,15 @@
         <v>1</v>
       </c>
       <c r="G269" s="12"/>
-      <c r="H269" s="55"/>
-      <c r="I269" s="51"/>
+      <c r="H269" s="76"/>
+      <c r="I269" s="72"/>
     </row>
     <row r="270" ht="18" customHeight="1" spans="1:9">
-      <c r="A270" s="53">
+      <c r="A270" s="74">
         <v>30</v>
       </c>
       <c r="B270" s="12"/>
-      <c r="C270" s="54" t="s">
+      <c r="C270" s="75" t="s">
         <v>176</v>
       </c>
       <c r="D270" s="12" t="s">
@@ -7120,15 +7243,15 @@
         <v>1</v>
       </c>
       <c r="G270" s="12"/>
-      <c r="H270" s="55"/>
-      <c r="I270" s="51"/>
+      <c r="H270" s="76"/>
+      <c r="I270" s="72"/>
     </row>
     <row r="271" ht="18" customHeight="1" spans="1:9">
-      <c r="A271" s="53">
+      <c r="A271" s="74">
         <v>31</v>
       </c>
       <c r="B271" s="12"/>
-      <c r="C271" s="54" t="s">
+      <c r="C271" s="75" t="s">
         <v>177</v>
       </c>
       <c r="D271" s="12" t="s">
@@ -7141,15 +7264,15 @@
         <v>1</v>
       </c>
       <c r="G271" s="12"/>
-      <c r="H271" s="55"/>
-      <c r="I271" s="51"/>
+      <c r="H271" s="76"/>
+      <c r="I271" s="72"/>
     </row>
     <row r="272" ht="18" customHeight="1" spans="1:9">
-      <c r="A272" s="53">
+      <c r="A272" s="74">
         <v>32</v>
       </c>
       <c r="B272" s="12"/>
-      <c r="C272" s="54" t="s">
+      <c r="C272" s="75" t="s">
         <v>178</v>
       </c>
       <c r="D272" s="12" t="s">
@@ -7162,15 +7285,15 @@
         <v>1</v>
       </c>
       <c r="G272" s="12"/>
-      <c r="H272" s="55"/>
-      <c r="I272" s="51"/>
+      <c r="H272" s="76"/>
+      <c r="I272" s="72"/>
     </row>
     <row r="273" ht="18" customHeight="1" spans="1:9">
-      <c r="A273" s="53">
+      <c r="A273" s="74">
         <v>33</v>
       </c>
       <c r="B273" s="12"/>
-      <c r="C273" s="54" t="s">
+      <c r="C273" s="75" t="s">
         <v>180</v>
       </c>
       <c r="D273" s="12" t="s">
@@ -7183,15 +7306,15 @@
         <v>1</v>
       </c>
       <c r="G273" s="12"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="51"/>
+      <c r="H273" s="76"/>
+      <c r="I273" s="72"/>
     </row>
     <row r="274" ht="18" customHeight="1" spans="1:9">
-      <c r="A274" s="53">
+      <c r="A274" s="74">
         <v>34</v>
       </c>
       <c r="B274" s="12"/>
-      <c r="C274" s="54" t="s">
+      <c r="C274" s="75" t="s">
         <v>181</v>
       </c>
       <c r="D274" s="12" t="s">
@@ -7204,15 +7327,15 @@
         <v>1</v>
       </c>
       <c r="G274" s="12"/>
-      <c r="H274" s="55"/>
-      <c r="I274" s="51"/>
+      <c r="H274" s="76"/>
+      <c r="I274" s="72"/>
     </row>
     <row r="275" ht="18" customHeight="1" spans="1:9">
-      <c r="A275" s="53">
+      <c r="A275" s="74">
         <v>35</v>
       </c>
       <c r="B275" s="12"/>
-      <c r="C275" s="54" t="s">
+      <c r="C275" s="75" t="s">
         <v>182</v>
       </c>
       <c r="D275" s="12" t="s">
@@ -7225,15 +7348,15 @@
         <v>1</v>
       </c>
       <c r="G275" s="12"/>
-      <c r="H275" s="55"/>
-      <c r="I275" s="51"/>
+      <c r="H275" s="76"/>
+      <c r="I275" s="72"/>
     </row>
     <row r="276" ht="18" customHeight="1" spans="1:9">
-      <c r="A276" s="53">
+      <c r="A276" s="74">
         <v>36</v>
       </c>
       <c r="B276" s="12"/>
-      <c r="C276" s="54" t="s">
+      <c r="C276" s="75" t="s">
         <v>183</v>
       </c>
       <c r="D276" s="12" t="s">
@@ -7246,17 +7369,17 @@
         <v>1</v>
       </c>
       <c r="G276" s="12"/>
-      <c r="H276" s="55"/>
-      <c r="I276" s="51"/>
+      <c r="H276" s="76"/>
+      <c r="I276" s="72"/>
     </row>
     <row r="277" ht="18" customHeight="1" spans="1:9">
-      <c r="A277" s="53">
+      <c r="A277" s="74">
         <v>37</v>
       </c>
       <c r="B277" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C277" s="54" t="s">
+      <c r="C277" s="75" t="s">
         <v>185</v>
       </c>
       <c r="D277" s="12" t="s">
@@ -7269,15 +7392,15 @@
         <v>1</v>
       </c>
       <c r="G277" s="12"/>
-      <c r="H277" s="55"/>
-      <c r="I277" s="51"/>
+      <c r="H277" s="76"/>
+      <c r="I277" s="72"/>
     </row>
     <row r="278" ht="18" customHeight="1" spans="1:9">
-      <c r="A278" s="53">
+      <c r="A278" s="74">
         <v>38</v>
       </c>
       <c r="B278" s="12"/>
-      <c r="C278" s="54" t="s">
+      <c r="C278" s="75" t="s">
         <v>186</v>
       </c>
       <c r="D278" s="12" t="s">
@@ -7290,15 +7413,15 @@
         <v>1</v>
       </c>
       <c r="G278" s="12"/>
-      <c r="H278" s="55"/>
-      <c r="I278" s="51"/>
+      <c r="H278" s="76"/>
+      <c r="I278" s="72"/>
     </row>
     <row r="279" ht="18" customHeight="1" spans="1:9">
-      <c r="A279" s="53">
+      <c r="A279" s="74">
         <v>39</v>
       </c>
       <c r="B279" s="12"/>
-      <c r="C279" s="54" t="s">
+      <c r="C279" s="75" t="s">
         <v>187</v>
       </c>
       <c r="D279" s="12" t="s">
@@ -7311,15 +7434,15 @@
         <v>1</v>
       </c>
       <c r="G279" s="12"/>
-      <c r="H279" s="55"/>
-      <c r="I279" s="51"/>
+      <c r="H279" s="76"/>
+      <c r="I279" s="72"/>
     </row>
     <row r="280" ht="18" customHeight="1" spans="1:9">
-      <c r="A280" s="53">
+      <c r="A280" s="74">
         <v>40</v>
       </c>
       <c r="B280" s="12"/>
-      <c r="C280" s="54" t="s">
+      <c r="C280" s="75" t="s">
         <v>188</v>
       </c>
       <c r="D280" s="12" t="s">
@@ -7332,15 +7455,15 @@
         <v>3</v>
       </c>
       <c r="G280" s="12"/>
-      <c r="H280" s="55"/>
-      <c r="I280" s="51"/>
+      <c r="H280" s="76"/>
+      <c r="I280" s="72"/>
     </row>
     <row r="281" ht="18" customHeight="1" spans="1:9">
-      <c r="A281" s="53">
+      <c r="A281" s="74">
         <v>41</v>
       </c>
       <c r="B281" s="12"/>
-      <c r="C281" s="54" t="s">
+      <c r="C281" s="75" t="s">
         <v>189</v>
       </c>
       <c r="D281" s="12" t="s">
@@ -7353,15 +7476,15 @@
         <v>3</v>
       </c>
       <c r="G281" s="12"/>
-      <c r="H281" s="55"/>
-      <c r="I281" s="51"/>
+      <c r="H281" s="76"/>
+      <c r="I281" s="72"/>
     </row>
     <row r="282" ht="18" customHeight="1" spans="1:9">
-      <c r="A282" s="53">
+      <c r="A282" s="74">
         <v>42</v>
       </c>
       <c r="B282" s="12"/>
-      <c r="C282" s="54" t="s">
+      <c r="C282" s="75" t="s">
         <v>190</v>
       </c>
       <c r="D282" s="12" t="s">
@@ -7374,15 +7497,15 @@
         <v>1</v>
       </c>
       <c r="G282" s="12"/>
-      <c r="H282" s="55"/>
-      <c r="I282" s="51"/>
+      <c r="H282" s="76"/>
+      <c r="I282" s="72"/>
     </row>
     <row r="283" ht="18" customHeight="1" spans="1:9">
-      <c r="A283" s="53">
+      <c r="A283" s="74">
         <v>43</v>
       </c>
       <c r="B283" s="12"/>
-      <c r="C283" s="54" t="s">
+      <c r="C283" s="75" t="s">
         <v>191</v>
       </c>
       <c r="D283" s="12" t="s">
@@ -7395,15 +7518,15 @@
         <v>1</v>
       </c>
       <c r="G283" s="12"/>
-      <c r="H283" s="55"/>
-      <c r="I283" s="51"/>
+      <c r="H283" s="76"/>
+      <c r="I283" s="72"/>
     </row>
     <row r="284" ht="18" customHeight="1" spans="1:9">
-      <c r="A284" s="53">
+      <c r="A284" s="74">
         <v>44</v>
       </c>
       <c r="B284" s="12"/>
-      <c r="C284" s="54" t="s">
+      <c r="C284" s="75" t="s">
         <v>192</v>
       </c>
       <c r="D284" s="12" t="s">
@@ -7416,15 +7539,15 @@
         <v>1</v>
       </c>
       <c r="G284" s="12"/>
-      <c r="H284" s="55"/>
-      <c r="I284" s="51"/>
+      <c r="H284" s="76"/>
+      <c r="I284" s="72"/>
     </row>
     <row r="285" ht="18" customHeight="1" spans="1:9">
-      <c r="A285" s="53">
+      <c r="A285" s="74">
         <v>45</v>
       </c>
       <c r="B285" s="12"/>
-      <c r="C285" s="54" t="s">
+      <c r="C285" s="75" t="s">
         <v>193</v>
       </c>
       <c r="D285" s="12" t="s">
@@ -7437,15 +7560,15 @@
         <v>1</v>
       </c>
       <c r="G285" s="12"/>
-      <c r="H285" s="55"/>
-      <c r="I285" s="51"/>
+      <c r="H285" s="76"/>
+      <c r="I285" s="72"/>
     </row>
     <row r="286" ht="18" customHeight="1" spans="1:9">
-      <c r="A286" s="53">
+      <c r="A286" s="74">
         <v>46</v>
       </c>
       <c r="B286" s="12"/>
-      <c r="C286" s="54" t="s">
+      <c r="C286" s="75" t="s">
         <v>194</v>
       </c>
       <c r="D286" s="12" t="s">
@@ -7458,17 +7581,17 @@
         <v>1</v>
       </c>
       <c r="G286" s="12"/>
-      <c r="H286" s="55"/>
-      <c r="I286" s="51"/>
+      <c r="H286" s="76"/>
+      <c r="I286" s="72"/>
     </row>
     <row r="287" ht="18" customHeight="1" spans="1:9">
-      <c r="A287" s="53">
+      <c r="A287" s="74">
         <v>47</v>
       </c>
       <c r="B287" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C287" s="54" t="s">
+      <c r="C287" s="75" t="s">
         <v>196</v>
       </c>
       <c r="D287" s="12" t="s">
@@ -7481,11 +7604,11 @@
         <v>1</v>
       </c>
       <c r="G287" s="12"/>
-      <c r="H287" s="55"/>
-      <c r="I287" s="51"/>
+      <c r="H287" s="76"/>
+      <c r="I287" s="72"/>
     </row>
     <row r="288" ht="18" customHeight="1" spans="1:9">
-      <c r="A288" s="52">
+      <c r="A288" s="73">
         <v>48</v>
       </c>
       <c r="B288" s="12" t="s">
@@ -7505,7 +7628,7 @@
       </c>
       <c r="G288" s="12"/>
       <c r="H288" s="12"/>
-      <c r="I288" s="51"/>
+      <c r="I288" s="72"/>
     </row>
     <row r="289" ht="18" customHeight="1" spans="1:9">
       <c r="A289" s="21" t="s">
@@ -7520,7 +7643,7 @@
         <v>34</v>
       </c>
       <c r="H289" s="21"/>
-      <c r="I289" s="51"/>
+      <c r="I289" s="72"/>
     </row>
     <row r="290" ht="18" customHeight="1" spans="1:9">
       <c r="A290" s="21" t="s">
@@ -7535,7 +7658,7 @@
         <v>36</v>
       </c>
       <c r="H290" s="21"/>
-      <c r="I290" s="51"/>
+      <c r="I290" s="72"/>
     </row>
     <row r="291" ht="18" customHeight="1" spans="1:9">
       <c r="A291" s="20" t="s">
@@ -7548,18 +7671,18 @@
       <c r="F291" s="19"/>
       <c r="G291" s="19"/>
       <c r="H291" s="19"/>
-      <c r="I291" s="51"/>
+      <c r="I291" s="72"/>
     </row>
     <row r="292" ht="18" customHeight="1" spans="1:9">
-      <c r="A292" s="51"/>
-      <c r="B292" s="51"/>
-      <c r="C292" s="51"/>
-      <c r="D292" s="51"/>
-      <c r="E292" s="51"/>
-      <c r="F292" s="51"/>
-      <c r="G292" s="51"/>
-      <c r="H292" s="51"/>
-      <c r="I292" s="51"/>
+      <c r="A292" s="72"/>
+      <c r="B292" s="72"/>
+      <c r="C292" s="72"/>
+      <c r="D292" s="72"/>
+      <c r="E292" s="72"/>
+      <c r="F292" s="72"/>
+      <c r="G292" s="72"/>
+      <c r="H292" s="72"/>
+      <c r="I292" s="72"/>
     </row>
     <row r="293" ht="18" customHeight="1" spans="1:9">
       <c r="A293" s="19"/>
@@ -7572,7 +7695,7 @@
         <v>197</v>
       </c>
       <c r="H293" s="20"/>
-      <c r="I293" s="51"/>
+      <c r="I293" s="72"/>
     </row>
     <row r="294" ht="18" customHeight="1" spans="1:9">
       <c r="A294" s="19"/>
@@ -7585,7 +7708,7 @@
         <v>198</v>
       </c>
       <c r="H294" s="21"/>
-      <c r="I294" s="51"/>
+      <c r="I294" s="72"/>
     </row>
     <row r="295" ht="18" customHeight="1" spans="1:9">
       <c r="A295" s="22" t="s">
@@ -7598,7 +7721,7 @@
       <c r="F295" s="22"/>
       <c r="G295" s="22"/>
       <c r="H295" s="22"/>
-      <c r="I295" s="51"/>
+      <c r="I295" s="72"/>
     </row>
     <row r="296" ht="18" customHeight="1" spans="1:9">
       <c r="A296" s="23" t="s">
@@ -7611,7 +7734,7 @@
       <c r="F296" s="22"/>
       <c r="G296" s="22"/>
       <c r="H296" s="22"/>
-      <c r="I296" s="51"/>
+      <c r="I296" s="72"/>
     </row>
     <row r="297" ht="18" customHeight="1" spans="1:9">
       <c r="A297" s="21" t="s">
@@ -7624,7 +7747,7 @@
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
       <c r="H297" s="21"/>
-      <c r="I297" s="51"/>
+      <c r="I297" s="72"/>
     </row>
     <row r="298" ht="18" customHeight="1" spans="1:9">
       <c r="A298" s="21" t="s">
@@ -7639,7 +7762,7 @@
       </c>
       <c r="G298" s="21"/>
       <c r="H298" s="21"/>
-      <c r="I298" s="51"/>
+      <c r="I298" s="72"/>
     </row>
     <row r="299" ht="18" customHeight="1" spans="1:9">
       <c r="A299" s="21" t="s">
@@ -7654,7 +7777,7 @@
       </c>
       <c r="G299" s="21"/>
       <c r="H299" s="21"/>
-      <c r="I299" s="51"/>
+      <c r="I299" s="72"/>
     </row>
     <row r="300" ht="18" customHeight="1" spans="1:9">
       <c r="A300" s="6" t="s">
@@ -7681,10 +7804,10 @@
       <c r="H300" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I300" s="51"/>
+      <c r="I300" s="72"/>
     </row>
     <row r="301" ht="18" customHeight="1" spans="1:9">
-      <c r="A301" s="52">
+      <c r="A301" s="73">
         <v>1</v>
       </c>
       <c r="B301" s="45" t="s">
@@ -7704,10 +7827,10 @@
       </c>
       <c r="G301" s="12"/>
       <c r="H301" s="18"/>
-      <c r="I301" s="51"/>
+      <c r="I301" s="72"/>
     </row>
     <row r="302" ht="18" customHeight="1" spans="1:9">
-      <c r="A302" s="52">
+      <c r="A302" s="73">
         <v>2</v>
       </c>
       <c r="B302" s="46"/>
@@ -7725,10 +7848,10 @@
       </c>
       <c r="G302" s="12"/>
       <c r="H302" s="18"/>
-      <c r="I302" s="51"/>
+      <c r="I302" s="72"/>
     </row>
     <row r="303" ht="18" customHeight="1" spans="1:9">
-      <c r="A303" s="52">
+      <c r="A303" s="73">
         <v>3</v>
       </c>
       <c r="B303" s="45" t="s">
@@ -7748,13 +7871,13 @@
       </c>
       <c r="G303" s="12"/>
       <c r="H303" s="18"/>
-      <c r="I303" s="51"/>
+      <c r="I303" s="72"/>
     </row>
     <row r="304" ht="18" customHeight="1" spans="1:9">
-      <c r="A304" s="52">
+      <c r="A304" s="73">
         <v>4</v>
       </c>
-      <c r="B304" s="49"/>
+      <c r="B304" s="70"/>
       <c r="C304" s="12" t="s">
         <v>204</v>
       </c>
@@ -7769,13 +7892,13 @@
       </c>
       <c r="G304" s="12"/>
       <c r="H304" s="18"/>
-      <c r="I304" s="51"/>
+      <c r="I304" s="72"/>
     </row>
     <row r="305" ht="18" customHeight="1" spans="1:9">
-      <c r="A305" s="52">
+      <c r="A305" s="73">
         <v>5</v>
       </c>
-      <c r="B305" s="49"/>
+      <c r="B305" s="70"/>
       <c r="C305" s="12" t="s">
         <v>205</v>
       </c>
@@ -7790,13 +7913,13 @@
       </c>
       <c r="G305" s="12"/>
       <c r="H305" s="18"/>
-      <c r="I305" s="51"/>
+      <c r="I305" s="72"/>
     </row>
     <row r="306" ht="18" customHeight="1" spans="1:9">
-      <c r="A306" s="52">
+      <c r="A306" s="73">
         <v>6</v>
       </c>
-      <c r="B306" s="49"/>
+      <c r="B306" s="70"/>
       <c r="C306" s="12" t="s">
         <v>206</v>
       </c>
@@ -7811,13 +7934,13 @@
       </c>
       <c r="G306" s="12"/>
       <c r="H306" s="18"/>
-      <c r="I306" s="51"/>
+      <c r="I306" s="72"/>
     </row>
     <row r="307" ht="18" customHeight="1" spans="1:9">
-      <c r="A307" s="52">
+      <c r="A307" s="73">
         <v>7</v>
       </c>
-      <c r="B307" s="49"/>
+      <c r="B307" s="70"/>
       <c r="C307" s="12" t="s">
         <v>207</v>
       </c>
@@ -7832,13 +7955,13 @@
       </c>
       <c r="G307" s="12"/>
       <c r="H307" s="18"/>
-      <c r="I307" s="51"/>
+      <c r="I307" s="72"/>
     </row>
     <row r="308" ht="18" customHeight="1" spans="1:9">
-      <c r="A308" s="52">
+      <c r="A308" s="73">
         <v>8</v>
       </c>
-      <c r="B308" s="49"/>
+      <c r="B308" s="70"/>
       <c r="C308" s="12" t="s">
         <v>208</v>
       </c>
@@ -7853,13 +7976,13 @@
       </c>
       <c r="G308" s="12"/>
       <c r="H308" s="18"/>
-      <c r="I308" s="51"/>
+      <c r="I308" s="72"/>
     </row>
     <row r="309" ht="18" customHeight="1" spans="1:9">
-      <c r="A309" s="52">
+      <c r="A309" s="73">
         <v>9</v>
       </c>
-      <c r="B309" s="49"/>
+      <c r="B309" s="70"/>
       <c r="C309" s="12" t="s">
         <v>209</v>
       </c>
@@ -7874,13 +7997,13 @@
       </c>
       <c r="G309" s="12"/>
       <c r="H309" s="18"/>
-      <c r="I309" s="51"/>
+      <c r="I309" s="72"/>
     </row>
     <row r="310" ht="18" customHeight="1" spans="1:9">
-      <c r="A310" s="52">
+      <c r="A310" s="73">
         <v>10</v>
       </c>
-      <c r="B310" s="49"/>
+      <c r="B310" s="70"/>
       <c r="C310" s="12" t="s">
         <v>210</v>
       </c>
@@ -7895,13 +8018,13 @@
       </c>
       <c r="G310" s="12"/>
       <c r="H310" s="18"/>
-      <c r="I310" s="51"/>
+      <c r="I310" s="72"/>
     </row>
     <row r="311" ht="18" customHeight="1" spans="1:9">
-      <c r="A311" s="52">
+      <c r="A311" s="73">
         <v>11</v>
       </c>
-      <c r="B311" s="49"/>
+      <c r="B311" s="70"/>
       <c r="C311" s="12" t="s">
         <v>211</v>
       </c>
@@ -7916,13 +8039,13 @@
       </c>
       <c r="G311" s="12"/>
       <c r="H311" s="18"/>
-      <c r="I311" s="51"/>
+      <c r="I311" s="72"/>
     </row>
     <row r="312" ht="18" customHeight="1" spans="1:9">
-      <c r="A312" s="52">
+      <c r="A312" s="73">
         <v>12</v>
       </c>
-      <c r="B312" s="49"/>
+      <c r="B312" s="70"/>
       <c r="C312" s="12" t="s">
         <v>212</v>
       </c>
@@ -7937,13 +8060,13 @@
       </c>
       <c r="G312" s="12"/>
       <c r="H312" s="18"/>
-      <c r="I312" s="51"/>
+      <c r="I312" s="72"/>
     </row>
     <row r="313" ht="18" customHeight="1" spans="1:9">
-      <c r="A313" s="52">
+      <c r="A313" s="73">
         <v>13</v>
       </c>
-      <c r="B313" s="49"/>
+      <c r="B313" s="70"/>
       <c r="C313" s="12" t="s">
         <v>213</v>
       </c>
@@ -7958,13 +8081,13 @@
       </c>
       <c r="G313" s="12"/>
       <c r="H313" s="18"/>
-      <c r="I313" s="51"/>
+      <c r="I313" s="72"/>
     </row>
     <row r="314" ht="18" customHeight="1" spans="1:9">
-      <c r="A314" s="52">
+      <c r="A314" s="73">
         <v>14</v>
       </c>
-      <c r="B314" s="49"/>
+      <c r="B314" s="70"/>
       <c r="C314" s="12" t="s">
         <v>214</v>
       </c>
@@ -7979,13 +8102,13 @@
       </c>
       <c r="G314" s="12"/>
       <c r="H314" s="18"/>
-      <c r="I314" s="51"/>
+      <c r="I314" s="72"/>
     </row>
     <row r="315" ht="18" customHeight="1" spans="1:9">
-      <c r="A315" s="52">
+      <c r="A315" s="73">
         <v>15</v>
       </c>
-      <c r="B315" s="49"/>
+      <c r="B315" s="70"/>
       <c r="C315" s="12" t="s">
         <v>154</v>
       </c>
@@ -8000,13 +8123,13 @@
       </c>
       <c r="G315" s="12"/>
       <c r="H315" s="18"/>
-      <c r="I315" s="51"/>
+      <c r="I315" s="72"/>
     </row>
     <row r="316" ht="18" customHeight="1" spans="1:9">
-      <c r="A316" s="52">
+      <c r="A316" s="73">
         <v>16</v>
       </c>
-      <c r="B316" s="49"/>
+      <c r="B316" s="70"/>
       <c r="C316" s="12" t="s">
         <v>215</v>
       </c>
@@ -8021,13 +8144,13 @@
       </c>
       <c r="G316" s="12"/>
       <c r="H316" s="18"/>
-      <c r="I316" s="51"/>
+      <c r="I316" s="72"/>
     </row>
     <row r="317" ht="18" customHeight="1" spans="1:9">
-      <c r="A317" s="52">
+      <c r="A317" s="73">
         <v>17</v>
       </c>
-      <c r="B317" s="49"/>
+      <c r="B317" s="70"/>
       <c r="C317" s="12" t="s">
         <v>216</v>
       </c>
@@ -8042,13 +8165,13 @@
       </c>
       <c r="G317" s="12"/>
       <c r="H317" s="18"/>
-      <c r="I317" s="51"/>
+      <c r="I317" s="72"/>
     </row>
     <row r="318" ht="18" customHeight="1" spans="1:9">
-      <c r="A318" s="52">
+      <c r="A318" s="73">
         <v>18</v>
       </c>
-      <c r="B318" s="49"/>
+      <c r="B318" s="70"/>
       <c r="C318" s="12" t="s">
         <v>217</v>
       </c>
@@ -8063,13 +8186,13 @@
       </c>
       <c r="G318" s="12"/>
       <c r="H318" s="18"/>
-      <c r="I318" s="51"/>
+      <c r="I318" s="72"/>
     </row>
     <row r="319" ht="18" customHeight="1" spans="1:9">
-      <c r="A319" s="52">
+      <c r="A319" s="73">
         <v>19</v>
       </c>
-      <c r="B319" s="49"/>
+      <c r="B319" s="70"/>
       <c r="C319" s="12" t="s">
         <v>218</v>
       </c>
@@ -8084,13 +8207,13 @@
       </c>
       <c r="G319" s="12"/>
       <c r="H319" s="18"/>
-      <c r="I319" s="51"/>
+      <c r="I319" s="72"/>
     </row>
     <row r="320" ht="18" customHeight="1" spans="1:9">
-      <c r="A320" s="52">
+      <c r="A320" s="73">
         <v>20</v>
       </c>
-      <c r="B320" s="49"/>
+      <c r="B320" s="70"/>
       <c r="C320" s="12" t="s">
         <v>219</v>
       </c>
@@ -8105,13 +8228,13 @@
       </c>
       <c r="G320" s="12"/>
       <c r="H320" s="18"/>
-      <c r="I320" s="51"/>
+      <c r="I320" s="72"/>
     </row>
     <row r="321" ht="18" customHeight="1" spans="1:9">
-      <c r="A321" s="52">
+      <c r="A321" s="73">
         <v>21</v>
       </c>
-      <c r="B321" s="49"/>
+      <c r="B321" s="70"/>
       <c r="C321" s="12" t="s">
         <v>220</v>
       </c>
@@ -8126,13 +8249,13 @@
       </c>
       <c r="G321" s="12"/>
       <c r="H321" s="18"/>
-      <c r="I321" s="51"/>
+      <c r="I321" s="72"/>
     </row>
     <row r="322" ht="18" customHeight="1" spans="1:9">
-      <c r="A322" s="52">
+      <c r="A322" s="73">
         <v>22</v>
       </c>
-      <c r="B322" s="49"/>
+      <c r="B322" s="70"/>
       <c r="C322" s="12" t="s">
         <v>221</v>
       </c>
@@ -8147,13 +8270,13 @@
       </c>
       <c r="G322" s="12"/>
       <c r="H322" s="18"/>
-      <c r="I322" s="51"/>
+      <c r="I322" s="72"/>
     </row>
     <row r="323" ht="18" customHeight="1" spans="1:9">
-      <c r="A323" s="52">
+      <c r="A323" s="73">
         <v>23</v>
       </c>
-      <c r="B323" s="49"/>
+      <c r="B323" s="70"/>
       <c r="C323" s="12" t="s">
         <v>222</v>
       </c>
@@ -8168,13 +8291,13 @@
       </c>
       <c r="G323" s="12"/>
       <c r="H323" s="18"/>
-      <c r="I323" s="51"/>
+      <c r="I323" s="72"/>
     </row>
     <row r="324" ht="18" customHeight="1" spans="1:9">
-      <c r="A324" s="52">
+      <c r="A324" s="73">
         <v>24</v>
       </c>
-      <c r="B324" s="49"/>
+      <c r="B324" s="70"/>
       <c r="C324" s="12" t="s">
         <v>166</v>
       </c>
@@ -8189,13 +8312,13 @@
       </c>
       <c r="G324" s="12"/>
       <c r="H324" s="18"/>
-      <c r="I324" s="51"/>
+      <c r="I324" s="72"/>
     </row>
     <row r="325" ht="18" customHeight="1" spans="1:9">
-      <c r="A325" s="52">
+      <c r="A325" s="73">
         <v>25</v>
       </c>
-      <c r="B325" s="49"/>
+      <c r="B325" s="70"/>
       <c r="C325" s="12" t="s">
         <v>223</v>
       </c>
@@ -8210,13 +8333,13 @@
       </c>
       <c r="G325" s="12"/>
       <c r="H325" s="18"/>
-      <c r="I325" s="51"/>
+      <c r="I325" s="72"/>
     </row>
     <row r="326" ht="18" customHeight="1" spans="1:9">
-      <c r="A326" s="52">
+      <c r="A326" s="73">
         <v>26</v>
       </c>
-      <c r="B326" s="49"/>
+      <c r="B326" s="70"/>
       <c r="C326" s="12" t="s">
         <v>224</v>
       </c>
@@ -8231,13 +8354,13 @@
       </c>
       <c r="G326" s="12"/>
       <c r="H326" s="18"/>
-      <c r="I326" s="51"/>
+      <c r="I326" s="72"/>
     </row>
     <row r="327" ht="18" customHeight="1" spans="1:9">
-      <c r="A327" s="52">
+      <c r="A327" s="73">
         <v>27</v>
       </c>
-      <c r="B327" s="49"/>
+      <c r="B327" s="70"/>
       <c r="C327" s="12" t="s">
         <v>225</v>
       </c>
@@ -8252,13 +8375,13 @@
       </c>
       <c r="G327" s="12"/>
       <c r="H327" s="18"/>
-      <c r="I327" s="51"/>
+      <c r="I327" s="72"/>
     </row>
     <row r="328" ht="18" customHeight="1" spans="1:9">
-      <c r="A328" s="52">
+      <c r="A328" s="73">
         <v>28</v>
       </c>
-      <c r="B328" s="49"/>
+      <c r="B328" s="70"/>
       <c r="C328" s="12" t="s">
         <v>226</v>
       </c>
@@ -8273,13 +8396,13 @@
       </c>
       <c r="G328" s="12"/>
       <c r="H328" s="18"/>
-      <c r="I328" s="51"/>
+      <c r="I328" s="72"/>
     </row>
     <row r="329" ht="18" customHeight="1" spans="1:9">
-      <c r="A329" s="52">
+      <c r="A329" s="73">
         <v>29</v>
       </c>
-      <c r="B329" s="49"/>
+      <c r="B329" s="70"/>
       <c r="C329" s="12" t="s">
         <v>227</v>
       </c>
@@ -8294,13 +8417,13 @@
       </c>
       <c r="G329" s="12"/>
       <c r="H329" s="18"/>
-      <c r="I329" s="51"/>
+      <c r="I329" s="72"/>
     </row>
     <row r="330" ht="18" customHeight="1" spans="1:9">
-      <c r="A330" s="52">
+      <c r="A330" s="73">
         <v>30</v>
       </c>
-      <c r="B330" s="49"/>
+      <c r="B330" s="70"/>
       <c r="C330" s="12" t="s">
         <v>228</v>
       </c>
@@ -8315,13 +8438,13 @@
       </c>
       <c r="G330" s="12"/>
       <c r="H330" s="18"/>
-      <c r="I330" s="51"/>
+      <c r="I330" s="72"/>
     </row>
     <row r="331" ht="18" customHeight="1" spans="1:9">
-      <c r="A331" s="52">
+      <c r="A331" s="73">
         <v>31</v>
       </c>
-      <c r="B331" s="49" t="s">
+      <c r="B331" s="70" t="s">
         <v>67</v>
       </c>
       <c r="C331" s="12" t="s">
@@ -8338,13 +8461,13 @@
       </c>
       <c r="G331" s="12"/>
       <c r="H331" s="18"/>
-      <c r="I331" s="51"/>
+      <c r="I331" s="72"/>
     </row>
     <row r="332" ht="18" customHeight="1" spans="1:9">
-      <c r="A332" s="52">
+      <c r="A332" s="73">
         <v>32</v>
       </c>
-      <c r="B332" s="49"/>
+      <c r="B332" s="70"/>
       <c r="C332" s="12" t="s">
         <v>230</v>
       </c>
@@ -8359,13 +8482,13 @@
       </c>
       <c r="G332" s="12"/>
       <c r="H332" s="18"/>
-      <c r="I332" s="51"/>
+      <c r="I332" s="72"/>
     </row>
     <row r="333" ht="18" customHeight="1" spans="1:9">
-      <c r="A333" s="52">
+      <c r="A333" s="73">
         <v>33</v>
       </c>
-      <c r="B333" s="49"/>
+      <c r="B333" s="70"/>
       <c r="C333" s="12" t="s">
         <v>231</v>
       </c>
@@ -8380,13 +8503,13 @@
       </c>
       <c r="G333" s="12"/>
       <c r="H333" s="18"/>
-      <c r="I333" s="51"/>
+      <c r="I333" s="72"/>
     </row>
     <row r="334" ht="18" customHeight="1" spans="1:9">
-      <c r="A334" s="52">
+      <c r="A334" s="73">
         <v>34</v>
       </c>
-      <c r="B334" s="49"/>
+      <c r="B334" s="70"/>
       <c r="C334" s="12" t="s">
         <v>232</v>
       </c>
@@ -8401,13 +8524,13 @@
       </c>
       <c r="G334" s="12"/>
       <c r="H334" s="18"/>
-      <c r="I334" s="51"/>
+      <c r="I334" s="72"/>
     </row>
     <row r="335" ht="18" customHeight="1" spans="1:9">
-      <c r="A335" s="52">
+      <c r="A335" s="73">
         <v>35</v>
       </c>
-      <c r="B335" s="49"/>
+      <c r="B335" s="70"/>
       <c r="C335" s="12" t="s">
         <v>233</v>
       </c>
@@ -8422,13 +8545,13 @@
       </c>
       <c r="G335" s="12"/>
       <c r="H335" s="18"/>
-      <c r="I335" s="51"/>
+      <c r="I335" s="72"/>
     </row>
     <row r="336" ht="18" customHeight="1" spans="1:9">
-      <c r="A336" s="52">
+      <c r="A336" s="73">
         <v>36</v>
       </c>
-      <c r="B336" s="49"/>
+      <c r="B336" s="70"/>
       <c r="C336" s="12" t="s">
         <v>234</v>
       </c>
@@ -8443,13 +8566,13 @@
       </c>
       <c r="G336" s="12"/>
       <c r="H336" s="18"/>
-      <c r="I336" s="51"/>
+      <c r="I336" s="72"/>
     </row>
     <row r="337" ht="18" customHeight="1" spans="1:9">
-      <c r="A337" s="52">
+      <c r="A337" s="73">
         <v>37</v>
       </c>
-      <c r="B337" s="49"/>
+      <c r="B337" s="70"/>
       <c r="C337" s="12" t="s">
         <v>235</v>
       </c>
@@ -8464,13 +8587,13 @@
       </c>
       <c r="G337" s="12"/>
       <c r="H337" s="18"/>
-      <c r="I337" s="51"/>
+      <c r="I337" s="72"/>
     </row>
     <row r="338" ht="18" customHeight="1" spans="1:9">
-      <c r="A338" s="52">
+      <c r="A338" s="73">
         <v>38</v>
       </c>
-      <c r="B338" s="49"/>
+      <c r="B338" s="70"/>
       <c r="C338" s="12" t="s">
         <v>236</v>
       </c>
@@ -8485,13 +8608,13 @@
       </c>
       <c r="G338" s="12"/>
       <c r="H338" s="18"/>
-      <c r="I338" s="51"/>
+      <c r="I338" s="72"/>
     </row>
     <row r="339" ht="18" customHeight="1" spans="1:9">
-      <c r="A339" s="52">
+      <c r="A339" s="73">
         <v>39</v>
       </c>
-      <c r="B339" s="49"/>
+      <c r="B339" s="70"/>
       <c r="C339" s="12" t="s">
         <v>237</v>
       </c>
@@ -8506,13 +8629,13 @@
       </c>
       <c r="G339" s="12"/>
       <c r="H339" s="18"/>
-      <c r="I339" s="51"/>
+      <c r="I339" s="72"/>
     </row>
     <row r="340" ht="18" customHeight="1" spans="1:9">
-      <c r="A340" s="52">
+      <c r="A340" s="73">
         <v>40</v>
       </c>
-      <c r="B340" s="49"/>
+      <c r="B340" s="70"/>
       <c r="C340" s="12" t="s">
         <v>238</v>
       </c>
@@ -8527,13 +8650,13 @@
       </c>
       <c r="G340" s="12"/>
       <c r="H340" s="18"/>
-      <c r="I340" s="51"/>
+      <c r="I340" s="72"/>
     </row>
     <row r="341" ht="18" customHeight="1" spans="1:9">
-      <c r="A341" s="52">
+      <c r="A341" s="73">
         <v>41</v>
       </c>
-      <c r="B341" s="56" t="s">
+      <c r="B341" s="77" t="s">
         <v>184</v>
       </c>
       <c r="C341" s="12" t="s">
@@ -8550,13 +8673,13 @@
       </c>
       <c r="G341" s="12"/>
       <c r="H341" s="18"/>
-      <c r="I341" s="51"/>
+      <c r="I341" s="72"/>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:9">
-      <c r="A342" s="52">
+      <c r="A342" s="73">
         <v>42</v>
       </c>
-      <c r="B342" s="57"/>
+      <c r="B342" s="78"/>
       <c r="C342" s="12" t="s">
         <v>240</v>
       </c>
@@ -8571,13 +8694,13 @@
       </c>
       <c r="G342" s="12"/>
       <c r="H342" s="18"/>
-      <c r="I342" s="51"/>
+      <c r="I342" s="72"/>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:9">
-      <c r="A343" s="52">
-        <v>43</v>
-      </c>
-      <c r="B343" s="57"/>
+      <c r="A343" s="73">
+        <v>43</v>
+      </c>
+      <c r="B343" s="78"/>
       <c r="C343" s="12" t="s">
         <v>241</v>
       </c>
@@ -8592,13 +8715,13 @@
       </c>
       <c r="G343" s="12"/>
       <c r="H343" s="18"/>
-      <c r="I343" s="51"/>
+      <c r="I343" s="72"/>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:9">
-      <c r="A344" s="52">
+      <c r="A344" s="73">
         <v>44</v>
       </c>
-      <c r="B344" s="57"/>
+      <c r="B344" s="78"/>
       <c r="C344" s="12" t="s">
         <v>242</v>
       </c>
@@ -8613,13 +8736,13 @@
       </c>
       <c r="G344" s="12"/>
       <c r="H344" s="18"/>
-      <c r="I344" s="51"/>
+      <c r="I344" s="72"/>
     </row>
     <row r="345" ht="18" customHeight="1" spans="1:9">
-      <c r="A345" s="52">
+      <c r="A345" s="73">
         <v>45</v>
       </c>
-      <c r="B345" s="57"/>
+      <c r="B345" s="78"/>
       <c r="C345" s="12" t="s">
         <v>243</v>
       </c>
@@ -8634,13 +8757,13 @@
       </c>
       <c r="G345" s="12"/>
       <c r="H345" s="18"/>
-      <c r="I345" s="51"/>
+      <c r="I345" s="72"/>
     </row>
     <row r="346" ht="18" customHeight="1" spans="1:9">
-      <c r="A346" s="52">
+      <c r="A346" s="73">
         <v>46</v>
       </c>
-      <c r="B346" s="57"/>
+      <c r="B346" s="78"/>
       <c r="C346" s="12" t="s">
         <v>244</v>
       </c>
@@ -8655,13 +8778,13 @@
       </c>
       <c r="G346" s="12"/>
       <c r="H346" s="18"/>
-      <c r="I346" s="51"/>
+      <c r="I346" s="72"/>
     </row>
     <row r="347" ht="18" customHeight="1" spans="1:9">
-      <c r="A347" s="52">
+      <c r="A347" s="73">
         <v>47</v>
       </c>
-      <c r="B347" s="57"/>
+      <c r="B347" s="78"/>
       <c r="C347" s="12" t="s">
         <v>245</v>
       </c>
@@ -8676,13 +8799,13 @@
       </c>
       <c r="G347" s="12"/>
       <c r="H347" s="18"/>
-      <c r="I347" s="51"/>
+      <c r="I347" s="72"/>
     </row>
     <row r="348" ht="18" customHeight="1" spans="1:9">
-      <c r="A348" s="52">
+      <c r="A348" s="73">
         <v>48</v>
       </c>
-      <c r="B348" s="58"/>
+      <c r="B348" s="79"/>
       <c r="C348" s="12" t="s">
         <v>246</v>
       </c>
@@ -8697,10 +8820,10 @@
       </c>
       <c r="G348" s="12"/>
       <c r="H348" s="18"/>
-      <c r="I348" s="51"/>
+      <c r="I348" s="72"/>
     </row>
     <row r="349" ht="18" customHeight="1" spans="1:9">
-      <c r="A349" s="52">
+      <c r="A349" s="73">
         <v>49</v>
       </c>
       <c r="B349" s="12" t="s">
@@ -8720,33 +8843,33 @@
       </c>
       <c r="G349" s="12"/>
       <c r="H349" s="18"/>
-      <c r="I349" s="51"/>
+      <c r="I349" s="72"/>
     </row>
     <row r="350" ht="18" customHeight="1" spans="1:9">
-      <c r="A350" s="52">
+      <c r="A350" s="73">
         <v>50</v>
       </c>
-      <c r="B350" s="49" t="s">
+      <c r="B350" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C350" s="58" t="s">
+      <c r="C350" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="58" t="s">
+      <c r="D350" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E350" s="49" t="s">
+      <c r="E350" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="F350" s="49">
+      <c r="F350" s="70">
         <v>3</v>
       </c>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
-      <c r="I350" s="51"/>
+      <c r="I350" s="72"/>
     </row>
     <row r="351" ht="18" customHeight="1" spans="1:9">
-      <c r="A351" s="52">
+      <c r="A351" s="73">
         <v>51</v>
       </c>
       <c r="B351" s="46"/>
@@ -8760,7 +8883,7 @@
       <c r="F351" s="46"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
-      <c r="I351" s="51"/>
+      <c r="I351" s="72"/>
     </row>
     <row r="352" ht="18" customHeight="1" spans="1:9">
       <c r="A352" s="21" t="s">
@@ -8775,7 +8898,7 @@
         <v>34</v>
       </c>
       <c r="H352" s="21"/>
-      <c r="I352" s="51"/>
+      <c r="I352" s="72"/>
     </row>
     <row r="353" ht="18" customHeight="1" spans="1:9">
       <c r="A353" s="21" t="s">
@@ -8790,7 +8913,7 @@
         <v>36</v>
       </c>
       <c r="H353" s="21"/>
-      <c r="I353" s="51"/>
+      <c r="I353" s="72"/>
     </row>
     <row r="354" ht="18" customHeight="1" spans="1:9">
       <c r="A354" s="20" t="s">
@@ -8803,7 +8926,7 @@
       <c r="F354" s="19"/>
       <c r="G354" s="19"/>
       <c r="H354" s="19"/>
-      <c r="I354" s="51"/>
+      <c r="I354" s="72"/>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="19"/>
@@ -8814,7 +8937,7 @@
       <c r="F355" s="19"/>
       <c r="G355" s="19"/>
       <c r="H355" s="19"/>
-      <c r="I355" s="51"/>
+      <c r="I355" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="101">
@@ -8941,10 +9064,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H227"/>
+  <dimension ref="A2:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="H216" sqref="H216"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -12516,8 +12639,1232 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="47"/>
+      <c r="B229" s="47"/>
+      <c r="C229" s="47"/>
+      <c r="D229" s="47"/>
+      <c r="E229" s="47"/>
+      <c r="F229" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G229" s="48"/>
+      <c r="H229" s="48"/>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="47"/>
+      <c r="B230" s="47"/>
+      <c r="C230" s="47"/>
+      <c r="D230" s="47"/>
+      <c r="E230" s="47"/>
+      <c r="F230" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="G230" s="49"/>
+      <c r="H230" s="49"/>
+    </row>
+    <row r="231" ht="21" spans="1:8">
+      <c r="A231" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" s="50"/>
+      <c r="C231" s="50"/>
+      <c r="D231" s="50"/>
+      <c r="E231" s="50"/>
+      <c r="F231" s="50"/>
+      <c r="G231" s="50"/>
+      <c r="H231" s="50"/>
+    </row>
+    <row r="232" ht="19.2" spans="1:8">
+      <c r="A232" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="50"/>
+      <c r="C232" s="50"/>
+      <c r="D232" s="50"/>
+      <c r="E232" s="50"/>
+      <c r="F232" s="50"/>
+      <c r="G232" s="50"/>
+      <c r="H232" s="50"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B233" s="49"/>
+      <c r="C233" s="49"/>
+      <c r="D233" s="49"/>
+      <c r="E233" s="49"/>
+      <c r="F233" s="49"/>
+      <c r="G233" s="49"/>
+      <c r="H233" s="49"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B234" s="49"/>
+      <c r="C234" s="49"/>
+      <c r="D234" s="49"/>
+      <c r="E234" s="49"/>
+      <c r="F234" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="G234" s="49"/>
+      <c r="H234" s="49"/>
+    </row>
+    <row r="235" ht="16.35" spans="1:8">
+      <c r="A235" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B235" s="49"/>
+      <c r="C235" s="49"/>
+      <c r="D235" s="49"/>
+      <c r="E235" s="49"/>
+      <c r="F235" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="G235" s="49"/>
+      <c r="H235" s="49"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F236" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G236" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236" s="54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="55">
+        <v>1</v>
+      </c>
+      <c r="B237" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C237" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="D237" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="E237" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F237" s="56">
+        <v>76</v>
+      </c>
+      <c r="G237" s="56"/>
+      <c r="H237" s="57"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="55">
+        <v>2</v>
+      </c>
+      <c r="B238" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="C238" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="D238" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E238" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F238" s="56">
+        <v>2</v>
+      </c>
+      <c r="G238" s="56"/>
+      <c r="H238" s="57"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="55">
+        <v>3</v>
+      </c>
+      <c r="B239" s="58"/>
+      <c r="C239" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="D239" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E239" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F239" s="56">
+        <v>5</v>
+      </c>
+      <c r="G239" s="56"/>
+      <c r="H239" s="57"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="55">
+        <v>4</v>
+      </c>
+      <c r="B240" s="58"/>
+      <c r="C240" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="D240" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E240" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F240" s="56">
+        <v>1</v>
+      </c>
+      <c r="G240" s="56"/>
+      <c r="H240" s="57"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="55">
+        <v>5</v>
+      </c>
+      <c r="B241" s="58"/>
+      <c r="C241" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="D241" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E241" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F241" s="61">
+        <v>1</v>
+      </c>
+      <c r="G241" s="61"/>
+      <c r="H241" s="62"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="55">
+        <v>6</v>
+      </c>
+      <c r="B242" s="58"/>
+      <c r="C242" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="D242" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E242" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F242" s="61">
+        <v>1</v>
+      </c>
+      <c r="G242" s="61"/>
+      <c r="H242" s="62"/>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="55">
+        <v>7</v>
+      </c>
+      <c r="B243" s="58"/>
+      <c r="C243" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="D243" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E243" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F243" s="61">
+        <v>1</v>
+      </c>
+      <c r="G243" s="61"/>
+      <c r="H243" s="62"/>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="55">
+        <v>8</v>
+      </c>
+      <c r="B244" s="58"/>
+      <c r="C244" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="D244" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E244" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F244" s="61">
+        <v>2</v>
+      </c>
+      <c r="G244" s="61"/>
+      <c r="H244" s="62"/>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="55">
+        <v>9</v>
+      </c>
+      <c r="B245" s="58"/>
+      <c r="C245" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="D245" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E245" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F245" s="61">
+        <v>1</v>
+      </c>
+      <c r="G245" s="61"/>
+      <c r="H245" s="62"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="55">
+        <v>10</v>
+      </c>
+      <c r="B246" s="56"/>
+      <c r="C246" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="D246" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E246" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F246" s="61">
+        <v>1</v>
+      </c>
+      <c r="G246" s="61"/>
+      <c r="H246" s="62"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="55">
+        <v>11</v>
+      </c>
+      <c r="B247" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C247" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D247" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E247" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F247" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G247" s="61"/>
+      <c r="H247" s="62"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="55">
+        <v>12</v>
+      </c>
+      <c r="B248" s="61"/>
+      <c r="C248" s="61"/>
+      <c r="D248" s="61"/>
+      <c r="E248" s="61"/>
+      <c r="F248" s="61"/>
+      <c r="G248" s="61"/>
+      <c r="H248" s="62"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="55">
+        <v>13</v>
+      </c>
+      <c r="B249" s="61"/>
+      <c r="C249" s="61"/>
+      <c r="D249" s="61"/>
+      <c r="E249" s="61"/>
+      <c r="F249" s="61"/>
+      <c r="G249" s="61"/>
+      <c r="H249" s="62"/>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="55">
+        <v>14</v>
+      </c>
+      <c r="B250" s="61"/>
+      <c r="C250" s="61"/>
+      <c r="D250" s="61"/>
+      <c r="E250" s="61"/>
+      <c r="F250" s="61"/>
+      <c r="G250" s="61"/>
+      <c r="H250" s="62"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="55">
+        <v>15</v>
+      </c>
+      <c r="B251" s="61"/>
+      <c r="C251" s="61"/>
+      <c r="D251" s="61"/>
+      <c r="E251" s="61"/>
+      <c r="F251" s="61"/>
+      <c r="G251" s="61"/>
+      <c r="H251" s="62"/>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="55">
+        <v>16</v>
+      </c>
+      <c r="B252" s="61"/>
+      <c r="C252" s="61"/>
+      <c r="D252" s="61"/>
+      <c r="E252" s="61"/>
+      <c r="F252" s="61"/>
+      <c r="G252" s="61"/>
+      <c r="H252" s="62"/>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="55">
+        <v>17</v>
+      </c>
+      <c r="B253" s="61"/>
+      <c r="C253" s="61"/>
+      <c r="D253" s="61"/>
+      <c r="E253" s="61"/>
+      <c r="F253" s="61"/>
+      <c r="G253" s="61"/>
+      <c r="H253" s="62"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="55">
+        <v>18</v>
+      </c>
+      <c r="B254" s="61"/>
+      <c r="C254" s="61"/>
+      <c r="D254" s="61"/>
+      <c r="E254" s="61"/>
+      <c r="F254" s="61"/>
+      <c r="G254" s="61"/>
+      <c r="H254" s="62"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="55">
+        <v>19</v>
+      </c>
+      <c r="B255" s="61"/>
+      <c r="C255" s="61"/>
+      <c r="D255" s="61"/>
+      <c r="E255" s="61"/>
+      <c r="F255" s="61"/>
+      <c r="G255" s="61"/>
+      <c r="H255" s="62"/>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="55">
+        <v>20</v>
+      </c>
+      <c r="B256" s="61"/>
+      <c r="C256" s="61"/>
+      <c r="D256" s="61"/>
+      <c r="E256" s="61"/>
+      <c r="F256" s="61"/>
+      <c r="G256" s="61"/>
+      <c r="H256" s="62"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="55">
+        <v>21</v>
+      </c>
+      <c r="B257" s="61"/>
+      <c r="C257" s="61"/>
+      <c r="D257" s="61"/>
+      <c r="E257" s="61"/>
+      <c r="F257" s="61"/>
+      <c r="G257" s="61"/>
+      <c r="H257" s="62"/>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="55">
+        <v>22</v>
+      </c>
+      <c r="B258" s="61"/>
+      <c r="C258" s="61"/>
+      <c r="D258" s="61"/>
+      <c r="E258" s="61"/>
+      <c r="F258" s="61"/>
+      <c r="G258" s="61"/>
+      <c r="H258" s="62"/>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="55">
+        <v>23</v>
+      </c>
+      <c r="B259" s="61"/>
+      <c r="C259" s="61"/>
+      <c r="D259" s="61"/>
+      <c r="E259" s="61"/>
+      <c r="F259" s="61"/>
+      <c r="G259" s="61"/>
+      <c r="H259" s="62"/>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="55">
+        <v>24</v>
+      </c>
+      <c r="B260" s="61"/>
+      <c r="C260" s="61"/>
+      <c r="D260" s="61"/>
+      <c r="E260" s="61"/>
+      <c r="F260" s="61"/>
+      <c r="G260" s="61"/>
+      <c r="H260" s="62"/>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="55">
+        <v>25</v>
+      </c>
+      <c r="B261" s="61"/>
+      <c r="C261" s="61"/>
+      <c r="D261" s="61"/>
+      <c r="E261" s="61"/>
+      <c r="F261" s="61"/>
+      <c r="G261" s="61"/>
+      <c r="H261" s="62"/>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="55">
+        <v>26</v>
+      </c>
+      <c r="B262" s="61"/>
+      <c r="C262" s="61"/>
+      <c r="D262" s="61"/>
+      <c r="E262" s="61"/>
+      <c r="F262" s="61"/>
+      <c r="G262" s="61"/>
+      <c r="H262" s="62"/>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B263" s="49"/>
+      <c r="C263" s="49"/>
+      <c r="D263" s="49"/>
+      <c r="E263" s="49"/>
+      <c r="F263" s="49"/>
+      <c r="G263" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H263" s="49"/>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B264" s="49"/>
+      <c r="C264" s="49"/>
+      <c r="D264" s="49"/>
+      <c r="E264" s="49"/>
+      <c r="F264" s="49"/>
+      <c r="G264" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H264" s="49"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B265" s="47"/>
+      <c r="C265" s="47"/>
+      <c r="D265" s="47"/>
+      <c r="E265" s="47"/>
+      <c r="F265" s="47"/>
+      <c r="G265" s="47"/>
+      <c r="H265" s="47"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="47"/>
+      <c r="B267" s="47"/>
+      <c r="C267" s="47"/>
+      <c r="D267" s="47"/>
+      <c r="E267" s="47"/>
+      <c r="F267" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="G267" s="48"/>
+      <c r="H267" s="48"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="47"/>
+      <c r="B268" s="47"/>
+      <c r="C268" s="47"/>
+      <c r="D268" s="47"/>
+      <c r="E268" s="47"/>
+      <c r="F268" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="G268" s="49"/>
+      <c r="H268" s="49"/>
+    </row>
+    <row r="269" ht="21" spans="1:8">
+      <c r="A269" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="50"/>
+      <c r="C269" s="50"/>
+      <c r="D269" s="50"/>
+      <c r="E269" s="50"/>
+      <c r="F269" s="50"/>
+      <c r="G269" s="50"/>
+      <c r="H269" s="50"/>
+    </row>
+    <row r="270" ht="19.2" spans="1:8">
+      <c r="A270" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B270" s="50"/>
+      <c r="C270" s="50"/>
+      <c r="D270" s="50"/>
+      <c r="E270" s="50"/>
+      <c r="F270" s="50"/>
+      <c r="G270" s="50"/>
+      <c r="H270" s="50"/>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B271" s="49"/>
+      <c r="C271" s="49"/>
+      <c r="D271" s="49"/>
+      <c r="E271" s="49"/>
+      <c r="F271" s="49"/>
+      <c r="G271" s="49"/>
+      <c r="H271" s="49"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B272" s="49"/>
+      <c r="C272" s="49"/>
+      <c r="D272" s="49"/>
+      <c r="E272" s="49"/>
+      <c r="F272" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="G272" s="49"/>
+      <c r="H272" s="49"/>
+    </row>
+    <row r="273" ht="16.35" spans="1:8">
+      <c r="A273" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B273" s="49"/>
+      <c r="C273" s="49"/>
+      <c r="D273" s="49"/>
+      <c r="E273" s="49"/>
+      <c r="F273" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="G273" s="49"/>
+      <c r="H273" s="49"/>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H274" s="54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="55">
+        <v>1</v>
+      </c>
+      <c r="B275" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C275" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="D275" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="E275" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F275" s="64">
+        <v>3</v>
+      </c>
+      <c r="G275" s="43">
+        <v>1368.7</v>
+      </c>
+      <c r="H275" s="57">
+        <f t="shared" ref="H275:H286" si="1">G275*F275</f>
+        <v>4106.1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="55">
+        <v>2</v>
+      </c>
+      <c r="B276" s="56"/>
+      <c r="C276" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D276" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="E276" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F276" s="65">
+        <v>1</v>
+      </c>
+      <c r="G276" s="43">
+        <v>850.5</v>
+      </c>
+      <c r="H276" s="57">
+        <f t="shared" si="1"/>
+        <v>850.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="55">
+        <v>3</v>
+      </c>
+      <c r="B277" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C277" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D277" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E277" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F277" s="64">
+        <v>4</v>
+      </c>
+      <c r="G277" s="43">
+        <v>1092.1</v>
+      </c>
+      <c r="H277" s="57">
+        <f t="shared" si="1"/>
+        <v>4368.4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="55">
+        <v>4</v>
+      </c>
+      <c r="B278" s="58"/>
+      <c r="C278" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="D278" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E278" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F278" s="64">
+        <v>1</v>
+      </c>
+      <c r="G278" s="43">
+        <v>1096.8</v>
+      </c>
+      <c r="H278" s="57">
+        <f t="shared" si="1"/>
+        <v>1096.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="55">
+        <v>5</v>
+      </c>
+      <c r="B279" s="58"/>
+      <c r="C279" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="D279" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E279" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F279" s="64">
+        <v>1</v>
+      </c>
+      <c r="G279" s="43">
+        <v>1096.8</v>
+      </c>
+      <c r="H279" s="57">
+        <f t="shared" si="1"/>
+        <v>1096.8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="55">
+        <v>6</v>
+      </c>
+      <c r="B280" s="58"/>
+      <c r="C280" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="D280" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E280" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F280" s="61">
+        <v>1</v>
+      </c>
+      <c r="G280" s="43">
+        <v>1097.4</v>
+      </c>
+      <c r="H280" s="57">
+        <f t="shared" si="1"/>
+        <v>1097.4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="55">
+        <v>7</v>
+      </c>
+      <c r="B281" s="58"/>
+      <c r="C281" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="D281" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E281" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F281" s="61">
+        <v>1</v>
+      </c>
+      <c r="G281" s="43">
+        <v>1095.3</v>
+      </c>
+      <c r="H281" s="57">
+        <f t="shared" si="1"/>
+        <v>1095.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="55">
+        <v>8</v>
+      </c>
+      <c r="B282" s="58"/>
+      <c r="C282" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D282" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E282" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F282" s="61">
+        <v>4</v>
+      </c>
+      <c r="G282" s="43">
+        <v>1092.1</v>
+      </c>
+      <c r="H282" s="57">
+        <f t="shared" si="1"/>
+        <v>4368.4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="55">
+        <v>9</v>
+      </c>
+      <c r="B283" s="58"/>
+      <c r="C283" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="D283" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E283" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F283" s="61">
+        <v>1</v>
+      </c>
+      <c r="G283" s="43">
+        <v>1096.8</v>
+      </c>
+      <c r="H283" s="57">
+        <f t="shared" si="1"/>
+        <v>1096.8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="55">
+        <v>10</v>
+      </c>
+      <c r="B284" s="58"/>
+      <c r="C284" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="D284" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E284" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F284" s="61">
+        <v>1</v>
+      </c>
+      <c r="G284" s="43">
+        <v>1096.8</v>
+      </c>
+      <c r="H284" s="57">
+        <f t="shared" si="1"/>
+        <v>1096.8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="55">
+        <v>11</v>
+      </c>
+      <c r="B285" s="58"/>
+      <c r="C285" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="D285" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E285" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F285" s="61">
+        <v>1</v>
+      </c>
+      <c r="G285" s="43">
+        <v>1097.4</v>
+      </c>
+      <c r="H285" s="57">
+        <f t="shared" si="1"/>
+        <v>1097.4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="55">
+        <v>12</v>
+      </c>
+      <c r="B286" s="56"/>
+      <c r="C286" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="D286" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E286" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F286" s="61">
+        <v>1</v>
+      </c>
+      <c r="G286" s="43">
+        <v>1095.3</v>
+      </c>
+      <c r="H286" s="57">
+        <f t="shared" si="1"/>
+        <v>1095.3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="55">
+        <v>13</v>
+      </c>
+      <c r="B287" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="C287" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="D287" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="E287" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F287" s="61">
+        <v>36</v>
+      </c>
+      <c r="G287" s="61"/>
+      <c r="H287" s="62"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="55">
+        <v>14</v>
+      </c>
+      <c r="B288" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="C288" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="D288" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E288" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F288" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G288" s="61"/>
+      <c r="H288" s="62"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="55">
+        <v>15</v>
+      </c>
+      <c r="B289" s="67"/>
+      <c r="C289" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="D289" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E289" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F289" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G289" s="61"/>
+      <c r="H289" s="62"/>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="55">
+        <v>16</v>
+      </c>
+      <c r="B290" s="61"/>
+      <c r="C290" s="61"/>
+      <c r="D290" s="61"/>
+      <c r="E290" s="61"/>
+      <c r="F290" s="61"/>
+      <c r="G290" s="61"/>
+      <c r="H290" s="62"/>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="55">
+        <v>17</v>
+      </c>
+      <c r="B291" s="61"/>
+      <c r="C291" s="61"/>
+      <c r="D291" s="61"/>
+      <c r="E291" s="61"/>
+      <c r="F291" s="61"/>
+      <c r="G291" s="61"/>
+      <c r="H291" s="62"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="55">
+        <v>18</v>
+      </c>
+      <c r="B292" s="61"/>
+      <c r="C292" s="61"/>
+      <c r="D292" s="61"/>
+      <c r="E292" s="61"/>
+      <c r="F292" s="61"/>
+      <c r="G292" s="61"/>
+      <c r="H292" s="62"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="55">
+        <v>19</v>
+      </c>
+      <c r="B293" s="61"/>
+      <c r="C293" s="61"/>
+      <c r="D293" s="61"/>
+      <c r="E293" s="61"/>
+      <c r="F293" s="61"/>
+      <c r="G293" s="61"/>
+      <c r="H293" s="62"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="55">
+        <v>20</v>
+      </c>
+      <c r="B294" s="61"/>
+      <c r="C294" s="61"/>
+      <c r="D294" s="61"/>
+      <c r="E294" s="61"/>
+      <c r="F294" s="61"/>
+      <c r="G294" s="61"/>
+      <c r="H294" s="62"/>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="55">
+        <v>21</v>
+      </c>
+      <c r="B295" s="61"/>
+      <c r="C295" s="61"/>
+      <c r="D295" s="61"/>
+      <c r="E295" s="61"/>
+      <c r="F295" s="61"/>
+      <c r="G295" s="61"/>
+      <c r="H295" s="62"/>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="55">
+        <v>22</v>
+      </c>
+      <c r="B296" s="61"/>
+      <c r="C296" s="61"/>
+      <c r="D296" s="61"/>
+      <c r="E296" s="61"/>
+      <c r="F296" s="61"/>
+      <c r="G296" s="61"/>
+      <c r="H296" s="62"/>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="55">
+        <v>23</v>
+      </c>
+      <c r="B297" s="61"/>
+      <c r="C297" s="61"/>
+      <c r="D297" s="61"/>
+      <c r="E297" s="61"/>
+      <c r="F297" s="61"/>
+      <c r="G297" s="61"/>
+      <c r="H297" s="62"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="55">
+        <v>24</v>
+      </c>
+      <c r="B298" s="61"/>
+      <c r="C298" s="61"/>
+      <c r="D298" s="61"/>
+      <c r="E298" s="61"/>
+      <c r="F298" s="61"/>
+      <c r="G298" s="61"/>
+      <c r="H298" s="62"/>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="55">
+        <v>25</v>
+      </c>
+      <c r="B299" s="61"/>
+      <c r="C299" s="61"/>
+      <c r="D299" s="61"/>
+      <c r="E299" s="61"/>
+      <c r="F299" s="61"/>
+      <c r="G299" s="61"/>
+      <c r="H299" s="62"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="55">
+        <v>26</v>
+      </c>
+      <c r="B300" s="61"/>
+      <c r="C300" s="61"/>
+      <c r="D300" s="61"/>
+      <c r="E300" s="61"/>
+      <c r="F300" s="61"/>
+      <c r="G300" s="61"/>
+      <c r="H300" s="62"/>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B301" s="49"/>
+      <c r="C301" s="49"/>
+      <c r="D301" s="49"/>
+      <c r="E301" s="49"/>
+      <c r="F301" s="49"/>
+      <c r="G301" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H301" s="49"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B302" s="49"/>
+      <c r="C302" s="49"/>
+      <c r="D302" s="49"/>
+      <c r="E302" s="49"/>
+      <c r="F302" s="49"/>
+      <c r="G302" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H302" s="49"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B303" s="47"/>
+      <c r="C303" s="47"/>
+      <c r="D303" s="47"/>
+      <c r="E303" s="47"/>
+      <c r="F303" s="47"/>
+      <c r="G303" s="47"/>
+      <c r="H303" s="47"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="47"/>
+      <c r="B304" s="47"/>
+      <c r="C304" s="47"/>
+      <c r="D304" s="47"/>
+      <c r="E304" s="47"/>
+      <c r="F304" s="47"/>
+      <c r="G304" s="47"/>
+      <c r="H304" s="47"/>
+    </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="113">
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -12585,6 +13932,30 @@
     <mergeCell ref="A225:C225"/>
     <mergeCell ref="A226:C226"/>
     <mergeCell ref="A227:C227"/>
+    <mergeCell ref="F229:H229"/>
+    <mergeCell ref="F230:H230"/>
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="A232:H232"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="F234:H234"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="F235:H235"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="F267:H267"/>
+    <mergeCell ref="F268:H268"/>
+    <mergeCell ref="A269:H269"/>
+    <mergeCell ref="A270:H270"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="F272:H272"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="F273:H273"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B48:B59"/>
     <mergeCell ref="B60:B64"/>
@@ -12597,6 +13968,10 @@
     <mergeCell ref="B207:B208"/>
     <mergeCell ref="B209:B211"/>
     <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B238:B246"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B277:B286"/>
+    <mergeCell ref="B288:B289"/>
     <mergeCell ref="C86:C90"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G48:G49"/>
@@ -12637,7 +14012,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -12649,7 +14024,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -12680,7 +14055,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -12692,7 +14067,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -12706,7 +14081,7 @@
     </row>
     <row r="7" ht="16.35" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -12752,10 +14127,10 @@
         <v>146</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>43</v>
